--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="167">
   <si>
     <t>استان</t>
   </si>
@@ -517,12 +517,126 @@
   <si>
     <t>بصورت کمبو باکس برا همه وارد میشه</t>
   </si>
+  <si>
+    <t>code_form</t>
+  </si>
+  <si>
+    <t>name_trance</t>
+  </si>
+  <si>
+    <t>نام ترانس</t>
+  </si>
+  <si>
+    <t>name_kharkhane_sazandeh</t>
+  </si>
+  <si>
+    <t>shomare_serial</t>
+  </si>
+  <si>
+    <t>core1</t>
+  </si>
+  <si>
+    <t>core2</t>
+  </si>
+  <si>
+    <t>core3</t>
+  </si>
+  <si>
+    <t>هسته ی 1</t>
+  </si>
+  <si>
+    <t>هسته ی 2</t>
+  </si>
+  <si>
+    <t>هسته ی 3</t>
+  </si>
+  <si>
+    <t>core4</t>
+  </si>
+  <si>
+    <t>core5</t>
+  </si>
+  <si>
+    <t>core6</t>
+  </si>
+  <si>
+    <t>هسته ی 4</t>
+  </si>
+  <si>
+    <t>هسته ی 5</t>
+  </si>
+  <si>
+    <t>هسته ی 6</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>qestion</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>نوع دیتا تایپ</t>
+  </si>
+  <si>
+    <t>هسته 1</t>
+  </si>
+  <si>
+    <t>هسته 2</t>
+  </si>
+  <si>
+    <t>هسته 3</t>
+  </si>
+  <si>
+    <t>هسته 4</t>
+  </si>
+  <si>
+    <t>هسته 5</t>
+  </si>
+  <si>
+    <t>هسته 6</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>azmayesh_polarite_6ya12_volt</t>
+  </si>
+  <si>
+    <t>ثانویه با زمین(500) ولت</t>
+  </si>
+  <si>
+    <t>آزمایش اولیه با هر یک از سیم پیچ های ثانویه و زمین   (5000) ولت</t>
+  </si>
+  <si>
+    <t>مقدار درست یا نادرست</t>
+  </si>
+  <si>
+    <t>ip1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>is 1</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>core 1</t>
+  </si>
+  <si>
+    <t>تزریق حداقل 10% جریان نامی</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,8 +725,85 @@
       <name val="B Nazanin"/>
       <charset val="178"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +831,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +973,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,6 +1065,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,7 +1122,64 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2384,13 +2647,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>60613</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>164524</xdr:rowOff>
@@ -2450,13 +2713,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>355022</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>25977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>528205</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>147205</xdr:rowOff>
@@ -6482,15 +6745,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -7357,15 +7620,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -7461,7 +7724,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="38" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="2"/>
@@ -7476,7 +7739,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="36"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -7491,7 +7754,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -7504,7 +7767,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="41" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="2"/>
@@ -7519,7 +7782,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="39"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -7532,7 +7795,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="39"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -7545,7 +7808,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="39"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -7558,7 +7821,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -7573,7 +7836,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="41" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="2"/>
@@ -7588,7 +7851,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="39"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
@@ -7598,7 +7861,7 @@
         <v>23</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="39"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
@@ -7608,7 +7871,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="39"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
@@ -7620,7 +7883,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
@@ -7632,7 +7895,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="41" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7646,7 +7909,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="39"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
@@ -7658,7 +7921,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="39"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
@@ -7670,7 +7933,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="39"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -7682,7 +7945,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="40"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
@@ -7694,10 +7957,10 @@
         <v>26</v>
       </c>
       <c r="F28" s="13"/>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="44" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7711,8 +7974,8 @@
         <v>27</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="42"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -7724,10 +7987,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="42"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
@@ -7739,8 +8002,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="42"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
@@ -7752,10 +8015,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="42"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
@@ -7767,8 +8030,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="43"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
@@ -7780,10 +8043,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="44" t="s">
+      <c r="G34" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="H34" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7797,8 +8060,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="42"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="45"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
@@ -7810,10 +8073,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="42"/>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
@@ -7825,8 +8088,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="42"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
@@ -7838,10 +8101,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="42"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
@@ -7853,8 +8116,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="43"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
@@ -8489,15 +8752,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -9364,15 +9627,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -10239,15 +10502,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11114,15 +11377,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11989,15 +12252,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12864,15 +13127,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -13739,15 +14002,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -14614,15 +14877,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15448,18 +15711,18 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14" style="17" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
@@ -15490,15 +15753,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15608,7 +15871,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="38" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="2"/>
@@ -15623,7 +15886,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="36"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -15638,7 +15901,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -15651,7 +15914,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="41" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="2"/>
@@ -15666,7 +15929,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="39"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -15679,7 +15942,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="39"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -15692,7 +15955,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="39"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -15705,76 +15968,76 @@
         <v>25</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="40"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="31" t="s">
         <v>128</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="41" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="39"/>
-    </row>
-    <row r="21" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="39"/>
-    </row>
-    <row r="22" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D23" s="10"/>
@@ -15782,13 +16045,13 @@
         <v>25</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="43"/>
+    </row>
+    <row r="24" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D24" s="2"/>
@@ -15796,15 +16059,15 @@
         <v>4</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D25" s="2"/>
@@ -15812,13 +16075,13 @@
         <v>22</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D26" s="2"/>
@@ -15826,13 +16089,13 @@
         <v>23</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D27" s="2"/>
@@ -15840,13 +16103,13 @@
         <v>24</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D28" s="10"/>
@@ -15854,7 +16117,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="40"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
@@ -15866,10 +16129,10 @@
         <v>26</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="44" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15883,8 +16146,8 @@
         <v>27</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="42"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
@@ -15896,10 +16159,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="42"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
@@ -15911,8 +16174,8 @@
         <v>27</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="42"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
@@ -15924,10 +16187,10 @@
         <v>26</v>
       </c>
       <c r="F33" s="13"/>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="42"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
@@ -15939,8 +16202,8 @@
         <v>27</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="43"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
@@ -15952,10 +16215,10 @@
         <v>26</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="44" t="s">
+      <c r="G35" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="42" t="s">
+      <c r="H35" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -15969,8 +16232,8 @@
         <v>27</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="42"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
@@ -15982,10 +16245,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="13"/>
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="42"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
@@ -15997,8 +16260,8 @@
         <v>27</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="42"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
@@ -16010,10 +16273,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="42"/>
+      <c r="H39" s="45"/>
     </row>
     <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
@@ -16025,8 +16288,8 @@
         <v>27</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="43"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
@@ -16661,15 +16924,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -17584,15 +17847,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -18459,15 +18722,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -19334,15 +19597,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20209,15 +20472,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21084,15 +21347,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21959,15 +22222,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22834,15 +23097,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23672,15 +23935,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -24547,15 +24810,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -25378,868 +25641,547 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J166"/>
+  <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="5" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="38.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="20" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="50" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="H3" s="2"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="2:11" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="55"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="52"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="52"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="52"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="55"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="55"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="61"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>126</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>131</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>23</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>159</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="56"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="56"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="56"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="53"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="53"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="53"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="53"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="69"/>
+      <c r="F32" s="67"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="69"/>
+      <c r="F33" s="67"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G22:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26293,15 +26235,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27168,15 +27110,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28043,15 +27985,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28918,15 +28860,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29793,15 +29735,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30668,15 +30610,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31543,15 +31485,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32418,15 +32360,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33293,15 +33235,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34168,15 +34110,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35043,15 +34985,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35918,15 +35860,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -36793,15 +36735,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37668,15 +37610,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38543,15 +38485,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="167">
   <si>
     <t>استان</t>
   </si>
@@ -517,12 +517,126 @@
   <si>
     <t>بصورت کمبو باکس برا همه وارد میشه</t>
   </si>
+  <si>
+    <t>code_form</t>
+  </si>
+  <si>
+    <t>name_trance</t>
+  </si>
+  <si>
+    <t>نام ترانس</t>
+  </si>
+  <si>
+    <t>name_kharkhane_sazandeh</t>
+  </si>
+  <si>
+    <t>shomare_serial</t>
+  </si>
+  <si>
+    <t>core1</t>
+  </si>
+  <si>
+    <t>core2</t>
+  </si>
+  <si>
+    <t>core3</t>
+  </si>
+  <si>
+    <t>هسته ی 1</t>
+  </si>
+  <si>
+    <t>هسته ی 2</t>
+  </si>
+  <si>
+    <t>هسته ی 3</t>
+  </si>
+  <si>
+    <t>core4</t>
+  </si>
+  <si>
+    <t>core5</t>
+  </si>
+  <si>
+    <t>core6</t>
+  </si>
+  <si>
+    <t>هسته ی 4</t>
+  </si>
+  <si>
+    <t>هسته ی 5</t>
+  </si>
+  <si>
+    <t>هسته ی 6</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>qestion</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>نوع دیتا تایپ</t>
+  </si>
+  <si>
+    <t>هسته 1</t>
+  </si>
+  <si>
+    <t>هسته 2</t>
+  </si>
+  <si>
+    <t>هسته 3</t>
+  </si>
+  <si>
+    <t>هسته 4</t>
+  </si>
+  <si>
+    <t>هسته 5</t>
+  </si>
+  <si>
+    <t>هسته 6</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>azmayesh_polarite_6ya12_volt</t>
+  </si>
+  <si>
+    <t>ثانویه با زمین(500) ولت</t>
+  </si>
+  <si>
+    <t>آزمایش اولیه با هر یک از سیم پیچ های ثانویه و زمین   (5000) ولت</t>
+  </si>
+  <si>
+    <t>مقدار درست یا نادرست</t>
+  </si>
+  <si>
+    <t>ip1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>is 1</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>core 1</t>
+  </si>
+  <si>
+    <t>تزریق حداقل 10% جریان نامی</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,8 +725,85 @@
       <name val="B Nazanin"/>
       <charset val="178"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +831,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +973,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,25 +1065,58 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -916,7 +1146,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2384,13 +2647,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>60613</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>164524</xdr:rowOff>
@@ -2450,13 +2713,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>355022</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>25977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>528205</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>147205</xdr:rowOff>
@@ -6482,15 +6745,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -7357,15 +7620,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -7461,7 +7724,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="62" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="2"/>
@@ -7476,7 +7739,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="36"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -7491,7 +7754,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -7504,7 +7767,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="49" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="2"/>
@@ -7519,7 +7782,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="39"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -7532,7 +7795,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="39"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -7545,7 +7808,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="39"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -7558,7 +7821,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -7573,7 +7836,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="49" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="2"/>
@@ -7588,7 +7851,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="39"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
@@ -7598,7 +7861,7 @@
         <v>23</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="39"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
@@ -7608,7 +7871,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="39"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
@@ -7620,7 +7883,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
@@ -7632,7 +7895,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="49" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7646,7 +7909,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="39"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
@@ -7658,7 +7921,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="39"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
@@ -7670,7 +7933,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="39"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -7682,7 +7945,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="40"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
@@ -7694,10 +7957,10 @@
         <v>26</v>
       </c>
       <c r="F28" s="13"/>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="52" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7711,8 +7974,8 @@
         <v>27</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="42"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="53"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -7724,10 +7987,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="42"/>
+      <c r="H30" s="53"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
@@ -7739,8 +8002,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="42"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="53"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
@@ -7752,10 +8015,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="42"/>
+      <c r="H32" s="53"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
@@ -7767,8 +8030,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="43"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
@@ -7780,10 +8043,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="44" t="s">
+      <c r="G34" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="H34" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7797,8 +8060,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="42"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
@@ -7810,10 +8073,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="42"/>
+      <c r="H36" s="53"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
@@ -7825,8 +8088,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="42"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="53"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
@@ -7838,10 +8101,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="42"/>
+      <c r="H38" s="53"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
@@ -7853,8 +8116,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="43"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="54"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
@@ -8422,12 +8685,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="G18:G22"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H33"/>
     <mergeCell ref="G30:G31"/>
@@ -8436,6 +8693,12 @@
     <mergeCell ref="H34:H39"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8489,15 +8752,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -9364,15 +9627,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -10239,15 +10502,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11114,15 +11377,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11989,15 +12252,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12864,15 +13127,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -13739,15 +14002,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -14614,15 +14877,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15448,18 +15711,18 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14" style="17" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
@@ -15490,15 +15753,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15608,7 +15871,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="62" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="2"/>
@@ -15623,7 +15886,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="36"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -15638,7 +15901,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -15651,7 +15914,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="49" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="2"/>
@@ -15666,7 +15929,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="39"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -15679,7 +15942,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="39"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -15692,7 +15955,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="39"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -15705,76 +15968,76 @@
         <v>25</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="40"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="31" t="s">
         <v>128</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="49" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="39"/>
-    </row>
-    <row r="21" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="39"/>
-    </row>
-    <row r="22" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="50"/>
+    </row>
+    <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D23" s="10"/>
@@ -15782,13 +16045,13 @@
         <v>25</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="51"/>
+    </row>
+    <row r="24" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D24" s="2"/>
@@ -15796,15 +16059,15 @@
         <v>4</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D25" s="2"/>
@@ -15812,13 +16075,13 @@
         <v>22</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="50"/>
+    </row>
+    <row r="26" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D26" s="2"/>
@@ -15826,13 +16089,13 @@
         <v>23</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="50"/>
+    </row>
+    <row r="27" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D27" s="2"/>
@@ -15840,13 +16103,13 @@
         <v>24</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D28" s="10"/>
@@ -15854,7 +16117,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="40"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
@@ -15866,10 +16129,10 @@
         <v>26</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="52" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15883,8 +16146,8 @@
         <v>27</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="42"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="53"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
@@ -15896,10 +16159,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="42"/>
+      <c r="H31" s="53"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
@@ -15911,8 +16174,8 @@
         <v>27</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="42"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="53"/>
     </row>
     <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
@@ -15924,10 +16187,10 @@
         <v>26</v>
       </c>
       <c r="F33" s="13"/>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="42"/>
+      <c r="H33" s="53"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
@@ -15939,8 +16202,8 @@
         <v>27</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="43"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="54"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
@@ -15952,10 +16215,10 @@
         <v>26</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="44" t="s">
+      <c r="G35" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="42" t="s">
+      <c r="H35" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -15969,8 +16232,8 @@
         <v>27</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="42"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="53"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
@@ -15982,10 +16245,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="13"/>
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="42"/>
+      <c r="H37" s="53"/>
     </row>
     <row r="38" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
@@ -15997,8 +16260,8 @@
         <v>27</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="42"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="53"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
@@ -16010,10 +16273,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="42"/>
+      <c r="H39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
@@ -16025,8 +16288,8 @@
         <v>27</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="43"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="54"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
@@ -16594,6 +16857,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
     <mergeCell ref="G24:G28"/>
     <mergeCell ref="H29:H34"/>
     <mergeCell ref="H35:H40"/>
@@ -16603,11 +16871,6 @@
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16661,15 +16924,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -17584,15 +17847,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -18459,15 +18722,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -19334,15 +19597,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20209,15 +20472,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21084,15 +21347,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21959,15 +22222,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22834,15 +23097,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23672,15 +23935,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -24547,15 +24810,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -25378,868 +25641,547 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J166"/>
+  <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="5" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="38.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="H3" s="2"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="2:11" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="38"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="36"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="36"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="36"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="38"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="38"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="43"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>126</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>131</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>23</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>159</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="69"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="69"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="69"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="69"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="69"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="68"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="68"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="68"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G22:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26293,15 +26235,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27168,15 +27110,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28043,15 +27985,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28918,15 +28860,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29793,15 +29735,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30668,15 +30610,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31543,15 +31485,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32418,15 +32360,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33293,15 +33235,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34168,15 +34110,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35043,15 +34985,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35918,15 +35860,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -36793,15 +36735,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37668,15 +37610,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38543,15 +38485,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="186">
   <si>
     <t>استان</t>
   </si>
@@ -554,12 +554,6 @@
     <t>core4</t>
   </si>
   <si>
-    <t>core5</t>
-  </si>
-  <si>
-    <t>core6</t>
-  </si>
-  <si>
     <t>هسته ی 4</t>
   </si>
   <si>
@@ -605,12 +599,6 @@
     <t>azmayesh_polarite_6ya12_volt</t>
   </si>
   <si>
-    <t>ثانویه با زمین(500) ولت</t>
-  </si>
-  <si>
-    <t>آزمایش اولیه با هر یک از سیم پیچ های ثانویه و زمین   (5000) ولت</t>
-  </si>
-  <si>
     <t>مقدار درست یا نادرست</t>
   </si>
   <si>
@@ -626,17 +614,131 @@
     <t>ratio</t>
   </si>
   <si>
-    <t>core 1</t>
+    <t>تزریق حداقل 10% جریان نامی</t>
   </si>
   <si>
-    <t>تزریق حداقل 10% جریان نامی</t>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>آزمایش عایق:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                     آزمایش اولیه با هر یک از سیم پیچ های ثانویه و زمین   (5000) ولت</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   آزملیش عایق:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                         آزمایش ثانویه با زمین(500) ولت</t>
+    </r>
+  </si>
+  <si>
+    <t>core1_5000</t>
+  </si>
+  <si>
+    <t>core2_5000</t>
+  </si>
+  <si>
+    <t>core3_5000</t>
+  </si>
+  <si>
+    <t>core4_5000</t>
+  </si>
+  <si>
+    <t>core5_5000</t>
+  </si>
+  <si>
+    <t>core6_5000</t>
+  </si>
+  <si>
+    <t>core1_500</t>
+  </si>
+  <si>
+    <t>core2_500</t>
+  </si>
+  <si>
+    <t>core3_500</t>
+  </si>
+  <si>
+    <t>core4_500</t>
+  </si>
+  <si>
+    <t>core5_500</t>
+  </si>
+  <si>
+    <t>core6_500</t>
+  </si>
+  <si>
+    <t>ip2</t>
+  </si>
+  <si>
+    <t>is2</t>
+  </si>
+  <si>
+    <t>ratio2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ip3</t>
+  </si>
+  <si>
+    <t>is3</t>
+  </si>
+  <si>
+    <t>ratio3</t>
+  </si>
+  <si>
+    <t>is4</t>
+  </si>
+  <si>
+    <t>ip4</t>
+  </si>
+  <si>
+    <t>ratio4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +902,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -973,7 +1083,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1101,9 +1211,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,6 +1224,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,34 +1283,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,6 +1291,18 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6745,15 +6867,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -7620,15 +7742,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -7724,7 +7846,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="55" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="2"/>
@@ -7739,7 +7861,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="63"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -7754,7 +7876,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="64"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -7767,7 +7889,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="58" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="2"/>
@@ -7782,7 +7904,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="50"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -7795,7 +7917,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="50"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -7808,7 +7930,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="50"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -7821,7 +7943,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="51"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -7836,7 +7958,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="2"/>
@@ -7851,7 +7973,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="50"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
@@ -7861,7 +7983,7 @@
         <v>23</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="50"/>
+      <c r="G20" s="59"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
@@ -7871,7 +7993,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="50"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
@@ -7883,7 +8005,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="51"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
@@ -7895,7 +8017,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="58" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7909,7 +8031,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="50"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
@@ -7921,7 +8043,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="50"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
@@ -7933,7 +8055,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -7945,7 +8067,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="51"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
@@ -7957,10 +8079,10 @@
         <v>26</v>
       </c>
       <c r="F28" s="13"/>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="61" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7974,8 +8096,8 @@
         <v>27</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="53"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -7987,10 +8109,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="53"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
@@ -8002,8 +8124,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="53"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
@@ -8015,10 +8137,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="53"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
@@ -8030,8 +8152,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="54"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="63"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
@@ -8043,10 +8165,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="62" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8060,8 +8182,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="53"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
@@ -8073,10 +8195,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="53"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
@@ -8088,8 +8210,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="53"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
@@ -8101,10 +8223,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="56" t="s">
+      <c r="G38" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="53"/>
+      <c r="H38" s="62"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
@@ -8116,8 +8238,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="54"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="63"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
@@ -8685,6 +8807,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G22"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H33"/>
     <mergeCell ref="G30:G31"/>
@@ -8693,12 +8821,6 @@
     <mergeCell ref="H34:H39"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="G18:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8752,15 +8874,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -9627,15 +9749,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -10502,15 +10624,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11377,15 +11499,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12252,15 +12374,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -13127,15 +13249,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -14002,15 +14124,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -14877,15 +14999,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15753,15 +15875,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15871,7 +15993,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="55" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="2"/>
@@ -15886,7 +16008,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="63"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -15901,7 +16023,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="64"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -15914,7 +16036,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="58" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="2"/>
@@ -15929,7 +16051,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="50"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -15942,7 +16064,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="50"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -15955,7 +16077,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -15968,7 +16090,7 @@
         <v>25</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="51"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -15987,7 +16109,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="2"/>
@@ -16005,7 +16127,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="50"/>
+      <c r="G20" s="59"/>
     </row>
     <row r="21" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
@@ -16018,7 +16140,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="50"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
@@ -16031,7 +16153,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="50"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
@@ -16045,7 +16167,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="51"/>
+      <c r="G23" s="60"/>
     </row>
     <row r="24" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
@@ -16059,7 +16181,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="58" t="s">
         <v>59</v>
       </c>
     </row>
@@ -16075,7 +16197,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="50"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
@@ -16089,7 +16211,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -16103,7 +16225,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="50"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
@@ -16117,7 +16239,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="51"/>
+      <c r="G28" s="60"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
@@ -16129,10 +16251,10 @@
         <v>26</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="61" t="s">
         <v>28</v>
       </c>
     </row>
@@ -16146,8 +16268,8 @@
         <v>27</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="53"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
@@ -16159,10 +16281,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="53"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
@@ -16174,8 +16296,8 @@
         <v>27</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="53"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
@@ -16187,10 +16309,10 @@
         <v>26</v>
       </c>
       <c r="F33" s="13"/>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="53"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
@@ -16202,8 +16324,8 @@
         <v>27</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="54"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
@@ -16215,10 +16337,10 @@
         <v>26</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="55" t="s">
+      <c r="G35" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="62" t="s">
         <v>29</v>
       </c>
     </row>
@@ -16232,8 +16354,8 @@
         <v>27</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="53"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
@@ -16245,10 +16367,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="13"/>
-      <c r="G37" s="55" t="s">
+      <c r="G37" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="53"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
@@ -16260,8 +16382,8 @@
         <v>27</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="53"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="62"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
@@ -16273,10 +16395,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="56" t="s">
+      <c r="G39" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="53"/>
+      <c r="H39" s="62"/>
     </row>
     <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
@@ -16288,8 +16410,8 @@
         <v>27</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="54"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
@@ -16857,11 +16979,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
     <mergeCell ref="G24:G28"/>
     <mergeCell ref="H29:H34"/>
     <mergeCell ref="H35:H40"/>
@@ -16871,6 +16988,11 @@
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16924,15 +17046,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -17847,15 +17969,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -18722,15 +18844,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -19597,15 +19719,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20472,15 +20594,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21347,15 +21469,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22222,15 +22344,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23097,15 +23219,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23935,15 +24057,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -24810,15 +24932,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -25644,10 +25766,10 @@
   <dimension ref="B1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -25655,7 +25777,7 @@
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="46" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" style="40" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69.140625" style="37" bestFit="1" customWidth="1"/>
@@ -25674,11 +25796,11 @@
       <c r="C1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>11</v>
@@ -25690,12 +25812,12 @@
     </row>
     <row r="2" spans="2:11" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -25704,8 +25826,8 @@
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>146</v>
+      <c r="C4" s="50" t="s">
+        <v>144</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>6</v>
@@ -25719,12 +25841,12 @@
       <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44" t="s">
+      <c r="C5" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="36"/>
@@ -25736,12 +25858,12 @@
       <c r="B6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44" t="s">
+      <c r="C6" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="36"/>
@@ -25753,12 +25875,12 @@
       <c r="B7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44" t="s">
+      <c r="C7" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="36"/>
@@ -25770,14 +25892,14 @@
       <c r="B8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="44" t="s">
+      <c r="C8" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="38"/>
@@ -25789,8 +25911,8 @@
       <c r="B9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>148</v>
+      <c r="C9" s="43" t="s">
+        <v>146</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>17</v>
@@ -25801,7 +25923,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="43"/>
+      <c r="C10" s="50"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -25810,8 +25932,8 @@
       <c r="B11" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>148</v>
+      <c r="C11" s="50" t="s">
+        <v>146</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>126</v>
@@ -25824,8 +25946,8 @@
       <c r="B12" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>148</v>
+      <c r="C12" s="50" t="s">
+        <v>146</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>131</v>
@@ -25838,8 +25960,8 @@
       <c r="B13" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>148</v>
+      <c r="C13" s="50" t="s">
+        <v>146</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>22</v>
@@ -25852,8 +25974,8 @@
       <c r="B14" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>148</v>
+      <c r="C14" s="50" t="s">
+        <v>146</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>23</v>
@@ -25864,19 +25986,19 @@
     </row>
     <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="68" t="s">
-        <v>159</v>
+      <c r="G15" s="70" t="s">
+        <v>162</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -25884,90 +26006,90 @@
     </row>
     <row r="16" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>156</v>
+        <v>165</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F16" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="69"/>
+      <c r="G16" s="71"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F17" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="69"/>
+      <c r="G17" s="71"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>156</v>
+        <v>167</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="69"/>
+        <v>141</v>
+      </c>
+      <c r="G18" s="71"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>156</v>
+        <v>168</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="69"/>
+        <v>142</v>
+      </c>
+      <c r="G19" s="71"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>156</v>
+        <v>169</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="69"/>
+        <v>143</v>
+      </c>
+      <c r="G20" s="71"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -25975,100 +26097,100 @@
     </row>
     <row r="22" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="68" t="s">
-        <v>158</v>
+        <v>148</v>
+      </c>
+      <c r="G22" s="72" t="s">
+        <v>163</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="40" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="68"/>
+        <v>149</v>
+      </c>
+      <c r="G23" s="72"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="68"/>
+        <v>150</v>
+      </c>
+      <c r="G24" s="72"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="40" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="68"/>
+        <v>151</v>
+      </c>
+      <c r="G25" s="72"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="40" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="68"/>
+        <v>152</v>
+      </c>
+      <c r="G26" s="72"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="68"/>
+        <v>153</v>
+      </c>
+      <c r="G27" s="72"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26076,90 +26198,185 @@
     </row>
     <row r="29" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>156</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>161</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>165</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E31"/>
       <c r="F31" s="67" t="s">
-        <v>166</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G31" s="69"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="66"/>
+        <v>158</v>
+      </c>
+      <c r="E32"/>
       <c r="F32" s="67"/>
+      <c r="G32" s="69"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="66"/>
+        <v>158</v>
+      </c>
+      <c r="E33"/>
       <c r="F33" s="67"/>
+      <c r="G33" s="69"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="69"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="69"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="69"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="69"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="69"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="69"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="69"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="69"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E42"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="49"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>140</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="49"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -26175,8 +26392,10 @@
       <c r="I49" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E31:E33"/>
+  <mergeCells count="8">
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F39:F41"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -26235,15 +26454,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27110,15 +27329,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27985,15 +28204,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28860,15 +29079,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29735,15 +29954,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30610,15 +30829,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31485,15 +31704,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32360,15 +32579,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33235,15 +33454,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34110,15 +34329,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34985,15 +35204,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35860,15 +36079,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -36735,15 +36954,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37610,15 +37829,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38485,15 +38704,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" firstSheet="7" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="258">
   <si>
     <t>استان</t>
   </si>
@@ -879,12 +879,96 @@
   <si>
     <t>testsheet4_azmayesh_transformator_voltazh</t>
   </si>
+  <si>
+    <t>noe_trans</t>
+  </si>
+  <si>
+    <t>نوع ترانس</t>
+  </si>
+  <si>
+    <t>name_karkhane_sazandeh</t>
+  </si>
+  <si>
+    <t>آزمایش عایقی اولیه با سیم پیچ های ثانویه و زمین 5000 ولت بر حسب مگا ولت</t>
+  </si>
+  <si>
+    <t>MΩ</t>
+  </si>
+  <si>
+    <t>core5000_1</t>
+  </si>
+  <si>
+    <t>core5000_2</t>
+  </si>
+  <si>
+    <t>core5000_3</t>
+  </si>
+  <si>
+    <t>core500_1</t>
+  </si>
+  <si>
+    <t>core500_2</t>
+  </si>
+  <si>
+    <t>core500_3</t>
+  </si>
+  <si>
+    <t>آزمایش عایقی ثانویه با  زمین 500 ولت بر حسب مگا ولت</t>
+  </si>
+  <si>
+    <t>azmayesh_polariteh_6ya12</t>
+  </si>
+  <si>
+    <t>درست یا نادرست</t>
+  </si>
+  <si>
+    <t>تذكر: درست يا نادرست بودن پلاريته با توجه به نقشهاي اجرايي مشخص ميگردد.</t>
+  </si>
+  <si>
+    <t>is1</t>
+  </si>
+  <si>
+    <t>ratio1</t>
+  </si>
+  <si>
+    <t>براي ترانسهاي ولتاژ خازني، ولتاژ تزريقي بايد از 1000 ولت باشد.</t>
+  </si>
+  <si>
+    <t>IP= جريان اوليه</t>
+  </si>
+  <si>
+    <t>IS= جريان ثانويه</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>مقدار ratioاز احسان پرسیده شود؟</t>
+  </si>
+  <si>
+    <t>s_core1</t>
+  </si>
+  <si>
+    <t>s_core2</t>
+  </si>
+  <si>
+    <t>s_core3</t>
+  </si>
+  <si>
+    <t>اندازه گيري مقاومت سيمپيچ ثانويه:با استفاده از دستگاههاي اندازهگيري مقاومت (پل وتسون)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              اندازهگيري توان  (Burden)   مدار ثانويه :                                                   تزريق جريان متناوب به اندازه جريان نامي و اندازهگيري ولتاژ:                                                                                        BURDEN=v*i     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAبر حسب </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1094,8 +1178,39 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +1244,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,7 +1494,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1529,6 +1656,65 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,33 +1754,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1607,26 +1766,20 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1634,37 +1787,89 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7229,15 +7434,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -8104,15 +8309,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -8979,15 +9184,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -9083,7 +9288,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="87" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="2"/>
@@ -9098,7 +9303,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="63"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -9113,7 +9318,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="64"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -9126,7 +9331,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="90" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="2"/>
@@ -9141,7 +9346,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="66"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -9154,7 +9359,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="66"/>
+      <c r="G15" s="91"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -9167,7 +9372,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="66"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -9180,7 +9385,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="67"/>
+      <c r="G17" s="92"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -9195,7 +9400,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="90" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="2"/>
@@ -9210,7 +9415,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="66"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -9220,7 +9425,7 @@
         <v>23</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="66"/>
+      <c r="G20" s="91"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -9230,7 +9435,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="66"/>
+      <c r="G21" s="91"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
@@ -9242,7 +9447,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="67"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
@@ -9254,7 +9459,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="90" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9268,7 +9473,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="66"/>
+      <c r="G24" s="91"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="16" t="s">
@@ -9280,7 +9485,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="66"/>
+      <c r="G25" s="91"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="s">
@@ -9292,7 +9497,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="66"/>
+      <c r="G26" s="91"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -9304,7 +9509,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="67"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
@@ -9316,10 +9521,10 @@
         <v>26</v>
       </c>
       <c r="F28" s="13"/>
-      <c r="G28" s="71" t="s">
+      <c r="G28" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="74" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9333,8 +9538,8 @@
         <v>27</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="69"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="75"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
@@ -9346,10 +9551,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="69"/>
+      <c r="H30" s="75"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
@@ -9361,8 +9566,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="69"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="75"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
@@ -9374,10 +9579,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="72" t="s">
+      <c r="G32" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="69"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
@@ -9389,8 +9594,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="70"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="76"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
@@ -9402,10 +9607,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="71" t="s">
+      <c r="G34" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="75" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9419,8 +9624,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="69"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="75"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
@@ -9432,10 +9637,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="G36" s="71" t="s">
+      <c r="G36" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="69"/>
+      <c r="H36" s="75"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
@@ -9447,8 +9652,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="69"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="75"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
@@ -9460,10 +9665,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="69"/>
+      <c r="H38" s="75"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
@@ -9475,8 +9680,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="70"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="76"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
@@ -10044,12 +10249,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="G18:G22"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H33"/>
     <mergeCell ref="G30:G31"/>
@@ -10058,6 +10257,12 @@
     <mergeCell ref="H34:H39"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10111,15 +10316,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -10986,15 +11191,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11861,15 +12066,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12736,15 +12941,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -13611,15 +13816,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -14486,15 +14691,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15361,15 +15566,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -16199,7 +16404,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -16237,15 +16442,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -16367,7 +16572,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="87" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2"/>
@@ -16382,7 +16587,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="63"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -16397,7 +16602,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="64"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -16410,7 +16615,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="90" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="2"/>
@@ -16425,7 +16630,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="66"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -16438,7 +16643,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="66"/>
+      <c r="G17" s="91"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -16451,7 +16656,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="66"/>
+      <c r="G18" s="91"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -16464,7 +16669,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="67"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -16483,7 +16688,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="90" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="2"/>
@@ -16501,7 +16706,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="66"/>
+      <c r="G21" s="91"/>
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
@@ -16514,7 +16719,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="66"/>
+      <c r="G22" s="91"/>
     </row>
     <row r="23" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
@@ -16527,7 +16732,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="66"/>
+      <c r="G23" s="91"/>
     </row>
     <row r="24" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
@@ -16541,7 +16746,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="67"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
@@ -16555,7 +16760,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="90" t="s">
         <v>59</v>
       </c>
     </row>
@@ -16571,7 +16776,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="66"/>
+      <c r="G26" s="91"/>
     </row>
     <row r="27" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -16585,7 +16790,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="66"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
@@ -16599,7 +16804,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="66"/>
+      <c r="G28" s="91"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
@@ -16613,7 +16818,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="67"/>
+      <c r="G29" s="92"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
@@ -16625,10 +16830,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="74" t="s">
         <v>28</v>
       </c>
     </row>
@@ -16642,8 +16847,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="69"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="75"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
@@ -16655,10 +16860,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="69"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
@@ -16670,8 +16875,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="69"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="75"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
@@ -16683,10 +16888,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="69"/>
+      <c r="H34" s="75"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
@@ -16698,8 +16903,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="70"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="76"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
@@ -16711,10 +16916,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="71" t="s">
+      <c r="G36" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="75" t="s">
         <v>29</v>
       </c>
     </row>
@@ -16728,8 +16933,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="69"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="75"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
@@ -16741,10 +16946,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="71" t="s">
+      <c r="G38" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="69"/>
+      <c r="H38" s="75"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
@@ -16756,8 +16961,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="69"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="75"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
@@ -16769,10 +16974,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="69"/>
+      <c r="H40" s="75"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
@@ -16784,8 +16989,8 @@
         <v>27</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="70"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="76"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
@@ -16840,7 +17045,7 @@
       <c r="E46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="55" t="s">
+      <c r="F46" s="80" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16853,7 +17058,7 @@
       <c r="E47" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="56"/>
+      <c r="F47" s="81"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
@@ -16864,7 +17069,7 @@
       <c r="E48" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="56"/>
+      <c r="F48" s="81"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="16" t="s">
@@ -16875,19 +17080,19 @@
       <c r="E49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="56"/>
+      <c r="F49" s="81"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="F50" s="56"/>
+      <c r="F50" s="81"/>
     </row>
     <row r="51" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="F51" s="57"/>
+      <c r="F51" s="82"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
@@ -17367,6 +17572,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
     <mergeCell ref="H30:H35"/>
     <mergeCell ref="H36:H41"/>
     <mergeCell ref="G30:G31"/>
@@ -17375,13 +17587,6 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F46:F51"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17435,15 +17640,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -18310,15 +18515,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -19233,15 +19438,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20108,15 +20313,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20983,15 +21188,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21858,15 +22063,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22733,15 +22938,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23608,15 +23813,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -24483,15 +24688,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -25321,15 +25526,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -26155,7 +26360,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
@@ -26199,12 +26404,12 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -26384,7 +26589,7 @@
       <c r="F15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="94" t="s">
         <v>161</v>
       </c>
       <c r="H15" s="2"/>
@@ -26404,7 +26609,7 @@
       <c r="F16" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="79"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -26422,7 +26627,7 @@
       <c r="F17" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="79"/>
+      <c r="G17" s="95"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -26440,7 +26645,7 @@
       <c r="F18" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="79"/>
+      <c r="G18" s="95"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -26458,7 +26663,7 @@
       <c r="F19" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="79"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -26476,7 +26681,7 @@
       <c r="F20" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="79"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -26495,7 +26700,7 @@
       <c r="F22" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="80" t="s">
+      <c r="G22" s="96" t="s">
         <v>162</v>
       </c>
       <c r="H22" s="2"/>
@@ -26513,7 +26718,7 @@
       <c r="F23" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="80"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -26529,7 +26734,7 @@
       <c r="F24" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="80"/>
+      <c r="G24" s="96"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -26545,7 +26750,7 @@
       <c r="F25" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="80"/>
+      <c r="G25" s="96"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -26561,7 +26766,7 @@
       <c r="F26" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="G26" s="80"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -26577,7 +26782,7 @@
       <c r="F27" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="80"/>
+      <c r="G27" s="96"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26612,7 +26817,7 @@
         <v>158</v>
       </c>
       <c r="E31"/>
-      <c r="F31" s="77" t="s">
+      <c r="F31" s="93" t="s">
         <v>134</v>
       </c>
       <c r="G31" s="53"/>
@@ -26626,7 +26831,7 @@
         <v>158</v>
       </c>
       <c r="E32"/>
-      <c r="F32" s="77"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="53"/>
       <c r="H32" s="2"/>
     </row>
@@ -26638,7 +26843,7 @@
         <v>158</v>
       </c>
       <c r="E33"/>
-      <c r="F33" s="77"/>
+      <c r="F33" s="93"/>
       <c r="G33" s="53"/>
       <c r="H33" s="2"/>
     </row>
@@ -26656,7 +26861,7 @@
         <v>144</v>
       </c>
       <c r="E35"/>
-      <c r="F35" s="77" t="s">
+      <c r="F35" s="93" t="s">
         <v>135</v>
       </c>
       <c r="G35" s="53"/>
@@ -26670,8 +26875,8 @@
         <v>144</v>
       </c>
       <c r="E36"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="101"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="71"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -26682,7 +26887,7 @@
         <v>144</v>
       </c>
       <c r="E37"/>
-      <c r="F37" s="77"/>
+      <c r="F37" s="93"/>
       <c r="G37" s="53"/>
       <c r="H37" s="2"/>
     </row>
@@ -26700,7 +26905,7 @@
         <v>144</v>
       </c>
       <c r="E39"/>
-      <c r="F39" s="77" t="s">
+      <c r="F39" s="93" t="s">
         <v>136</v>
       </c>
       <c r="G39" s="53"/>
@@ -26714,7 +26919,7 @@
         <v>144</v>
       </c>
       <c r="E40"/>
-      <c r="F40" s="77"/>
+      <c r="F40" s="93"/>
       <c r="G40" s="53"/>
       <c r="H40" s="2"/>
     </row>
@@ -26726,13 +26931,13 @@
         <v>144</v>
       </c>
       <c r="E41"/>
-      <c r="F41" s="77"/>
+      <c r="F41" s="93"/>
       <c r="G41" s="53"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="E42"/>
-      <c r="F42" s="102"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="52" t="s">
         <v>193</v>
       </c>
@@ -26857,10 +27062,10 @@
       <c r="C56" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="76" t="s">
+      <c r="F56" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="G56" s="74" t="s">
+      <c r="G56" s="97" t="s">
         <v>195</v>
       </c>
     </row>
@@ -26871,8 +27076,8 @@
       <c r="C57" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="76"/>
-      <c r="G57" s="75"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="98"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="39" t="s">
@@ -26882,8 +27087,8 @@
         <v>144</v>
       </c>
       <c r="D58"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="75"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="98"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="39" t="s">
@@ -26892,8 +27097,8 @@
       <c r="C59" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F59" s="76"/>
-      <c r="G59" s="75"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="98"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="39" t="s">
@@ -26919,31 +27124,31 @@
       <c r="F62"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F63" s="103"/>
+      <c r="F63" s="73"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F64" s="103"/>
+      <c r="F64" s="73"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" s="103"/>
+      <c r="F65" s="73"/>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F66" s="103"/>
+      <c r="F66" s="73"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F67" s="103"/>
+      <c r="F67" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F39:F41"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="G15:G20"/>
     <mergeCell ref="G22:G27"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="F39:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26997,15 +27202,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27872,15 +28077,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28747,15 +28952,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29622,15 +29827,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30497,15 +30702,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31372,15 +31577,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32247,15 +32452,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33122,15 +33327,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33997,15 +34202,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34830,7 +35035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J166"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -34872,15 +35077,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35705,8 +35910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35719,62 +35924,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="57" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="89"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="82" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -35784,15 +35989,15 @@
       <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -35802,15 +36007,15 @@
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="60" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -35820,15 +36025,15 @@
       <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="60" t="s">
         <v>124</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -35838,10 +36043,10 @@
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="60" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -35851,308 +36056,303 @@
       <c r="D9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="105" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="87"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="92"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="82" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
     </row>
     <row r="21" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="100" t="s">
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="70" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="94"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="94"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="94"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="92"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="94"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="98"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
@@ -36160,6 +36360,11 @@
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36168,879 +36373,459 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I166"/>
+  <dimension ref="B1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="5" style="17" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="2.75" style="107" customWidth="1"/>
+    <col min="2" max="2" width="35" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.75" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="107" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="107" customWidth="1"/>
+    <col min="9" max="9" width="5" style="107" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="107" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="107"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="106" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="104" t="s">
+    <row r="2" spans="2:6" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B3" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="F4" s="113"/>
+    </row>
+    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="115"/>
+      <c r="E5" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="F5" s="116"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="115"/>
+      <c r="E6" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="F6" s="116"/>
+    </row>
+    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="115"/>
+      <c r="E7" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="F7" s="116"/>
+    </row>
+    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="115"/>
+      <c r="E8" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="F8" s="113"/>
+    </row>
+    <row r="9" spans="2:6" s="115" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
+      <c r="F9" s="116"/>
+    </row>
+    <row r="10" spans="2:6" s="115" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="117" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="117" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="130" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="129"/>
+      <c r="F15" s="125"/>
+    </row>
+    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="107" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="129"/>
+      <c r="F16" s="125"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="127" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+    </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="107" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+    </row>
+    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="121" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" s="121" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="122"/>
+    </row>
+    <row r="23" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="129"/>
+      <c r="F23" s="123" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="107" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="129"/>
+      <c r="F24" s="123" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="118" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="119" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+    </row>
+    <row r="27" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="107" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="118"/>
+      <c r="F27" s="119"/>
+    </row>
+    <row r="28" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="128" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="131" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="128"/>
+      <c r="F29" s="131"/>
+    </row>
+    <row r="30" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="128"/>
+      <c r="F30" s="131"/>
+    </row>
+    <row r="31" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="124"/>
+    </row>
+    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="124"/>
+    </row>
+    <row r="35" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="107" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="120" t="s">
+        <v>257</v>
+      </c>
+      <c r="F36" s="126" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="120" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="126"/>
+    </row>
+    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="107" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="120" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="126"/>
+    </row>
+    <row r="39" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="12">
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="F25:F27"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37094,15 +36879,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37969,15 +37754,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38844,15 +38629,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -39719,15 +39504,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" firstSheet="7" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="384">
   <si>
     <t>استان</t>
   </si>
@@ -963,6 +963,384 @@
   <si>
     <t xml:space="preserve">VAبر حسب </t>
   </si>
+  <si>
+    <t>تست شیت فرم کالیبراسیون کنتور</t>
+  </si>
+  <si>
+    <t>mahle_nasbe_kontor</t>
+  </si>
+  <si>
+    <t>محل نصب کنتور</t>
+  </si>
+  <si>
+    <t>این قسمت توی تست شیت نیست؟؟</t>
+  </si>
+  <si>
+    <t>karkhane_sazandeh_kontor</t>
+  </si>
+  <si>
+    <t>کارخانه سازنده کنتور</t>
+  </si>
+  <si>
+    <t>tip_kontor</t>
+  </si>
+  <si>
+    <t>تیپ کنتور</t>
+  </si>
+  <si>
+    <t>نسبت تبديل ترانس جريان</t>
+  </si>
+  <si>
+    <t>nesbat_tabdil_trance_jarian</t>
+  </si>
+  <si>
+    <t>نسبت تبديل ترانس ولتاژ:</t>
+  </si>
+  <si>
+    <t>nesbat_tabdil_trance_voltazh</t>
+  </si>
+  <si>
+    <t>tedad_argham_sahih</t>
+  </si>
+  <si>
+    <t>تعداد ارقام صحيح:</t>
+  </si>
+  <si>
+    <t>تعداد ارقام اعشار:</t>
+  </si>
+  <si>
+    <t>tedad_argham_ashar</t>
+  </si>
+  <si>
+    <t>ضريب پلاك كنتور:</t>
+  </si>
+  <si>
+    <t>zarib_pelak_kontor</t>
+  </si>
+  <si>
+    <t>نوع اتصال كنتور:</t>
+  </si>
+  <si>
+    <t>ضريب نهايي كنتور بر حسب KWH</t>
+  </si>
+  <si>
+    <t>دماي محيط:</t>
+  </si>
+  <si>
+    <t>ميزان رطوبت:</t>
+  </si>
+  <si>
+    <t>noe_etesal</t>
+  </si>
+  <si>
+    <t>zarib_nahaei_kontor</t>
+  </si>
+  <si>
+    <t>damaye_mohit</t>
+  </si>
+  <si>
+    <t>mizan_retobat</t>
+  </si>
+  <si>
+    <t>قرائت اول:</t>
+  </si>
+  <si>
+    <t>قرائت دوم:</t>
+  </si>
+  <si>
+    <t>سوال از احسان</t>
+  </si>
+  <si>
+    <t>gherat_aval</t>
+  </si>
+  <si>
+    <t>gherat_dovom</t>
+  </si>
+  <si>
+    <t>مقدار اندازهگيري شده توسط كنتور:</t>
+  </si>
+  <si>
+    <t>مقدار اندازهگيري شده توسط دستگاه تست:</t>
+  </si>
+  <si>
+    <t>مقدار خطاي كنتور بر حسب درصد:</t>
+  </si>
+  <si>
+    <t>مقدار خطاي مجاز:</t>
+  </si>
+  <si>
+    <t>meghdar_andazegiri_kontor</t>
+  </si>
+  <si>
+    <t>meghdar_andazegiri_dastgah</t>
+  </si>
+  <si>
+    <t>meghdar_khataye_kontor</t>
+  </si>
+  <si>
+    <t>meghdar_khataye_majaz</t>
+  </si>
+  <si>
+    <t>محل نگهداري:</t>
+  </si>
+  <si>
+    <t>آرشيو رلياژ</t>
+  </si>
+  <si>
+    <t>مركز اسناد فني برق غرب(آرشيو)</t>
+  </si>
+  <si>
+    <t>نماينده مشترك (فيدر اختصاص يا تبادلي):</t>
+  </si>
+  <si>
+    <t>namayandeh_moshtarak</t>
+  </si>
+  <si>
+    <t>arshiv_relyazh</t>
+  </si>
+  <si>
+    <t>markaz_asnad</t>
+  </si>
+  <si>
+    <t>testsheet6_azmayesh_rele_etesal_makos</t>
+  </si>
+  <si>
+    <t>الف) مشخصات فيدر</t>
+  </si>
+  <si>
+    <t>نسبت تبديل ترانس جريان:</t>
+  </si>
+  <si>
+    <t>nesbat_tabdil_jarian</t>
+  </si>
+  <si>
+    <t>ب) مشخصات رله</t>
+  </si>
+  <si>
+    <t>نوع رله:</t>
+  </si>
+  <si>
+    <t>نام كارخانه سازنده:</t>
+  </si>
+  <si>
+    <t>شماره سريال:</t>
+  </si>
+  <si>
+    <t>جريان نامي رله:</t>
+  </si>
+  <si>
+    <t>ولتاژ نامي رله:</t>
+  </si>
+  <si>
+    <t>ولتاژ تغذيه رله:</t>
+  </si>
+  <si>
+    <t>noe_rele</t>
+  </si>
+  <si>
+    <t>name_karkhane_sazande</t>
+  </si>
+  <si>
+    <t>jarian_nami</t>
+  </si>
+  <si>
+    <t>voltazh_nami</t>
+  </si>
+  <si>
+    <t>voltazh_taghzeye</t>
+  </si>
+  <si>
+    <t>ج) تنظيمات رله</t>
+  </si>
+  <si>
+    <t>جريان تنظيمي بر حسب آمپر</t>
+  </si>
+  <si>
+    <t>ضريب زمان تنظيمي:</t>
+  </si>
+  <si>
+    <t>نوع منحني زماني:</t>
+  </si>
+  <si>
+    <t>جريان تنظيمي آني:</t>
+  </si>
+  <si>
+    <t>jarian_tanzimi</t>
+  </si>
+  <si>
+    <t>zarib_tanzimi</t>
+  </si>
+  <si>
+    <t>jarian_tanzimi_ani</t>
+  </si>
+  <si>
+    <t>noe_monhani_zamani</t>
+  </si>
+  <si>
+    <t>PICK UP&amp;DROP TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IS/P.U</t>
+  </si>
+  <si>
+    <t>از احسان بپرس</t>
+  </si>
+  <si>
+    <t>ERROR%</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>ERROR   %</t>
+  </si>
+  <si>
+    <t>I Inst.(A) /IS/P.U</t>
+  </si>
+  <si>
+    <t>I Inst.(A) IM</t>
+  </si>
+  <si>
+    <t>REALY</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>REALY TARGET</t>
+  </si>
+  <si>
+    <t>جريان تنظيمي براي شروع عملكرد</t>
+  </si>
+  <si>
+    <t>جريان اندازهگيري شده با آزمايش</t>
+  </si>
+  <si>
+    <t>شدن رله (RESET) جريان ريست</t>
+  </si>
+  <si>
+    <t>TIME TEST</t>
+  </si>
+  <si>
+    <t>TR_200%</t>
+  </si>
+  <si>
+    <t>TR_400%</t>
+  </si>
+  <si>
+    <t>TR_molahezat</t>
+  </si>
+  <si>
+    <t>TM_400%</t>
+  </si>
+  <si>
+    <t>TM_200%</t>
+  </si>
+  <si>
+    <t>TM_molahezat</t>
+  </si>
+  <si>
+    <t>ERROR_400%</t>
+  </si>
+  <si>
+    <t>ERROR_200%</t>
+  </si>
+  <si>
+    <t>ERROR_molahezat</t>
+  </si>
+  <si>
+    <t>از احسان بپرس نحوه ی ساخت فیلدها بر اساس جدول توی pdf</t>
+  </si>
+  <si>
+    <t>INSTANTANEOUS UNIT TEST</t>
+  </si>
+  <si>
+    <t>TM_120%</t>
+  </si>
+  <si>
+    <t>TR2_molahezat</t>
+  </si>
+  <si>
+    <t>TM2_molahezat</t>
+  </si>
+  <si>
+    <t>ERROR_120%</t>
+  </si>
+  <si>
+    <t>ERROR2_molahezat</t>
+  </si>
+  <si>
+    <t>TR2_120%</t>
+  </si>
+  <si>
+    <t>Trip Test:</t>
+  </si>
+  <si>
+    <t>Alarm Test:</t>
+  </si>
+  <si>
+    <t>Fault &amp; Event Recorder signal Test:</t>
+  </si>
+  <si>
+    <t>On Load Test On Earth Fault Relay:</t>
+  </si>
+  <si>
+    <t>VDC=</t>
+  </si>
+  <si>
+    <t>I E/F:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>TRIP TEST:</t>
+  </si>
+  <si>
+    <t>ALARM TEST:</t>
+  </si>
+  <si>
+    <t>FAULT &amp; EVENT RECORDER TEST:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onload Test   </t>
+  </si>
+  <si>
+    <t>testsheet5_test_va_calibraison_kontour</t>
+  </si>
+  <si>
+    <t>testsheet7_</t>
+  </si>
+  <si>
+    <t>جريان تنظيمي: بر حسب آمپر</t>
+  </si>
+  <si>
+    <t>zaman_tanzimi</t>
+  </si>
+  <si>
+    <t>زمان تنظيمي: بر حسب  ثانیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR/D.O </t>
+  </si>
+  <si>
+    <t>بر حسب آمپر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM </t>
+  </si>
+  <si>
+    <t>IM2</t>
+  </si>
+  <si>
+    <t>IS/ P.U</t>
+  </si>
+  <si>
+    <t>برحسب ثانیه</t>
+  </si>
 </sst>
 </file>
 
@@ -1494,7 +1872,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1697,6 +2075,63 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1754,9 +2189,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1775,10 +2207,10 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1787,89 +2219,134 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5964,7 +6441,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>164524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6030,7 +6507,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>528205</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>147205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6078,6 +6555,218 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60610</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>164522</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="987139" cy="268432"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000" flipV="1">
+              <a:off x="5853542" y="5550477"/>
+              <a:ext cx="987139" cy="268432"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="1" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:type m:val="skw"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="fa-IR" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑐𝑡𝑖𝑣𝑒</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="FF0000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑟𝑒𝑎𝑐𝑡𝑖𝑣𝑒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e/>
+                        </m:eqArr>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="fa-IR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000" flipV="1">
+              <a:off x="5853542" y="5550477"/>
+              <a:ext cx="987139" cy="268432"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="1" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎𝑐𝑡𝑖𝑣𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fa-IR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>⁄</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>█(𝑟𝑒𝑎𝑐𝑡𝑖𝑣𝑒@)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fa-IR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1004454</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5792932" y="5948795"/>
+          <a:ext cx="1004454" cy="294410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7434,15 +8123,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -8271,7 +8960,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -8309,15 +8998,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -9184,15 +9873,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -9288,7 +9977,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="106" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="2"/>
@@ -9303,7 +9992,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="88"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -9318,7 +10007,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="89"/>
+      <c r="G12" s="108"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -9331,7 +10020,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="90" t="s">
+      <c r="G13" s="109" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="2"/>
@@ -9346,7 +10035,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="91"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -9359,7 +10048,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="91"/>
+      <c r="G15" s="110"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -9372,7 +10061,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="91"/>
+      <c r="G16" s="110"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -9385,7 +10074,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="92"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -9400,7 +10089,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="90" t="s">
+      <c r="G18" s="109" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="2"/>
@@ -9415,7 +10104,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="91"/>
+      <c r="G19" s="110"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -9425,7 +10114,7 @@
         <v>23</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="91"/>
+      <c r="G20" s="110"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -9435,7 +10124,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="91"/>
+      <c r="G21" s="110"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
@@ -9447,7 +10136,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="92"/>
+      <c r="G22" s="111"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
@@ -9459,7 +10148,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="90" t="s">
+      <c r="G23" s="109" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9473,7 +10162,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="91"/>
+      <c r="G24" s="110"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="16" t="s">
@@ -9485,7 +10174,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="91"/>
+      <c r="G25" s="110"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="s">
@@ -9497,7 +10186,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="91"/>
+      <c r="G26" s="110"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -9509,7 +10198,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="92"/>
+      <c r="G27" s="111"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
@@ -9521,10 +10210,10 @@
         <v>26</v>
       </c>
       <c r="F28" s="13"/>
-      <c r="G28" s="77" t="s">
+      <c r="G28" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="93" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9538,8 +10227,8 @@
         <v>27</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="75"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="94"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
@@ -9551,10 +10240,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="77" t="s">
+      <c r="G30" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="75"/>
+      <c r="H30" s="94"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
@@ -9566,8 +10255,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="75"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="94"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
@@ -9579,10 +10268,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="78" t="s">
+      <c r="G32" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="75"/>
+      <c r="H32" s="94"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
@@ -9594,8 +10283,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="76"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="95"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
@@ -9607,10 +10296,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="77" t="s">
+      <c r="G34" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="94" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9624,8 +10313,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="75"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="94"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
@@ -9637,10 +10326,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="G36" s="77" t="s">
+      <c r="G36" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="75"/>
+      <c r="H36" s="94"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
@@ -9652,8 +10341,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="75"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="94"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
@@ -9665,10 +10354,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="78" t="s">
+      <c r="G38" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="75"/>
+      <c r="H38" s="94"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
@@ -9680,8 +10369,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="76"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="95"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
@@ -10316,15 +11005,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11191,15 +11880,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12066,15 +12755,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12941,15 +13630,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -13816,15 +14505,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -14691,15 +15380,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15566,15 +16255,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -16442,15 +17131,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -16572,7 +17261,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="106" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2"/>
@@ -16587,7 +17276,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="88"/>
+      <c r="G13" s="107"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -16602,7 +17291,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="89"/>
+      <c r="G14" s="108"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -16615,7 +17304,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="90" t="s">
+      <c r="G15" s="109" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="2"/>
@@ -16630,7 +17319,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="91"/>
+      <c r="G16" s="110"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -16643,7 +17332,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="91"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -16656,7 +17345,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="91"/>
+      <c r="G18" s="110"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -16669,7 +17358,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="92"/>
+      <c r="G19" s="111"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -16688,7 +17377,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="90" t="s">
+      <c r="G20" s="109" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="2"/>
@@ -16706,7 +17395,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="91"/>
+      <c r="G21" s="110"/>
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
@@ -16719,7 +17408,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="91"/>
+      <c r="G22" s="110"/>
     </row>
     <row r="23" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
@@ -16732,7 +17421,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="91"/>
+      <c r="G23" s="110"/>
     </row>
     <row r="24" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
@@ -16746,7 +17435,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="92"/>
+      <c r="G24" s="111"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
@@ -16760,7 +17449,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="90" t="s">
+      <c r="G25" s="109" t="s">
         <v>59</v>
       </c>
     </row>
@@ -16776,7 +17465,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="91"/>
+      <c r="G26" s="110"/>
     </row>
     <row r="27" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -16790,7 +17479,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="91"/>
+      <c r="G27" s="110"/>
     </row>
     <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
@@ -16804,7 +17493,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="91"/>
+      <c r="G28" s="110"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
@@ -16818,7 +17507,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="92"/>
+      <c r="G29" s="111"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
@@ -16830,10 +17519,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="77" t="s">
+      <c r="G30" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="74" t="s">
+      <c r="H30" s="93" t="s">
         <v>28</v>
       </c>
     </row>
@@ -16847,8 +17536,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="75"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="94"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
@@ -16860,10 +17549,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="77" t="s">
+      <c r="G32" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="75"/>
+      <c r="H32" s="94"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
@@ -16875,8 +17564,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="75"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="94"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
@@ -16888,10 +17577,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="78" t="s">
+      <c r="G34" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="75"/>
+      <c r="H34" s="94"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
@@ -16903,8 +17592,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="76"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="95"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
@@ -16916,10 +17605,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="77" t="s">
+      <c r="G36" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="75" t="s">
+      <c r="H36" s="94" t="s">
         <v>29</v>
       </c>
     </row>
@@ -16933,8 +17622,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="75"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="94"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
@@ -16946,10 +17635,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="77" t="s">
+      <c r="G38" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="75"/>
+      <c r="H38" s="94"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
@@ -16961,8 +17650,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="75"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="94"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
@@ -16974,10 +17663,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="78" t="s">
+      <c r="G40" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="75"/>
+      <c r="H40" s="94"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
@@ -16989,8 +17678,8 @@
         <v>27</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="76"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="95"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
@@ -17045,7 +17734,7 @@
       <c r="E46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="80" t="s">
+      <c r="F46" s="99" t="s">
         <v>203</v>
       </c>
     </row>
@@ -17058,7 +17747,7 @@
       <c r="E47" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="81"/>
+      <c r="F47" s="100"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
@@ -17069,7 +17758,7 @@
       <c r="E48" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="81"/>
+      <c r="F48" s="100"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="16" t="s">
@@ -17080,19 +17769,19 @@
       <c r="E49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="81"/>
+      <c r="F49" s="100"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="F50" s="81"/>
+      <c r="F50" s="100"/>
     </row>
     <row r="51" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="F51" s="82"/>
+      <c r="F51" s="101"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
@@ -17640,15 +18329,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -18515,15 +19204,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -19438,15 +20127,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20313,15 +21002,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21188,15 +21877,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22063,15 +22752,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22938,15 +23627,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23813,15 +24502,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -24688,15 +25377,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -25526,15 +26215,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -26404,12 +27093,12 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -26589,7 +27278,7 @@
       <c r="F15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="94" t="s">
+      <c r="G15" s="112" t="s">
         <v>161</v>
       </c>
       <c r="H15" s="2"/>
@@ -26609,7 +27298,7 @@
       <c r="F16" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="95"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -26627,7 +27316,7 @@
       <c r="F17" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="95"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -26645,7 +27334,7 @@
       <c r="F18" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="95"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -26663,7 +27352,7 @@
       <c r="F19" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="95"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -26681,7 +27370,7 @@
       <c r="F20" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="95"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -26700,7 +27389,7 @@
       <c r="F22" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="96" t="s">
+      <c r="G22" s="114" t="s">
         <v>162</v>
       </c>
       <c r="H22" s="2"/>
@@ -26718,7 +27407,7 @@
       <c r="F23" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="96"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -26734,7 +27423,7 @@
       <c r="F24" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="96"/>
+      <c r="G24" s="114"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -26750,7 +27439,7 @@
       <c r="F25" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="96"/>
+      <c r="G25" s="114"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -26766,7 +27455,7 @@
       <c r="F26" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="G26" s="96"/>
+      <c r="G26" s="114"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -26782,7 +27471,7 @@
       <c r="F27" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="96"/>
+      <c r="G27" s="114"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26817,7 +27506,7 @@
         <v>158</v>
       </c>
       <c r="E31"/>
-      <c r="F31" s="93" t="s">
+      <c r="F31" s="118" t="s">
         <v>134</v>
       </c>
       <c r="G31" s="53"/>
@@ -26831,7 +27520,7 @@
         <v>158</v>
       </c>
       <c r="E32"/>
-      <c r="F32" s="93"/>
+      <c r="F32" s="118"/>
       <c r="G32" s="53"/>
       <c r="H32" s="2"/>
     </row>
@@ -26843,7 +27532,7 @@
         <v>158</v>
       </c>
       <c r="E33"/>
-      <c r="F33" s="93"/>
+      <c r="F33" s="118"/>
       <c r="G33" s="53"/>
       <c r="H33" s="2"/>
     </row>
@@ -26861,7 +27550,7 @@
         <v>144</v>
       </c>
       <c r="E35"/>
-      <c r="F35" s="93" t="s">
+      <c r="F35" s="118" t="s">
         <v>135</v>
       </c>
       <c r="G35" s="53"/>
@@ -26875,7 +27564,7 @@
         <v>144</v>
       </c>
       <c r="E36"/>
-      <c r="F36" s="93"/>
+      <c r="F36" s="118"/>
       <c r="G36" s="71"/>
       <c r="H36" s="2"/>
     </row>
@@ -26887,7 +27576,7 @@
         <v>144</v>
       </c>
       <c r="E37"/>
-      <c r="F37" s="93"/>
+      <c r="F37" s="118"/>
       <c r="G37" s="53"/>
       <c r="H37" s="2"/>
     </row>
@@ -26905,7 +27594,7 @@
         <v>144</v>
       </c>
       <c r="E39"/>
-      <c r="F39" s="93" t="s">
+      <c r="F39" s="118" t="s">
         <v>136</v>
       </c>
       <c r="G39" s="53"/>
@@ -26919,7 +27608,7 @@
         <v>144</v>
       </c>
       <c r="E40"/>
-      <c r="F40" s="93"/>
+      <c r="F40" s="118"/>
       <c r="G40" s="53"/>
       <c r="H40" s="2"/>
     </row>
@@ -26931,7 +27620,7 @@
         <v>144</v>
       </c>
       <c r="E41"/>
-      <c r="F41" s="93"/>
+      <c r="F41" s="118"/>
       <c r="G41" s="53"/>
       <c r="H41" s="2"/>
     </row>
@@ -27062,10 +27751,10 @@
       <c r="C56" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="99" t="s">
+      <c r="F56" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="G56" s="97" t="s">
+      <c r="G56" s="115" t="s">
         <v>195</v>
       </c>
     </row>
@@ -27076,8 +27765,8 @@
       <c r="C57" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="99"/>
-      <c r="G57" s="98"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="116"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="39" t="s">
@@ -27087,8 +27776,8 @@
         <v>144</v>
       </c>
       <c r="D58"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="98"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="116"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="39" t="s">
@@ -27097,8 +27786,8 @@
       <c r="C59" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F59" s="99"/>
-      <c r="G59" s="98"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="116"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="39" t="s">
@@ -27140,15 +27829,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G22:G27"/>
     <mergeCell ref="G56:G59"/>
     <mergeCell ref="F56:F59"/>
     <mergeCell ref="F35:F37"/>
     <mergeCell ref="F39:F41"/>
     <mergeCell ref="F31:F33"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="G22:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27202,15 +27891,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28077,15 +28766,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28952,15 +29641,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29827,15 +30516,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30702,15 +31391,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31577,15 +32266,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32452,15 +33141,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33327,15 +34016,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34202,15 +34891,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35032,1808 +35721,6 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J166"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="17" customWidth="1"/>
-    <col min="9" max="9" width="6.125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="5" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="103"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="59"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="59"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="59"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="101" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-    </row>
-    <row r="21" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="70" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F39"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.75" style="107" customWidth="1"/>
-    <col min="2" max="2" width="35" style="107" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="107" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="107" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="107" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.75" style="107" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="107" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="107" customWidth="1"/>
-    <col min="9" max="9" width="5" style="107" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="107" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="B3" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="113"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="116"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="116"/>
-    </row>
-    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="116"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="113"/>
-    </row>
-    <row r="9" spans="2:6" s="115" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="115" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="116"/>
-    </row>
-    <row r="10" spans="2:6" s="115" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="115" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="117" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="117" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="117" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="107" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="124" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="130" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="107" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="125"/>
-    </row>
-    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="107" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="125"/>
-    </row>
-    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="127" t="s">
-        <v>234</v>
-      </c>
-      <c r="F17" s="127" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-    </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="107" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-    </row>
-    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="107" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="121" t="s">
-        <v>243</v>
-      </c>
-      <c r="F21" s="121" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="107" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="122"/>
-    </row>
-    <row r="23" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="129"/>
-      <c r="F23" s="123" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="107" t="s">
-        <v>246</v>
-      </c>
-      <c r="C24" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="129"/>
-      <c r="F24" s="123" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="107" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="118" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="119" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119"/>
-    </row>
-    <row r="27" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="119"/>
-    </row>
-    <row r="28" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="128" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="131" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="107" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="128"/>
-      <c r="F29" s="131"/>
-    </row>
-    <row r="30" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="107" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="128"/>
-      <c r="F30" s="131"/>
-    </row>
-    <row r="31" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="107" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="120" t="s">
-        <v>250</v>
-      </c>
-      <c r="F32" s="124" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="120" t="s">
-        <v>250</v>
-      </c>
-      <c r="F33" s="124"/>
-    </row>
-    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="120" t="s">
-        <v>250</v>
-      </c>
-      <c r="F34" s="124"/>
-    </row>
-    <row r="35" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="C36" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="120" t="s">
-        <v>257</v>
-      </c>
-      <c r="F36" s="126" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="C37" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="120" t="s">
-        <v>257</v>
-      </c>
-      <c r="F37" s="126"/>
-    </row>
-    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="107" t="s">
-        <v>254</v>
-      </c>
-      <c r="C38" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="120" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" s="126"/>
-    </row>
-    <row r="39" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E22:E24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J166"/>
   <sheetViews>
@@ -36879,15 +35766,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37708,25 +36595,939 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J166"/>
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="120" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="121"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="59"/>
+      <c r="F4" s="122" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="59"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="59"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="59"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="65"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="122" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+    </row>
+    <row r="21" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F39"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="77" customWidth="1"/>
+    <col min="2" max="2" width="35" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.75" style="124" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="77" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="77" customWidth="1"/>
+    <col min="9" max="9" width="5" style="77" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="77" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B3" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="125"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="126"/>
+    </row>
+    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="127"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="127"/>
+    </row>
+    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="127"/>
+    </row>
+    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="126"/>
+    </row>
+    <row r="9" spans="2:6" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="127"/>
+    </row>
+    <row r="10" spans="2:6" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="128"/>
+    </row>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="90" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="92"/>
+      <c r="F15" s="91"/>
+    </row>
+    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="92"/>
+      <c r="F16" s="91"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="129" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="88"/>
+      <c r="F18" s="129"/>
+    </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="129"/>
+    </row>
+    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" s="130" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="131"/>
+    </row>
+    <row r="23" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="92"/>
+      <c r="F23" s="132" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="92"/>
+      <c r="F24" s="132" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="133" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="85"/>
+      <c r="F26" s="133"/>
+    </row>
+    <row r="27" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="85"/>
+      <c r="F27" s="133"/>
+    </row>
+    <row r="28" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="134" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="134"/>
+    </row>
+    <row r="30" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="86"/>
+      <c r="F30" s="134"/>
+    </row>
+    <row r="31" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="132" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="132"/>
+    </row>
+    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="132"/>
+    </row>
+    <row r="35" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="F36" s="135" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="135"/>
+    </row>
+    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="135"/>
+    </row>
+    <row r="39" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J167"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="17" customWidth="1"/>
     <col min="9" max="9" width="6.125" style="17" customWidth="1"/>
@@ -37754,15 +37555,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="B3" s="136" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="104" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37780,28 +37581,27 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5"/>
       <c r="H6" s="2"/>
@@ -37810,61 +37610,76 @@
     </row>
     <row r="7" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="F8" s="5"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1"/>
+    <row r="9" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -37872,181 +37687,340 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" s="138" t="s">
+        <v>286</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
+      <c r="F27" s="138" t="s">
+        <v>286</v>
+      </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
+    <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="140" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
+    <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33" s="139"/>
+      <c r="G33" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
+    <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -38100,67 +38074,69 @@
       <c r="D48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
@@ -38572,10 +38548,607 @@
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F32:F33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G74"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="147" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="150" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="5" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="17" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="103"/>
+      <c r="F3" s="151"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="152"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="153"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="153"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="153"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="149" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="152"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="152"/>
+    </row>
+    <row r="10" spans="2:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="153"/>
+      <c r="G10" s="154"/>
+    </row>
+    <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="147" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="155" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="147" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="155"/>
+    </row>
+    <row r="13" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="147" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" s="156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="157" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="156"/>
+      <c r="F14" s="158"/>
+    </row>
+    <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="147" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="156" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="159"/>
+    </row>
+    <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="147" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="159"/>
+    </row>
+    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="147" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="156" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="159"/>
+    </row>
+    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="147" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="156" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="160" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="147" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" s="156" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="159"/>
+    </row>
+    <row r="20" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="147" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" s="156" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" s="159"/>
+    </row>
+    <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="156"/>
+    </row>
+    <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="147" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="156" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="159"/>
+    </row>
+    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="147" t="s">
+        <v>326</v>
+      </c>
+      <c r="E23" s="156" t="s">
+        <v>322</v>
+      </c>
+      <c r="F23" s="159"/>
+    </row>
+    <row r="24" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="147" t="s">
+        <v>328</v>
+      </c>
+      <c r="E24" s="156" t="s">
+        <v>323</v>
+      </c>
+      <c r="F24" s="160" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="147" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="156" t="s">
+        <v>324</v>
+      </c>
+      <c r="F25" s="159"/>
+    </row>
+    <row r="26" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="156"/>
+    </row>
+    <row r="27" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="147" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="150" t="s">
+        <v>340</v>
+      </c>
+      <c r="F27" s="161"/>
+      <c r="G27" s="162" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="147" t="s">
+        <v>380</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="E28" s="150" t="s">
+        <v>341</v>
+      </c>
+      <c r="F28" s="161"/>
+      <c r="G28" s="163"/>
+    </row>
+    <row r="29" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="147" t="s">
+        <v>332</v>
+      </c>
+      <c r="F29" s="161"/>
+      <c r="G29" s="163"/>
+    </row>
+    <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="147" t="s">
+        <v>378</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="E30" s="150" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30" s="164" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" s="163"/>
+    </row>
+    <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="147" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="E31" s="150" t="s">
+        <v>341</v>
+      </c>
+      <c r="F31" s="161"/>
+      <c r="G31" s="163"/>
+    </row>
+    <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="147" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="159"/>
+      <c r="G32" s="163"/>
+    </row>
+    <row r="33" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="147" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="159"/>
+      <c r="G33" s="163"/>
+    </row>
+    <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="147" t="s">
+        <v>336</v>
+      </c>
+      <c r="F34" s="159"/>
+    </row>
+    <row r="35" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="147" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" s="159"/>
+    </row>
+    <row r="36" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="147" t="s">
+        <v>339</v>
+      </c>
+      <c r="F36" s="159"/>
+    </row>
+    <row r="37" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="147" t="s">
+        <v>344</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="159"/>
+      <c r="G38" s="162" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="147" t="s">
+        <v>345</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="159"/>
+      <c r="G39" s="163"/>
+    </row>
+    <row r="40" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="147" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="159"/>
+      <c r="G40" s="163"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="147" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="159"/>
+      <c r="G41" s="163"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="147" t="s">
+        <v>347</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="160" t="s">
+        <v>343</v>
+      </c>
+      <c r="G42" s="163"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="147" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="159"/>
+      <c r="G43" s="163"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="147" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="159"/>
+      <c r="G44" s="163"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="147" t="s">
+        <v>350</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="159"/>
+      <c r="G45" s="163"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="147" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="159"/>
+      <c r="G46" s="163"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="147" t="s">
+        <v>360</v>
+      </c>
+      <c r="F48" s="159"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="147" t="s">
+        <v>356</v>
+      </c>
+      <c r="F49" s="159"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="147" t="s">
+        <v>355</v>
+      </c>
+      <c r="F50" s="159"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="147" t="s">
+        <v>357</v>
+      </c>
+      <c r="F51" s="159"/>
+    </row>
+    <row r="52" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B52" s="147" t="s">
+        <v>358</v>
+      </c>
+      <c r="F52" s="160" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="147" t="s">
+        <v>359</v>
+      </c>
+      <c r="F53" s="159"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="147" t="s">
+        <v>361</v>
+      </c>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="147" t="s">
+        <v>362</v>
+      </c>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="147" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="147" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="147" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="147" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="147" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="147" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="147" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="147" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="147" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="147" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G38:G46"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G27:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38587,11 +39160,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J166"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -38601,7 +39174,7 @@
     <col min="3" max="3" width="8.75" style="17" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="17" customWidth="1"/>
     <col min="9" max="9" width="6.125" style="17" customWidth="1"/>
@@ -38629,15 +39202,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="B3" s="102" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38711,46 +39284,66 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="147" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="155" t="s">
+        <v>305</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="147" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="155"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="147" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" s="156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="157" t="s">
+        <v>178</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -38764,47 +39357,73 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="147" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="156" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="159"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="147" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="159"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="147" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="156" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="159"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="147" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="156" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="160" t="s">
+        <v>308</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="147" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" s="156" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="159"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="147" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" s="156" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" s="159"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -38814,15 +39433,29 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
+      <c r="B22" s="144" t="s">
+        <v>325</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
+      <c r="E22" s="143" t="s">
+        <v>375</v>
+      </c>
+      <c r="F22" s="140" t="s">
+        <v>320</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
+      <c r="B23" s="144" t="s">
+        <v>376</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
+      <c r="E23" s="143" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="140"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -38832,33 +39465,55 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
+      <c r="E25" s="143" t="s">
+        <v>383</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" s="141"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
+      <c r="F27" s="142" t="s">
+        <v>329</v>
+      </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
+      <c r="F28" s="141"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
+      <c r="F29" s="141"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -39448,9 +40103,11 @@
       <c r="D166" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39504,15 +40161,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" tabRatio="884" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" tabRatio="884" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -48,12 +48,11 @@
     <sheet name="40" sheetId="52" r:id="rId39"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="448">
   <si>
     <t>استان</t>
   </si>
@@ -1507,12 +1506,39 @@
   <si>
     <t>main_vt</t>
   </si>
+  <si>
+    <t>testsheet9_rele_etesal</t>
+  </si>
+  <si>
+    <t>ir_do</t>
+  </si>
+  <si>
+    <t>tr_150</t>
+  </si>
+  <si>
+    <t>tm_150</t>
+  </si>
+  <si>
+    <t>error_150</t>
+  </si>
+  <si>
+    <t>teta_molahezat</t>
+  </si>
+  <si>
+    <t>teta_r_molahezat</t>
+  </si>
+  <si>
+    <t>سوال از احسان برای این جدول</t>
+  </si>
+  <si>
+    <t>onload</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1753,8 +1779,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1801,6 +1840,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2032,13 +2076,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2406,10 +2451,61 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2529,50 +2625,24 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -8304,21 +8374,21 @@
   <dimension ref="B1:J166"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="126" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" style="17" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="17" customWidth="1"/>
     <col min="9" max="9" width="6.109375" style="17" customWidth="1"/>
     <col min="10" max="10" width="5" style="17" customWidth="1"/>
@@ -8327,7 +8397,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="141" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -8345,21 +8415,21 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="B3" s="151" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="127" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
@@ -8372,7 +8442,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="128" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
@@ -8386,7 +8456,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="128" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
@@ -8400,7 +8470,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="128" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
@@ -8414,7 +8484,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="128" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="4"/>
@@ -8427,28 +8497,32 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:10" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="F9" s="145"/>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
+      <c r="B10" s="109" t="s">
+        <v>125</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="H11" s="2"/>
@@ -8456,31 +8530,47 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="137" t="s">
+        <v>305</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="137"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="112" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="137" t="s">
+        <v>178</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="H15" s="2"/>
@@ -8488,270 +8578,438 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="112" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="138"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="112" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="137" t="s">
+        <v>308</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="119" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" s="137" t="s">
+        <v>178</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="109" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D20" s="2"/>
+      <c r="E20" s="108" t="s">
+        <v>371</v>
+      </c>
+      <c r="F20" s="139" t="s">
+        <v>320</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="109" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D21" s="2"/>
+      <c r="E21" s="108" t="s">
+        <v>373</v>
+      </c>
+      <c r="F21" s="139"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
+      <c r="B22" s="109" t="s">
+        <v>327</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
+      <c r="F22" s="139" t="s">
+        <v>178</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
+      <c r="B23" s="109" t="s">
+        <v>417</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
+      <c r="F23" s="139"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
+      <c r="B25" s="109" t="s">
+        <v>378</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
+      <c r="F25" s="130"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
+      <c r="B26" s="109" t="s">
+        <v>379</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
+      <c r="F26" s="130"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
+      <c r="B27" s="109" t="s">
+        <v>380</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
+      <c r="F27" s="130"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
+      <c r="B28" s="109" t="s">
+        <v>381</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
+      <c r="F28" s="146" t="s">
+        <v>329</v>
+      </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
+      <c r="B29" s="109" t="s">
+        <v>440</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
+      <c r="F29" s="130"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
+      <c r="B30" s="109" t="s">
+        <v>383</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
+      <c r="F30" s="130"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
+      <c r="B31" s="109" t="s">
+        <v>388</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
+      <c r="F31" s="130"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
+      <c r="B32" s="109" t="s">
+        <v>389</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
+      <c r="F32" s="130"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
+      <c r="B34" s="109" t="s">
+        <v>391</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F34" s="130"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
+      <c r="B35" s="109" t="s">
+        <v>441</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F35" s="130"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
+      <c r="B36" s="109" t="s">
+        <v>393</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
+      <c r="F36" s="130"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
+      <c r="B37" s="109" t="s">
+        <v>394</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F37" s="130"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
+      <c r="B38" s="109" t="s">
+        <v>442</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F38" s="146" t="s">
+        <v>340</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
+      <c r="B39" s="109" t="s">
+        <v>396</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
+      <c r="F39" s="130"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
+      <c r="B40" s="109" t="s">
+        <v>397</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F40" s="130"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
+      <c r="B41" s="109" t="s">
+        <v>443</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F41" s="130"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
+      <c r="B42" s="109" t="s">
+        <v>399</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
+      <c r="F42" s="130"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
+      <c r="B43" s="109"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
+      <c r="B44" s="109" t="s">
+        <v>445</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
+      <c r="F44" s="181" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" s="189" t="s">
+        <v>446</v>
+      </c>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
+      <c r="B45" s="109" t="s">
+        <v>444</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="189"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
+      <c r="B46" s="109"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
+      <c r="F46"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="109" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D47" s="2"/>
+      <c r="F47"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D48" s="2"/>
+      <c r="F48"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="2"/>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="126" t="s">
+        <v>434</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="2"/>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="126" t="s">
+        <v>447</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="2"/>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="2"/>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="126" t="s">
+        <v>406</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="2"/>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="126" t="s">
+        <v>407</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="2"/>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="126" t="s">
+        <v>408</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
@@ -9164,9 +9422,11 @@
       <c r="D166" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="F44:F45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9220,15 +9480,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -10095,15 +10355,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -10199,7 +10459,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="138" t="s">
+      <c r="G10" s="155" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="2"/>
@@ -10214,7 +10474,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="139"/>
+      <c r="G11" s="156"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -10229,7 +10489,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="140"/>
+      <c r="G12" s="157"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -10242,7 +10502,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="141" t="s">
+      <c r="G13" s="158" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="2"/>
@@ -10257,7 +10517,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="142"/>
+      <c r="G14" s="159"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -10270,7 +10530,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="142"/>
+      <c r="G15" s="159"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -10283,7 +10543,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="142"/>
+      <c r="G16" s="159"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -10296,7 +10556,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="143"/>
+      <c r="G17" s="160"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -10311,7 +10571,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="141" t="s">
+      <c r="G18" s="158" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="2"/>
@@ -10326,7 +10586,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="142"/>
+      <c r="G19" s="159"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
@@ -10336,7 +10596,7 @@
         <v>23</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="142"/>
+      <c r="G20" s="159"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
@@ -10346,7 +10606,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="142"/>
+      <c r="G21" s="159"/>
     </row>
     <row r="22" spans="2:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
@@ -10358,7 +10618,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="143"/>
+      <c r="G22" s="160"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
@@ -10370,7 +10630,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="158" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10384,7 +10644,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="142"/>
+      <c r="G24" s="159"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
@@ -10396,7 +10656,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="142"/>
+      <c r="G25" s="159"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
@@ -10408,7 +10668,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="142"/>
+      <c r="G26" s="159"/>
     </row>
     <row r="27" spans="2:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="s">
@@ -10420,7 +10680,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="143"/>
+      <c r="G27" s="160"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
@@ -10432,10 +10692,10 @@
         <v>26</v>
       </c>
       <c r="F28" s="13"/>
-      <c r="G28" s="147" t="s">
+      <c r="G28" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="144" t="s">
+      <c r="H28" s="161" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10449,8 +10709,8 @@
         <v>27</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="145"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="162"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
@@ -10462,10 +10722,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="147" t="s">
+      <c r="G30" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="145"/>
+      <c r="H30" s="162"/>
     </row>
     <row r="31" spans="2:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="18" t="s">
@@ -10477,8 +10737,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="145"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="162"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
@@ -10490,10 +10750,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="148" t="s">
+      <c r="G32" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="145"/>
+      <c r="H32" s="162"/>
     </row>
     <row r="33" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -10505,8 +10765,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="146"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="163"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
@@ -10518,10 +10778,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="147" t="s">
+      <c r="G34" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="145" t="s">
+      <c r="H34" s="162" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10535,8 +10795,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="145"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="162"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
@@ -10548,10 +10808,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="G36" s="147" t="s">
+      <c r="G36" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="145"/>
+      <c r="H36" s="162"/>
     </row>
     <row r="37" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
@@ -10563,8 +10823,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="145"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="162"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
@@ -10576,10 +10836,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="148" t="s">
+      <c r="G38" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="145"/>
+      <c r="H38" s="162"/>
     </row>
     <row r="39" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
@@ -10591,8 +10851,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="146"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="163"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
@@ -11227,15 +11487,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12102,15 +12362,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12977,15 +13237,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -13852,15 +14112,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -14727,15 +14987,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15602,15 +15862,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -16477,15 +16737,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -17353,15 +17613,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -17483,7 +17743,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="138" t="s">
+      <c r="G12" s="155" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2"/>
@@ -17498,7 +17758,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="139"/>
+      <c r="G13" s="156"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -17513,7 +17773,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="140"/>
+      <c r="G14" s="157"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -17526,7 +17786,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="141" t="s">
+      <c r="G15" s="158" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="2"/>
@@ -17541,7 +17801,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="142"/>
+      <c r="G16" s="159"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -17554,7 +17814,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="142"/>
+      <c r="G17" s="159"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -17567,7 +17827,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="142"/>
+      <c r="G18" s="159"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -17580,7 +17840,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="143"/>
+      <c r="G19" s="160"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -17599,7 +17859,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="141" t="s">
+      <c r="G20" s="158" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="2"/>
@@ -17617,7 +17877,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="142"/>
+      <c r="G21" s="159"/>
     </row>
     <row r="22" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
@@ -17630,7 +17890,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="142"/>
+      <c r="G22" s="159"/>
     </row>
     <row r="23" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
@@ -17643,7 +17903,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="142"/>
+      <c r="G23" s="159"/>
     </row>
     <row r="24" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="18" t="s">
@@ -17657,7 +17917,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="143"/>
+      <c r="G24" s="160"/>
     </row>
     <row r="25" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
@@ -17671,7 +17931,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="141" t="s">
+      <c r="G25" s="158" t="s">
         <v>59</v>
       </c>
     </row>
@@ -17687,7 +17947,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="142"/>
+      <c r="G26" s="159"/>
     </row>
     <row r="27" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="s">
@@ -17701,7 +17961,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="142"/>
+      <c r="G27" s="159"/>
     </row>
     <row r="28" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
@@ -17715,7 +17975,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="142"/>
+      <c r="G28" s="159"/>
     </row>
     <row r="29" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="s">
@@ -17729,7 +17989,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="143"/>
+      <c r="G29" s="160"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
@@ -17741,10 +18001,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="147" t="s">
+      <c r="G30" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="144" t="s">
+      <c r="H30" s="161" t="s">
         <v>28</v>
       </c>
     </row>
@@ -17758,8 +18018,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="145"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="162"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
@@ -17771,10 +18031,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="147" t="s">
+      <c r="G32" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="145"/>
+      <c r="H32" s="162"/>
     </row>
     <row r="33" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -17786,8 +18046,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="145"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="162"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
@@ -17799,10 +18059,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="148" t="s">
+      <c r="G34" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="145"/>
+      <c r="H34" s="162"/>
     </row>
     <row r="35" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="18" t="s">
@@ -17814,8 +18074,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="146"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="163"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
@@ -17827,10 +18087,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="147" t="s">
+      <c r="G36" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="145" t="s">
+      <c r="H36" s="162" t="s">
         <v>29</v>
       </c>
     </row>
@@ -17844,8 +18104,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="145"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="162"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
@@ -17857,10 +18117,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="147" t="s">
+      <c r="G38" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="145"/>
+      <c r="H38" s="162"/>
     </row>
     <row r="39" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
@@ -17872,8 +18132,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="145"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="162"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
@@ -17885,10 +18145,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="148" t="s">
+      <c r="G40" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="145"/>
+      <c r="H40" s="162"/>
     </row>
     <row r="41" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
@@ -17900,8 +18160,8 @@
         <v>27</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="146"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="163"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
@@ -17956,7 +18216,7 @@
       <c r="E46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="131" t="s">
+      <c r="F46" s="148" t="s">
         <v>203</v>
       </c>
     </row>
@@ -17969,7 +18229,7 @@
       <c r="E47" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="132"/>
+      <c r="F47" s="149"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
@@ -17980,7 +18240,7 @@
       <c r="E48" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="132"/>
+      <c r="F48" s="149"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
@@ -17991,19 +18251,19 @@
       <c r="E49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="132"/>
+      <c r="F49" s="149"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="F50" s="132"/>
+      <c r="F50" s="149"/>
     </row>
     <row r="51" spans="2:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="2"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="F51" s="133"/>
+      <c r="F51" s="150"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
@@ -18551,15 +18811,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -19426,15 +19686,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20349,15 +20609,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21224,15 +21484,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22099,15 +22359,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22974,15 +23234,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23849,15 +24109,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -24724,15 +24984,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -25599,15 +25859,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -26437,15 +26697,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27315,12 +27575,12 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27500,7 +27760,7 @@
       <c r="F15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="150" t="s">
+      <c r="G15" s="167" t="s">
         <v>161</v>
       </c>
       <c r="H15" s="2"/>
@@ -27520,7 +27780,7 @@
       <c r="F16" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="151"/>
+      <c r="G16" s="168"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -27538,7 +27798,7 @@
       <c r="F17" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="151"/>
+      <c r="G17" s="168"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -27556,7 +27816,7 @@
       <c r="F18" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="151"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -27574,7 +27834,7 @@
       <c r="F19" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="151"/>
+      <c r="G19" s="168"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -27592,7 +27852,7 @@
       <c r="F20" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="151"/>
+      <c r="G20" s="168"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -27611,7 +27871,7 @@
       <c r="F22" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="152" t="s">
+      <c r="G22" s="169" t="s">
         <v>162</v>
       </c>
       <c r="H22" s="2"/>
@@ -27629,7 +27889,7 @@
       <c r="F23" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="152"/>
+      <c r="G23" s="169"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -27645,7 +27905,7 @@
       <c r="F24" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="152"/>
+      <c r="G24" s="169"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -27661,7 +27921,7 @@
       <c r="F25" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="152"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -27677,7 +27937,7 @@
       <c r="F26" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="G26" s="152"/>
+      <c r="G26" s="169"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -27693,7 +27953,7 @@
       <c r="F27" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="152"/>
+      <c r="G27" s="169"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27728,7 +27988,7 @@
         <v>158</v>
       </c>
       <c r="E31"/>
-      <c r="F31" s="156" t="s">
+      <c r="F31" s="173" t="s">
         <v>134</v>
       </c>
       <c r="G31" s="53"/>
@@ -27742,7 +28002,7 @@
         <v>158</v>
       </c>
       <c r="E32"/>
-      <c r="F32" s="156"/>
+      <c r="F32" s="173"/>
       <c r="G32" s="53"/>
       <c r="H32" s="2"/>
     </row>
@@ -27754,7 +28014,7 @@
         <v>158</v>
       </c>
       <c r="E33"/>
-      <c r="F33" s="156"/>
+      <c r="F33" s="173"/>
       <c r="G33" s="53"/>
       <c r="H33" s="2"/>
     </row>
@@ -27772,7 +28032,7 @@
         <v>144</v>
       </c>
       <c r="E35"/>
-      <c r="F35" s="156" t="s">
+      <c r="F35" s="173" t="s">
         <v>135</v>
       </c>
       <c r="G35" s="53"/>
@@ -27786,7 +28046,7 @@
         <v>144</v>
       </c>
       <c r="E36"/>
-      <c r="F36" s="156"/>
+      <c r="F36" s="173"/>
       <c r="G36" s="71"/>
       <c r="H36" s="2"/>
     </row>
@@ -27798,7 +28058,7 @@
         <v>144</v>
       </c>
       <c r="E37"/>
-      <c r="F37" s="156"/>
+      <c r="F37" s="173"/>
       <c r="G37" s="53"/>
       <c r="H37" s="2"/>
     </row>
@@ -27816,7 +28076,7 @@
         <v>144</v>
       </c>
       <c r="E39"/>
-      <c r="F39" s="156" t="s">
+      <c r="F39" s="173" t="s">
         <v>136</v>
       </c>
       <c r="G39" s="53"/>
@@ -27830,7 +28090,7 @@
         <v>144</v>
       </c>
       <c r="E40"/>
-      <c r="F40" s="156"/>
+      <c r="F40" s="173"/>
       <c r="G40" s="53"/>
       <c r="H40" s="2"/>
     </row>
@@ -27842,7 +28102,7 @@
         <v>144</v>
       </c>
       <c r="E41"/>
-      <c r="F41" s="156"/>
+      <c r="F41" s="173"/>
       <c r="G41" s="53"/>
       <c r="H41" s="2"/>
     </row>
@@ -27973,10 +28233,10 @@
       <c r="C56" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="155" t="s">
+      <c r="F56" s="172" t="s">
         <v>202</v>
       </c>
-      <c r="G56" s="153" t="s">
+      <c r="G56" s="170" t="s">
         <v>195</v>
       </c>
     </row>
@@ -27987,8 +28247,8 @@
       <c r="C57" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="155"/>
-      <c r="G57" s="154"/>
+      <c r="F57" s="172"/>
+      <c r="G57" s="171"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="39" t="s">
@@ -27998,8 +28258,8 @@
         <v>144</v>
       </c>
       <c r="D58"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="154"/>
+      <c r="F58" s="172"/>
+      <c r="G58" s="171"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="39" t="s">
@@ -28008,8 +28268,8 @@
       <c r="C59" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F59" s="155"/>
-      <c r="G59" s="154"/>
+      <c r="F59" s="172"/>
+      <c r="G59" s="171"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="39" t="s">
@@ -28113,15 +28373,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28988,15 +29248,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29863,15 +30123,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30738,15 +30998,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31613,15 +31873,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32488,15 +32748,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33363,15 +33623,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34238,15 +34498,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35113,15 +35373,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35988,15 +36248,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -36859,15 +37119,15 @@
       <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="175" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="153" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="159"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="176"/>
     </row>
     <row r="4" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
@@ -36881,13 +37141,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="59"/>
-      <c r="F4" s="160" t="s">
+      <c r="F4" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
     </row>
     <row r="5" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
@@ -36901,11 +37161,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="61"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
     </row>
     <row r="6" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
@@ -36919,11 +37179,11 @@
         <v>12</v>
       </c>
       <c r="E6" s="61"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
     </row>
     <row r="7" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
@@ -36937,11 +37197,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="61"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="174"/>
     </row>
     <row r="8" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
@@ -37024,10 +37284,10 @@
       <c r="C15" s="63"/>
       <c r="D15" s="63"/>
       <c r="E15" s="69"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="62" t="s">
@@ -37039,10 +37299,10 @@
       <c r="C16" s="63"/>
       <c r="D16" s="63"/>
       <c r="E16" s="69"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
@@ -37054,12 +37314,12 @@
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
       <c r="E17" s="69"/>
-      <c r="F17" s="160" t="s">
+      <c r="F17" s="177" t="s">
         <v>215</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="62" t="s">
@@ -37071,10 +37331,10 @@
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
       <c r="E18" s="69"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
@@ -37086,10 +37346,10 @@
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
       <c r="E19" s="69"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="62" t="s">
@@ -37101,10 +37361,10 @@
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
       <c r="E20" s="69"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
     </row>
     <row r="21" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="62"/>
@@ -37777,15 +38037,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="178" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="153" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38178,7 +38438,7 @@
       <c r="E32" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F32" s="163" t="s">
+      <c r="F32" s="180" t="s">
         <v>297</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -38195,7 +38455,7 @@
       <c r="E33" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F33" s="164"/>
+      <c r="F33" s="181"/>
       <c r="G33" s="6" t="s">
         <v>286</v>
       </c>
@@ -38832,15 +39092,15 @@
     </row>
     <row r="2" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="167"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="184"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -38923,7 +39183,7 @@
       <c r="E11" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="168" t="s">
+      <c r="F11" s="185" t="s">
         <v>305</v>
       </c>
     </row>
@@ -38934,7 +39194,7 @@
       <c r="E12" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="168"/>
+      <c r="F12" s="185"/>
     </row>
     <row r="13" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="112" t="s">
@@ -39062,7 +39322,7 @@
         <v>337</v>
       </c>
       <c r="F27" s="124"/>
-      <c r="G27" s="165" t="s">
+      <c r="G27" s="182" t="s">
         <v>331</v>
       </c>
     </row>
@@ -39077,14 +39337,14 @@
         <v>338</v>
       </c>
       <c r="F28" s="124"/>
-      <c r="G28" s="166"/>
+      <c r="G28" s="183"/>
     </row>
     <row r="29" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="112" t="s">
         <v>332</v>
       </c>
       <c r="F29" s="124"/>
-      <c r="G29" s="166"/>
+      <c r="G29" s="183"/>
     </row>
     <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="112" t="s">
@@ -39099,7 +39359,7 @@
       <c r="F30" s="125" t="s">
         <v>329</v>
       </c>
-      <c r="G30" s="166"/>
+      <c r="G30" s="183"/>
     </row>
     <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="112" t="s">
@@ -39112,21 +39372,21 @@
         <v>338</v>
       </c>
       <c r="F31" s="124"/>
-      <c r="G31" s="166"/>
+      <c r="G31" s="183"/>
     </row>
     <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="112" t="s">
         <v>333</v>
       </c>
       <c r="F32" s="122"/>
-      <c r="G32" s="166"/>
+      <c r="G32" s="183"/>
     </row>
     <row r="33" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="112" t="s">
         <v>334</v>
       </c>
       <c r="F33" s="122"/>
-      <c r="G33" s="166"/>
+      <c r="G33" s="183"/>
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="112" t="s">
@@ -39155,7 +39415,7 @@
         <v>144</v>
       </c>
       <c r="F38" s="122"/>
-      <c r="G38" s="165" t="s">
+      <c r="G38" s="182" t="s">
         <v>350</v>
       </c>
     </row>
@@ -39167,7 +39427,7 @@
         <v>144</v>
       </c>
       <c r="F39" s="122"/>
-      <c r="G39" s="166"/>
+      <c r="G39" s="183"/>
     </row>
     <row r="40" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="112" t="s">
@@ -39177,7 +39437,7 @@
         <v>144</v>
       </c>
       <c r="F40" s="122"/>
-      <c r="G40" s="166"/>
+      <c r="G40" s="183"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="112" t="s">
@@ -39187,7 +39447,7 @@
         <v>144</v>
       </c>
       <c r="F41" s="122"/>
-      <c r="G41" s="166"/>
+      <c r="G41" s="183"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="112" t="s">
@@ -39199,7 +39459,7 @@
       <c r="F42" s="123" t="s">
         <v>340</v>
       </c>
-      <c r="G42" s="166"/>
+      <c r="G42" s="183"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="112" t="s">
@@ -39209,7 +39469,7 @@
         <v>144</v>
       </c>
       <c r="F43" s="122"/>
-      <c r="G43" s="166"/>
+      <c r="G43" s="183"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="112" t="s">
@@ -39219,7 +39479,7 @@
         <v>144</v>
       </c>
       <c r="F44" s="122"/>
-      <c r="G44" s="166"/>
+      <c r="G44" s="183"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="112" t="s">
@@ -39229,7 +39489,7 @@
         <v>144</v>
       </c>
       <c r="F45" s="122"/>
-      <c r="G45" s="166"/>
+      <c r="G45" s="183"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="112" t="s">
@@ -39239,7 +39499,7 @@
         <v>144</v>
       </c>
       <c r="F46" s="122"/>
-      <c r="G46" s="166"/>
+      <c r="G46" s="183"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="112" t="s">
@@ -39424,15 +39684,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>410</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -39537,7 +39797,7 @@
       <c r="E11" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="168" t="s">
+      <c r="F11" s="185" t="s">
         <v>305</v>
       </c>
       <c r="H11" s="2"/>
@@ -39551,7 +39811,7 @@
       <c r="E12" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="168"/>
+      <c r="F12" s="185"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -39663,7 +39923,7 @@
       <c r="E22" s="108" t="s">
         <v>371</v>
       </c>
-      <c r="F22" s="163" t="s">
+      <c r="F22" s="180" t="s">
         <v>320</v>
       </c>
       <c r="H22" s="2"/>
@@ -39677,7 +39937,7 @@
       <c r="E23" s="108" t="s">
         <v>373</v>
       </c>
-      <c r="F23" s="163"/>
+      <c r="F23" s="180"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -39697,10 +39957,10 @@
       <c r="E25" s="108" t="s">
         <v>387</v>
       </c>
-      <c r="F25" s="163" t="s">
+      <c r="F25" s="180" t="s">
         <v>329</v>
       </c>
-      <c r="G25" s="169" t="s">
+      <c r="G25" s="186" t="s">
         <v>386</v>
       </c>
       <c r="H25" s="2"/>
@@ -39716,8 +39976,8 @@
       <c r="E26" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F26" s="163"/>
-      <c r="G26" s="169"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="186"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -39726,8 +39986,8 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="169"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="186"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -39736,8 +39996,8 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="169"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="186"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -39751,8 +40011,8 @@
       <c r="E29" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F29" s="163"/>
-      <c r="G29" s="169"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="186"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -39766,7 +40026,7 @@
       <c r="E30" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G30" s="169"/>
+      <c r="G30" s="186"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -39775,7 +40035,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="G31" s="169"/>
+      <c r="G31" s="186"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -39806,7 +40066,7 @@
       <c r="E34" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F34" s="163" t="s">
+      <c r="F34" s="180" t="s">
         <v>340</v>
       </c>
       <c r="H34" s="2"/>
@@ -39820,7 +40080,7 @@
       <c r="E35" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F35" s="163"/>
+      <c r="F35" s="180"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -39834,7 +40094,7 @@
       <c r="E36" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F36" s="163"/>
+      <c r="F36" s="180"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -39846,7 +40106,7 @@
       <c r="E37" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F37" s="163"/>
+      <c r="F37" s="180"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -39858,7 +40118,7 @@
       <c r="E38" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F38" s="163"/>
+      <c r="F38" s="180"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -39872,7 +40132,7 @@
       <c r="E39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F39" s="163"/>
+      <c r="F39" s="180"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
@@ -39884,7 +40144,7 @@
       <c r="E40" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F40" s="163"/>
+      <c r="F40" s="180"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
@@ -39896,7 +40156,7 @@
       <c r="E41" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F41" s="163"/>
+      <c r="F41" s="180"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -39922,7 +40182,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="G44" s="169" t="s">
+      <c r="G44" s="186" t="s">
         <v>386</v>
       </c>
       <c r="H44" s="2"/>
@@ -39933,7 +40193,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="G45" s="169"/>
+      <c r="G45" s="186"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -39945,7 +40205,7 @@
       <c r="E46" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G46" s="169"/>
+      <c r="G46" s="186"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -39954,7 +40214,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="G47" s="169"/>
+      <c r="G47" s="186"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -39963,34 +40223,34 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="G48" s="169"/>
+      <c r="G48" s="186"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="129" t="s">
         <v>406</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="G49" s="169"/>
+      <c r="G49" s="186"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="129" t="s">
         <v>407</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="G50" s="169"/>
+      <c r="G50" s="186"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="130" t="s">
+      <c r="B51" s="129" t="s">
         <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="130" t="s">
+      <c r="B52" s="129" t="s">
         <v>409</v>
       </c>
       <c r="C52" s="2"/>
@@ -40474,10 +40734,10 @@
   <dimension ref="B1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -40486,8 +40746,8 @@
     <col min="2" max="2" width="33.6640625" style="126" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" style="17" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.21875" style="171" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.21875" style="132" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="17" customWidth="1"/>
     <col min="9" max="9" width="6.109375" style="17" customWidth="1"/>
@@ -40497,7 +40757,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="141" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -40506,24 +40766,24 @@
       <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="170" t="s">
+      <c r="F1" s="131" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="151" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="129" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="191" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="172"/>
+      <c r="F3" s="133"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -40536,7 +40796,7 @@
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="173"/>
+      <c r="F4" s="134"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -40550,7 +40810,7 @@
       <c r="E5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="174"/>
+      <c r="F5" s="135"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -40564,7 +40824,7 @@
       <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="174"/>
+      <c r="F6" s="135"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -40578,7 +40838,7 @@
       <c r="E7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="174"/>
+      <c r="F7" s="135"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -40592,7 +40852,7 @@
       <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="173"/>
+      <c r="F8" s="134"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -40606,16 +40866,16 @@
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="174"/>
+      <c r="F9" s="135"/>
     </row>
     <row r="10" spans="2:10" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="142" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="175"/>
+      <c r="F10" s="136"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="109"/>
@@ -40632,7 +40892,7 @@
       <c r="E12" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="176" t="s">
+      <c r="F12" s="137" t="s">
         <v>305</v>
       </c>
       <c r="H12" s="2"/>
@@ -40646,7 +40906,7 @@
       <c r="E13" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="176"/>
+      <c r="F13" s="137"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -40658,7 +40918,7 @@
       <c r="E14" s="119" t="s">
         <v>306</v>
       </c>
-      <c r="F14" s="176" t="s">
+      <c r="F14" s="137" t="s">
         <v>178</v>
       </c>
       <c r="H14" s="2"/>
@@ -40680,7 +40940,7 @@
       <c r="E16" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="177"/>
+      <c r="F16" s="138"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -40692,7 +40952,7 @@
       <c r="E17" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="176" t="s">
+      <c r="F17" s="137" t="s">
         <v>308</v>
       </c>
       <c r="H17" s="2"/>
@@ -40706,7 +40966,7 @@
       <c r="E18" s="119" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="176" t="s">
+      <c r="F18" s="137" t="s">
         <v>178</v>
       </c>
       <c r="H18" s="2"/>
@@ -40730,7 +40990,7 @@
       <c r="E20" s="108" t="s">
         <v>371</v>
       </c>
-      <c r="F20" s="178" t="s">
+      <c r="F20" s="139" t="s">
         <v>320</v>
       </c>
       <c r="H20" s="2"/>
@@ -40746,7 +41006,7 @@
       <c r="E21" s="108" t="s">
         <v>373</v>
       </c>
-      <c r="F21" s="178"/>
+      <c r="F21" s="139"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -40755,7 +41015,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="178" t="s">
+      <c r="F22" s="139" t="s">
         <v>178</v>
       </c>
       <c r="H22" s="2"/>
@@ -40766,7 +41026,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="F23" s="178"/>
+      <c r="F23" s="139"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -40786,7 +41046,7 @@
       <c r="E25" s="109" t="s">
         <v>375</v>
       </c>
-      <c r="F25" s="179" t="s">
+      <c r="F25" s="187" t="s">
         <v>420</v>
       </c>
       <c r="H25" s="2"/>
@@ -40802,7 +41062,7 @@
       <c r="E26" s="109" t="s">
         <v>375</v>
       </c>
-      <c r="F26" s="179"/>
+      <c r="F26" s="187"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -40816,7 +41076,7 @@
       <c r="E27" s="109" t="s">
         <v>418</v>
       </c>
-      <c r="F27" s="179"/>
+      <c r="F27" s="187"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -40830,7 +41090,7 @@
       <c r="E28" s="109" t="s">
         <v>375</v>
       </c>
-      <c r="F28" s="179"/>
+      <c r="F28" s="187"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -40844,7 +41104,7 @@
       <c r="E29" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F29" s="179"/>
+      <c r="F29" s="187"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -40853,7 +41113,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="179"/>
+      <c r="F30" s="187"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -40862,7 +41122,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="F31" s="179"/>
+      <c r="F31" s="187"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -40880,7 +41140,7 @@
       <c r="E33" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F33" s="179" t="s">
+      <c r="F33" s="187" t="s">
         <v>340</v>
       </c>
       <c r="H33" s="2"/>
@@ -40891,7 +41151,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="F34" s="179"/>
+      <c r="F34" s="187"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -40903,7 +41163,7 @@
       <c r="E35" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F35" s="179"/>
+      <c r="F35" s="187"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -40912,7 +41172,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="179"/>
+      <c r="F36" s="187"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -40930,7 +41190,7 @@
       <c r="E38" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F38" s="179" t="s">
+      <c r="F38" s="187" t="s">
         <v>425</v>
       </c>
       <c r="H38" s="2"/>
@@ -40941,7 +41201,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="179"/>
+      <c r="F39" s="187"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
@@ -40953,7 +41213,7 @@
       <c r="E40" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F40" s="179"/>
+      <c r="F40" s="187"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
@@ -40962,7 +41222,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="F41" s="179"/>
+      <c r="F41" s="187"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -40981,10 +41241,10 @@
       <c r="B44" s="109"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="181" t="s">
+      <c r="F44" s="140" t="s">
         <v>432</v>
       </c>
-      <c r="G44" s="169" t="s">
+      <c r="G44" s="186" t="s">
         <v>433</v>
       </c>
       <c r="H44" s="2"/>
@@ -40993,7 +41253,7 @@
       <c r="B45" s="109"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="G45" s="180"/>
+      <c r="G45" s="188"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
@@ -41001,56 +41261,56 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="129" t="s">
         <v>402</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="130" t="s">
+      <c r="B48" s="129" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="129" t="s">
         <v>434</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="129" t="s">
         <v>405</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="130" t="s">
+      <c r="B51" s="129" t="s">
         <v>436</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="130" t="s">
+      <c r="B52" s="129" t="s">
         <v>435</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="129" t="s">
         <v>437</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="130" t="s">
+      <c r="B54" s="129" t="s">
         <v>438</v>
       </c>
       <c r="C54" s="2"/>

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -47,12 +47,15 @@
     <sheet name="39" sheetId="51" r:id="rId38"/>
     <sheet name="40" sheetId="52" r:id="rId39"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'12'!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="561">
   <si>
     <t>استان</t>
   </si>
@@ -1712,12 +1715,234 @@
   <si>
     <t>TYPE OF FUALT</t>
   </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>DROP OUT TEST</t>
+  </si>
+  <si>
+    <t>relay_target2</t>
+  </si>
+  <si>
+    <t>جريان عملكرد شده با آزمايش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جریان reset شدن رله  </t>
+  </si>
+  <si>
+    <t>TIME SET</t>
+  </si>
+  <si>
+    <t>Iset_1/2</t>
+  </si>
+  <si>
+    <t>t_op</t>
+  </si>
+  <si>
+    <t>t_set</t>
+  </si>
+  <si>
+    <t>سوال از احسان برای طراحی این جدول و نحوه گرفتن 2 مقدار برا فیلد Top</t>
+  </si>
+  <si>
+    <t>t_op_error</t>
+  </si>
+  <si>
+    <t>fault_event_recoder_test</t>
+  </si>
+  <si>
+    <t>lockout_relay_blocking</t>
+  </si>
+  <si>
+    <t>onload_test_on_directional</t>
+  </si>
+  <si>
+    <t>barrasi_test_kalibre</t>
+  </si>
+  <si>
+    <t>بررسی کالیبره بودن لوازم تست</t>
+  </si>
+  <si>
+    <t>barrasi_test_lavazem</t>
+  </si>
+  <si>
+    <t>بررسی کافی بودن لوازم تست</t>
+  </si>
+  <si>
+    <t>barrasi_tanzimat_anjamshode</t>
+  </si>
+  <si>
+    <t>بررسی تنظیمات انجام شده</t>
+  </si>
+  <si>
+    <t>از احسان پرسیده شود این</t>
+  </si>
+  <si>
+    <t>testsheet_azmayesh_rele_ashkalkelid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               تست شیت  برگ آزمايش رله اشكال كليد </t>
+  </si>
+  <si>
+    <t>زمان تنظيمي: بر حسب  میلی  ثانیه</t>
+  </si>
+  <si>
+    <t>zaman_tanzimi_marhale1</t>
+  </si>
+  <si>
+    <t>zaviye_tanzimi_marhale2</t>
+  </si>
+  <si>
+    <t>PICK UP/DROP TEST</t>
+  </si>
+  <si>
+    <t>error1</t>
+  </si>
+  <si>
+    <t>جريان عملكرد در آزمايش</t>
+  </si>
+  <si>
+    <t>جریان ریست شدن رله</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TYPE OF FUALT  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> A</t>
+    </r>
+  </si>
+  <si>
+    <t>is_pu2</t>
+  </si>
+  <si>
+    <t>error3</t>
+  </si>
+  <si>
+    <t>error4</t>
+  </si>
+  <si>
+    <t>molahezat2</t>
+  </si>
+  <si>
+    <t>ir_do2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TYPE OF FUALT  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TYPE OF FUALT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">  C</t>
+    </r>
+  </si>
+  <si>
+    <t>is_pu3</t>
+  </si>
+  <si>
+    <t>im3</t>
+  </si>
+  <si>
+    <t>error5</t>
+  </si>
+  <si>
+    <t>relay_target3</t>
+  </si>
+  <si>
+    <t>ir_do3</t>
+  </si>
+  <si>
+    <t>error6</t>
+  </si>
+  <si>
+    <t>molahezat3</t>
+  </si>
+  <si>
+    <t>مرحله ی TS</t>
+  </si>
+  <si>
+    <t>Ts زمان تنظیمی</t>
+  </si>
+  <si>
+    <t>ts_150</t>
+  </si>
+  <si>
+    <t>ts_step1</t>
+  </si>
+  <si>
+    <t>ts_step2</t>
+  </si>
+  <si>
+    <t>ts_molahezat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm_150 </t>
+  </si>
+  <si>
+    <t>tm_step1</t>
+  </si>
+  <si>
+    <t>tm_step2</t>
+  </si>
+  <si>
+    <t>مرحله یTM</t>
+  </si>
+  <si>
+    <t>زمان اندازه گيري</t>
+  </si>
+  <si>
+    <t>every 2 years with dispaching</t>
+  </si>
+  <si>
+    <t>inter_trip_send</t>
+  </si>
+  <si>
+    <t>inter_trip_recive</t>
+  </si>
+  <si>
+    <t>fault_event_recorder</t>
+  </si>
+  <si>
+    <t>onload_test_on_cbc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1986,8 +2211,29 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2041,8 +2287,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2269,6 +2521,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2277,7 +2589,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2714,9 +3026,6 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2733,6 +3042,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2861,8 +3209,242 @@
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3282,16 +3864,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>60613</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>883226</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>77932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
+      <xdr:colOff>69272</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>164524</xdr:rowOff>
+      <xdr:rowOff>86592</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3300,8 +3882,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7013863" y="406112"/>
-          <a:ext cx="2957080" cy="663287"/>
+          <a:off x="7871112" y="329046"/>
+          <a:ext cx="3351069" cy="684069"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8600,10 +9182,10 @@
   <dimension ref="B1:J166"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -8641,15 +9223,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>439</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -8762,7 +9344,7 @@
       <c r="E12" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="152" t="s">
         <v>305</v>
       </c>
       <c r="H12" s="2"/>
@@ -8795,7 +9377,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="109"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -8803,68 +9385,72 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="112" t="s">
+    <row r="16" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="223" t="s">
         <v>315</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="232" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="138"/>
+      <c r="F16" s="246"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="226" t="s">
         <v>316</v>
       </c>
       <c r="E17" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="137" t="s">
+      <c r="F17" s="251" t="s">
         <v>308</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="112" t="s">
+    <row r="18" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="228" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="119" t="s">
+      <c r="C18" s="229"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="230" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="137" t="s">
+      <c r="F18" s="231" t="s">
         <v>178</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="109"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="109" t="s">
+    <row r="20" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="233" t="s">
         <v>325</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="160" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="108" t="s">
+      <c r="D20" s="160"/>
+      <c r="E20" s="234" t="s">
         <v>371</v>
       </c>
-      <c r="F20" s="139"/>
+      <c r="F20" s="247"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="236" t="s">
         <v>372</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -8874,30 +9460,31 @@
       <c r="E21" s="108" t="s">
         <v>373</v>
       </c>
-      <c r="F21" s="139"/>
+      <c r="F21" s="248"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="236" t="s">
         <v>327</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="139" t="s">
+      <c r="F22" s="252" t="s">
         <v>320</v>
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="109" t="s">
+    <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="238" t="s">
         <v>417</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="139"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="249"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B24" s="109"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -8936,7 +9523,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="F28" s="146" t="s">
+      <c r="F28" s="250" t="s">
         <v>329</v>
       </c>
       <c r="H28" s="2"/>
@@ -9096,10 +9683,10 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="192" t="s">
+      <c r="F44" s="204" t="s">
         <v>351</v>
       </c>
-      <c r="G44" s="200" t="s">
+      <c r="G44" s="212" t="s">
         <v>446</v>
       </c>
       <c r="H44" s="2"/>
@@ -9110,8 +9697,8 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="192"/>
-      <c r="G45" s="200"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="212"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -9663,10 +10250,10 @@
   <dimension ref="B1:J168"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="B12:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9704,15 +10291,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>462</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -9804,23 +10391,27 @@
       <c r="E10" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="61"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
+      <c r="F11" s="165"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="112" t="s">
+    <row r="12" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="153" t="s">
+      <c r="F12" s="225" t="s">
         <v>305</v>
       </c>
       <c r="H12" s="2"/>
@@ -9828,32 +10419,34 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="226" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="137"/>
+      <c r="F13" s="227"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="112" t="s">
+    <row r="14" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="228" t="s">
         <v>307</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="230" t="s">
         <v>306</v>
       </c>
-      <c r="F14" s="137" t="s">
+      <c r="F14" s="231" t="s">
         <v>178</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9861,18 +10454,18 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="109" t="s">
+    <row r="16" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="233" t="s">
         <v>325</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="160" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="108" t="s">
+      <c r="D16" s="160"/>
+      <c r="E16" s="234" t="s">
         <v>371</v>
       </c>
-      <c r="F16" s="152" t="s">
+      <c r="F16" s="235" t="s">
         <v>178</v>
       </c>
       <c r="H16" s="2"/>
@@ -9880,7 +10473,7 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="236" t="s">
         <v>372</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -9890,20 +10483,21 @@
       <c r="E17" s="108" t="s">
         <v>373</v>
       </c>
-      <c r="F17" s="152" t="s">
+      <c r="F17" s="237" t="s">
         <v>448</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="109" t="s">
+    <row r="18" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="238" t="s">
         <v>449</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="F18" s="152"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="239"/>
       <c r="G18" s="149" t="s">
         <v>286</v>
       </c>
@@ -9911,7 +10505,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="109" t="s">
         <v>178</v>
       </c>
@@ -9920,22 +10514,22 @@
       <c r="F19"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="108" t="s">
+    <row r="20" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="240" t="s">
         <v>378</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="108" t="s">
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="234" t="s">
         <v>450</v>
       </c>
-      <c r="F20" s="191" t="s">
+      <c r="F20" s="241" t="s">
         <v>329</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="242" t="s">
         <v>452</v>
       </c>
       <c r="C21" s="2"/>
@@ -9943,29 +10537,29 @@
       <c r="E21" s="108" t="s">
         <v>451</v>
       </c>
-      <c r="F21" s="192"/>
+      <c r="F21" s="243"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="162" t="s">
         <v>380</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="192"/>
+      <c r="F22" s="243"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="162" t="s">
         <v>453</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="F23" s="192"/>
+      <c r="F23" s="243"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="162" t="s">
         <v>440</v>
       </c>
       <c r="C24" s="2"/>
@@ -9973,11 +10567,11 @@
       <c r="E24" s="108" t="s">
         <v>454</v>
       </c>
-      <c r="F24" s="192"/>
+      <c r="F24" s="243"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="162" t="s">
         <v>455</v>
       </c>
       <c r="C25" s="2"/>
@@ -9985,29 +10579,31 @@
       <c r="E25" s="108" t="s">
         <v>451</v>
       </c>
-      <c r="F25" s="192"/>
+      <c r="F25" s="243"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="162" t="s">
         <v>388</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="192"/>
+      <c r="F26" s="243"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="244" t="s">
         <v>389</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="164"/>
+      <c r="D27" s="164" t="s">
         <v>414</v>
       </c>
+      <c r="E27" s="164"/>
+      <c r="F27" s="245"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10669,7 +11265,7 @@
   <dimension ref="B1:J173"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G25" sqref="B25:G29"/>
@@ -10710,21 +11306,21 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>463</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="153" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="144"/>
@@ -10816,7 +11412,7 @@
         <v>466</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="172" t="s">
+      <c r="G11" s="184" t="s">
         <v>465</v>
       </c>
     </row>
@@ -10830,7 +11426,7 @@
         <v>468</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="173"/>
+      <c r="G12" s="185"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
@@ -10842,7 +11438,7 @@
         <v>469</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="173"/>
+      <c r="G13" s="185"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
@@ -10854,7 +11450,7 @@
         <v>472</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="173"/>
+      <c r="G14" s="185"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
@@ -10866,7 +11462,7 @@
         <v>473</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="173"/>
+      <c r="G15" s="185"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
@@ -10884,7 +11480,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="172" t="s">
+      <c r="G17" s="184" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2"/>
@@ -10899,7 +11495,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="173"/>
+      <c r="G18" s="185"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -10914,7 +11510,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="174"/>
+      <c r="G19" s="186"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -10927,7 +11523,7 @@
         <v>479</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="175" t="s">
+      <c r="G20" s="187" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="2"/>
@@ -10942,7 +11538,7 @@
         <v>482</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="176"/>
+      <c r="G21" s="188"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -10955,7 +11551,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="176"/>
+      <c r="G22" s="188"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -10968,7 +11564,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="176"/>
+      <c r="G23" s="188"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -10981,7 +11577,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="177"/>
+      <c r="G24" s="189"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -10996,7 +11592,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="175" t="s">
+      <c r="G25" s="187" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="2"/>
@@ -11011,7 +11607,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="176"/>
+      <c r="G26" s="188"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="16" t="s">
@@ -11021,7 +11617,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="176"/>
+      <c r="G27" s="188"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
@@ -11031,7 +11627,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="176"/>
+      <c r="G28" s="188"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
@@ -11043,7 +11639,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="177"/>
+      <c r="G29" s="189"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
@@ -11055,7 +11651,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="175" t="s">
+      <c r="G30" s="187" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11069,7 +11665,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="176"/>
+      <c r="G31" s="188"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
@@ -11081,7 +11677,7 @@
         <v>23</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="176"/>
+      <c r="G32" s="188"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
@@ -11093,7 +11689,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="176"/>
+      <c r="G33" s="188"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
@@ -11105,7 +11701,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="177"/>
+      <c r="G34" s="189"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
@@ -11117,10 +11713,10 @@
         <v>26</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="162" t="s">
+      <c r="G35" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="159" t="s">
+      <c r="H35" s="171" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11134,8 +11730,8 @@
         <v>27</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="160"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="172"/>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
@@ -11147,10 +11743,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="162" t="s">
+      <c r="G37" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="160"/>
+      <c r="H37" s="172"/>
     </row>
     <row r="38" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
@@ -11162,8 +11758,8 @@
         <v>27</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="160"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="172"/>
     </row>
     <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
@@ -11175,10 +11771,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="13"/>
-      <c r="G39" s="163" t="s">
+      <c r="G39" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="160"/>
+      <c r="H39" s="172"/>
     </row>
     <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
@@ -11190,8 +11786,8 @@
         <v>27</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="161"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="173"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
@@ -11203,10 +11799,10 @@
         <v>26</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="162" t="s">
+      <c r="G41" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="160" t="s">
+      <c r="H41" s="172" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11220,8 +11816,8 @@
         <v>27</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="160"/>
+      <c r="G42" s="176"/>
+      <c r="H42" s="172"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
@@ -11233,10 +11829,10 @@
         <v>26</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="162" t="s">
+      <c r="G43" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="160"/>
+      <c r="H43" s="172"/>
     </row>
     <row r="44" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
@@ -11248,8 +11844,8 @@
         <v>27</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="160"/>
+      <c r="G44" s="176"/>
+      <c r="H44" s="172"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
@@ -11261,10 +11857,10 @@
         <v>26</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="163" t="s">
+      <c r="G45" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="160"/>
+      <c r="H45" s="172"/>
     </row>
     <row r="46" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
@@ -11276,8 +11872,8 @@
         <v>27</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="161"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="173"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
@@ -11871,11 +12467,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="F58" sqref="B58:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -11883,11 +12479,11 @@
     <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.625" style="17" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8" style="17" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="47" style="17" customWidth="1"/>
     <col min="9" max="9" width="6.125" style="17" customWidth="1"/>
     <col min="10" max="10" width="5" style="17" customWidth="1"/>
     <col min="11" max="11" width="12.375" style="2" customWidth="1"/>
@@ -11913,28 +12509,29 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>484</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>483</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="155" t="s">
+      <c r="C4" s="217"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="221"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -11995,24 +12592,27 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" s="155" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="156" t="s">
+    <row r="9" spans="2:10" s="154" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="155" t="s">
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="158"/>
-    </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="F9" s="157"/>
+    </row>
+    <row r="10" spans="2:10" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="222" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="215"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
@@ -12032,7 +12632,7 @@
         <v>466</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="172" t="s">
+      <c r="G12" s="184" t="s">
         <v>465</v>
       </c>
       <c r="H12" s="2"/>
@@ -12047,7 +12647,7 @@
         <v>468</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="173"/>
+      <c r="G13" s="185"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -12060,7 +12660,7 @@
         <v>469</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="173"/>
+      <c r="G14" s="185"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -12073,20 +12673,22 @@
         <v>472</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="173"/>
+      <c r="G15" s="185"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="173"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="186"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -12117,7 +12719,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="175" t="s">
+      <c r="G19" s="187" t="s">
         <v>490</v>
       </c>
       <c r="H19" s="2"/>
@@ -12130,7 +12732,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="176"/>
+      <c r="G20" s="188"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -12141,7 +12743,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="176"/>
+      <c r="G21" s="188"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12152,7 +12754,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="176"/>
+      <c r="G22" s="188"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12165,7 +12767,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="177"/>
+      <c r="G23" s="189"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12184,10 +12786,10 @@
         <v>496</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="175" t="s">
+      <c r="G25" s="187" t="s">
         <v>491</v>
       </c>
-      <c r="H25" s="155" t="s">
+      <c r="H25" s="154" t="s">
         <v>493</v>
       </c>
     </row>
@@ -12199,7 +12801,7 @@
         <v>495</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="176"/>
+      <c r="G26" s="188"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12210,7 +12812,7 @@
         <v>178</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="176"/>
+      <c r="G27" s="188"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12223,13 +12825,13 @@
         <v>178</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="177"/>
+      <c r="G28" s="189"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="G29" s="201"/>
+      <c r="G29"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12243,201 +12845,417 @@
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="15"/>
+        <v>378</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>414</v>
+      </c>
       <c r="D31" s="15"/>
       <c r="E31" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="175" t="s">
+        <v>499</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G31" s="187" t="s">
         <v>497</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
-        <v>178</v>
+        <v>452</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="176"/>
+        <v>499</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G32" s="188"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
-        <v>178</v>
+        <v>380</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>414</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>178</v>
+        <v>500</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="176"/>
+      <c r="G33" s="188"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="10"/>
+        <v>453</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>414</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10" t="s">
-        <v>178</v>
+        <v>499</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="177"/>
+      <c r="G34" s="189"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="B36" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="G36" s="187" t="s">
+        <v>501</v>
+      </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="B37" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G37" s="188"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="B38" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G38" s="188"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+    <row r="39" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="189"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+    <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="G41" s="187" t="s">
+        <v>505</v>
+      </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+    <row r="42" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G42" s="188"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="188"/>
+      <c r="H43" s="158" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="189"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+    <row r="46" spans="2:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="159" t="s">
+        <v>402</v>
+      </c>
+      <c r="C46" s="160" t="s">
+        <v>414</v>
+      </c>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="161"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="162" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D47" s="2"/>
+      <c r="F47" s="59"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="162" t="s">
+        <v>511</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D48" s="2"/>
+      <c r="F48" s="59"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="2"/>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="2"/>
+      <c r="F49" s="59"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F50" s="59"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="58"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
+      <c r="F51" s="59"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="2"/>
+      <c r="F52" s="59"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="2"/>
+      <c r="F53" s="59"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="2"/>
+      <c r="F54" s="59"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F55" s="59"/>
+    </row>
+    <row r="56" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="163" t="s">
+        <v>409</v>
+      </c>
+      <c r="C56" s="164" t="s">
+        <v>414</v>
+      </c>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="165"/>
+    </row>
+    <row r="57" spans="2:6" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="177" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="178"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="178"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="178"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="169" t="s">
+        <v>516</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F62" s="178"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F63" s="178"/>
+    </row>
+    <row r="64" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="170" t="s">
+        <v>518</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="168" t="s">
+        <v>519</v>
+      </c>
+      <c r="F64" s="179"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
@@ -12848,15 +13666,18 @@
       <c r="D166" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="G25:G28"/>
+  <mergeCells count="9">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="G25:G28"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12864,24 +13685,24 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J166"/>
+  <dimension ref="B1:J171"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74:F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="17" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="267" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="267" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="17" customWidth="1"/>
     <col min="9" max="9" width="6.125" style="17" customWidth="1"/>
     <col min="10" max="10" width="5" style="17" customWidth="1"/>
@@ -12906,483 +13727,881 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="B3" s="180" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="181"/>
+      <c r="D3" s="216" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="F4" s="273"/>
     </row>
     <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="128" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="273"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="128" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="273"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="128" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="273"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="128" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="274"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="262" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="274"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
+    <row r="10" spans="2:10" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="263" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="268" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="275"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="109"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+    <row r="12" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="223" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="232" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="225" t="s">
+        <v>305</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="226" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="251"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+    <row r="14" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="228" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="230" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="276" t="s">
+        <v>178</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
+    <row r="15" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="109"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+    <row r="16" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="223" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="232" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="277"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="226" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="251" t="s">
+        <v>308</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="228" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="229"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="230" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" s="276" t="s">
+        <v>178</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
+    <row r="19" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="109"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="233" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="160" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="160"/>
+      <c r="E20" s="269" t="s">
+        <v>371</v>
+      </c>
+      <c r="F20" s="278"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="236" t="s">
+        <v>524</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D21" s="2"/>
+      <c r="E21" s="270" t="s">
+        <v>523</v>
+      </c>
+      <c r="F21" s="252" t="s">
+        <v>320</v>
+      </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="238" t="s">
+        <v>525</v>
+      </c>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="279"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
+    <row r="23" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="109"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+    <row r="24" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="233" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="272" t="s">
+        <v>337</v>
+      </c>
+      <c r="F24" s="280" t="s">
+        <v>530</v>
+      </c>
+      <c r="G24" s="253" t="s">
+        <v>178</v>
+      </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
+      <c r="B25" s="236" t="s">
+        <v>379</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
+      <c r="E25" s="267" t="s">
+        <v>528</v>
+      </c>
+      <c r="F25" s="281"/>
+      <c r="G25" s="254" t="s">
+        <v>178</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
+      <c r="B26" s="236" t="s">
+        <v>527</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
+      <c r="F26" s="281"/>
+      <c r="G26" s="254"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
+      <c r="B27" s="236" t="s">
+        <v>453</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
+      <c r="F27" s="281"/>
+      <c r="G27" s="254"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
+      <c r="B28" s="236" t="s">
+        <v>440</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
+      <c r="E28" s="267" t="s">
+        <v>529</v>
+      </c>
+      <c r="F28" s="281"/>
+      <c r="G28" s="255" t="s">
+        <v>526</v>
+      </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
+      <c r="B29" s="236" t="s">
+        <v>379</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
+      <c r="F29" s="281"/>
+      <c r="G29" s="256"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
+      <c r="B30" s="236" t="s">
+        <v>388</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
+      <c r="F30" s="281"/>
+      <c r="G30" s="256"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="238" t="s">
+        <v>389</v>
+      </c>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="282"/>
+      <c r="G31" s="257"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
+    <row r="32" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="109"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+    <row r="33" spans="2:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="233" t="s">
+        <v>531</v>
+      </c>
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="272" t="s">
+        <v>337</v>
+      </c>
+      <c r="F33" s="280" t="s">
+        <v>536</v>
+      </c>
+      <c r="G33" s="253" t="s">
+        <v>178</v>
+      </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
+      <c r="B34" s="236" t="s">
+        <v>383</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
+      <c r="E34" s="267" t="s">
+        <v>528</v>
+      </c>
+      <c r="F34" s="281"/>
+      <c r="G34" s="254" t="s">
+        <v>178</v>
+      </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
+      <c r="B35" s="236" t="s">
+        <v>532</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
+      <c r="F35" s="281"/>
+      <c r="G35" s="254"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
+      <c r="B36" s="236" t="s">
+        <v>502</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
+      <c r="F36" s="281"/>
+      <c r="G36" s="254"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
+      <c r="B37" s="236" t="s">
+        <v>535</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
+      <c r="E37" s="267" t="s">
+        <v>529</v>
+      </c>
+      <c r="F37" s="281"/>
+      <c r="G37" s="255" t="s">
+        <v>526</v>
+      </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
+      <c r="B38" s="236" t="s">
+        <v>383</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
+      <c r="F38" s="281"/>
+      <c r="G38" s="256"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
+      <c r="B39" s="236" t="s">
+        <v>533</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
+      <c r="F39" s="281"/>
+      <c r="G39" s="256"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+    <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="238" t="s">
+        <v>534</v>
+      </c>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
+      <c r="E40" s="271"/>
+      <c r="F40" s="282"/>
+      <c r="G40" s="257"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
+    <row r="41" spans="2:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="109"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+    <row r="42" spans="2:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="233" t="s">
+        <v>538</v>
+      </c>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="272" t="s">
+        <v>337</v>
+      </c>
+      <c r="F42" s="280" t="s">
+        <v>537</v>
+      </c>
+      <c r="G42" s="253" t="s">
+        <v>178</v>
+      </c>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
+      <c r="B43" s="236" t="s">
+        <v>539</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
+      <c r="E43" s="267" t="s">
+        <v>528</v>
+      </c>
+      <c r="F43" s="281"/>
+      <c r="G43" s="254" t="s">
+        <v>178</v>
+      </c>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
+      <c r="B44" s="236" t="s">
+        <v>540</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
+      <c r="F44" s="281"/>
+      <c r="G44" s="254"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
+      <c r="B45" s="236" t="s">
+        <v>541</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
+      <c r="F45" s="281"/>
+      <c r="G45" s="254"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
+    <row r="46" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="236" t="s">
+        <v>542</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
+      <c r="E46" s="267" t="s">
+        <v>529</v>
+      </c>
+      <c r="F46" s="281"/>
+      <c r="G46" s="255" t="s">
+        <v>526</v>
+      </c>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
+      <c r="B47" s="236" t="s">
+        <v>539</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
+      <c r="F47" s="281"/>
+      <c r="G47" s="256"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="2"/>
+      <c r="B48" s="236" t="s">
+        <v>543</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
+      <c r="F48" s="281"/>
+      <c r="G48" s="256"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="238" t="s">
+        <v>544</v>
+      </c>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="271"/>
+      <c r="F49" s="282"/>
+      <c r="G49" s="257"/>
+    </row>
+    <row r="50" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="126"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="264" t="s">
+        <v>547</v>
+      </c>
+      <c r="C51" s="160"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="272" t="s">
+        <v>546</v>
+      </c>
+      <c r="F51" s="283" t="s">
+        <v>545</v>
+      </c>
+      <c r="G51" s="259" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="265" t="s">
+        <v>548</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="267" t="s">
+        <v>546</v>
+      </c>
+      <c r="F52" s="284"/>
+      <c r="G52" s="260"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="265" t="s">
+        <v>549</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="267" t="s">
+        <v>546</v>
+      </c>
+      <c r="F53" s="284"/>
+      <c r="G53" s="260"/>
+    </row>
+    <row r="54" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="266" t="s">
+        <v>550</v>
+      </c>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="271" t="s">
+        <v>546</v>
+      </c>
+      <c r="F54" s="285"/>
+      <c r="G54" s="261"/>
+    </row>
+    <row r="55" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="126"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="264" t="s">
+        <v>551</v>
+      </c>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="272" t="s">
+        <v>555</v>
+      </c>
+      <c r="F56" s="283" t="s">
+        <v>554</v>
+      </c>
+      <c r="G56" s="259" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="265" t="s">
+        <v>552</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="267" t="s">
+        <v>555</v>
+      </c>
+      <c r="F57" s="284"/>
+      <c r="G57" s="260"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="265" t="s">
+        <v>553</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="267" t="s">
+        <v>555</v>
+      </c>
+      <c r="F58" s="284"/>
+      <c r="G58" s="260"/>
+    </row>
+    <row r="59" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="266" t="s">
+        <v>396</v>
+      </c>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="271" t="s">
+        <v>555</v>
+      </c>
+      <c r="F59" s="285"/>
+      <c r="G59" s="261"/>
+    </row>
+    <row r="60" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="126"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="264" t="s">
+        <v>402</v>
+      </c>
+      <c r="C61" s="160"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="272" t="s">
+        <v>556</v>
+      </c>
+      <c r="F61" s="272"/>
+      <c r="G61" s="161"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="289" t="s">
+        <v>557</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="G62" s="59"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="265" t="s">
+        <v>558</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="G63" s="59"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="265" t="s">
+        <v>65</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="G64" s="59"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="265" t="s">
+        <v>559</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="G65" s="59"/>
+    </row>
+    <row r="66" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="266" t="s">
+        <v>560</v>
+      </c>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="271"/>
+      <c r="F66" s="271"/>
+      <c r="G66" s="165"/>
+    </row>
+    <row r="67" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="126"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="290" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="272"/>
+      <c r="F68" s="272"/>
+      <c r="G68" s="161"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="289" t="s">
+        <v>406</v>
+      </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="G69" s="59"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="289" t="s">
+        <v>407</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="G70" s="59"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="289" t="s">
+        <v>408</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="G71" s="59"/>
+    </row>
+    <row r="72" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="291" t="s">
+        <v>409</v>
+      </c>
+      <c r="C72" s="164"/>
+      <c r="D72" s="164"/>
+      <c r="E72" s="271"/>
+      <c r="F72" s="271"/>
+      <c r="G72" s="165"/>
+    </row>
+    <row r="73" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="258" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="160"/>
+      <c r="D74" s="160"/>
+      <c r="E74" s="272" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="286" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="58" t="s">
+        <v>84</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="267" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" s="287"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="58" t="s">
+        <v>81</v>
+      </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="267" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="287"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="58" t="s">
+        <v>82</v>
+      </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="267" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="287"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="58" t="s">
+        <v>516</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="267" t="s">
+        <v>517</v>
+      </c>
+      <c r="F78" s="287"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="162" t="s">
+        <v>514</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="267" t="s">
+        <v>515</v>
+      </c>
+      <c r="F79" s="287"/>
+    </row>
+    <row r="80" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="244" t="s">
+        <v>518</v>
+      </c>
+      <c r="C80" s="164"/>
+      <c r="D80" s="164"/>
+      <c r="E80" s="271" t="s">
+        <v>519</v>
+      </c>
+      <c r="F80" s="288"/>
+    </row>
+    <row r="81" spans="3:4" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
@@ -13726,10 +14945,38 @@
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="F74:F80"/>
+    <mergeCell ref="F42:F49"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G56:G59"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F24:F31"/>
+    <mergeCell ref="F33:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13783,15 +15030,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -14658,15 +15905,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15533,15 +16780,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -16408,15 +17655,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -17283,15 +18530,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -18115,13 +19362,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:J170"/>
+  <dimension ref="B1:J173"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="B49" sqref="B49:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -18159,15 +19406,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -18289,7 +19536,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="172" t="s">
+      <c r="G12" s="184" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2"/>
@@ -18304,7 +19551,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="173"/>
+      <c r="G13" s="185"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -18319,7 +19566,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="174"/>
+      <c r="G14" s="186"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -18332,7 +19579,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="175" t="s">
+      <c r="G15" s="187" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="2"/>
@@ -18347,7 +19594,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="176"/>
+      <c r="G16" s="188"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -18360,7 +19607,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="176"/>
+      <c r="G17" s="188"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -18373,7 +19620,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="176"/>
+      <c r="G18" s="188"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -18386,7 +19633,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="177"/>
+      <c r="G19" s="189"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -18405,7 +19652,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="175" t="s">
+      <c r="G20" s="187" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="2"/>
@@ -18423,7 +19670,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="176"/>
+      <c r="G21" s="188"/>
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
@@ -18436,7 +19683,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="176"/>
+      <c r="G22" s="188"/>
     </row>
     <row r="23" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
@@ -18449,7 +19696,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="176"/>
+      <c r="G23" s="188"/>
     </row>
     <row r="24" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
@@ -18463,7 +19710,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="177"/>
+      <c r="G24" s="189"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
@@ -18477,7 +19724,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="175" t="s">
+      <c r="G25" s="187" t="s">
         <v>59</v>
       </c>
     </row>
@@ -18493,7 +19740,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="176"/>
+      <c r="G26" s="188"/>
     </row>
     <row r="27" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -18507,7 +19754,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="176"/>
+      <c r="G27" s="188"/>
     </row>
     <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
@@ -18521,7 +19768,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="176"/>
+      <c r="G28" s="188"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
@@ -18535,7 +19782,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="177"/>
+      <c r="G29" s="189"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
@@ -18547,10 +19794,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="162" t="s">
+      <c r="G30" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="159" t="s">
+      <c r="H30" s="171" t="s">
         <v>28</v>
       </c>
     </row>
@@ -18564,8 +19811,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="160"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="172"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
@@ -18577,10 +19824,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="162" t="s">
+      <c r="G32" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="160"/>
+      <c r="H32" s="172"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
@@ -18592,8 +19839,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="160"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="172"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
@@ -18605,10 +19852,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="163" t="s">
+      <c r="G34" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="160"/>
+      <c r="H34" s="172"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
@@ -18620,8 +19867,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="161"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="173"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
@@ -18633,10 +19880,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="162" t="s">
+      <c r="G36" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="160" t="s">
+      <c r="H36" s="172" t="s">
         <v>29</v>
       </c>
     </row>
@@ -18650,8 +19897,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="160"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="172"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
@@ -18663,10 +19910,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="162" t="s">
+      <c r="G38" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="160"/>
+      <c r="H38" s="172"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
@@ -18678,8 +19925,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="160"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="172"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
@@ -18691,10 +19938,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="163" t="s">
+      <c r="G40" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="160"/>
+      <c r="H40" s="172"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
@@ -18706,8 +19953,8 @@
         <v>27</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="161"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="173"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
@@ -18742,86 +19989,94 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="7" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="165" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
-        <v>84</v>
-      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="166"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="166"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="166"/>
+      <c r="B49" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="177" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="2"/>
+      <c r="B50" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="F50" s="166"/>
-    </row>
-    <row r="51" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="F51" s="167"/>
+      <c r="E50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="178"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="178"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="178"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="166"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="F53" s="178"/>
+    </row>
+    <row r="54" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="167"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="179"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
@@ -19287,9 +20542,21 @@
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="F49:F54"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G12:G14"/>
@@ -19357,15 +20624,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20232,15 +21499,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21155,15 +22422,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22030,15 +23297,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22905,15 +24172,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23780,15 +25047,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -24655,15 +25922,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -25530,15 +26797,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -26405,15 +27672,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27243,15 +28510,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28077,7 +29344,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
@@ -28121,12 +29388,12 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28306,7 +29573,7 @@
       <c r="F15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="178" t="s">
+      <c r="G15" s="190" t="s">
         <v>161</v>
       </c>
       <c r="H15" s="2"/>
@@ -28326,7 +29593,7 @@
       <c r="F16" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="179"/>
+      <c r="G16" s="191"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -28344,7 +29611,7 @@
       <c r="F17" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="179"/>
+      <c r="G17" s="191"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -28362,7 +29629,7 @@
       <c r="F18" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="179"/>
+      <c r="G18" s="191"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -28380,7 +29647,7 @@
       <c r="F19" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="179"/>
+      <c r="G19" s="191"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -28398,7 +29665,7 @@
       <c r="F20" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="179"/>
+      <c r="G20" s="191"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -28417,7 +29684,7 @@
       <c r="F22" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="180" t="s">
+      <c r="G22" s="192" t="s">
         <v>162</v>
       </c>
       <c r="H22" s="2"/>
@@ -28435,7 +29702,7 @@
       <c r="F23" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="180"/>
+      <c r="G23" s="192"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -28451,7 +29718,7 @@
       <c r="F24" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="180"/>
+      <c r="G24" s="192"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -28467,7 +29734,7 @@
       <c r="F25" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="180"/>
+      <c r="G25" s="192"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -28483,7 +29750,7 @@
       <c r="F26" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="G26" s="180"/>
+      <c r="G26" s="192"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -28499,7 +29766,7 @@
       <c r="F27" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="180"/>
+      <c r="G27" s="192"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28534,7 +29801,7 @@
         <v>158</v>
       </c>
       <c r="E31"/>
-      <c r="F31" s="184" t="s">
+      <c r="F31" s="196" t="s">
         <v>134</v>
       </c>
       <c r="G31" s="53"/>
@@ -28548,7 +29815,7 @@
         <v>158</v>
       </c>
       <c r="E32"/>
-      <c r="F32" s="184"/>
+      <c r="F32" s="196"/>
       <c r="G32" s="53"/>
       <c r="H32" s="2"/>
     </row>
@@ -28560,7 +29827,7 @@
         <v>158</v>
       </c>
       <c r="E33"/>
-      <c r="F33" s="184"/>
+      <c r="F33" s="196"/>
       <c r="G33" s="53"/>
       <c r="H33" s="2"/>
     </row>
@@ -28578,7 +29845,7 @@
         <v>144</v>
       </c>
       <c r="E35"/>
-      <c r="F35" s="184" t="s">
+      <c r="F35" s="196" t="s">
         <v>135</v>
       </c>
       <c r="G35" s="53"/>
@@ -28592,7 +29859,7 @@
         <v>144</v>
       </c>
       <c r="E36"/>
-      <c r="F36" s="184"/>
+      <c r="F36" s="196"/>
       <c r="G36" s="71"/>
       <c r="H36" s="2"/>
     </row>
@@ -28604,7 +29871,7 @@
         <v>144</v>
       </c>
       <c r="E37"/>
-      <c r="F37" s="184"/>
+      <c r="F37" s="196"/>
       <c r="G37" s="53"/>
       <c r="H37" s="2"/>
     </row>
@@ -28622,7 +29889,7 @@
         <v>144</v>
       </c>
       <c r="E39"/>
-      <c r="F39" s="184" t="s">
+      <c r="F39" s="196" t="s">
         <v>136</v>
       </c>
       <c r="G39" s="53"/>
@@ -28636,7 +29903,7 @@
         <v>144</v>
       </c>
       <c r="E40"/>
-      <c r="F40" s="184"/>
+      <c r="F40" s="196"/>
       <c r="G40" s="53"/>
       <c r="H40" s="2"/>
     </row>
@@ -28648,7 +29915,7 @@
         <v>144</v>
       </c>
       <c r="E41"/>
-      <c r="F41" s="184"/>
+      <c r="F41" s="196"/>
       <c r="G41" s="53"/>
       <c r="H41" s="2"/>
     </row>
@@ -28779,10 +30046,10 @@
       <c r="C56" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="183" t="s">
+      <c r="F56" s="195" t="s">
         <v>202</v>
       </c>
-      <c r="G56" s="181" t="s">
+      <c r="G56" s="193" t="s">
         <v>195</v>
       </c>
     </row>
@@ -28793,8 +30060,8 @@
       <c r="C57" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="183"/>
-      <c r="G57" s="182"/>
+      <c r="F57" s="195"/>
+      <c r="G57" s="194"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="39" t="s">
@@ -28804,8 +30071,8 @@
         <v>144</v>
       </c>
       <c r="D58"/>
-      <c r="F58" s="183"/>
-      <c r="G58" s="182"/>
+      <c r="F58" s="195"/>
+      <c r="G58" s="194"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="39" t="s">
@@ -28814,8 +30081,8 @@
       <c r="C59" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F59" s="183"/>
-      <c r="G59" s="182"/>
+      <c r="F59" s="195"/>
+      <c r="G59" s="194"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="39" t="s">
@@ -28919,15 +30186,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29794,15 +31061,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30669,15 +31936,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31544,15 +32811,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32419,15 +33686,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33294,15 +34561,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34169,15 +35436,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35044,15 +36311,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35919,15 +37186,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -36794,15 +38061,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37627,7 +38894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:J7"/>
     </sheetView>
   </sheetViews>
@@ -37665,15 +38932,15 @@
       <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="170" t="s">
+      <c r="B3" s="181"/>
+      <c r="C3" s="182" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="187"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="199"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
@@ -37687,13 +38954,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="59"/>
-      <c r="F4" s="188" t="s">
+      <c r="F4" s="200" t="s">
         <v>204</v>
       </c>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
@@ -37707,11 +38974,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="61"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A6" s="60" t="s">
@@ -37725,11 +38992,11 @@
         <v>12</v>
       </c>
       <c r="E6" s="61"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A7" s="60" t="s">
@@ -37743,11 +39010,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="61"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
@@ -37830,10 +39097,10 @@
       <c r="C15" s="63"/>
       <c r="D15" s="63"/>
       <c r="E15" s="69"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="197"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
@@ -37845,10 +39112,10 @@
       <c r="C16" s="63"/>
       <c r="D16" s="63"/>
       <c r="E16" s="69"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
@@ -37860,12 +39127,12 @@
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
       <c r="E17" s="69"/>
-      <c r="F17" s="188" t="s">
+      <c r="F17" s="200" t="s">
         <v>215</v>
       </c>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="62" t="s">
@@ -37877,10 +39144,10 @@
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
       <c r="E18" s="69"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="62" t="s">
@@ -37892,10 +39159,10 @@
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
       <c r="E19" s="69"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="62" t="s">
@@ -37907,10 +39174,10 @@
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
       <c r="E20" s="69"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="185"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="197"/>
     </row>
     <row r="21" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
@@ -38093,7 +39360,7 @@
   <dimension ref="B1:F39"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
@@ -38542,7 +39809,7 @@
   <dimension ref="B1:J167"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
@@ -38583,15 +39850,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="201" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="202"/>
+      <c r="D3" s="182" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38984,7 +40251,7 @@
       <c r="E32" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F32" s="191" t="s">
+      <c r="F32" s="203" t="s">
         <v>297</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -39001,7 +40268,7 @@
       <c r="E33" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F33" s="192"/>
+      <c r="F33" s="204"/>
       <c r="G33" s="6" t="s">
         <v>286</v>
       </c>
@@ -39597,7 +40864,7 @@
   <dimension ref="B1:G74"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
@@ -39638,15 +40905,15 @@
     </row>
     <row r="2" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="195"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="207"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
@@ -39729,7 +40996,7 @@
       <c r="E11" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="196" t="s">
+      <c r="F11" s="208" t="s">
         <v>305</v>
       </c>
     </row>
@@ -39740,7 +41007,7 @@
       <c r="E12" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="196"/>
+      <c r="F12" s="208"/>
     </row>
     <row r="13" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="112" t="s">
@@ -39868,7 +41135,7 @@
         <v>337</v>
       </c>
       <c r="F27" s="124"/>
-      <c r="G27" s="193" t="s">
+      <c r="G27" s="205" t="s">
         <v>331</v>
       </c>
     </row>
@@ -39883,14 +41150,14 @@
         <v>338</v>
       </c>
       <c r="F28" s="124"/>
-      <c r="G28" s="194"/>
+      <c r="G28" s="206"/>
     </row>
     <row r="29" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="112" t="s">
         <v>332</v>
       </c>
       <c r="F29" s="124"/>
-      <c r="G29" s="194"/>
+      <c r="G29" s="206"/>
     </row>
     <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="112" t="s">
@@ -39905,7 +41172,7 @@
       <c r="F30" s="125" t="s">
         <v>329</v>
       </c>
-      <c r="G30" s="194"/>
+      <c r="G30" s="206"/>
     </row>
     <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="112" t="s">
@@ -39918,21 +41185,21 @@
         <v>338</v>
       </c>
       <c r="F31" s="124"/>
-      <c r="G31" s="194"/>
+      <c r="G31" s="206"/>
     </row>
     <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="112" t="s">
         <v>333</v>
       </c>
       <c r="F32" s="122"/>
-      <c r="G32" s="194"/>
+      <c r="G32" s="206"/>
     </row>
     <row r="33" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="112" t="s">
         <v>334</v>
       </c>
       <c r="F33" s="122"/>
-      <c r="G33" s="194"/>
+      <c r="G33" s="206"/>
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="112" t="s">
@@ -39961,7 +41228,7 @@
         <v>144</v>
       </c>
       <c r="F38" s="122"/>
-      <c r="G38" s="193" t="s">
+      <c r="G38" s="205" t="s">
         <v>350</v>
       </c>
     </row>
@@ -39973,7 +41240,7 @@
         <v>144</v>
       </c>
       <c r="F39" s="122"/>
-      <c r="G39" s="194"/>
+      <c r="G39" s="206"/>
     </row>
     <row r="40" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="112" t="s">
@@ -39983,7 +41250,7 @@
         <v>144</v>
       </c>
       <c r="F40" s="122"/>
-      <c r="G40" s="194"/>
+      <c r="G40" s="206"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="112" t="s">
@@ -39993,7 +41260,7 @@
         <v>144</v>
       </c>
       <c r="F41" s="122"/>
-      <c r="G41" s="194"/>
+      <c r="G41" s="206"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="112" t="s">
@@ -40005,7 +41272,7 @@
       <c r="F42" s="123" t="s">
         <v>340</v>
       </c>
-      <c r="G42" s="194"/>
+      <c r="G42" s="206"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="112" t="s">
@@ -40015,7 +41282,7 @@
         <v>144</v>
       </c>
       <c r="F43" s="122"/>
-      <c r="G43" s="194"/>
+      <c r="G43" s="206"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="112" t="s">
@@ -40025,7 +41292,7 @@
         <v>144</v>
       </c>
       <c r="F44" s="122"/>
-      <c r="G44" s="194"/>
+      <c r="G44" s="206"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="112" t="s">
@@ -40035,7 +41302,7 @@
         <v>144</v>
       </c>
       <c r="F45" s="122"/>
-      <c r="G45" s="194"/>
+      <c r="G45" s="206"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="112" t="s">
@@ -40045,7 +41312,7 @@
         <v>144</v>
       </c>
       <c r="F46" s="122"/>
-      <c r="G46" s="194"/>
+      <c r="G46" s="206"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="112" t="s">
@@ -40230,15 +41497,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>410</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -40343,7 +41610,7 @@
       <c r="E11" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="196" t="s">
+      <c r="F11" s="208" t="s">
         <v>305</v>
       </c>
       <c r="H11" s="2"/>
@@ -40357,7 +41624,7 @@
       <c r="E12" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="196"/>
+      <c r="F12" s="208"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -40469,7 +41736,7 @@
       <c r="E22" s="108" t="s">
         <v>371</v>
       </c>
-      <c r="F22" s="191" t="s">
+      <c r="F22" s="203" t="s">
         <v>320</v>
       </c>
       <c r="H22" s="2"/>
@@ -40483,7 +41750,7 @@
       <c r="E23" s="108" t="s">
         <v>373</v>
       </c>
-      <c r="F23" s="191"/>
+      <c r="F23" s="203"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -40503,10 +41770,10 @@
       <c r="E25" s="108" t="s">
         <v>387</v>
       </c>
-      <c r="F25" s="191" t="s">
+      <c r="F25" s="203" t="s">
         <v>329</v>
       </c>
-      <c r="G25" s="197" t="s">
+      <c r="G25" s="209" t="s">
         <v>386</v>
       </c>
       <c r="H25" s="2"/>
@@ -40522,8 +41789,8 @@
       <c r="E26" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F26" s="191"/>
-      <c r="G26" s="197"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="209"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -40532,8 +41799,8 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="F27" s="191"/>
-      <c r="G27" s="197"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="209"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -40542,8 +41809,8 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="197"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="209"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -40557,8 +41824,8 @@
       <c r="E29" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F29" s="191"/>
-      <c r="G29" s="197"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="209"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -40572,7 +41839,7 @@
       <c r="E30" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G30" s="197"/>
+      <c r="G30" s="209"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -40581,7 +41848,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="G31" s="197"/>
+      <c r="G31" s="209"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -40612,7 +41879,7 @@
       <c r="E34" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F34" s="191" t="s">
+      <c r="F34" s="203" t="s">
         <v>340</v>
       </c>
       <c r="H34" s="2"/>
@@ -40626,7 +41893,7 @@
       <c r="E35" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F35" s="191"/>
+      <c r="F35" s="203"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -40640,7 +41907,7 @@
       <c r="E36" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F36" s="191"/>
+      <c r="F36" s="203"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -40652,7 +41919,7 @@
       <c r="E37" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F37" s="191"/>
+      <c r="F37" s="203"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -40664,7 +41931,7 @@
       <c r="E38" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F38" s="191"/>
+      <c r="F38" s="203"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -40678,7 +41945,7 @@
       <c r="E39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F39" s="191"/>
+      <c r="F39" s="203"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -40690,7 +41957,7 @@
       <c r="E40" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F40" s="191"/>
+      <c r="F40" s="203"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -40702,7 +41969,7 @@
       <c r="E41" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F41" s="191"/>
+      <c r="F41" s="203"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -40728,7 +41995,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="G44" s="197" t="s">
+      <c r="G44" s="209" t="s">
         <v>386</v>
       </c>
       <c r="H44" s="2"/>
@@ -40739,7 +42006,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="G45" s="197"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -40751,7 +42018,7 @@
       <c r="E46" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G46" s="197"/>
+      <c r="G46" s="209"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -40760,7 +42027,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="G47" s="197"/>
+      <c r="G47" s="209"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -40769,7 +42036,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="G48" s="197"/>
+      <c r="G48" s="209"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -40778,7 +42045,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="G49" s="197"/>
+      <c r="G49" s="209"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="129" t="s">
@@ -40786,7 +42053,7 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="G50" s="197"/>
+      <c r="G50" s="209"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="129" t="s">
@@ -41321,10 +42588,10 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="180" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="169"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="150"/>
       <c r="E3" s="151" t="s">
         <v>92</v>
@@ -41592,7 +42859,7 @@
       <c r="E25" s="109" t="s">
         <v>375</v>
       </c>
-      <c r="F25" s="198" t="s">
+      <c r="F25" s="210" t="s">
         <v>420</v>
       </c>
       <c r="H25" s="2"/>
@@ -41608,7 +42875,7 @@
       <c r="E26" s="109" t="s">
         <v>375</v>
       </c>
-      <c r="F26" s="198"/>
+      <c r="F26" s="210"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -41622,7 +42889,7 @@
       <c r="E27" s="109" t="s">
         <v>418</v>
       </c>
-      <c r="F27" s="198"/>
+      <c r="F27" s="210"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -41636,7 +42903,7 @@
       <c r="E28" s="109" t="s">
         <v>375</v>
       </c>
-      <c r="F28" s="198"/>
+      <c r="F28" s="210"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -41650,7 +42917,7 @@
       <c r="E29" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F29" s="198"/>
+      <c r="F29" s="210"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -41659,7 +42926,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="198"/>
+      <c r="F30" s="210"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -41668,7 +42935,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="F31" s="198"/>
+      <c r="F31" s="210"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -41686,7 +42953,7 @@
       <c r="E33" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F33" s="198" t="s">
+      <c r="F33" s="210" t="s">
         <v>340</v>
       </c>
       <c r="H33" s="2"/>
@@ -41697,7 +42964,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="F34" s="198"/>
+      <c r="F34" s="210"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -41709,7 +42976,7 @@
       <c r="E35" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F35" s="198"/>
+      <c r="F35" s="210"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -41718,7 +42985,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="198"/>
+      <c r="F36" s="210"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -41736,7 +43003,7 @@
       <c r="E38" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F38" s="198" t="s">
+      <c r="F38" s="210" t="s">
         <v>425</v>
       </c>
       <c r="H38" s="2"/>
@@ -41747,7 +43014,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="198"/>
+      <c r="F39" s="210"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -41759,7 +43026,7 @@
       <c r="E40" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F40" s="198"/>
+      <c r="F40" s="210"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -41768,7 +43035,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="F41" s="198"/>
+      <c r="F41" s="210"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -41790,7 +43057,7 @@
       <c r="F44" s="140" t="s">
         <v>432</v>
       </c>
-      <c r="G44" s="197" t="s">
+      <c r="G44" s="209" t="s">
         <v>433</v>
       </c>
       <c r="H44" s="2"/>
@@ -41799,7 +43066,7 @@
       <c r="B45" s="109"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="G45" s="199"/>
+      <c r="G45" s="211"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="598">
   <si>
     <t>استان</t>
   </si>
@@ -2141,6 +2141,81 @@
   </si>
   <si>
     <t>testsheet14_azmayesh_rele_ezafe_bar</t>
+  </si>
+  <si>
+    <t>testsheet15_rele_ezafe_bar</t>
+  </si>
+  <si>
+    <t>تست شیترگ آزمايش رله اضافه بار با زمان معين</t>
+  </si>
+  <si>
+    <t>voltazh</t>
+  </si>
+  <si>
+    <t>ولتاژ</t>
+  </si>
+  <si>
+    <t>realy_target1</t>
+  </si>
+  <si>
+    <t>ir_do_amp_1</t>
+  </si>
+  <si>
+    <t>realy_target2</t>
+  </si>
+  <si>
+    <t>ir_do_amp3</t>
+  </si>
+  <si>
+    <t>realy_target3</t>
+  </si>
+  <si>
+    <t>ir_do_amp2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phase            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>R       X_is</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phase          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>S       X_is</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phase        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> T       X_is</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2849,7 +2924,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3566,23 +3641,140 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3623,6 +3815,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3655,6 +3871,18 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3704,6 +3932,18 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3713,6 +3953,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3721,9 +3967,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3743,176 +3986,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3923,16 +3998,31 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3944,44 +4034,68 @@
     <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9759,110 +9873,110 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="305" t="s">
+      <c r="B3" s="350" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="306"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="351"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="310" t="s">
+      <c r="B4" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="311"/>
-      <c r="D4" s="311"/>
-      <c r="E4" s="312" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="313"/>
+      <c r="F4" s="249"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="312"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312" t="s">
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="314"/>
+      <c r="F5" s="250"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="310" t="s">
+      <c r="B6" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="312"/>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312" t="s">
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="314"/>
+      <c r="F6" s="250"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="310" t="s">
+      <c r="B7" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="312"/>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312" t="s">
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="314"/>
+      <c r="F7" s="250"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="310" t="s">
+      <c r="B8" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="312"/>
-      <c r="D8" s="312"/>
-      <c r="E8" s="312" t="s">
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="313"/>
+      <c r="F8" s="249"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="310" t="s">
+      <c r="B9" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="312"/>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312" t="s">
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="314"/>
+      <c r="F9" s="250"/>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="315" t="s">
+      <c r="B10" s="251" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="311"/>
-      <c r="D10" s="311"/>
-      <c r="E10" s="312" t="s">
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="311"/>
+      <c r="F10" s="247"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -10221,10 +10335,10 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="296" t="s">
+      <c r="F44" s="353" t="s">
         <v>349</v>
       </c>
-      <c r="G44" s="295" t="s">
+      <c r="G44" s="352" t="s">
         <v>433</v>
       </c>
       <c r="H44" s="2"/>
@@ -10235,8 +10349,8 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="296"/>
-      <c r="G45" s="295"/>
+      <c r="F45" s="353"/>
+      <c r="G45" s="352"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -10829,15 +10943,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11061,7 +11175,7 @@
       <c r="E20" s="159" t="s">
         <v>437</v>
       </c>
-      <c r="F20" s="297" t="s">
+      <c r="F20" s="354" t="s">
         <v>327</v>
       </c>
       <c r="H20" s="2"/>
@@ -11075,7 +11189,7 @@
       <c r="E21" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F21" s="280"/>
+      <c r="F21" s="331"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11084,7 +11198,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="280"/>
+      <c r="F22" s="331"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11093,7 +11207,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="F23" s="280"/>
+      <c r="F23" s="331"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11105,7 +11219,7 @@
       <c r="E24" s="87" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="280"/>
+      <c r="F24" s="331"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11117,7 +11231,7 @@
       <c r="E25" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F25" s="280"/>
+      <c r="F25" s="331"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11126,7 +11240,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="280"/>
+      <c r="F26" s="331"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11844,15 +11958,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>547</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>449</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11950,7 +12064,7 @@
         <v>451</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="259" t="s">
+      <c r="G11" s="298" t="s">
         <v>450</v>
       </c>
     </row>
@@ -11964,7 +12078,7 @@
         <v>453</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="260"/>
+      <c r="G12" s="299"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -11976,7 +12090,7 @@
         <v>454</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="260"/>
+      <c r="G13" s="299"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -11988,7 +12102,7 @@
         <v>457</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="260"/>
+      <c r="G14" s="299"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -12000,7 +12114,7 @@
         <v>458</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="260"/>
+      <c r="G15" s="299"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -12018,7 +12132,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="259" t="s">
+      <c r="G17" s="298" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2"/>
@@ -12033,7 +12147,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="260"/>
+      <c r="G18" s="299"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -12048,7 +12162,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="261"/>
+      <c r="G19" s="300"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -12061,7 +12175,7 @@
         <v>464</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="262" t="s">
+      <c r="G20" s="301" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="2"/>
@@ -12076,7 +12190,7 @@
         <v>467</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="263"/>
+      <c r="G21" s="302"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -12089,7 +12203,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="263"/>
+      <c r="G22" s="302"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -12102,7 +12216,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="263"/>
+      <c r="G23" s="302"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -12115,7 +12229,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="264"/>
+      <c r="G24" s="303"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -12130,7 +12244,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="262" t="s">
+      <c r="G25" s="301" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="2"/>
@@ -12145,7 +12259,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="263"/>
+      <c r="G26" s="302"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -12155,7 +12269,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="263"/>
+      <c r="G27" s="302"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
@@ -12165,7 +12279,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="263"/>
+      <c r="G28" s="302"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
@@ -12177,7 +12291,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="264"/>
+      <c r="G29" s="303"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
@@ -12189,7 +12303,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="262" t="s">
+      <c r="G30" s="301" t="s">
         <v>59</v>
       </c>
     </row>
@@ -12203,7 +12317,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="263"/>
+      <c r="G31" s="302"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
@@ -12215,7 +12329,7 @@
         <v>23</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="263"/>
+      <c r="G32" s="302"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
@@ -12227,7 +12341,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="263"/>
+      <c r="G33" s="302"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
@@ -12239,7 +12353,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="264"/>
+      <c r="G34" s="303"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
@@ -12251,10 +12365,10 @@
         <v>26</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="249" t="s">
+      <c r="G35" s="307" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="246" t="s">
+      <c r="H35" s="304" t="s">
         <v>28</v>
       </c>
     </row>
@@ -12268,8 +12382,8 @@
         <v>27</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="250"/>
-      <c r="H36" s="247"/>
+      <c r="G36" s="308"/>
+      <c r="H36" s="305"/>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
@@ -12281,10 +12395,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="249" t="s">
+      <c r="G37" s="307" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="247"/>
+      <c r="H37" s="305"/>
     </row>
     <row r="38" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
@@ -12296,8 +12410,8 @@
         <v>27</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="251"/>
-      <c r="H38" s="247"/>
+      <c r="G38" s="309"/>
+      <c r="H38" s="305"/>
     </row>
     <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
@@ -12309,10 +12423,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="13"/>
-      <c r="G39" s="250" t="s">
+      <c r="G39" s="308" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="247"/>
+      <c r="H39" s="305"/>
     </row>
     <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
@@ -12324,8 +12438,8 @@
         <v>27</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="250"/>
-      <c r="H40" s="248"/>
+      <c r="G40" s="308"/>
+      <c r="H40" s="306"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
@@ -12337,10 +12451,10 @@
         <v>26</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="249" t="s">
+      <c r="G41" s="307" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="247" t="s">
+      <c r="H41" s="305" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12354,8 +12468,8 @@
         <v>27</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="251"/>
-      <c r="H42" s="247"/>
+      <c r="G42" s="309"/>
+      <c r="H42" s="305"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
@@ -12367,10 +12481,10 @@
         <v>26</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="249" t="s">
+      <c r="G43" s="307" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="247"/>
+      <c r="H43" s="305"/>
     </row>
     <row r="44" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
@@ -12382,8 +12496,8 @@
         <v>27</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="247"/>
+      <c r="G44" s="309"/>
+      <c r="H44" s="305"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
@@ -12395,10 +12509,10 @@
         <v>26</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="250" t="s">
+      <c r="G45" s="308" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="247"/>
+      <c r="H45" s="305"/>
     </row>
     <row r="46" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
@@ -12410,8 +12524,8 @@
         <v>27</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="251"/>
-      <c r="H46" s="248"/>
+      <c r="G46" s="309"/>
+      <c r="H46" s="306"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
@@ -12979,6 +13093,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="G11:G15"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H40"/>
     <mergeCell ref="G37:G38"/>
@@ -12987,13 +13108,6 @@
     <mergeCell ref="H41:H46"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="G11:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13047,15 +13161,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>546</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>468</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -13170,7 +13284,7 @@
         <v>451</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="259" t="s">
+      <c r="G12" s="298" t="s">
         <v>450</v>
       </c>
       <c r="H12" s="2"/>
@@ -13185,7 +13299,7 @@
         <v>453</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="260"/>
+      <c r="G13" s="299"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -13198,7 +13312,7 @@
         <v>454</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="260"/>
+      <c r="G14" s="299"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -13211,7 +13325,7 @@
         <v>457</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="260"/>
+      <c r="G15" s="299"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -13226,7 +13340,7 @@
         <v>458</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="261"/>
+      <c r="G16" s="300"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -13257,7 +13371,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="262" t="s">
+      <c r="G19" s="301" t="s">
         <v>474</v>
       </c>
       <c r="H19" s="2"/>
@@ -13270,7 +13384,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="263"/>
+      <c r="G20" s="302"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13281,7 +13395,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="263"/>
+      <c r="G21" s="302"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13292,7 +13406,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="263"/>
+      <c r="G22" s="302"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13305,7 +13419,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="264"/>
+      <c r="G23" s="303"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13324,7 +13438,7 @@
         <v>480</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="262" t="s">
+      <c r="G25" s="301" t="s">
         <v>475</v>
       </c>
       <c r="H25" s="121" t="s">
@@ -13339,7 +13453,7 @@
         <v>479</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="263"/>
+      <c r="G26" s="302"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13350,7 +13464,7 @@
         <v>178</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="263"/>
+      <c r="G27" s="302"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13363,7 +13477,7 @@
         <v>178</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="264"/>
+      <c r="G28" s="303"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13395,7 +13509,7 @@
       <c r="F31" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="G31" s="262" t="s">
+      <c r="G31" s="301" t="s">
         <v>481</v>
       </c>
       <c r="H31" s="2"/>
@@ -13416,7 +13530,7 @@
       <c r="F32" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G32" s="263"/>
+      <c r="G32" s="302"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13430,7 +13544,7 @@
         <v>484</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="263"/>
+      <c r="G33" s="302"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13445,7 +13559,7 @@
         <v>483</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="264"/>
+      <c r="G34" s="303"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13468,7 +13582,7 @@
       <c r="F36" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="G36" s="262" t="s">
+      <c r="G36" s="301" t="s">
         <v>485</v>
       </c>
       <c r="H36" s="2"/>
@@ -13486,7 +13600,7 @@
       <c r="F37" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G37" s="263"/>
+      <c r="G37" s="302"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13502,7 +13616,7 @@
       <c r="F38" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G38" s="263"/>
+      <c r="G38" s="302"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13517,7 +13631,7 @@
         <v>483</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="264"/>
+      <c r="G39" s="303"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13540,7 +13654,7 @@
       <c r="F41" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="G41" s="262" t="s">
+      <c r="G41" s="301" t="s">
         <v>489</v>
       </c>
       <c r="H41" s="2"/>
@@ -13559,7 +13673,7 @@
       <c r="F42" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G42" s="263"/>
+      <c r="G42" s="302"/>
       <c r="H42"/>
     </row>
     <row r="43" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13575,7 +13689,7 @@
       <c r="F43" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G43" s="263"/>
+      <c r="G43" s="302"/>
       <c r="H43" s="125" t="s">
         <v>493</v>
       </c>
@@ -13592,7 +13706,7 @@
         <v>483</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="264"/>
+      <c r="G44" s="303"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13725,7 +13839,7 @@
       <c r="E58" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="252" t="s">
+      <c r="F58" s="291" t="s">
         <v>504</v>
       </c>
     </row>
@@ -13738,7 +13852,7 @@
       <c r="E59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="253"/>
+      <c r="F59" s="292"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
@@ -13749,7 +13863,7 @@
       <c r="E60" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="253"/>
+      <c r="F60" s="292"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
@@ -13760,7 +13874,7 @@
       <c r="E61" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="253"/>
+      <c r="F61" s="292"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="136" t="s">
@@ -13771,7 +13885,7 @@
       <c r="E62" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F62" s="253"/>
+      <c r="F62" s="292"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
@@ -13782,7 +13896,7 @@
       <c r="E63" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F63" s="253"/>
+      <c r="F63" s="292"/>
     </row>
     <row r="64" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="137" t="s">
@@ -13793,7 +13907,7 @@
       <c r="E64" s="135" t="s">
         <v>503</v>
       </c>
-      <c r="F64" s="254"/>
+      <c r="F64" s="293"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
@@ -14226,10 +14340,10 @@
   <dimension ref="B1:J171"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="B74:F80"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="B16:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -14267,15 +14381,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="298" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="361" t="s">
         <v>505</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -14591,7 +14705,7 @@
         <v>512</v>
       </c>
       <c r="F28" s="363"/>
-      <c r="G28" s="361" t="s">
+      <c r="G28" s="285" t="s">
         <v>509</v>
       </c>
       <c r="H28" s="2"/>
@@ -14695,7 +14809,7 @@
         <v>512</v>
       </c>
       <c r="F37" s="363"/>
-      <c r="G37" s="361" t="s">
+      <c r="G37" s="285" t="s">
         <v>509</v>
       </c>
       <c r="H37" s="2"/>
@@ -14799,7 +14913,7 @@
         <v>512</v>
       </c>
       <c r="F46" s="363"/>
-      <c r="G46" s="361" t="s">
+      <c r="G46" s="285" t="s">
         <v>509</v>
       </c>
       <c r="H46" s="2"/>
@@ -14848,10 +14962,10 @@
       <c r="E51" s="191" t="s">
         <v>526</v>
       </c>
-      <c r="F51" s="302" t="s">
+      <c r="F51" s="358" t="s">
         <v>525</v>
       </c>
-      <c r="G51" s="299" t="s">
+      <c r="G51" s="355" t="s">
         <v>338</v>
       </c>
     </row>
@@ -14864,8 +14978,8 @@
       <c r="E52" s="186" t="s">
         <v>526</v>
       </c>
-      <c r="F52" s="303"/>
-      <c r="G52" s="300"/>
+      <c r="F52" s="359"/>
+      <c r="G52" s="356"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="184" t="s">
@@ -14876,8 +14990,8 @@
       <c r="E53" s="186" t="s">
         <v>526</v>
       </c>
-      <c r="F53" s="303"/>
-      <c r="G53" s="300"/>
+      <c r="F53" s="359"/>
+      <c r="G53" s="356"/>
     </row>
     <row r="54" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="185" t="s">
@@ -14888,8 +15002,8 @@
       <c r="E54" s="190" t="s">
         <v>526</v>
       </c>
-      <c r="F54" s="304"/>
-      <c r="G54" s="301"/>
+      <c r="F54" s="360"/>
+      <c r="G54" s="357"/>
     </row>
     <row r="55" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="99"/>
@@ -14905,10 +15019,10 @@
       <c r="E56" s="191" t="s">
         <v>535</v>
       </c>
-      <c r="F56" s="302" t="s">
+      <c r="F56" s="358" t="s">
         <v>534</v>
       </c>
-      <c r="G56" s="299" t="s">
+      <c r="G56" s="355" t="s">
         <v>338</v>
       </c>
     </row>
@@ -14921,8 +15035,8 @@
       <c r="E57" s="186" t="s">
         <v>535</v>
       </c>
-      <c r="F57" s="303"/>
-      <c r="G57" s="300"/>
+      <c r="F57" s="359"/>
+      <c r="G57" s="356"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="184" t="s">
@@ -14933,8 +15047,8 @@
       <c r="E58" s="186" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="303"/>
-      <c r="G58" s="300"/>
+      <c r="F58" s="359"/>
+      <c r="G58" s="356"/>
     </row>
     <row r="59" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="185" t="s">
@@ -14945,8 +15059,8 @@
       <c r="E59" s="190" t="s">
         <v>535</v>
       </c>
-      <c r="F59" s="304"/>
-      <c r="G59" s="301"/>
+      <c r="F59" s="360"/>
+      <c r="G59" s="357"/>
     </row>
     <row r="60" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="99"/>
@@ -14995,7 +15109,7 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="F65" s="380" t="s">
+      <c r="F65" s="286" t="s">
         <v>583</v>
       </c>
       <c r="G65" s="50"/>
@@ -15072,7 +15186,7 @@
       <c r="E74" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="282" t="s">
+      <c r="F74" s="333" t="s">
         <v>504</v>
       </c>
     </row>
@@ -15085,7 +15199,7 @@
       <c r="E75" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="283"/>
+      <c r="F75" s="334"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="184" t="s">
@@ -15096,7 +15210,7 @@
       <c r="E76" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F76" s="283"/>
+      <c r="F76" s="334"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="184" t="s">
@@ -15107,7 +15221,7 @@
       <c r="E77" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="283"/>
+      <c r="F77" s="334"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="184" t="s">
@@ -15118,7 +15232,7 @@
       <c r="E78" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F78" s="283"/>
+      <c r="F78" s="334"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="161" t="s">
@@ -15129,7 +15243,7 @@
       <c r="E79" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F79" s="283"/>
+      <c r="F79" s="334"/>
     </row>
     <row r="80" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="163" t="s">
@@ -15140,7 +15254,7 @@
       <c r="E80" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F80" s="284"/>
+      <c r="F80" s="335"/>
     </row>
     <row r="81" spans="3:4" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
@@ -15508,6 +15622,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F74:F80"/>
+    <mergeCell ref="F42:F49"/>
     <mergeCell ref="G51:G54"/>
     <mergeCell ref="F51:F54"/>
     <mergeCell ref="F56:F59"/>
@@ -15516,8 +15632,6 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="F24:F31"/>
     <mergeCell ref="F33:F40"/>
-    <mergeCell ref="F74:F80"/>
-    <mergeCell ref="F42:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15529,11 +15643,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E69" sqref="A69:E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15570,15 +15684,15 @@
     </row>
     <row r="2" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="350" t="s">
         <v>584</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="307" t="s">
+      <c r="B3" s="351"/>
+      <c r="C3" s="380" t="s">
         <v>544</v>
       </c>
-      <c r="D3" s="308"/>
-      <c r="E3" s="309"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="382"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -15802,7 +15916,7 @@
       <c r="D20" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="E20" s="359" t="s">
+      <c r="E20" s="383" t="s">
         <v>318</v>
       </c>
       <c r="G20" s="2"/>
@@ -15815,10 +15929,10 @@
         <v>178</v>
       </c>
       <c r="C21" s="131"/>
-      <c r="D21" s="358" t="s">
+      <c r="D21" s="284" t="s">
         <v>506</v>
       </c>
-      <c r="E21" s="360"/>
+      <c r="E21" s="384"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15839,7 +15953,7 @@
       <c r="E23" s="362" t="s">
         <v>555</v>
       </c>
-      <c r="F23" s="365" t="s">
+      <c r="F23" s="377" t="s">
         <v>554</v>
       </c>
       <c r="G23" s="2"/>
@@ -15854,7 +15968,7 @@
         <v>556</v>
       </c>
       <c r="E24" s="363"/>
-      <c r="F24" s="366"/>
+      <c r="F24" s="378"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15865,7 +15979,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="186"/>
       <c r="E25" s="363"/>
-      <c r="F25" s="366"/>
+      <c r="F25" s="378"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15876,7 +15990,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="186"/>
       <c r="E26" s="363"/>
-      <c r="F26" s="366"/>
+      <c r="F26" s="378"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15889,7 +16003,7 @@
         <v>558</v>
       </c>
       <c r="E27" s="363"/>
-      <c r="F27" s="366"/>
+      <c r="F27" s="378"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15900,7 +16014,7 @@
       <c r="C28" s="131"/>
       <c r="D28" s="190"/>
       <c r="E28" s="364"/>
-      <c r="F28" s="367"/>
+      <c r="F28" s="379"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15921,7 +16035,7 @@
       <c r="E30" s="362" t="s">
         <v>559</v>
       </c>
-      <c r="F30" s="365" t="s">
+      <c r="F30" s="377" t="s">
         <v>554</v>
       </c>
       <c r="G30" s="2"/>
@@ -15936,7 +16050,7 @@
         <v>556</v>
       </c>
       <c r="E31" s="363"/>
-      <c r="F31" s="366"/>
+      <c r="F31" s="378"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15947,7 +16061,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="186"/>
       <c r="E32" s="363"/>
-      <c r="F32" s="366"/>
+      <c r="F32" s="378"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15958,7 +16072,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="186"/>
       <c r="E33" s="363"/>
-      <c r="F33" s="366"/>
+      <c r="F33" s="378"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15971,7 +16085,7 @@
         <v>558</v>
       </c>
       <c r="E34" s="363"/>
-      <c r="F34" s="366"/>
+      <c r="F34" s="378"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15982,7 +16096,7 @@
       <c r="C35" s="131"/>
       <c r="D35" s="190"/>
       <c r="E35" s="364"/>
-      <c r="F35" s="367"/>
+      <c r="F35" s="379"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16003,7 +16117,7 @@
       <c r="E37" s="362" t="s">
         <v>565</v>
       </c>
-      <c r="F37" s="365" t="s">
+      <c r="F37" s="377" t="s">
         <v>554</v>
       </c>
       <c r="G37" s="2"/>
@@ -16018,7 +16132,7 @@
         <v>556</v>
       </c>
       <c r="E38" s="363"/>
-      <c r="F38" s="366"/>
+      <c r="F38" s="378"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -16029,7 +16143,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="186"/>
       <c r="E39" s="363"/>
-      <c r="F39" s="366"/>
+      <c r="F39" s="378"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -16040,7 +16154,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="186"/>
       <c r="E40" s="363"/>
-      <c r="F40" s="366"/>
+      <c r="F40" s="378"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -16053,7 +16167,7 @@
         <v>558</v>
       </c>
       <c r="E41" s="363"/>
-      <c r="F41" s="366"/>
+      <c r="F41" s="378"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16064,7 +16178,7 @@
       <c r="C42" s="131"/>
       <c r="D42" s="190"/>
       <c r="E42" s="364"/>
-      <c r="F42" s="367"/>
+      <c r="F42" s="379"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16084,16 +16198,16 @@
       <c r="D44" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="372" t="s">
+      <c r="E44" s="371" t="s">
         <v>568</v>
       </c>
-      <c r="F44" s="369" t="s">
+      <c r="F44" s="374" t="s">
         <v>566</v>
       </c>
-      <c r="G44" s="374" t="s">
+      <c r="G44" s="365" t="s">
         <v>338</v>
       </c>
-      <c r="H44" s="375"/>
+      <c r="H44" s="366"/>
     </row>
     <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="184" t="s">
@@ -16106,10 +16220,10 @@
       <c r="D45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="378"/>
-      <c r="F45" s="370"/>
-      <c r="G45" s="368"/>
-      <c r="H45" s="379"/>
+      <c r="E45" s="372"/>
+      <c r="F45" s="375"/>
+      <c r="G45" s="367"/>
+      <c r="H45" s="368"/>
     </row>
     <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="184" t="s">
@@ -16122,10 +16236,10 @@
       <c r="D46" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E46" s="378"/>
-      <c r="F46" s="370"/>
-      <c r="G46" s="368"/>
-      <c r="H46" s="379"/>
+      <c r="E46" s="372"/>
+      <c r="F46" s="375"/>
+      <c r="G46" s="367"/>
+      <c r="H46" s="368"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="185" t="s">
@@ -16139,9 +16253,9 @@
         <v>535</v>
       </c>
       <c r="E47" s="373"/>
-      <c r="F47" s="371"/>
-      <c r="G47" s="376"/>
-      <c r="H47" s="377"/>
+      <c r="F47" s="376"/>
+      <c r="G47" s="369"/>
+      <c r="H47" s="370"/>
     </row>
     <row r="48" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
@@ -16159,16 +16273,16 @@
       <c r="D49" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E49" s="372" t="s">
+      <c r="E49" s="371" t="s">
         <v>569</v>
       </c>
-      <c r="F49" s="369" t="s">
+      <c r="F49" s="374" t="s">
         <v>566</v>
       </c>
-      <c r="G49" s="374" t="s">
+      <c r="G49" s="365" t="s">
         <v>338</v>
       </c>
-      <c r="H49" s="375"/>
+      <c r="H49" s="366"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="184" t="s">
@@ -16181,10 +16295,10 @@
       <c r="D50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="378"/>
-      <c r="F50" s="370"/>
-      <c r="G50" s="368"/>
-      <c r="H50" s="379"/>
+      <c r="E50" s="372"/>
+      <c r="F50" s="375"/>
+      <c r="G50" s="367"/>
+      <c r="H50" s="368"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="184" t="s">
@@ -16197,10 +16311,10 @@
       <c r="D51" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E51" s="378"/>
-      <c r="F51" s="370"/>
-      <c r="G51" s="368"/>
-      <c r="H51" s="379"/>
+      <c r="E51" s="372"/>
+      <c r="F51" s="375"/>
+      <c r="G51" s="367"/>
+      <c r="H51" s="368"/>
     </row>
     <row r="52" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="185" t="s">
@@ -16214,9 +16328,9 @@
         <v>535</v>
       </c>
       <c r="E52" s="373"/>
-      <c r="F52" s="371"/>
-      <c r="G52" s="376"/>
-      <c r="H52" s="377"/>
+      <c r="F52" s="376"/>
+      <c r="G52" s="369"/>
+      <c r="H52" s="370"/>
     </row>
     <row r="53" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
@@ -16233,16 +16347,16 @@
       <c r="D54" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="372" t="s">
+      <c r="E54" s="371" t="s">
         <v>578</v>
       </c>
-      <c r="F54" s="369" t="s">
+      <c r="F54" s="374" t="s">
         <v>566</v>
       </c>
-      <c r="G54" s="374" t="s">
+      <c r="G54" s="365" t="s">
         <v>338</v>
       </c>
-      <c r="H54" s="375"/>
+      <c r="H54" s="366"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="184" t="s">
@@ -16255,10 +16369,10 @@
       <c r="D55" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E55" s="378"/>
-      <c r="F55" s="370"/>
-      <c r="G55" s="368"/>
-      <c r="H55" s="379"/>
+      <c r="E55" s="372"/>
+      <c r="F55" s="375"/>
+      <c r="G55" s="367"/>
+      <c r="H55" s="368"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="184" t="s">
@@ -16271,10 +16385,10 @@
       <c r="D56" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E56" s="378"/>
-      <c r="F56" s="370"/>
-      <c r="G56" s="368"/>
-      <c r="H56" s="379"/>
+      <c r="E56" s="372"/>
+      <c r="F56" s="375"/>
+      <c r="G56" s="367"/>
+      <c r="H56" s="368"/>
     </row>
     <row r="57" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="185" t="s">
@@ -16288,9 +16402,9 @@
         <v>535</v>
       </c>
       <c r="E57" s="373"/>
-      <c r="F57" s="371"/>
-      <c r="G57" s="376"/>
-      <c r="H57" s="377"/>
+      <c r="F57" s="376"/>
+      <c r="G57" s="369"/>
+      <c r="H57" s="370"/>
     </row>
     <row r="58" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
@@ -16324,7 +16438,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="380" t="s">
+      <c r="D61" s="286" t="s">
         <v>583</v>
       </c>
       <c r="E61" s="186"/>
@@ -16397,7 +16511,7 @@
       <c r="D69" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="E69" s="384"/>
+      <c r="E69" s="290"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="184" t="s">
@@ -16408,7 +16522,7 @@
       <c r="D70" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="381"/>
+      <c r="E70" s="287"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="184" t="s">
@@ -16419,7 +16533,7 @@
       <c r="D71" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="381"/>
+      <c r="E71" s="287"/>
     </row>
     <row r="72" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="184" t="s">
@@ -16430,7 +16544,7 @@
       <c r="D72" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="383" t="s">
+      <c r="E72" s="289" t="s">
         <v>504</v>
       </c>
     </row>
@@ -16443,7 +16557,7 @@
       <c r="D73" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="E73" s="381"/>
+      <c r="E73" s="287"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="161" t="s">
@@ -16454,7 +16568,7 @@
       <c r="D74" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="E74" s="381"/>
+      <c r="E74" s="287"/>
     </row>
     <row r="75" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="163" t="s">
@@ -16465,7 +16579,7 @@
       <c r="D75" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="E75" s="382"/>
+      <c r="E75" s="288"/>
     </row>
     <row r="76" spans="1:6" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
@@ -16809,6 +16923,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
     <mergeCell ref="G44:H47"/>
     <mergeCell ref="E49:E52"/>
     <mergeCell ref="F49:F52"/>
@@ -16816,17 +16941,6 @@
     <mergeCell ref="E54:E57"/>
     <mergeCell ref="F54:F57"/>
     <mergeCell ref="G54:H57"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16836,13 +16950,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J166"/>
+  <dimension ref="B1:J167"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -16851,9 +16965,9 @@
     <col min="2" max="2" width="28.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="17" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="17" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="17" customWidth="1"/>
     <col min="10" max="10" width="5" style="17" customWidth="1"/>
@@ -16879,35 +16993,36 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+    <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="294" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
+        <v>586</v>
+      </c>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:10" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="385" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="386"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="386" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="387"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="388" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
@@ -16915,13 +17030,13 @@
       <c r="E5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="51"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="388" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
@@ -16929,13 +17044,13 @@
       <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="51"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="388" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
@@ -16943,13 +17058,13 @@
       <c r="E7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="51"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="388" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="4"/>
@@ -16957,24 +17072,26 @@
       <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="51"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="389" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="390" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="391"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -16982,39 +17099,63 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+    <row r="11" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="150" t="s">
+        <v>303</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="151" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="174"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="151" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="174"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+    <row r="14" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="185" t="s">
+        <v>587</v>
+      </c>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="155" t="s">
+        <v>588</v>
+      </c>
+      <c r="F14" s="195" t="s">
+        <v>178</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -17022,335 +17163,749 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+    <row r="16" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="157" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="196"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="151" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="174" t="s">
+        <v>306</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="155" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="195" t="s">
+        <v>178</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="158" t="s">
+        <v>551</v>
+      </c>
+      <c r="C20" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="127"/>
+      <c r="E20" s="188" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="383" t="s">
+        <v>318</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+    <row r="21" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="163" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="131"/>
+      <c r="E21" s="284" t="s">
+        <v>506</v>
+      </c>
+      <c r="F21" s="384"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="158" t="s">
+        <v>560</v>
+      </c>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F23" s="395" t="s">
+        <v>555</v>
+      </c>
+      <c r="G23" s="392" t="s">
+        <v>554</v>
+      </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+      <c r="B24" s="161" t="s">
+        <v>561</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
+      <c r="E24" s="186" t="s">
+        <v>556</v>
+      </c>
+      <c r="F24" s="396"/>
+      <c r="G24" s="393"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="B25" s="161" t="s">
+        <v>510</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="396"/>
+      <c r="G25" s="393"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="B26" s="161" t="s">
+        <v>590</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
+      <c r="E26" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F26" s="396"/>
+      <c r="G26" s="393"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="161" t="s">
+        <v>589</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
+      <c r="F27" s="396"/>
+      <c r="G27" s="393"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="163" t="s">
+        <v>564</v>
+      </c>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="397"/>
+      <c r="G28" s="394"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="158" t="s">
+        <v>513</v>
+      </c>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F30" s="395" t="s">
+        <v>559</v>
+      </c>
+      <c r="G30" s="392" t="s">
+        <v>554</v>
+      </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="161" t="s">
+        <v>370</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
+      <c r="E31" s="186" t="s">
+        <v>556</v>
+      </c>
+      <c r="F31" s="396"/>
+      <c r="G31" s="393"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+    <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="161" t="s">
+        <v>375</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="396"/>
+      <c r="G32" s="393"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="161" t="s">
+        <v>594</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
+      <c r="E33" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F33" s="396"/>
+      <c r="G33" s="393"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+    <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="161" t="s">
+        <v>591</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
+      <c r="F34" s="396"/>
+      <c r="G34" s="393"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+    <row r="35" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="163" t="s">
+        <v>516</v>
+      </c>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="397"/>
+      <c r="G35" s="394"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+    <row r="37" spans="2:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="158" t="s">
+        <v>518</v>
+      </c>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F37" s="395" t="s">
+        <v>565</v>
+      </c>
+      <c r="G37" s="392" t="s">
+        <v>554</v>
+      </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="161" t="s">
+        <v>519</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
+      <c r="E38" s="186" t="s">
+        <v>556</v>
+      </c>
+      <c r="F38" s="396"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
+    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="161" t="s">
+        <v>514</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="396"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="161" t="s">
+        <v>592</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
+      <c r="E40" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F40" s="396"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="161" t="s">
+        <v>593</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
+      <c r="F41" s="396"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+    <row r="42" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="163" t="s">
+        <v>524</v>
+      </c>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="397"/>
+      <c r="G42" s="394"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
+    <row r="44" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="183" t="s">
+        <v>570</v>
+      </c>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127" t="s">
+        <v>567</v>
+      </c>
+      <c r="E44" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="371" t="s">
+        <v>595</v>
+      </c>
+      <c r="G44" s="374" t="s">
+        <v>566</v>
+      </c>
+      <c r="H44" s="365" t="s">
+        <v>338</v>
+      </c>
+      <c r="I44" s="366"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="184" t="s">
+        <v>571</v>
+      </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="372"/>
+      <c r="G45" s="375"/>
+      <c r="H45" s="367"/>
+      <c r="I45" s="368"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="184" t="s">
+        <v>572</v>
+      </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F46" s="372"/>
+      <c r="G46" s="375"/>
+      <c r="H46" s="367"/>
+      <c r="I46" s="368"/>
+    </row>
+    <row r="47" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="185" t="s">
+        <v>573</v>
+      </c>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131" t="s">
+        <v>567</v>
+      </c>
+      <c r="E47" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F47" s="373"/>
+      <c r="G47" s="376"/>
+      <c r="H47" s="369"/>
+      <c r="I47" s="370"/>
+    </row>
+    <row r="48" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="183" t="s">
+        <v>574</v>
+      </c>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127" t="s">
+        <v>567</v>
+      </c>
+      <c r="E49" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="371" t="s">
+        <v>596</v>
+      </c>
+      <c r="G49" s="374" t="s">
+        <v>566</v>
+      </c>
+      <c r="H49" s="365" t="s">
+        <v>338</v>
+      </c>
+      <c r="I49" s="366"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="184" t="s">
+        <v>575</v>
+      </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="372"/>
+      <c r="G50" s="375"/>
+      <c r="H50" s="367"/>
+      <c r="I50" s="368"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="184" t="s">
+        <v>576</v>
+      </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F51" s="372"/>
+      <c r="G51" s="375"/>
+      <c r="H51" s="367"/>
+      <c r="I51" s="368"/>
+    </row>
+    <row r="52" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="185" t="s">
+        <v>577</v>
+      </c>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131" t="s">
+        <v>567</v>
+      </c>
+      <c r="E52" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F52" s="373"/>
+      <c r="G52" s="376"/>
+      <c r="H52" s="369"/>
+      <c r="I52" s="370"/>
+    </row>
+    <row r="53" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="183" t="s">
+        <v>579</v>
+      </c>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127" t="s">
+        <v>567</v>
+      </c>
+      <c r="E54" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" s="371" t="s">
+        <v>597</v>
+      </c>
+      <c r="G54" s="374" t="s">
+        <v>566</v>
+      </c>
+      <c r="H54" s="365" t="s">
+        <v>338</v>
+      </c>
+      <c r="I54" s="366"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="184" t="s">
+        <v>580</v>
+      </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="372"/>
+      <c r="G55" s="375"/>
+      <c r="H55" s="367"/>
+      <c r="I55" s="368"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="184" t="s">
+        <v>581</v>
+      </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F56" s="372"/>
+      <c r="G56" s="375"/>
+      <c r="H56" s="367"/>
+      <c r="I56" s="368"/>
+    </row>
+    <row r="57" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="185" t="s">
+        <v>582</v>
+      </c>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131" t="s">
+        <v>567</v>
+      </c>
+      <c r="E57" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F57" s="373"/>
+      <c r="G57" s="376"/>
+      <c r="H57" s="369"/>
+      <c r="I57" s="370"/>
+    </row>
+    <row r="58" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="183" t="s">
+        <v>389</v>
+      </c>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="191" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="191"/>
+      <c r="G59" s="128"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="184" t="s">
+        <v>65</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="186"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="50"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="184" t="s">
+        <v>539</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="286" t="s">
+        <v>583</v>
+      </c>
+      <c r="F61" s="186"/>
+      <c r="G61" s="50"/>
+    </row>
+    <row r="62" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="185" t="s">
+        <v>540</v>
+      </c>
+      <c r="C62" s="131"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="190"/>
+      <c r="F62" s="190"/>
+      <c r="G62" s="132"/>
+    </row>
+    <row r="63" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="200" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="127"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="191"/>
+      <c r="F64" s="191"/>
+      <c r="G64" s="128"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="199" t="s">
+        <v>393</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="186"/>
+      <c r="F65" s="186"/>
+      <c r="G65" s="50"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="199" t="s">
+        <v>394</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="186"/>
+      <c r="F66" s="186"/>
+      <c r="G66" s="50"/>
+    </row>
+    <row r="67" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="201" t="s">
+        <v>395</v>
+      </c>
+      <c r="C67" s="131"/>
+      <c r="D67" s="131"/>
+      <c r="E67" s="190"/>
+      <c r="F67" s="190"/>
+      <c r="G67" s="132"/>
+    </row>
+    <row r="68" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="183" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="127"/>
+      <c r="D69" s="127"/>
+      <c r="E69" s="191" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="290"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="184" t="s">
+        <v>84</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="186" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="287"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="184" t="s">
+        <v>81</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="186" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="287"/>
+    </row>
+    <row r="72" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B72" s="184" t="s">
+        <v>82</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="186" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="289" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="184" t="s">
+        <v>500</v>
+      </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="186" t="s">
+        <v>501</v>
+      </c>
+      <c r="F73" s="287"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="161" t="s">
+        <v>498</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="186" t="s">
+        <v>499</v>
+      </c>
+      <c r="F74" s="287"/>
+    </row>
+    <row r="75" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="163" t="s">
+        <v>502</v>
+      </c>
+      <c r="C75" s="131"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="190" t="s">
+        <v>503</v>
+      </c>
+      <c r="F75" s="288"/>
+    </row>
+    <row r="76" spans="2:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
@@ -17698,10 +18253,30 @@
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="18">
+    <mergeCell ref="H44:I47"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:I52"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:I57"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="G23:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17755,15 +18330,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -18630,15 +19205,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -19505,15 +20080,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20381,127 +20956,127 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>550</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="357" t="s">
+      <c r="B4" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="355"/>
-      <c r="D4" s="355"/>
-      <c r="E4" s="355" t="s">
+      <c r="C4" s="281"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="281" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="356"/>
+      <c r="F4" s="282"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="357" t="s">
+      <c r="B5" s="283" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="355"/>
-      <c r="D5" s="355"/>
-      <c r="E5" s="355" t="s">
+      <c r="C5" s="281"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="356"/>
+      <c r="F5" s="282"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="357" t="s">
+      <c r="B6" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="355"/>
-      <c r="D6" s="355"/>
-      <c r="E6" s="355" t="s">
+      <c r="C6" s="281"/>
+      <c r="D6" s="281"/>
+      <c r="E6" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="356"/>
+      <c r="F6" s="282"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="357" t="s">
+      <c r="B7" s="283" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="355"/>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355" t="s">
+      <c r="C7" s="281"/>
+      <c r="D7" s="281"/>
+      <c r="E7" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="356"/>
+      <c r="F7" s="282"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="357" t="s">
+      <c r="B8" s="283" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355" t="s">
+      <c r="C8" s="281"/>
+      <c r="D8" s="281"/>
+      <c r="E8" s="281" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="356"/>
+      <c r="F8" s="282"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="357" t="s">
+      <c r="B9" s="283" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="355"/>
-      <c r="D9" s="355"/>
-      <c r="E9" s="355" t="s">
+      <c r="C9" s="281"/>
+      <c r="D9" s="281"/>
+      <c r="E9" s="281" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="356"/>
+      <c r="F9" s="282"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="357" t="s">
+      <c r="B10" s="283" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="355"/>
-      <c r="D10" s="355"/>
-      <c r="E10" s="355" t="s">
+      <c r="C10" s="281"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="356"/>
+      <c r="F10" s="282"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="357" t="s">
+      <c r="B11" s="283" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="355"/>
-      <c r="D11" s="355"/>
-      <c r="E11" s="355" t="s">
+      <c r="C11" s="281"/>
+      <c r="D11" s="281"/>
+      <c r="E11" s="281" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="356"/>
+      <c r="F11" s="282"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -20516,7 +21091,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="259" t="s">
+      <c r="G12" s="298" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2"/>
@@ -20531,7 +21106,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="260"/>
+      <c r="G13" s="299"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -20546,7 +21121,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="261"/>
+      <c r="G14" s="300"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -20559,7 +21134,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="262" t="s">
+      <c r="G15" s="301" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="2"/>
@@ -20574,7 +21149,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="263"/>
+      <c r="G16" s="302"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -20587,7 +21162,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="263"/>
+      <c r="G17" s="302"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -20600,7 +21175,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="263"/>
+      <c r="G18" s="302"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -20613,7 +21188,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="264"/>
+      <c r="G19" s="303"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -20632,7 +21207,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="262" t="s">
+      <c r="G20" s="301" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="2"/>
@@ -20650,7 +21225,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="263"/>
+      <c r="G21" s="302"/>
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
@@ -20663,7 +21238,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="263"/>
+      <c r="G22" s="302"/>
     </row>
     <row r="23" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
@@ -20676,7 +21251,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="263"/>
+      <c r="G23" s="302"/>
     </row>
     <row r="24" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
@@ -20690,7 +21265,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="264"/>
+      <c r="G24" s="303"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
@@ -20704,7 +21279,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="262" t="s">
+      <c r="G25" s="301" t="s">
         <v>59</v>
       </c>
     </row>
@@ -20720,7 +21295,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="263"/>
+      <c r="G26" s="302"/>
     </row>
     <row r="27" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -20734,7 +21309,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="263"/>
+      <c r="G27" s="302"/>
     </row>
     <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
@@ -20748,7 +21323,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="263"/>
+      <c r="G28" s="302"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
@@ -20762,7 +21337,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="264"/>
+      <c r="G29" s="303"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -20774,10 +21349,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="249" t="s">
+      <c r="G30" s="307" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="246" t="s">
+      <c r="H30" s="304" t="s">
         <v>28</v>
       </c>
     </row>
@@ -20791,8 +21366,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="250"/>
-      <c r="H31" s="247"/>
+      <c r="G31" s="308"/>
+      <c r="H31" s="305"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
@@ -20804,10 +21379,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="249" t="s">
+      <c r="G32" s="307" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="247"/>
+      <c r="H32" s="305"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
@@ -20819,8 +21394,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="251"/>
-      <c r="H33" s="247"/>
+      <c r="G33" s="309"/>
+      <c r="H33" s="305"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
@@ -20832,10 +21407,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="250" t="s">
+      <c r="G34" s="308" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="247"/>
+      <c r="H34" s="305"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
@@ -20847,8 +21422,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="250"/>
-      <c r="H35" s="248"/>
+      <c r="G35" s="308"/>
+      <c r="H35" s="306"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
@@ -20860,10 +21435,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="249" t="s">
+      <c r="G36" s="307" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="247" t="s">
+      <c r="H36" s="305" t="s">
         <v>29</v>
       </c>
     </row>
@@ -20877,8 +21452,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="251"/>
-      <c r="H37" s="247"/>
+      <c r="G37" s="309"/>
+      <c r="H37" s="305"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
@@ -20890,10 +21465,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="249" t="s">
+      <c r="G38" s="307" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="247"/>
+      <c r="H38" s="305"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
@@ -20905,8 +21480,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="251"/>
-      <c r="H39" s="247"/>
+      <c r="G39" s="309"/>
+      <c r="H39" s="305"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
@@ -20918,10 +21493,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="250" t="s">
+      <c r="G40" s="308" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="247"/>
+      <c r="H40" s="305"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
@@ -20933,8 +21508,8 @@
         <v>27</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="251"/>
-      <c r="H41" s="248"/>
+      <c r="G41" s="309"/>
+      <c r="H41" s="306"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
@@ -21008,7 +21583,7 @@
       <c r="E49" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="252" t="s">
+      <c r="F49" s="291" t="s">
         <v>201</v>
       </c>
     </row>
@@ -21021,7 +21596,7 @@
       <c r="E50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="253"/>
+      <c r="F50" s="292"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
@@ -21032,7 +21607,7 @@
       <c r="E51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="253"/>
+      <c r="F51" s="292"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
@@ -21043,20 +21618,20 @@
       <c r="E52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="253"/>
+      <c r="F52" s="292"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="133"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="F53" s="253"/>
+      <c r="F53" s="292"/>
     </row>
     <row r="54" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="134"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="254"/>
+      <c r="F54" s="293"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -21536,13 +22111,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
     <mergeCell ref="H30:H35"/>
     <mergeCell ref="H36:H41"/>
     <mergeCell ref="G30:G31"/>
@@ -21551,6 +22119,13 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21604,15 +22179,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22479,15 +23054,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23402,15 +23977,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -24277,15 +24852,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -25152,15 +25727,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -26027,15 +26602,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -26902,15 +27477,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27777,15 +28352,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28652,15 +29227,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29490,15 +30065,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30368,140 +30943,140 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="343" t="s">
+      <c r="B3" s="310" t="s">
         <v>549</v>
       </c>
-      <c r="C3" s="344"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="266"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" s="63" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="345" t="s">
+      <c r="B4" s="271" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="346" t="s">
+      <c r="C4" s="272" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="347"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="346" t="s">
+      <c r="D4" s="273"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="348"/>
+      <c r="G4" s="274"/>
     </row>
     <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="345" t="s">
+      <c r="B5" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="346" t="s">
+      <c r="C5" s="272" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="347"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="346" t="s">
+      <c r="D5" s="273"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="348"/>
+      <c r="G5" s="274"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="345" t="s">
+      <c r="B6" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="346" t="s">
+      <c r="C6" s="272" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="347"/>
-      <c r="E6" s="346"/>
-      <c r="F6" s="346" t="s">
+      <c r="D6" s="273"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="348"/>
+      <c r="G6" s="274"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="345" t="s">
+      <c r="B7" s="271" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="346" t="s">
+      <c r="C7" s="272" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="347"/>
-      <c r="E7" s="346"/>
-      <c r="F7" s="346" t="s">
+      <c r="D7" s="273"/>
+      <c r="E7" s="272"/>
+      <c r="F7" s="272" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="348"/>
+      <c r="G7" s="274"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="345" t="s">
+      <c r="B8" s="271" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="346" t="s">
+      <c r="C8" s="272" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="347"/>
-      <c r="E8" s="346" t="s">
+      <c r="D8" s="273"/>
+      <c r="E8" s="272" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="346" t="s">
+      <c r="F8" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="348"/>
+      <c r="G8" s="274"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" s="63" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="345" t="s">
+      <c r="B9" s="271" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="346" t="s">
+      <c r="C9" s="272" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="347"/>
-      <c r="E9" s="346"/>
-      <c r="F9" s="346" t="s">
+      <c r="D9" s="273"/>
+      <c r="E9" s="272"/>
+      <c r="F9" s="272" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="348"/>
+      <c r="G9" s="274"/>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="349" t="s">
+      <c r="B10" s="275" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="350" t="s">
+      <c r="C10" s="276" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="351"/>
-      <c r="E10" s="350"/>
-      <c r="F10" s="350" t="s">
+      <c r="D10" s="277"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="352"/>
+      <c r="G10" s="278"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="353"/>
-      <c r="C11" s="346"/>
-      <c r="D11" s="347"/>
-      <c r="E11" s="346"/>
-      <c r="F11" s="346"/>
-      <c r="G11" s="354"/>
+      <c r="B11" s="279"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="280"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -30567,7 +31142,7 @@
       <c r="F16" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="267" t="s">
+      <c r="G16" s="314" t="s">
         <v>161</v>
       </c>
       <c r="H16" s="2"/>
@@ -30587,7 +31162,7 @@
       <c r="F17" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="268"/>
+      <c r="G17" s="315"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -30605,7 +31180,7 @@
       <c r="F18" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="268"/>
+      <c r="G18" s="315"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -30623,7 +31198,7 @@
       <c r="F19" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="268"/>
+      <c r="G19" s="315"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -30641,7 +31216,7 @@
       <c r="F20" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="268"/>
+      <c r="G20" s="315"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -30659,7 +31234,7 @@
       <c r="F21" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="268"/>
+      <c r="G21" s="315"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30680,7 +31255,7 @@
       <c r="F23" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="269" t="s">
+      <c r="G23" s="316" t="s">
         <v>162</v>
       </c>
       <c r="H23" s="2"/>
@@ -30698,7 +31273,7 @@
       <c r="F24" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="269"/>
+      <c r="G24" s="316"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30714,7 +31289,7 @@
       <c r="F25" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="269"/>
+      <c r="G25" s="316"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30730,7 +31305,7 @@
       <c r="F26" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="269"/>
+      <c r="G26" s="316"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30746,7 +31321,7 @@
       <c r="F27" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="269"/>
+      <c r="G27" s="316"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30763,7 +31338,7 @@
       <c r="F28" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="270"/>
+      <c r="G28" s="317"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -30796,7 +31371,7 @@
         <v>158</v>
       </c>
       <c r="E32"/>
-      <c r="F32" s="274" t="s">
+      <c r="F32" s="321" t="s">
         <v>134</v>
       </c>
       <c r="G32"/>
@@ -30810,7 +31385,7 @@
         <v>158</v>
       </c>
       <c r="E33"/>
-      <c r="F33" s="274"/>
+      <c r="F33" s="321"/>
       <c r="G33"/>
       <c r="H33" s="2"/>
     </row>
@@ -30822,7 +31397,7 @@
         <v>158</v>
       </c>
       <c r="E34"/>
-      <c r="F34" s="274"/>
+      <c r="F34" s="321"/>
       <c r="G34"/>
       <c r="H34" s="2"/>
     </row>
@@ -30840,7 +31415,7 @@
         <v>144</v>
       </c>
       <c r="E36"/>
-      <c r="F36" s="274" t="s">
+      <c r="F36" s="321" t="s">
         <v>135</v>
       </c>
       <c r="G36"/>
@@ -30854,7 +31429,7 @@
         <v>144</v>
       </c>
       <c r="E37"/>
-      <c r="F37" s="274"/>
+      <c r="F37" s="321"/>
       <c r="G37"/>
       <c r="H37" s="2"/>
     </row>
@@ -30866,7 +31441,7 @@
         <v>144</v>
       </c>
       <c r="E38"/>
-      <c r="F38" s="274"/>
+      <c r="F38" s="321"/>
       <c r="G38"/>
       <c r="H38" s="2"/>
     </row>
@@ -30884,7 +31459,7 @@
         <v>144</v>
       </c>
       <c r="E40"/>
-      <c r="F40" s="274" t="s">
+      <c r="F40" s="321" t="s">
         <v>136</v>
       </c>
       <c r="G40"/>
@@ -30898,7 +31473,7 @@
         <v>144</v>
       </c>
       <c r="E41"/>
-      <c r="F41" s="274"/>
+      <c r="F41" s="321"/>
       <c r="G41"/>
       <c r="H41" s="2"/>
     </row>
@@ -30910,7 +31485,7 @@
         <v>144</v>
       </c>
       <c r="E42"/>
-      <c r="F42" s="274"/>
+      <c r="F42" s="321"/>
       <c r="G42"/>
       <c r="H42" s="2"/>
     </row>
@@ -31039,10 +31614,10 @@
       <c r="C57" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="273" t="s">
+      <c r="F57" s="320" t="s">
         <v>200</v>
       </c>
-      <c r="G57" s="271" t="s">
+      <c r="G57" s="318" t="s">
         <v>193</v>
       </c>
     </row>
@@ -31053,8 +31628,8 @@
       <c r="C58" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="273"/>
-      <c r="G58" s="272"/>
+      <c r="F58" s="320"/>
+      <c r="G58" s="319"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="214" t="s">
@@ -31064,8 +31639,8 @@
         <v>144</v>
       </c>
       <c r="D59"/>
-      <c r="F59" s="273"/>
-      <c r="G59" s="272"/>
+      <c r="F59" s="320"/>
+      <c r="G59" s="319"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="214" t="s">
@@ -31074,8 +31649,8 @@
       <c r="C60" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="273"/>
-      <c r="G60" s="272"/>
+      <c r="F60" s="320"/>
+      <c r="G60" s="319"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="214" t="s">
@@ -31179,15 +31754,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32054,15 +32629,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32929,15 +33504,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33804,15 +34379,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34679,15 +35254,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35554,15 +36129,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -36429,15 +37004,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37304,15 +37879,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38179,15 +38754,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -39054,15 +39629,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -39925,128 +40500,128 @@
       <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="323" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="342"/>
-      <c r="C3" s="339" t="s">
+      <c r="B3" s="324"/>
+      <c r="C3" s="325" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="339"/>
-      <c r="E3" s="340"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="326"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="335" t="s">
+      <c r="A4" s="267" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="312" t="s">
+      <c r="B4" s="248" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="312"/>
-      <c r="D4" s="312" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="324"/>
-      <c r="F4" s="276" t="s">
+      <c r="E4" s="256"/>
+      <c r="F4" s="327" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="276"/>
+      <c r="G4" s="327"/>
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="335" t="s">
+      <c r="A5" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="312" t="s">
+      <c r="B5" s="248" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="312"/>
-      <c r="D5" s="312" t="s">
+      <c r="C5" s="248"/>
+      <c r="D5" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="324"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
-      <c r="I5" s="275"/>
-      <c r="J5" s="275"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="322"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="335" t="s">
+      <c r="A6" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="312" t="s">
+      <c r="B6" s="248" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="312"/>
-      <c r="D6" s="312" t="s">
+      <c r="C6" s="248"/>
+      <c r="D6" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="324"/>
-      <c r="F6" s="275"/>
-      <c r="G6" s="275"/>
-      <c r="H6" s="275"/>
-      <c r="I6" s="275"/>
-      <c r="J6" s="275"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="322"/>
+      <c r="G6" s="322"/>
+      <c r="H6" s="322"/>
+      <c r="I6" s="322"/>
+      <c r="J6" s="322"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="335" t="s">
+      <c r="A7" s="267" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="312" t="s">
+      <c r="B7" s="248" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="312"/>
-      <c r="D7" s="312" t="s">
+      <c r="C7" s="248"/>
+      <c r="D7" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="324"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="275"/>
-      <c r="J7" s="275"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="322"/>
+      <c r="G7" s="322"/>
+      <c r="H7" s="322"/>
+      <c r="I7" s="322"/>
+      <c r="J7" s="322"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="335" t="s">
+      <c r="A8" s="267" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="312" t="s">
+      <c r="B8" s="248" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="312"/>
-      <c r="D8" s="312" t="s">
+      <c r="C8" s="248"/>
+      <c r="D8" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="324"/>
+      <c r="E8" s="256"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="335" t="s">
+      <c r="A9" s="267" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="312" t="s">
+      <c r="B9" s="248" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="312"/>
-      <c r="D9" s="312" t="s">
+      <c r="C9" s="248"/>
+      <c r="D9" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="324"/>
+      <c r="E9" s="256"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="335" t="s">
+      <c r="A10" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="312" t="s">
+      <c r="B10" s="248" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="312"/>
-      <c r="D10" s="312" t="s">
+      <c r="C10" s="248"/>
+      <c r="D10" s="248" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="324"/>
+      <c r="E10" s="256"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
@@ -40090,10 +40665,10 @@
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="59"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="275"/>
-      <c r="I15" s="275"/>
+      <c r="F15" s="322"/>
+      <c r="G15" s="322"/>
+      <c r="H15" s="322"/>
+      <c r="I15" s="322"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
@@ -40105,10 +40680,10 @@
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="275"/>
-      <c r="G16" s="275"/>
-      <c r="H16" s="275"/>
-      <c r="I16" s="275"/>
+      <c r="F16" s="322"/>
+      <c r="G16" s="322"/>
+      <c r="H16" s="322"/>
+      <c r="I16" s="322"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
@@ -40120,12 +40695,12 @@
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="59"/>
-      <c r="F17" s="276" t="s">
+      <c r="F17" s="327" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="275"/>
-      <c r="H17" s="275"/>
-      <c r="I17" s="275"/>
+      <c r="G17" s="322"/>
+      <c r="H17" s="322"/>
+      <c r="I17" s="322"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
@@ -40137,10 +40712,10 @@
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="59"/>
-      <c r="F18" s="275"/>
-      <c r="G18" s="275"/>
-      <c r="H18" s="275"/>
-      <c r="I18" s="275"/>
+      <c r="F18" s="322"/>
+      <c r="G18" s="322"/>
+      <c r="H18" s="322"/>
+      <c r="I18" s="322"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
@@ -40152,10 +40727,10 @@
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="59"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="275"/>
-      <c r="I19" s="275"/>
+      <c r="F19" s="322"/>
+      <c r="G19" s="322"/>
+      <c r="H19" s="322"/>
+      <c r="I19" s="322"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
@@ -40167,10 +40742,10 @@
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="275"/>
-      <c r="G20" s="275"/>
-      <c r="H20" s="275"/>
-      <c r="I20" s="275"/>
+      <c r="F20" s="322"/>
+      <c r="G20" s="322"/>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
     </row>
     <row r="21" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
@@ -40393,111 +40968,111 @@
     </row>
     <row r="2" spans="2:6" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:6" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="329" t="s">
+      <c r="B3" s="261" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="331" t="s">
+      <c r="C3" s="262"/>
+      <c r="D3" s="263" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="331"/>
-      <c r="F3" s="332"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="264"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="333" t="s">
+      <c r="B4" s="265" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="316"/>
-      <c r="D4" s="316"/>
-      <c r="E4" s="316" t="s">
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="334"/>
+      <c r="F4" s="266"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="335" t="s">
+      <c r="B5" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="312" t="s">
+      <c r="C5" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312" t="s">
+      <c r="D5" s="248"/>
+      <c r="E5" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="336"/>
+      <c r="F5" s="268"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="335" t="s">
+      <c r="B6" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="312" t="s">
+      <c r="C6" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312" t="s">
+      <c r="D6" s="248"/>
+      <c r="E6" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="336"/>
+      <c r="F6" s="268"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="335" t="s">
+      <c r="B7" s="267" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="312" t="s">
+      <c r="C7" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312" t="s">
+      <c r="D7" s="248"/>
+      <c r="E7" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="336"/>
+      <c r="F7" s="268"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="335" t="s">
+      <c r="B8" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="312" t="s">
+      <c r="C8" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="312"/>
-      <c r="E8" s="312" t="s">
+      <c r="D8" s="248"/>
+      <c r="E8" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="334"/>
+      <c r="F8" s="266"/>
     </row>
     <row r="9" spans="2:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312" t="s">
+      <c r="D9" s="248"/>
+      <c r="E9" s="248" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="336"/>
+      <c r="F9" s="268"/>
     </row>
     <row r="10" spans="2:6" s="66" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="337" t="s">
+      <c r="B10" s="269" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="326" t="s">
+      <c r="C10" s="258" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="326"/>
-      <c r="E10" s="326" t="s">
+      <c r="D10" s="258"/>
+      <c r="E10" s="258" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="338"/>
+      <c r="F10" s="270"/>
     </row>
     <row r="11" spans="2:6" s="66" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="312"/>
-      <c r="C11" s="312"/>
-      <c r="D11" s="312"/>
-      <c r="E11" s="312"/>
-      <c r="F11" s="328"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="260"/>
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="67" t="s">
@@ -40854,15 +41429,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="277" t="s">
+      <c r="B3" s="328" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="278"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="329"/>
+      <c r="D3" s="296" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -41287,10 +41862,10 @@
       <c r="E34" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F34" s="279" t="s">
+      <c r="F34" s="330" t="s">
         <v>295</v>
       </c>
-      <c r="G34" s="281" t="s">
+      <c r="G34" s="332" t="s">
         <v>284</v>
       </c>
       <c r="H34" s="2"/>
@@ -41304,8 +41879,8 @@
       <c r="E35" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F35" s="280"/>
-      <c r="G35" s="281"/>
+      <c r="F35" s="331"/>
+      <c r="G35" s="332"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41342,7 +41917,7 @@
       <c r="E39" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="282" t="s">
+      <c r="F39" s="333" t="s">
         <v>504</v>
       </c>
       <c r="H39" s="2"/>
@@ -41356,7 +41931,7 @@
       <c r="E40" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="283"/>
+      <c r="F40" s="334"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -41368,7 +41943,7 @@
       <c r="E41" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="283"/>
+      <c r="F41" s="334"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41380,7 +41955,7 @@
       <c r="E42" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="283"/>
+      <c r="F42" s="334"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -41392,7 +41967,7 @@
       <c r="E43" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F43" s="283"/>
+      <c r="F43" s="334"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -41404,7 +41979,7 @@
       <c r="E44" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F44" s="283"/>
+      <c r="F44" s="334"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -41416,7 +41991,7 @@
       <c r="E45" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F45" s="284"/>
+      <c r="F45" s="335"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -41987,15 +42562,15 @@
     </row>
     <row r="2" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="295" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="287"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="338"/>
     </row>
     <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="223" t="s">
@@ -42097,7 +42672,7 @@
       <c r="E13" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="288" t="s">
+      <c r="F13" s="339" t="s">
         <v>303</v>
       </c>
     </row>
@@ -42108,7 +42683,7 @@
       <c r="E14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="289"/>
+      <c r="F14" s="340"/>
     </row>
     <row r="15" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="153" t="s">
@@ -42247,7 +42822,7 @@
         <v>335</v>
       </c>
       <c r="F29" s="240"/>
-      <c r="G29" s="285" t="s">
+      <c r="G29" s="336" t="s">
         <v>329</v>
       </c>
     </row>
@@ -42262,14 +42837,14 @@
         <v>336</v>
       </c>
       <c r="F30" s="241"/>
-      <c r="G30" s="286"/>
+      <c r="G30" s="337"/>
     </row>
     <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="151" t="s">
         <v>330</v>
       </c>
       <c r="F31" s="241"/>
-      <c r="G31" s="286"/>
+      <c r="G31" s="337"/>
     </row>
     <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="151" t="s">
@@ -42284,7 +42859,7 @@
       <c r="F32" s="242" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="286"/>
+      <c r="G32" s="337"/>
     </row>
     <row r="33" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="151" t="s">
@@ -42297,21 +42872,21 @@
         <v>336</v>
       </c>
       <c r="F33" s="241"/>
-      <c r="G33" s="286"/>
+      <c r="G33" s="337"/>
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="151" t="s">
         <v>331</v>
       </c>
       <c r="F34" s="236"/>
-      <c r="G34" s="286"/>
+      <c r="G34" s="337"/>
     </row>
     <row r="35" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="151" t="s">
         <v>332</v>
       </c>
       <c r="F35" s="236"/>
-      <c r="G35" s="286"/>
+      <c r="G35" s="337"/>
     </row>
     <row r="36" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="151" t="s">
@@ -42345,7 +42920,7 @@
       <c r="D40" s="149"/>
       <c r="E40" s="233"/>
       <c r="F40" s="235"/>
-      <c r="G40" s="285" t="s">
+      <c r="G40" s="336" t="s">
         <v>348</v>
       </c>
     </row>
@@ -42357,7 +42932,7 @@
         <v>144</v>
       </c>
       <c r="F41" s="236"/>
-      <c r="G41" s="286"/>
+      <c r="G41" s="337"/>
     </row>
     <row r="42" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="151" t="s">
@@ -42367,7 +42942,7 @@
         <v>144</v>
       </c>
       <c r="F42" s="236"/>
-      <c r="G42" s="286"/>
+      <c r="G42" s="337"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="151" t="s">
@@ -42377,7 +42952,7 @@
         <v>144</v>
       </c>
       <c r="F43" s="236"/>
-      <c r="G43" s="286"/>
+      <c r="G43" s="337"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="151" t="s">
@@ -42389,7 +42964,7 @@
       <c r="F44" s="237" t="s">
         <v>338</v>
       </c>
-      <c r="G44" s="286"/>
+      <c r="G44" s="337"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="151" t="s">
@@ -42399,7 +42974,7 @@
         <v>144</v>
       </c>
       <c r="F45" s="236"/>
-      <c r="G45" s="286"/>
+      <c r="G45" s="337"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="151" t="s">
@@ -42409,7 +42984,7 @@
         <v>144</v>
       </c>
       <c r="F46" s="236"/>
-      <c r="G46" s="286"/>
+      <c r="G46" s="337"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="151" t="s">
@@ -42419,7 +42994,7 @@
         <v>144</v>
       </c>
       <c r="F47" s="236"/>
-      <c r="G47" s="286"/>
+      <c r="G47" s="337"/>
     </row>
     <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="153" t="s">
@@ -42431,7 +43006,7 @@
       <c r="D48" s="154"/>
       <c r="E48" s="239"/>
       <c r="F48" s="238"/>
-      <c r="G48" s="286"/>
+      <c r="G48" s="337"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
@@ -42538,7 +43113,7 @@
       <c r="E65" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="282" t="s">
+      <c r="F65" s="333" t="s">
         <v>504</v>
       </c>
     </row>
@@ -42551,7 +43126,7 @@
       <c r="E66" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="283"/>
+      <c r="F66" s="334"/>
     </row>
     <row r="67" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B67" s="184" t="s">
@@ -42562,7 +43137,7 @@
       <c r="E67" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="283"/>
+      <c r="F67" s="334"/>
     </row>
     <row r="68" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B68" s="184" t="s">
@@ -42573,7 +43148,7 @@
       <c r="E68" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="283"/>
+      <c r="F68" s="334"/>
     </row>
     <row r="69" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B69" s="184" t="s">
@@ -42584,7 +43159,7 @@
       <c r="E69" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F69" s="283"/>
+      <c r="F69" s="334"/>
     </row>
     <row r="70" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B70" s="161" t="s">
@@ -42595,7 +43170,7 @@
       <c r="E70" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F70" s="283"/>
+      <c r="F70" s="334"/>
     </row>
     <row r="71" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="163" t="s">
@@ -42606,7 +43181,7 @@
       <c r="E71" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F71" s="284"/>
+      <c r="F71" s="335"/>
     </row>
     <row r="72" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -42670,130 +43245,130 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="319" t="s">
+      <c r="B3" s="343" t="s">
         <v>397</v>
       </c>
-      <c r="C3" s="320"/>
-      <c r="D3" s="321" t="s">
+      <c r="C3" s="344"/>
+      <c r="D3" s="345" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="321"/>
-      <c r="F3" s="322"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="346"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="312"/>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="324"/>
+      <c r="F4" s="256"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="323" t="s">
+      <c r="B5" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="312"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312" t="s">
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="324"/>
+      <c r="F5" s="256"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="312"/>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312" t="s">
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="324"/>
+      <c r="F6" s="256"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="323" t="s">
+      <c r="B7" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="312"/>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312" t="s">
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="324"/>
+      <c r="F7" s="256"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="323" t="s">
+      <c r="B8" s="255" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="312"/>
-      <c r="D8" s="312"/>
-      <c r="E8" s="312" t="s">
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="324"/>
+      <c r="F8" s="256"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="323" t="s">
+      <c r="B9" s="255" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="312"/>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312" t="s">
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="324"/>
+      <c r="F9" s="256"/>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="323" t="s">
+      <c r="B10" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="312"/>
-      <c r="D10" s="312"/>
-      <c r="E10" s="312" t="s">
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="324"/>
+      <c r="F10" s="256"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="325"/>
-      <c r="C11" s="326"/>
-      <c r="D11" s="326"/>
-      <c r="E11" s="326"/>
-      <c r="F11" s="327"/>
+      <c r="B11" s="257"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="259"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="315"/>
-      <c r="C12" s="312"/>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="312"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="248"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -42805,7 +43380,7 @@
       <c r="E13" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="292" t="s">
+      <c r="F13" s="347" t="s">
         <v>303</v>
       </c>
       <c r="H13" s="2"/>
@@ -42819,7 +43394,7 @@
       <c r="E14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="292"/>
+      <c r="F14" s="347"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -42931,7 +43506,7 @@
       <c r="E24" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="F24" s="291" t="s">
+      <c r="F24" s="342" t="s">
         <v>318</v>
       </c>
       <c r="H24" s="2"/>
@@ -42945,7 +43520,7 @@
       <c r="E25" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="291"/>
+      <c r="F25" s="342"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -42965,10 +43540,10 @@
       <c r="E27" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="F27" s="291" t="s">
+      <c r="F27" s="342" t="s">
         <v>327</v>
       </c>
-      <c r="G27" s="290" t="s">
+      <c r="G27" s="341" t="s">
         <v>373</v>
       </c>
       <c r="H27" s="2"/>
@@ -42984,8 +43559,8 @@
       <c r="E28" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F28" s="291"/>
-      <c r="G28" s="290"/>
+      <c r="F28" s="342"/>
+      <c r="G28" s="341"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42994,8 +43569,8 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="F29" s="291"/>
-      <c r="G29" s="290"/>
+      <c r="F29" s="342"/>
+      <c r="G29" s="341"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43004,8 +43579,8 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="291"/>
-      <c r="G30" s="290"/>
+      <c r="F30" s="342"/>
+      <c r="G30" s="341"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43019,8 +43594,8 @@
       <c r="E31" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="291"/>
-      <c r="G31" s="290"/>
+      <c r="F31" s="342"/>
+      <c r="G31" s="341"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43034,7 +43609,7 @@
       <c r="E32" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="G32" s="290"/>
+      <c r="G32" s="341"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43043,7 +43618,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="G33" s="290"/>
+      <c r="G33" s="341"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43074,7 +43649,7 @@
       <c r="E36" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F36" s="291" t="s">
+      <c r="F36" s="342" t="s">
         <v>338</v>
       </c>
       <c r="H36" s="2"/>
@@ -43088,7 +43663,7 @@
       <c r="E37" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F37" s="291"/>
+      <c r="F37" s="342"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43102,7 +43677,7 @@
       <c r="E38" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F38" s="291"/>
+      <c r="F38" s="342"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43114,7 +43689,7 @@
       <c r="E39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F39" s="291"/>
+      <c r="F39" s="342"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43126,7 +43701,7 @@
       <c r="E40" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F40" s="291"/>
+      <c r="F40" s="342"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43140,7 +43715,7 @@
       <c r="E41" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F41" s="291"/>
+      <c r="F41" s="342"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -43152,7 +43727,7 @@
       <c r="E42" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F42" s="291"/>
+      <c r="F42" s="342"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -43164,7 +43739,7 @@
       <c r="E43" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F43" s="291"/>
+      <c r="F43" s="342"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43190,7 +43765,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="G46" s="290" t="s">
+      <c r="G46" s="341" t="s">
         <v>373</v>
       </c>
       <c r="H46" s="2"/>
@@ -43201,7 +43776,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="G47" s="290"/>
+      <c r="G47" s="341"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43213,7 +43788,7 @@
       <c r="E48" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G48" s="290"/>
+      <c r="G48" s="341"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43222,7 +43797,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="G49" s="290"/>
+      <c r="G49" s="341"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43231,7 +43806,7 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="G50" s="290"/>
+      <c r="G50" s="341"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43240,7 +43815,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="G51" s="290"/>
+      <c r="G51" s="341"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="101" t="s">
@@ -43248,7 +43823,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="G52" s="290"/>
+      <c r="G52" s="341"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="101" t="s">
@@ -43783,10 +44358,10 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="294" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="256"/>
+      <c r="C3" s="295"/>
       <c r="D3" s="117"/>
       <c r="E3" s="118" t="s">
         <v>92</v>
@@ -43797,96 +44372,96 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="310" t="s">
+      <c r="B4" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="312"/>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="317"/>
+      <c r="F4" s="253"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="312"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312" t="s">
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="317"/>
+      <c r="F5" s="253"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="310" t="s">
+      <c r="B6" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="312"/>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312" t="s">
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="317"/>
+      <c r="F6" s="253"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="310" t="s">
+      <c r="B7" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="312"/>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312" t="s">
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="317"/>
+      <c r="F7" s="253"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="310" t="s">
+      <c r="B8" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="312"/>
-      <c r="D8" s="312"/>
-      <c r="E8" s="312" t="s">
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="317"/>
+      <c r="F8" s="253"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="310" t="s">
+      <c r="B9" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="312"/>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312" t="s">
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="317"/>
+      <c r="F9" s="253"/>
     </row>
     <row r="10" spans="2:10" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="315" t="s">
+      <c r="B10" s="251" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="312" t="s">
+      <c r="C10" s="248" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="312"/>
-      <c r="E10" s="312"/>
-      <c r="F10" s="318"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="254"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="88"/>
@@ -44057,7 +44632,7 @@
       <c r="E25" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F25" s="293" t="s">
+      <c r="F25" s="348" t="s">
         <v>407</v>
       </c>
       <c r="H25" s="2"/>
@@ -44073,7 +44648,7 @@
       <c r="E26" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F26" s="293"/>
+      <c r="F26" s="348"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44087,7 +44662,7 @@
       <c r="E27" s="88" t="s">
         <v>405</v>
       </c>
-      <c r="F27" s="293"/>
+      <c r="F27" s="348"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44101,7 +44676,7 @@
       <c r="E28" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F28" s="293"/>
+      <c r="F28" s="348"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44115,7 +44690,7 @@
       <c r="E29" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F29" s="293"/>
+      <c r="F29" s="348"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44124,7 +44699,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="293"/>
+      <c r="F30" s="348"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44133,7 +44708,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="F31" s="293"/>
+      <c r="F31" s="348"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44151,7 +44726,7 @@
       <c r="E33" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F33" s="293" t="s">
+      <c r="F33" s="348" t="s">
         <v>338</v>
       </c>
       <c r="H33" s="2"/>
@@ -44162,7 +44737,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="F34" s="293"/>
+      <c r="F34" s="348"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44174,7 +44749,7 @@
       <c r="E35" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F35" s="293"/>
+      <c r="F35" s="348"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44183,7 +44758,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="293"/>
+      <c r="F36" s="348"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -44201,7 +44776,7 @@
       <c r="E38" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F38" s="293" t="s">
+      <c r="F38" s="348" t="s">
         <v>412</v>
       </c>
       <c r="H38" s="2"/>
@@ -44212,7 +44787,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="293"/>
+      <c r="F39" s="348"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -44224,7 +44799,7 @@
       <c r="E40" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F40" s="293"/>
+      <c r="F40" s="348"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -44233,7 +44808,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="F41" s="293"/>
+      <c r="F41" s="348"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -44255,7 +44830,7 @@
       <c r="F44" s="109" t="s">
         <v>419</v>
       </c>
-      <c r="G44" s="290" t="s">
+      <c r="G44" s="341" t="s">
         <v>420</v>
       </c>
       <c r="H44" s="2"/>
@@ -44264,7 +44839,7 @@
       <c r="B45" s="88"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="G45" s="294"/>
+      <c r="G45" s="349"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="609">
   <si>
     <t>استان</t>
   </si>
@@ -2158,9 +2158,6 @@
     <t>realy_target1</t>
   </si>
   <si>
-    <t>ir_do_amp_1</t>
-  </si>
-  <si>
     <t>realy_target2</t>
   </si>
   <si>
@@ -2215,6 +2212,100 @@
         <charset val="178"/>
       </rPr>
       <t xml:space="preserve"> T       X_is</t>
+    </r>
+  </si>
+  <si>
+    <t>testsheet16_rele_ezafe_jarian_ani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برگ آزمايش رله اضافه جريان آني 
+</t>
+  </si>
+  <si>
+    <t>کد  فرم</t>
+  </si>
+  <si>
+    <t>name_post2</t>
+  </si>
+  <si>
+    <t>در این تست شیت نام پست اضافه شده دوباره به مشخصات فیدر</t>
+  </si>
+  <si>
+    <t>nesbat_tabdil_trans_jarian</t>
+  </si>
+  <si>
+    <t>nesbat_tabdil_trans_voltazh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>A  مرحله</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">    TYPE OF FUALT </t>
+    </r>
+  </si>
+  <si>
+    <t>ir_do_amp1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>B  مرحله</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">    TYPE OF FUALT </t>
+    </r>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>C  مرحله</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">    TYPE OF FUALT </t>
     </r>
   </si>
 </sst>
@@ -2629,7 +2720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2916,6 +3007,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2924,7 +3052,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3776,6 +3904,36 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3813,24 +3971,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3968,6 +4108,15 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3989,14 +4138,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4016,68 +4198,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4088,14 +4216,41 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4907,16 +5062,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>60613</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>839932</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277092</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>164524</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4925,8 +5080,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7013863" y="406112"/>
-          <a:ext cx="2957080" cy="663287"/>
+          <a:off x="6961909" y="337705"/>
+          <a:ext cx="2684319" cy="718705"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9873,15 +10028,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="350" t="s">
+      <c r="B3" s="354" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="351"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="355"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -10335,10 +10490,10 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="353" t="s">
+      <c r="F44" s="357" t="s">
         <v>349</v>
       </c>
-      <c r="G44" s="352" t="s">
+      <c r="G44" s="356" t="s">
         <v>433</v>
       </c>
       <c r="H44" s="2"/>
@@ -10349,8 +10504,8 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="353"/>
-      <c r="G45" s="352"/>
+      <c r="F45" s="357"/>
+      <c r="G45" s="356"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -10943,15 +11098,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11175,7 +11330,7 @@
       <c r="E20" s="159" t="s">
         <v>437</v>
       </c>
-      <c r="F20" s="354" t="s">
+      <c r="F20" s="358" t="s">
         <v>327</v>
       </c>
       <c r="H20" s="2"/>
@@ -11189,7 +11344,7 @@
       <c r="E21" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F21" s="331"/>
+      <c r="F21" s="335"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11198,7 +11353,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="331"/>
+      <c r="F22" s="335"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11207,7 +11362,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="F23" s="331"/>
+      <c r="F23" s="335"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11219,7 +11374,7 @@
       <c r="E24" s="87" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="331"/>
+      <c r="F24" s="335"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11231,7 +11386,7 @@
       <c r="E25" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F25" s="331"/>
+      <c r="F25" s="335"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11240,7 +11395,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="331"/>
+      <c r="F26" s="335"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11958,15 +12113,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>547</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>449</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12064,7 +12219,7 @@
         <v>451</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="298" t="s">
+      <c r="G11" s="308" t="s">
         <v>450</v>
       </c>
     </row>
@@ -12078,7 +12233,7 @@
         <v>453</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="299"/>
+      <c r="G12" s="309"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -12090,7 +12245,7 @@
         <v>454</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="299"/>
+      <c r="G13" s="309"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -12102,7 +12257,7 @@
         <v>457</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="299"/>
+      <c r="G14" s="309"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -12114,7 +12269,7 @@
         <v>458</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="299"/>
+      <c r="G15" s="309"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -12132,7 +12287,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="298" t="s">
+      <c r="G17" s="308" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2"/>
@@ -12147,7 +12302,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="299"/>
+      <c r="G18" s="309"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -12162,7 +12317,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="300"/>
+      <c r="G19" s="310"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -12175,7 +12330,7 @@
         <v>464</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="301" t="s">
+      <c r="G20" s="311" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="2"/>
@@ -12190,7 +12345,7 @@
         <v>467</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="302"/>
+      <c r="G21" s="312"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -12203,7 +12358,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="302"/>
+      <c r="G22" s="312"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -12216,7 +12371,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="302"/>
+      <c r="G23" s="312"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -12229,7 +12384,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="303"/>
+      <c r="G24" s="313"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -12244,7 +12399,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="301" t="s">
+      <c r="G25" s="311" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="2"/>
@@ -12259,7 +12414,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="302"/>
+      <c r="G26" s="312"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -12269,7 +12424,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="302"/>
+      <c r="G27" s="312"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
@@ -12279,7 +12434,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="302"/>
+      <c r="G28" s="312"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
@@ -12291,7 +12446,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="303"/>
+      <c r="G29" s="313"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
@@ -12303,7 +12458,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="301" t="s">
+      <c r="G30" s="311" t="s">
         <v>59</v>
       </c>
     </row>
@@ -12317,7 +12472,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="302"/>
+      <c r="G31" s="312"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
@@ -12329,7 +12484,7 @@
         <v>23</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="302"/>
+      <c r="G32" s="312"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
@@ -12341,7 +12496,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="302"/>
+      <c r="G33" s="312"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
@@ -12353,7 +12508,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="303"/>
+      <c r="G34" s="313"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
@@ -12365,10 +12520,10 @@
         <v>26</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="307" t="s">
+      <c r="G35" s="298" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="304" t="s">
+      <c r="H35" s="295" t="s">
         <v>28</v>
       </c>
     </row>
@@ -12382,8 +12537,8 @@
         <v>27</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="308"/>
-      <c r="H36" s="305"/>
+      <c r="G36" s="299"/>
+      <c r="H36" s="296"/>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
@@ -12395,10 +12550,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="307" t="s">
+      <c r="G37" s="298" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="305"/>
+      <c r="H37" s="296"/>
     </row>
     <row r="38" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
@@ -12410,8 +12565,8 @@
         <v>27</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="309"/>
-      <c r="H38" s="305"/>
+      <c r="G38" s="300"/>
+      <c r="H38" s="296"/>
     </row>
     <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
@@ -12423,10 +12578,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="13"/>
-      <c r="G39" s="308" t="s">
+      <c r="G39" s="299" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="305"/>
+      <c r="H39" s="296"/>
     </row>
     <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
@@ -12438,8 +12593,8 @@
         <v>27</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="308"/>
-      <c r="H40" s="306"/>
+      <c r="G40" s="299"/>
+      <c r="H40" s="297"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
@@ -12451,10 +12606,10 @@
         <v>26</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="307" t="s">
+      <c r="G41" s="298" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="305" t="s">
+      <c r="H41" s="296" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12468,8 +12623,8 @@
         <v>27</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="309"/>
-      <c r="H42" s="305"/>
+      <c r="G42" s="300"/>
+      <c r="H42" s="296"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
@@ -12481,10 +12636,10 @@
         <v>26</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="307" t="s">
+      <c r="G43" s="298" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="305"/>
+      <c r="H43" s="296"/>
     </row>
     <row r="44" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
@@ -12496,8 +12651,8 @@
         <v>27</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="309"/>
-      <c r="H44" s="305"/>
+      <c r="G44" s="300"/>
+      <c r="H44" s="296"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
@@ -12509,10 +12664,10 @@
         <v>26</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="308" t="s">
+      <c r="G45" s="299" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="305"/>
+      <c r="H45" s="296"/>
     </row>
     <row r="46" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
@@ -12524,8 +12679,8 @@
         <v>27</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="309"/>
-      <c r="H46" s="306"/>
+      <c r="G46" s="300"/>
+      <c r="H46" s="297"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
@@ -13093,13 +13248,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="G11:G15"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H40"/>
     <mergeCell ref="G37:G38"/>
@@ -13108,6 +13256,13 @@
     <mergeCell ref="H41:H46"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="G11:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13161,15 +13316,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>546</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>468</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -13284,7 +13439,7 @@
         <v>451</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="298" t="s">
+      <c r="G12" s="308" t="s">
         <v>450</v>
       </c>
       <c r="H12" s="2"/>
@@ -13299,7 +13454,7 @@
         <v>453</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="299"/>
+      <c r="G13" s="309"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -13312,7 +13467,7 @@
         <v>454</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="299"/>
+      <c r="G14" s="309"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -13325,7 +13480,7 @@
         <v>457</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="299"/>
+      <c r="G15" s="309"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -13340,7 +13495,7 @@
         <v>458</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="300"/>
+      <c r="G16" s="310"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -13371,7 +13526,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="301" t="s">
+      <c r="G19" s="311" t="s">
         <v>474</v>
       </c>
       <c r="H19" s="2"/>
@@ -13384,7 +13539,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="302"/>
+      <c r="G20" s="312"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13395,7 +13550,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="302"/>
+      <c r="G21" s="312"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13406,7 +13561,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="302"/>
+      <c r="G22" s="312"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13419,7 +13574,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="303"/>
+      <c r="G23" s="313"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13438,7 +13593,7 @@
         <v>480</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="301" t="s">
+      <c r="G25" s="311" t="s">
         <v>475</v>
       </c>
       <c r="H25" s="121" t="s">
@@ -13453,7 +13608,7 @@
         <v>479</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="302"/>
+      <c r="G26" s="312"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13464,7 +13619,7 @@
         <v>178</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="302"/>
+      <c r="G27" s="312"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13477,7 +13632,7 @@
         <v>178</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="303"/>
+      <c r="G28" s="313"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13509,7 +13664,7 @@
       <c r="F31" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="G31" s="301" t="s">
+      <c r="G31" s="311" t="s">
         <v>481</v>
       </c>
       <c r="H31" s="2"/>
@@ -13530,7 +13685,7 @@
       <c r="F32" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G32" s="302"/>
+      <c r="G32" s="312"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13544,7 +13699,7 @@
         <v>484</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="302"/>
+      <c r="G33" s="312"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13559,7 +13714,7 @@
         <v>483</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="303"/>
+      <c r="G34" s="313"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13582,7 +13737,7 @@
       <c r="F36" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="G36" s="301" t="s">
+      <c r="G36" s="311" t="s">
         <v>485</v>
       </c>
       <c r="H36" s="2"/>
@@ -13600,7 +13755,7 @@
       <c r="F37" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G37" s="302"/>
+      <c r="G37" s="312"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13616,7 +13771,7 @@
       <c r="F38" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G38" s="302"/>
+      <c r="G38" s="312"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13631,7 +13786,7 @@
         <v>483</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="303"/>
+      <c r="G39" s="313"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13654,7 +13809,7 @@
       <c r="F41" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="G41" s="301" t="s">
+      <c r="G41" s="311" t="s">
         <v>489</v>
       </c>
       <c r="H41" s="2"/>
@@ -13673,7 +13828,7 @@
       <c r="F42" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G42" s="302"/>
+      <c r="G42" s="312"/>
       <c r="H42"/>
     </row>
     <row r="43" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13689,7 +13844,7 @@
       <c r="F43" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G43" s="302"/>
+      <c r="G43" s="312"/>
       <c r="H43" s="125" t="s">
         <v>493</v>
       </c>
@@ -13706,7 +13861,7 @@
         <v>483</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="303"/>
+      <c r="G44" s="313"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13839,7 +13994,7 @@
       <c r="E58" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="291" t="s">
+      <c r="F58" s="301" t="s">
         <v>504</v>
       </c>
     </row>
@@ -13852,7 +14007,7 @@
       <c r="E59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="292"/>
+      <c r="F59" s="302"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
@@ -13863,7 +14018,7 @@
       <c r="E60" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="292"/>
+      <c r="F60" s="302"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
@@ -13874,7 +14029,7 @@
       <c r="E61" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="292"/>
+      <c r="F61" s="302"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="136" t="s">
@@ -13885,7 +14040,7 @@
       <c r="E62" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F62" s="292"/>
+      <c r="F62" s="302"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
@@ -13896,7 +14051,7 @@
       <c r="E63" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F63" s="292"/>
+      <c r="F63" s="302"/>
     </row>
     <row r="64" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="137" t="s">
@@ -13907,7 +14062,7 @@
       <c r="E64" s="135" t="s">
         <v>503</v>
       </c>
-      <c r="F64" s="293"/>
+      <c r="F64" s="303"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
@@ -14381,15 +14536,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="361" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="368" t="s">
         <v>505</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -14652,7 +14807,7 @@
       <c r="E24" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="362" t="s">
+      <c r="F24" s="359" t="s">
         <v>552</v>
       </c>
       <c r="G24" s="176" t="s">
@@ -14669,7 +14824,7 @@
       <c r="E25" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F25" s="363"/>
+      <c r="F25" s="360"/>
       <c r="G25" s="177" t="s">
         <v>178</v>
       </c>
@@ -14681,7 +14836,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="363"/>
+      <c r="F26" s="360"/>
       <c r="G26" s="177"/>
       <c r="H26" s="2"/>
     </row>
@@ -14691,7 +14846,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="F27" s="363"/>
+      <c r="F27" s="360"/>
       <c r="G27" s="177"/>
       <c r="H27" s="2"/>
     </row>
@@ -14704,7 +14859,7 @@
       <c r="E28" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F28" s="363"/>
+      <c r="F28" s="360"/>
       <c r="G28" s="285" t="s">
         <v>509</v>
       </c>
@@ -14716,7 +14871,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="F29" s="363"/>
+      <c r="F29" s="360"/>
       <c r="G29" s="178"/>
       <c r="H29" s="2"/>
     </row>
@@ -14726,7 +14881,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="363"/>
+      <c r="F30" s="360"/>
       <c r="G30" s="178"/>
       <c r="H30" s="2"/>
     </row>
@@ -14737,7 +14892,7 @@
       <c r="C31" s="131"/>
       <c r="D31" s="131"/>
       <c r="E31" s="190"/>
-      <c r="F31" s="364"/>
+      <c r="F31" s="361"/>
       <c r="G31" s="179"/>
       <c r="H31" s="2"/>
     </row>
@@ -14756,7 +14911,7 @@
       <c r="E33" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F33" s="362" t="s">
+      <c r="F33" s="359" t="s">
         <v>552</v>
       </c>
       <c r="G33" s="176" t="s">
@@ -14773,7 +14928,7 @@
       <c r="E34" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F34" s="363"/>
+      <c r="F34" s="360"/>
       <c r="G34" s="177" t="s">
         <v>178</v>
       </c>
@@ -14785,7 +14940,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="F35" s="363"/>
+      <c r="F35" s="360"/>
       <c r="G35" s="177"/>
       <c r="H35" s="2"/>
     </row>
@@ -14795,7 +14950,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="363"/>
+      <c r="F36" s="360"/>
       <c r="G36" s="177"/>
       <c r="H36" s="2"/>
     </row>
@@ -14808,7 +14963,7 @@
       <c r="E37" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F37" s="363"/>
+      <c r="F37" s="360"/>
       <c r="G37" s="285" t="s">
         <v>509</v>
       </c>
@@ -14820,7 +14975,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="F38" s="363"/>
+      <c r="F38" s="360"/>
       <c r="G38" s="178"/>
       <c r="H38" s="2"/>
     </row>
@@ -14830,7 +14985,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="363"/>
+      <c r="F39" s="360"/>
       <c r="G39" s="178"/>
       <c r="H39" s="2"/>
     </row>
@@ -14841,7 +14996,7 @@
       <c r="C40" s="131"/>
       <c r="D40" s="131"/>
       <c r="E40" s="190"/>
-      <c r="F40" s="364"/>
+      <c r="F40" s="361"/>
       <c r="G40" s="179"/>
       <c r="H40" s="2"/>
     </row>
@@ -14860,7 +15015,7 @@
       <c r="E42" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F42" s="362" t="s">
+      <c r="F42" s="359" t="s">
         <v>553</v>
       </c>
       <c r="G42" s="176" t="s">
@@ -14877,7 +15032,7 @@
       <c r="E43" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F43" s="363"/>
+      <c r="F43" s="360"/>
       <c r="G43" s="177" t="s">
         <v>178</v>
       </c>
@@ -14889,7 +15044,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="363"/>
+      <c r="F44" s="360"/>
       <c r="G44" s="177"/>
       <c r="H44" s="2"/>
     </row>
@@ -14899,7 +15054,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="363"/>
+      <c r="F45" s="360"/>
       <c r="G45" s="177"/>
       <c r="H45" s="2"/>
     </row>
@@ -14912,7 +15067,7 @@
       <c r="E46" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F46" s="363"/>
+      <c r="F46" s="360"/>
       <c r="G46" s="285" t="s">
         <v>509</v>
       </c>
@@ -14924,7 +15079,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="F47" s="363"/>
+      <c r="F47" s="360"/>
       <c r="G47" s="178"/>
       <c r="H47" s="2"/>
     </row>
@@ -14934,7 +15089,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="F48" s="363"/>
+      <c r="F48" s="360"/>
       <c r="G48" s="178"/>
       <c r="H48" s="2"/>
     </row>
@@ -14945,7 +15100,7 @@
       <c r="C49" s="131"/>
       <c r="D49" s="131"/>
       <c r="E49" s="190"/>
-      <c r="F49" s="364"/>
+      <c r="F49" s="361"/>
       <c r="G49" s="179"/>
     </row>
     <row r="50" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14962,10 +15117,10 @@
       <c r="E51" s="191" t="s">
         <v>526</v>
       </c>
-      <c r="F51" s="358" t="s">
+      <c r="F51" s="365" t="s">
         <v>525</v>
       </c>
-      <c r="G51" s="355" t="s">
+      <c r="G51" s="362" t="s">
         <v>338</v>
       </c>
     </row>
@@ -14978,8 +15133,8 @@
       <c r="E52" s="186" t="s">
         <v>526</v>
       </c>
-      <c r="F52" s="359"/>
-      <c r="G52" s="356"/>
+      <c r="F52" s="366"/>
+      <c r="G52" s="363"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="184" t="s">
@@ -14990,8 +15145,8 @@
       <c r="E53" s="186" t="s">
         <v>526</v>
       </c>
-      <c r="F53" s="359"/>
-      <c r="G53" s="356"/>
+      <c r="F53" s="366"/>
+      <c r="G53" s="363"/>
     </row>
     <row r="54" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="185" t="s">
@@ -15002,8 +15157,8 @@
       <c r="E54" s="190" t="s">
         <v>526</v>
       </c>
-      <c r="F54" s="360"/>
-      <c r="G54" s="357"/>
+      <c r="F54" s="367"/>
+      <c r="G54" s="364"/>
     </row>
     <row r="55" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="99"/>
@@ -15019,10 +15174,10 @@
       <c r="E56" s="191" t="s">
         <v>535</v>
       </c>
-      <c r="F56" s="358" t="s">
+      <c r="F56" s="365" t="s">
         <v>534</v>
       </c>
-      <c r="G56" s="355" t="s">
+      <c r="G56" s="362" t="s">
         <v>338</v>
       </c>
     </row>
@@ -15035,8 +15190,8 @@
       <c r="E57" s="186" t="s">
         <v>535</v>
       </c>
-      <c r="F57" s="359"/>
-      <c r="G57" s="356"/>
+      <c r="F57" s="366"/>
+      <c r="G57" s="363"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="184" t="s">
@@ -15047,8 +15202,8 @@
       <c r="E58" s="186" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="359"/>
-      <c r="G58" s="356"/>
+      <c r="F58" s="366"/>
+      <c r="G58" s="363"/>
     </row>
     <row r="59" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="185" t="s">
@@ -15059,8 +15214,8 @@
       <c r="E59" s="190" t="s">
         <v>535</v>
       </c>
-      <c r="F59" s="360"/>
-      <c r="G59" s="357"/>
+      <c r="F59" s="367"/>
+      <c r="G59" s="364"/>
     </row>
     <row r="60" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="99"/>
@@ -15186,7 +15341,7 @@
       <c r="E74" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="333" t="s">
+      <c r="F74" s="337" t="s">
         <v>504</v>
       </c>
     </row>
@@ -15199,7 +15354,7 @@
       <c r="E75" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="334"/>
+      <c r="F75" s="338"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="184" t="s">
@@ -15210,7 +15365,7 @@
       <c r="E76" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F76" s="334"/>
+      <c r="F76" s="338"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="184" t="s">
@@ -15221,7 +15376,7 @@
       <c r="E77" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="334"/>
+      <c r="F77" s="338"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="184" t="s">
@@ -15232,7 +15387,7 @@
       <c r="E78" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F78" s="334"/>
+      <c r="F78" s="338"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="161" t="s">
@@ -15243,7 +15398,7 @@
       <c r="E79" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F79" s="334"/>
+      <c r="F79" s="338"/>
     </row>
     <row r="80" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="163" t="s">
@@ -15254,7 +15409,7 @@
       <c r="E80" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F80" s="335"/>
+      <c r="F80" s="339"/>
     </row>
     <row r="81" spans="3:4" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
@@ -15622,16 +15777,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F24:F31"/>
+    <mergeCell ref="F33:F40"/>
     <mergeCell ref="F74:F80"/>
     <mergeCell ref="F42:F49"/>
     <mergeCell ref="G51:G54"/>
     <mergeCell ref="F51:F54"/>
     <mergeCell ref="F56:F59"/>
     <mergeCell ref="G56:G59"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="F24:F31"/>
-    <mergeCell ref="F33:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15644,10 +15799,10 @@
   <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E69" sqref="A69:E75"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15684,15 +15839,15 @@
     </row>
     <row r="2" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="354" t="s">
         <v>584</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="380" t="s">
+      <c r="B3" s="355"/>
+      <c r="C3" s="369" t="s">
         <v>544</v>
       </c>
-      <c r="D3" s="381"/>
-      <c r="E3" s="382"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="371"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -15916,7 +16071,7 @@
       <c r="D20" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="E20" s="383" t="s">
+      <c r="E20" s="372" t="s">
         <v>318</v>
       </c>
       <c r="G20" s="2"/>
@@ -15932,7 +16087,7 @@
       <c r="D21" s="284" t="s">
         <v>506</v>
       </c>
-      <c r="E21" s="384"/>
+      <c r="E21" s="373"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15950,10 +16105,10 @@
       <c r="D23" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E23" s="362" t="s">
+      <c r="E23" s="359" t="s">
         <v>555</v>
       </c>
-      <c r="F23" s="377" t="s">
+      <c r="F23" s="374" t="s">
         <v>554</v>
       </c>
       <c r="G23" s="2"/>
@@ -15967,8 +16122,8 @@
       <c r="D24" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E24" s="363"/>
-      <c r="F24" s="378"/>
+      <c r="E24" s="360"/>
+      <c r="F24" s="375"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15978,8 +16133,8 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="186"/>
-      <c r="E25" s="363"/>
-      <c r="F25" s="378"/>
+      <c r="E25" s="360"/>
+      <c r="F25" s="375"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15989,8 +16144,8 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="186"/>
-      <c r="E26" s="363"/>
-      <c r="F26" s="378"/>
+      <c r="E26" s="360"/>
+      <c r="F26" s="375"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16002,8 +16157,8 @@
       <c r="D27" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E27" s="363"/>
-      <c r="F27" s="378"/>
+      <c r="E27" s="360"/>
+      <c r="F27" s="375"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16013,8 +16168,8 @@
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
       <c r="D28" s="190"/>
-      <c r="E28" s="364"/>
-      <c r="F28" s="379"/>
+      <c r="E28" s="361"/>
+      <c r="F28" s="376"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16032,10 +16187,10 @@
       <c r="D30" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E30" s="362" t="s">
+      <c r="E30" s="359" t="s">
         <v>559</v>
       </c>
-      <c r="F30" s="377" t="s">
+      <c r="F30" s="374" t="s">
         <v>554</v>
       </c>
       <c r="G30" s="2"/>
@@ -16049,8 +16204,8 @@
       <c r="D31" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E31" s="363"/>
-      <c r="F31" s="378"/>
+      <c r="E31" s="360"/>
+      <c r="F31" s="375"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16060,8 +16215,8 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="186"/>
-      <c r="E32" s="363"/>
-      <c r="F32" s="378"/>
+      <c r="E32" s="360"/>
+      <c r="F32" s="375"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16071,8 +16226,8 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="186"/>
-      <c r="E33" s="363"/>
-      <c r="F33" s="378"/>
+      <c r="E33" s="360"/>
+      <c r="F33" s="375"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16084,8 +16239,8 @@
       <c r="D34" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E34" s="363"/>
-      <c r="F34" s="378"/>
+      <c r="E34" s="360"/>
+      <c r="F34" s="375"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16095,8 +16250,8 @@
       <c r="B35" s="131"/>
       <c r="C35" s="131"/>
       <c r="D35" s="190"/>
-      <c r="E35" s="364"/>
-      <c r="F35" s="379"/>
+      <c r="E35" s="361"/>
+      <c r="F35" s="376"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16114,10 +16269,10 @@
       <c r="D37" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E37" s="362" t="s">
+      <c r="E37" s="359" t="s">
         <v>565</v>
       </c>
-      <c r="F37" s="377" t="s">
+      <c r="F37" s="374" t="s">
         <v>554</v>
       </c>
       <c r="G37" s="2"/>
@@ -16131,8 +16286,8 @@
       <c r="D38" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E38" s="363"/>
-      <c r="F38" s="378"/>
+      <c r="E38" s="360"/>
+      <c r="F38" s="375"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -16142,8 +16297,8 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="186"/>
-      <c r="E39" s="363"/>
-      <c r="F39" s="378"/>
+      <c r="E39" s="360"/>
+      <c r="F39" s="375"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -16153,8 +16308,8 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="186"/>
-      <c r="E40" s="363"/>
-      <c r="F40" s="378"/>
+      <c r="E40" s="360"/>
+      <c r="F40" s="375"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -16166,8 +16321,8 @@
       <c r="D41" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E41" s="363"/>
-      <c r="F41" s="378"/>
+      <c r="E41" s="360"/>
+      <c r="F41" s="375"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16177,8 +16332,8 @@
       <c r="B42" s="131"/>
       <c r="C42" s="131"/>
       <c r="D42" s="190"/>
-      <c r="E42" s="364"/>
-      <c r="F42" s="379"/>
+      <c r="E42" s="361"/>
+      <c r="F42" s="376"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16198,16 +16353,16 @@
       <c r="D44" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="371" t="s">
+      <c r="E44" s="377" t="s">
         <v>568</v>
       </c>
-      <c r="F44" s="374" t="s">
+      <c r="F44" s="380" t="s">
         <v>566</v>
       </c>
-      <c r="G44" s="365" t="s">
+      <c r="G44" s="383" t="s">
         <v>338</v>
       </c>
-      <c r="H44" s="366"/>
+      <c r="H44" s="384"/>
     </row>
     <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="184" t="s">
@@ -16220,10 +16375,10 @@
       <c r="D45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="372"/>
-      <c r="F45" s="375"/>
-      <c r="G45" s="367"/>
-      <c r="H45" s="368"/>
+      <c r="E45" s="378"/>
+      <c r="F45" s="381"/>
+      <c r="G45" s="385"/>
+      <c r="H45" s="386"/>
     </row>
     <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="184" t="s">
@@ -16236,10 +16391,10 @@
       <c r="D46" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E46" s="372"/>
-      <c r="F46" s="375"/>
-      <c r="G46" s="367"/>
-      <c r="H46" s="368"/>
+      <c r="E46" s="378"/>
+      <c r="F46" s="381"/>
+      <c r="G46" s="385"/>
+      <c r="H46" s="386"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="185" t="s">
@@ -16252,10 +16407,10 @@
       <c r="D47" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E47" s="373"/>
-      <c r="F47" s="376"/>
-      <c r="G47" s="369"/>
-      <c r="H47" s="370"/>
+      <c r="E47" s="379"/>
+      <c r="F47" s="382"/>
+      <c r="G47" s="387"/>
+      <c r="H47" s="388"/>
     </row>
     <row r="48" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
@@ -16273,16 +16428,16 @@
       <c r="D49" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E49" s="371" t="s">
+      <c r="E49" s="377" t="s">
         <v>569</v>
       </c>
-      <c r="F49" s="374" t="s">
+      <c r="F49" s="380" t="s">
         <v>566</v>
       </c>
-      <c r="G49" s="365" t="s">
+      <c r="G49" s="383" t="s">
         <v>338</v>
       </c>
-      <c r="H49" s="366"/>
+      <c r="H49" s="384"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="184" t="s">
@@ -16295,10 +16450,10 @@
       <c r="D50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="372"/>
-      <c r="F50" s="375"/>
-      <c r="G50" s="367"/>
-      <c r="H50" s="368"/>
+      <c r="E50" s="378"/>
+      <c r="F50" s="381"/>
+      <c r="G50" s="385"/>
+      <c r="H50" s="386"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="184" t="s">
@@ -16311,10 +16466,10 @@
       <c r="D51" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E51" s="372"/>
-      <c r="F51" s="375"/>
-      <c r="G51" s="367"/>
-      <c r="H51" s="368"/>
+      <c r="E51" s="378"/>
+      <c r="F51" s="381"/>
+      <c r="G51" s="385"/>
+      <c r="H51" s="386"/>
     </row>
     <row r="52" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="185" t="s">
@@ -16327,10 +16482,10 @@
       <c r="D52" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E52" s="373"/>
-      <c r="F52" s="376"/>
-      <c r="G52" s="369"/>
-      <c r="H52" s="370"/>
+      <c r="E52" s="379"/>
+      <c r="F52" s="382"/>
+      <c r="G52" s="387"/>
+      <c r="H52" s="388"/>
     </row>
     <row r="53" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
@@ -16347,16 +16502,16 @@
       <c r="D54" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="371" t="s">
+      <c r="E54" s="377" t="s">
         <v>578</v>
       </c>
-      <c r="F54" s="374" t="s">
+      <c r="F54" s="380" t="s">
         <v>566</v>
       </c>
-      <c r="G54" s="365" t="s">
+      <c r="G54" s="383" t="s">
         <v>338</v>
       </c>
-      <c r="H54" s="366"/>
+      <c r="H54" s="384"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="184" t="s">
@@ -16369,10 +16524,10 @@
       <c r="D55" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E55" s="372"/>
-      <c r="F55" s="375"/>
-      <c r="G55" s="367"/>
-      <c r="H55" s="368"/>
+      <c r="E55" s="378"/>
+      <c r="F55" s="381"/>
+      <c r="G55" s="385"/>
+      <c r="H55" s="386"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="184" t="s">
@@ -16385,10 +16540,10 @@
       <c r="D56" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E56" s="372"/>
-      <c r="F56" s="375"/>
-      <c r="G56" s="367"/>
-      <c r="H56" s="368"/>
+      <c r="E56" s="378"/>
+      <c r="F56" s="381"/>
+      <c r="G56" s="385"/>
+      <c r="H56" s="386"/>
     </row>
     <row r="57" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="185" t="s">
@@ -16401,10 +16556,10 @@
       <c r="D57" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E57" s="373"/>
-      <c r="F57" s="376"/>
-      <c r="G57" s="369"/>
-      <c r="H57" s="370"/>
+      <c r="E57" s="379"/>
+      <c r="F57" s="382"/>
+      <c r="G57" s="387"/>
+      <c r="H57" s="388"/>
     </row>
     <row r="58" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
@@ -16923,17 +17078,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
     <mergeCell ref="G44:H47"/>
     <mergeCell ref="E49:E52"/>
     <mergeCell ref="F49:F52"/>
@@ -16941,6 +17085,17 @@
     <mergeCell ref="E54:E57"/>
     <mergeCell ref="F54:F57"/>
     <mergeCell ref="G54:H57"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16950,13 +17105,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J167"/>
+  <dimension ref="B1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -16994,35 +17149,35 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>585</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>586</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="385" t="s">
+      <c r="B4" s="401" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="386"/>
+      <c r="C4" s="291"/>
       <c r="D4" s="225"/>
-      <c r="E4" s="386" t="s">
+      <c r="E4" s="291" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="387"/>
+      <c r="F4" s="292"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="388" t="s">
+      <c r="B5" s="402" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
@@ -17036,7 +17191,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="388" t="s">
+      <c r="B6" s="402" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
@@ -17050,7 +17205,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="388" t="s">
+      <c r="B7" s="402" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
@@ -17064,7 +17219,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="388" t="s">
+      <c r="B8" s="402" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="4"/>
@@ -17077,718 +17232,722 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="389" t="s">
+    <row r="9" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="402" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="390" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="391"/>
+      <c r="F9" s="51"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="400" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="293" t="s">
+        <v>599</v>
+      </c>
+      <c r="F10" s="294"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="148" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="157" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="150" t="s">
-        <v>303</v>
-      </c>
+    <row r="11" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="151" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="174"/>
+    <row r="12" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="150" t="s">
+        <v>303</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="151" t="s">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="E13" s="94" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="F13" s="174"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="185" t="s">
-        <v>587</v>
-      </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="155" t="s">
-        <v>588</v>
-      </c>
-      <c r="F14" s="195" t="s">
-        <v>178</v>
-      </c>
+    <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="151" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="174"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+    <row r="15" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="185" t="s">
+        <v>587</v>
+      </c>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155" t="s">
+        <v>588</v>
+      </c>
+      <c r="F15" s="195" t="s">
+        <v>178</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="148" t="s">
-        <v>313</v>
-      </c>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="157" t="s">
-        <v>307</v>
-      </c>
-      <c r="F16" s="196"/>
+    <row r="16" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="151" t="s">
-        <v>314</v>
-      </c>
-      <c r="E17" s="94" t="s">
-        <v>308</v>
-      </c>
-      <c r="F17" s="174" t="s">
-        <v>306</v>
-      </c>
+    <row r="17" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="157" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="196"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="153" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="155" t="s">
-        <v>309</v>
-      </c>
-      <c r="F18" s="195" t="s">
-        <v>178</v>
+    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="151" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="F18" s="174" t="s">
+        <v>306</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="195" t="s">
+        <v>178</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="158" t="s">
+    <row r="20" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="158" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C21" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="188" t="s">
+      <c r="D21" s="127"/>
+      <c r="E21" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="F20" s="383" t="s">
+      <c r="F21" s="372" t="s">
         <v>318</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="163" t="s">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="163" t="s">
         <v>359</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C22" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="284" t="s">
+      <c r="D22" s="131"/>
+      <c r="E22" s="284" t="s">
         <v>506</v>
       </c>
-      <c r="F21" s="384"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="F22" s="373"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="158" t="s">
+    <row r="23" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="158" t="s">
         <v>560</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="191" t="s">
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F23" s="395" t="s">
+      <c r="F24" s="389" t="s">
         <v>555</v>
       </c>
-      <c r="G23" s="392" t="s">
+      <c r="G24" s="392" t="s">
         <v>554</v>
       </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="161" t="s">
-        <v>561</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="186" t="s">
-        <v>556</v>
-      </c>
-      <c r="F24" s="396"/>
-      <c r="G24" s="393"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="161" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="396"/>
+      <c r="E25" s="186" t="s">
+        <v>556</v>
+      </c>
+      <c r="F25" s="390"/>
       <c r="G25" s="393"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="161" t="s">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="186" t="s">
-        <v>558</v>
-      </c>
-      <c r="F26" s="396"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="390"/>
       <c r="G26" s="393"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="161" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="F27" s="396"/>
+      <c r="E27" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F27" s="390"/>
       <c r="G27" s="393"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="163" t="s">
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="161" t="s">
+        <v>589</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="390"/>
+      <c r="G28" s="393"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="163" t="s">
         <v>564</v>
       </c>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="397"/>
-      <c r="G28" s="394"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="391"/>
+      <c r="G29" s="394"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="158" t="s">
+    <row r="30" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="158" t="s">
         <v>513</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="191" t="s">
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F30" s="395" t="s">
+      <c r="F31" s="389" t="s">
         <v>559</v>
       </c>
-      <c r="G30" s="392" t="s">
+      <c r="G31" s="392" t="s">
         <v>554</v>
       </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="161" t="s">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="161" t="s">
         <v>370</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="186" t="s">
-        <v>556</v>
-      </c>
-      <c r="F31" s="396"/>
-      <c r="G31" s="393"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="161" t="s">
-        <v>375</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="396"/>
+      <c r="E32" s="186" t="s">
+        <v>556</v>
+      </c>
+      <c r="F32" s="390"/>
       <c r="G32" s="393"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="161" t="s">
-        <v>594</v>
+        <v>375</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="186" t="s">
-        <v>558</v>
-      </c>
-      <c r="F33" s="396"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="390"/>
       <c r="G33" s="393"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="161" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="F34" s="396"/>
+      <c r="E34" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F34" s="390"/>
       <c r="G34" s="393"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="163" t="s">
+    <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="161" t="s">
+        <v>590</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="F35" s="390"/>
+      <c r="G35" s="393"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="163" t="s">
         <v>516</v>
       </c>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="397"/>
-      <c r="G35" s="394"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="391"/>
+      <c r="G36" s="394"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="158" t="s">
+    <row r="37" spans="2:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="158" t="s">
         <v>518</v>
       </c>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="191" t="s">
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F37" s="395" t="s">
+      <c r="F38" s="389" t="s">
         <v>565</v>
       </c>
-      <c r="G37" s="392" t="s">
+      <c r="G38" s="392" t="s">
         <v>554</v>
       </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="161" t="s">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="161" t="s">
         <v>519</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="186" t="s">
-        <v>556</v>
-      </c>
-      <c r="F38" s="396"/>
-      <c r="G38" s="393"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="161" t="s">
-        <v>514</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="396"/>
+      <c r="E39" s="186" t="s">
+        <v>556</v>
+      </c>
+      <c r="F39" s="390"/>
       <c r="G39" s="393"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="161" t="s">
-        <v>592</v>
+        <v>514</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="186" t="s">
-        <v>558</v>
-      </c>
-      <c r="F40" s="396"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="390"/>
       <c r="G40" s="393"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="161" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="F41" s="396"/>
+      <c r="E41" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F41" s="390"/>
       <c r="G41" s="393"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="163" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="161" t="s">
+        <v>592</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="F42" s="390"/>
+      <c r="G42" s="393"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="163" t="s">
         <v>524</v>
       </c>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="397"/>
-      <c r="G42" s="394"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="391"/>
+      <c r="G43" s="394"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="183" t="s">
+    <row r="44" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="183" t="s">
         <v>570</v>
       </c>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127" t="s">
+      <c r="C45" s="127"/>
+      <c r="D45" s="127" t="s">
         <v>567</v>
       </c>
-      <c r="E44" s="127" t="s">
+      <c r="E45" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F44" s="371" t="s">
-        <v>595</v>
-      </c>
-      <c r="G44" s="374" t="s">
+      <c r="F45" s="377" t="s">
+        <v>594</v>
+      </c>
+      <c r="G45" s="380" t="s">
         <v>566</v>
       </c>
-      <c r="H44" s="365" t="s">
+      <c r="H45" s="383" t="s">
         <v>338</v>
       </c>
-      <c r="I44" s="366"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="184" t="s">
-        <v>571</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="372"/>
-      <c r="G45" s="375"/>
-      <c r="H45" s="367"/>
-      <c r="I45" s="368"/>
+      <c r="I45" s="384"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="184" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
         <v>567</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="378"/>
+      <c r="G46" s="381"/>
+      <c r="H46" s="385"/>
+      <c r="I46" s="386"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="184" t="s">
+        <v>572</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F46" s="372"/>
-      <c r="G46" s="375"/>
-      <c r="H46" s="367"/>
-      <c r="I46" s="368"/>
-    </row>
-    <row r="47" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="185" t="s">
+      <c r="F47" s="378"/>
+      <c r="G47" s="381"/>
+      <c r="H47" s="385"/>
+      <c r="I47" s="386"/>
+    </row>
+    <row r="48" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="185" t="s">
         <v>573</v>
       </c>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131" t="s">
+      <c r="C48" s="131"/>
+      <c r="D48" s="131" t="s">
         <v>567</v>
       </c>
-      <c r="E47" s="131" t="s">
+      <c r="E48" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F47" s="373"/>
-      <c r="G47" s="376"/>
-      <c r="H47" s="369"/>
-      <c r="I47" s="370"/>
-    </row>
-    <row r="48" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="183" t="s">
+      <c r="F48" s="379"/>
+      <c r="G48" s="382"/>
+      <c r="H48" s="387"/>
+      <c r="I48" s="388"/>
+    </row>
+    <row r="49" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="183" t="s">
         <v>574</v>
       </c>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127" t="s">
+      <c r="C50" s="127"/>
+      <c r="D50" s="127" t="s">
         <v>567</v>
       </c>
-      <c r="E49" s="127" t="s">
+      <c r="E50" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="371" t="s">
-        <v>596</v>
-      </c>
-      <c r="G49" s="374" t="s">
+      <c r="F50" s="377" t="s">
+        <v>595</v>
+      </c>
+      <c r="G50" s="380" t="s">
         <v>566</v>
       </c>
-      <c r="H49" s="365" t="s">
+      <c r="H50" s="383" t="s">
         <v>338</v>
       </c>
-      <c r="I49" s="366"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="184" t="s">
-        <v>575</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F50" s="372"/>
-      <c r="G50" s="375"/>
-      <c r="H50" s="367"/>
-      <c r="I50" s="368"/>
+      <c r="I50" s="384"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="184" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
         <v>567</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="378"/>
+      <c r="G51" s="381"/>
+      <c r="H51" s="385"/>
+      <c r="I51" s="386"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="184" t="s">
+        <v>576</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F51" s="372"/>
-      <c r="G51" s="375"/>
-      <c r="H51" s="367"/>
-      <c r="I51" s="368"/>
-    </row>
-    <row r="52" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="185" t="s">
+      <c r="F52" s="378"/>
+      <c r="G52" s="381"/>
+      <c r="H52" s="385"/>
+      <c r="I52" s="386"/>
+    </row>
+    <row r="53" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="185" t="s">
         <v>577</v>
       </c>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131" t="s">
+      <c r="C53" s="131"/>
+      <c r="D53" s="131" t="s">
         <v>567</v>
       </c>
-      <c r="E52" s="131" t="s">
+      <c r="E53" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F52" s="373"/>
-      <c r="G52" s="376"/>
-      <c r="H52" s="369"/>
-      <c r="I52" s="370"/>
-    </row>
-    <row r="53" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="183" t="s">
+      <c r="F53" s="379"/>
+      <c r="G53" s="382"/>
+      <c r="H53" s="387"/>
+      <c r="I53" s="388"/>
+    </row>
+    <row r="54" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="183" t="s">
         <v>579</v>
       </c>
-      <c r="C54" s="127"/>
-      <c r="D54" s="127" t="s">
+      <c r="C55" s="127"/>
+      <c r="D55" s="127" t="s">
         <v>567</v>
       </c>
-      <c r="E54" s="127" t="s">
+      <c r="E55" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F54" s="371" t="s">
-        <v>597</v>
-      </c>
-      <c r="G54" s="374" t="s">
+      <c r="F55" s="377" t="s">
+        <v>596</v>
+      </c>
+      <c r="G55" s="380" t="s">
         <v>566</v>
       </c>
-      <c r="H54" s="365" t="s">
+      <c r="H55" s="383" t="s">
         <v>338</v>
       </c>
-      <c r="I54" s="366"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="184" t="s">
-        <v>580</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F55" s="372"/>
-      <c r="G55" s="375"/>
-      <c r="H55" s="367"/>
-      <c r="I55" s="368"/>
+      <c r="I55" s="384"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="184" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
         <v>567</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" s="378"/>
+      <c r="G56" s="381"/>
+      <c r="H56" s="385"/>
+      <c r="I56" s="386"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="184" t="s">
+        <v>581</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F56" s="372"/>
-      <c r="G56" s="375"/>
-      <c r="H56" s="367"/>
-      <c r="I56" s="368"/>
-    </row>
-    <row r="57" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="185" t="s">
+      <c r="F57" s="378"/>
+      <c r="G57" s="381"/>
+      <c r="H57" s="385"/>
+      <c r="I57" s="386"/>
+    </row>
+    <row r="58" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="185" t="s">
         <v>582</v>
       </c>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131" t="s">
+      <c r="C58" s="131"/>
+      <c r="D58" s="131" t="s">
         <v>567</v>
       </c>
-      <c r="E57" s="131" t="s">
+      <c r="E58" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F57" s="373"/>
-      <c r="G57" s="376"/>
-      <c r="H57" s="369"/>
-      <c r="I57" s="370"/>
-    </row>
-    <row r="58" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="183" t="s">
+      <c r="F58" s="379"/>
+      <c r="G58" s="382"/>
+      <c r="H58" s="387"/>
+      <c r="I58" s="388"/>
+    </row>
+    <row r="59" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="183" t="s">
         <v>389</v>
       </c>
-      <c r="C59" s="127"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="191" t="s">
+      <c r="C60" s="127"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="191" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="191"/>
-      <c r="G59" s="128"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="184" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="186"/>
-      <c r="F60" s="186"/>
-      <c r="G60" s="50"/>
+      <c r="F60" s="191"/>
+      <c r="G60" s="128"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="184" t="s">
-        <v>539</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="286" t="s">
-        <v>583</v>
-      </c>
+      <c r="E61" s="186"/>
       <c r="F61" s="186"/>
       <c r="G61" s="50"/>
     </row>
-    <row r="62" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="185" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="184" t="s">
+        <v>539</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="286" t="s">
+        <v>583</v>
+      </c>
+      <c r="F62" s="186"/>
+      <c r="G62" s="50"/>
+    </row>
+    <row r="63" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="185" t="s">
         <v>540</v>
       </c>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="190"/>
-      <c r="F62" s="190"/>
-      <c r="G62" s="132"/>
-    </row>
-    <row r="63" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="200" t="s">
+      <c r="C63" s="131"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="190"/>
+      <c r="F63" s="190"/>
+      <c r="G63" s="132"/>
+    </row>
+    <row r="64" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="2:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="191"/>
-      <c r="F64" s="191"/>
-      <c r="G64" s="128"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="199" t="s">
-        <v>393</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="186"/>
-      <c r="F65" s="186"/>
-      <c r="G65" s="50"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="191"/>
+      <c r="F65" s="191"/>
+      <c r="G65" s="128"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="199" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -17796,104 +17955,110 @@
       <c r="F66" s="186"/>
       <c r="G66" s="50"/>
     </row>
-    <row r="67" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="201" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="199" t="s">
+        <v>394</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="186"/>
+      <c r="F67" s="186"/>
+      <c r="G67" s="50"/>
+    </row>
+    <row r="68" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="201" t="s">
         <v>395</v>
       </c>
-      <c r="C67" s="131"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="190"/>
-      <c r="F67" s="190"/>
-      <c r="G67" s="132"/>
-    </row>
-    <row r="68" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="2:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="183" t="s">
+      <c r="C68" s="131"/>
+      <c r="D68" s="131"/>
+      <c r="E68" s="190"/>
+      <c r="F68" s="190"/>
+      <c r="G68" s="132"/>
+    </row>
+    <row r="69" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="2:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="127"/>
-      <c r="D69" s="127"/>
-      <c r="E69" s="191" t="s">
+      <c r="C70" s="127"/>
+      <c r="D70" s="127"/>
+      <c r="E70" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="290"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="184" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="186" t="s">
-        <v>42</v>
-      </c>
-      <c r="F70" s="287"/>
+      <c r="F70" s="290"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="184" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="186" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F71" s="287"/>
     </row>
-    <row r="72" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="184" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="186" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72" s="289" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F72" s="287"/>
+    </row>
+    <row r="73" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B73" s="184" t="s">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="186" t="s">
-        <v>501</v>
-      </c>
-      <c r="F73" s="287"/>
+        <v>40</v>
+      </c>
+      <c r="F73" s="289" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="161" t="s">
-        <v>498</v>
+      <c r="B74" s="184" t="s">
+        <v>500</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="186" t="s">
+        <v>501</v>
+      </c>
+      <c r="F74" s="287"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="161" t="s">
+        <v>498</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F74" s="287"/>
-    </row>
-    <row r="75" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="163" t="s">
+      <c r="F75" s="287"/>
+    </row>
+    <row r="76" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="163" t="s">
         <v>502</v>
       </c>
-      <c r="C75" s="131"/>
-      <c r="D75" s="131"/>
-      <c r="E75" s="190" t="s">
+      <c r="C76" s="131"/>
+      <c r="D76" s="131"/>
+      <c r="E76" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F75" s="288"/>
-    </row>
-    <row r="76" spans="2:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F76" s="288"/>
+    </row>
+    <row r="77" spans="2:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
@@ -18257,26 +18422,30 @@
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H44:I47"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:I52"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:I57"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="G23:G28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:I48"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:I53"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:I58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18286,13 +18455,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J166"/>
+  <dimension ref="B1:J165"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18300,10 +18469,10 @@
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="17" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="17" customWidth="1"/>
     <col min="10" max="10" width="5" style="17" customWidth="1"/>
@@ -18329,110 +18498,119 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+    <row r="3" spans="2:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="304" t="s">
+        <v>597</v>
+      </c>
+      <c r="C3" s="305"/>
+      <c r="D3" s="368" t="s">
+        <v>598</v>
+      </c>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="396" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="397"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="395"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="395"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="395"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="395"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="395"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="398" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="399"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -18440,47 +18618,82 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+    <row r="12" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="150" t="s">
+        <v>178</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="151" t="s">
+        <v>600</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="174"/>
+      <c r="G13" s="85" t="s">
+        <v>601</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>607</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+    <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="151" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="174" t="s">
+        <v>303</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="151" t="s">
+        <v>602</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" s="174"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+    <row r="16" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="185" t="s">
+        <v>603</v>
+      </c>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155" t="s">
+        <v>588</v>
+      </c>
+      <c r="F16" s="195" t="s">
+        <v>178</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -18488,319 +18701,657 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+    <row r="18" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="157" t="s">
+        <v>307</v>
+      </c>
+      <c r="F18" s="196"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="151" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="174" t="s">
+        <v>306</v>
+      </c>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="195" t="s">
+        <v>178</v>
+      </c>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+    <row r="22" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="403" t="s">
+        <v>551</v>
+      </c>
+      <c r="C22" s="404" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="404"/>
+      <c r="E22" s="405" t="s">
+        <v>358</v>
+      </c>
+      <c r="F22" s="406" t="s">
+        <v>318</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+    <row r="24" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="158" t="s">
+        <v>560</v>
+      </c>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F24" s="389" t="s">
+        <v>604</v>
+      </c>
+      <c r="G24" s="374" t="s">
+        <v>554</v>
+      </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="B25" s="161" t="s">
+        <v>561</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
+      <c r="E25" s="186" t="s">
+        <v>556</v>
+      </c>
+      <c r="F25" s="390"/>
+      <c r="G25" s="375"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="B26" s="161" t="s">
+        <v>510</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="390"/>
+      <c r="G26" s="375"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="161" t="s">
+        <v>605</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
+      <c r="E27" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F27" s="390"/>
+      <c r="G27" s="375"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="161" t="s">
+        <v>589</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
+      <c r="F28" s="390"/>
+      <c r="G28" s="375"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+    <row r="29" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="163" t="s">
+        <v>564</v>
+      </c>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="391"/>
+      <c r="G29" s="376"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+    <row r="31" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="158" t="s">
+        <v>513</v>
+      </c>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F31" s="389" t="s">
+        <v>606</v>
+      </c>
+      <c r="G31" s="374" t="s">
+        <v>554</v>
+      </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+    <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="161" t="s">
+        <v>370</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
+      <c r="E32" s="186" t="s">
+        <v>556</v>
+      </c>
+      <c r="F32" s="390"/>
+      <c r="G32" s="375"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="161" t="s">
+        <v>375</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="390"/>
+      <c r="G33" s="375"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+    <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="161" t="s">
+        <v>593</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
+      <c r="E34" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F34" s="390"/>
+      <c r="G34" s="375"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
+    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="161" t="s">
+        <v>590</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
+      <c r="F35" s="390"/>
+      <c r="G35" s="375"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+    <row r="36" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="163" t="s">
+        <v>516</v>
+      </c>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="391"/>
+      <c r="G36" s="376"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="158" t="s">
+        <v>518</v>
+      </c>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F38" s="389" t="s">
+        <v>608</v>
+      </c>
+      <c r="G38" s="374" t="s">
+        <v>554</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
+    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="161" t="s">
+        <v>519</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
+      <c r="E39" s="186" t="s">
+        <v>556</v>
+      </c>
+      <c r="F39" s="390"/>
+      <c r="G39" s="375"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="161" t="s">
+        <v>514</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="375"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="161" t="s">
+        <v>591</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
+      <c r="E41" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F41" s="390"/>
+      <c r="G41" s="375"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="161" t="s">
+        <v>592</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
+      <c r="F42" s="390"/>
+      <c r="G42" s="375"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+    <row r="43" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="163" t="s">
+        <v>524</v>
+      </c>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="391"/>
+      <c r="G43" s="376"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="183" t="s">
+        <v>570</v>
+      </c>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127" t="s">
+        <v>567</v>
+      </c>
+      <c r="E45" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="377" t="s">
+        <v>594</v>
+      </c>
+      <c r="G45" s="380" t="s">
+        <v>566</v>
+      </c>
+      <c r="H45" s="383" t="s">
+        <v>338</v>
+      </c>
+      <c r="I45" s="384"/>
+    </row>
+    <row r="46" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="185" t="s">
+        <v>572</v>
+      </c>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131" t="s">
+        <v>567</v>
+      </c>
+      <c r="E46" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F46" s="379"/>
+      <c r="G46" s="382"/>
+      <c r="H46" s="387"/>
+      <c r="I46" s="388"/>
+    </row>
+    <row r="47" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="183" t="s">
+        <v>574</v>
+      </c>
+      <c r="C48" s="127"/>
+      <c r="D48" s="127" t="s">
+        <v>567</v>
+      </c>
+      <c r="E48" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="377" t="s">
+        <v>594</v>
+      </c>
+      <c r="G48" s="380" t="s">
+        <v>566</v>
+      </c>
+      <c r="H48" s="383" t="s">
+        <v>338</v>
+      </c>
+      <c r="I48" s="384"/>
+    </row>
+    <row r="49" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="185" t="s">
+        <v>576</v>
+      </c>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131" t="s">
+        <v>567</v>
+      </c>
+      <c r="E49" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F49" s="379"/>
+      <c r="G49" s="382"/>
+      <c r="H49" s="387"/>
+      <c r="I49" s="388"/>
+    </row>
+    <row r="50" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="183" t="s">
+        <v>579</v>
+      </c>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127" t="s">
+        <v>567</v>
+      </c>
+      <c r="E51" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="377" t="s">
+        <v>594</v>
+      </c>
+      <c r="G51" s="380" t="s">
+        <v>566</v>
+      </c>
+      <c r="H51" s="383" t="s">
+        <v>338</v>
+      </c>
+      <c r="I51" s="384"/>
+    </row>
+    <row r="52" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="185" t="s">
+        <v>581</v>
+      </c>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131" t="s">
+        <v>567</v>
+      </c>
+      <c r="E52" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F52" s="379"/>
+      <c r="G52" s="382"/>
+      <c r="H52" s="387"/>
+      <c r="I52" s="388"/>
+    </row>
+    <row r="53" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="183" t="s">
+        <v>389</v>
+      </c>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="191" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" s="191"/>
+      <c r="G54" s="128"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="184" t="s">
+        <v>65</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="186"/>
+      <c r="F55" s="186"/>
+      <c r="G55" s="50"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="184" t="s">
+        <v>539</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="286" t="s">
+        <v>583</v>
+      </c>
+      <c r="F56" s="186"/>
+      <c r="G56" s="50"/>
+    </row>
+    <row r="57" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="185" t="s">
+        <v>540</v>
+      </c>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="190"/>
+      <c r="F57" s="190"/>
+      <c r="G57" s="132"/>
+    </row>
+    <row r="58" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="200" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="191"/>
+      <c r="F59" s="191"/>
+      <c r="G59" s="128"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="199" t="s">
+        <v>393</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="186"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="50"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="199" t="s">
+        <v>394</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="186"/>
+      <c r="F61" s="186"/>
+      <c r="G61" s="50"/>
+    </row>
+    <row r="62" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="201" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62" s="131"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="190"/>
+      <c r="F62" s="190"/>
+      <c r="G62" s="132"/>
+    </row>
+    <row r="63" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="183" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="127"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="191" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="290"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="184" t="s">
+        <v>84</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="186" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="287"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="184" t="s">
+        <v>81</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="186" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="287"/>
+    </row>
+    <row r="67" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B67" s="184" t="s">
+        <v>82</v>
+      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="186" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="289" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="184" t="s">
+        <v>500</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="186" t="s">
+        <v>501</v>
+      </c>
+      <c r="F68" s="287"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="161" t="s">
+        <v>498</v>
+      </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="186" t="s">
+        <v>499</v>
+      </c>
+      <c r="F69" s="287"/>
+    </row>
+    <row r="70" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="163" t="s">
+        <v>502</v>
+      </c>
+      <c r="C70" s="131"/>
+      <c r="D70" s="131"/>
+      <c r="E70" s="190" t="s">
+        <v>503</v>
+      </c>
+      <c r="F70" s="288"/>
+    </row>
+    <row r="71" spans="2:6" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
@@ -19144,14 +19695,25 @@
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="17">
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:I49"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:I52"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19205,15 +19767,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20080,15 +20642,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20956,15 +21518,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>550</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21091,7 +21653,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="298" t="s">
+      <c r="G12" s="308" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2"/>
@@ -21106,7 +21668,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="299"/>
+      <c r="G13" s="309"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -21121,7 +21683,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="300"/>
+      <c r="G14" s="310"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -21134,7 +21696,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="301" t="s">
+      <c r="G15" s="311" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="2"/>
@@ -21149,7 +21711,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="302"/>
+      <c r="G16" s="312"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -21162,7 +21724,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="302"/>
+      <c r="G17" s="312"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -21175,7 +21737,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="302"/>
+      <c r="G18" s="312"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -21188,7 +21750,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="303"/>
+      <c r="G19" s="313"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -21207,7 +21769,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="301" t="s">
+      <c r="G20" s="311" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="2"/>
@@ -21225,7 +21787,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="302"/>
+      <c r="G21" s="312"/>
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
@@ -21238,7 +21800,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="302"/>
+      <c r="G22" s="312"/>
     </row>
     <row r="23" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
@@ -21251,7 +21813,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="302"/>
+      <c r="G23" s="312"/>
     </row>
     <row r="24" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
@@ -21265,7 +21827,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="303"/>
+      <c r="G24" s="313"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
@@ -21279,7 +21841,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="301" t="s">
+      <c r="G25" s="311" t="s">
         <v>59</v>
       </c>
     </row>
@@ -21295,7 +21857,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="302"/>
+      <c r="G26" s="312"/>
     </row>
     <row r="27" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -21309,7 +21871,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="302"/>
+      <c r="G27" s="312"/>
     </row>
     <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
@@ -21323,7 +21885,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="302"/>
+      <c r="G28" s="312"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
@@ -21337,7 +21899,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="303"/>
+      <c r="G29" s="313"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -21349,10 +21911,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="307" t="s">
+      <c r="G30" s="298" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="304" t="s">
+      <c r="H30" s="295" t="s">
         <v>28</v>
       </c>
     </row>
@@ -21366,8 +21928,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="308"/>
-      <c r="H31" s="305"/>
+      <c r="G31" s="299"/>
+      <c r="H31" s="296"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
@@ -21379,10 +21941,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="307" t="s">
+      <c r="G32" s="298" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="305"/>
+      <c r="H32" s="296"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
@@ -21394,8 +21956,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="309"/>
-      <c r="H33" s="305"/>
+      <c r="G33" s="300"/>
+      <c r="H33" s="296"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
@@ -21407,10 +21969,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="308" t="s">
+      <c r="G34" s="299" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="305"/>
+      <c r="H34" s="296"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
@@ -21422,8 +21984,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="308"/>
-      <c r="H35" s="306"/>
+      <c r="G35" s="299"/>
+      <c r="H35" s="297"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
@@ -21435,10 +21997,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="307" t="s">
+      <c r="G36" s="298" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="305" t="s">
+      <c r="H36" s="296" t="s">
         <v>29</v>
       </c>
     </row>
@@ -21452,8 +22014,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="309"/>
-      <c r="H37" s="305"/>
+      <c r="G37" s="300"/>
+      <c r="H37" s="296"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
@@ -21465,10 +22027,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="307" t="s">
+      <c r="G38" s="298" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="305"/>
+      <c r="H38" s="296"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
@@ -21480,8 +22042,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="309"/>
-      <c r="H39" s="305"/>
+      <c r="G39" s="300"/>
+      <c r="H39" s="296"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
@@ -21493,10 +22055,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="308" t="s">
+      <c r="G40" s="299" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="305"/>
+      <c r="H40" s="296"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
@@ -21508,8 +22070,8 @@
         <v>27</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="309"/>
-      <c r="H41" s="306"/>
+      <c r="G41" s="300"/>
+      <c r="H41" s="297"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
@@ -21583,7 +22145,7 @@
       <c r="E49" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="291" t="s">
+      <c r="F49" s="301" t="s">
         <v>201</v>
       </c>
     </row>
@@ -21596,7 +22158,7 @@
       <c r="E50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="292"/>
+      <c r="F50" s="302"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
@@ -21607,7 +22169,7 @@
       <c r="E51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="292"/>
+      <c r="F51" s="302"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
@@ -21618,20 +22180,20 @@
       <c r="E52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="292"/>
+      <c r="F52" s="302"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="133"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="F53" s="292"/>
+      <c r="F53" s="302"/>
     </row>
     <row r="54" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="134"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="293"/>
+      <c r="F54" s="303"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -22111,6 +22673,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
     <mergeCell ref="H30:H35"/>
     <mergeCell ref="H36:H41"/>
     <mergeCell ref="G30:G31"/>
@@ -22119,13 +22688,6 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22179,15 +22741,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23054,15 +23616,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23977,15 +24539,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -24852,15 +25414,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -25727,15 +26289,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -26602,15 +27164,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27477,15 +28039,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28352,15 +28914,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29227,15 +29789,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30065,15 +30627,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30943,14 +31505,14 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="314" t="s">
         <v>549</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="312"/>
-      <c r="G3" s="313"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="317"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31142,7 +31704,7 @@
       <c r="F16" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="314" t="s">
+      <c r="G16" s="318" t="s">
         <v>161</v>
       </c>
       <c r="H16" s="2"/>
@@ -31162,7 +31724,7 @@
       <c r="F17" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="315"/>
+      <c r="G17" s="319"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -31180,7 +31742,7 @@
       <c r="F18" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="315"/>
+      <c r="G18" s="319"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -31198,7 +31760,7 @@
       <c r="F19" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="315"/>
+      <c r="G19" s="319"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -31216,7 +31778,7 @@
       <c r="F20" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="315"/>
+      <c r="G20" s="319"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -31234,7 +31796,7 @@
       <c r="F21" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="315"/>
+      <c r="G21" s="319"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31255,7 +31817,7 @@
       <c r="F23" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="316" t="s">
+      <c r="G23" s="320" t="s">
         <v>162</v>
       </c>
       <c r="H23" s="2"/>
@@ -31273,7 +31835,7 @@
       <c r="F24" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="316"/>
+      <c r="G24" s="320"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31289,7 +31851,7 @@
       <c r="F25" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="316"/>
+      <c r="G25" s="320"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31305,7 +31867,7 @@
       <c r="F26" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="316"/>
+      <c r="G26" s="320"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31321,7 +31883,7 @@
       <c r="F27" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="316"/>
+      <c r="G27" s="320"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31338,7 +31900,7 @@
       <c r="F28" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="317"/>
+      <c r="G28" s="321"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -31371,7 +31933,7 @@
         <v>158</v>
       </c>
       <c r="E32"/>
-      <c r="F32" s="321" t="s">
+      <c r="F32" s="325" t="s">
         <v>134</v>
       </c>
       <c r="G32"/>
@@ -31385,7 +31947,7 @@
         <v>158</v>
       </c>
       <c r="E33"/>
-      <c r="F33" s="321"/>
+      <c r="F33" s="325"/>
       <c r="G33"/>
       <c r="H33" s="2"/>
     </row>
@@ -31397,7 +31959,7 @@
         <v>158</v>
       </c>
       <c r="E34"/>
-      <c r="F34" s="321"/>
+      <c r="F34" s="325"/>
       <c r="G34"/>
       <c r="H34" s="2"/>
     </row>
@@ -31415,7 +31977,7 @@
         <v>144</v>
       </c>
       <c r="E36"/>
-      <c r="F36" s="321" t="s">
+      <c r="F36" s="325" t="s">
         <v>135</v>
       </c>
       <c r="G36"/>
@@ -31429,7 +31991,7 @@
         <v>144</v>
       </c>
       <c r="E37"/>
-      <c r="F37" s="321"/>
+      <c r="F37" s="325"/>
       <c r="G37"/>
       <c r="H37" s="2"/>
     </row>
@@ -31441,7 +32003,7 @@
         <v>144</v>
       </c>
       <c r="E38"/>
-      <c r="F38" s="321"/>
+      <c r="F38" s="325"/>
       <c r="G38"/>
       <c r="H38" s="2"/>
     </row>
@@ -31459,7 +32021,7 @@
         <v>144</v>
       </c>
       <c r="E40"/>
-      <c r="F40" s="321" t="s">
+      <c r="F40" s="325" t="s">
         <v>136</v>
       </c>
       <c r="G40"/>
@@ -31473,7 +32035,7 @@
         <v>144</v>
       </c>
       <c r="E41"/>
-      <c r="F41" s="321"/>
+      <c r="F41" s="325"/>
       <c r="G41"/>
       <c r="H41" s="2"/>
     </row>
@@ -31485,7 +32047,7 @@
         <v>144</v>
       </c>
       <c r="E42"/>
-      <c r="F42" s="321"/>
+      <c r="F42" s="325"/>
       <c r="G42"/>
       <c r="H42" s="2"/>
     </row>
@@ -31614,10 +32176,10 @@
       <c r="C57" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="320" t="s">
+      <c r="F57" s="324" t="s">
         <v>200</v>
       </c>
-      <c r="G57" s="318" t="s">
+      <c r="G57" s="322" t="s">
         <v>193</v>
       </c>
     </row>
@@ -31628,8 +32190,8 @@
       <c r="C58" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="320"/>
-      <c r="G58" s="319"/>
+      <c r="F58" s="324"/>
+      <c r="G58" s="323"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="214" t="s">
@@ -31639,8 +32201,8 @@
         <v>144</v>
       </c>
       <c r="D59"/>
-      <c r="F59" s="320"/>
-      <c r="G59" s="319"/>
+      <c r="F59" s="324"/>
+      <c r="G59" s="323"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="214" t="s">
@@ -31649,8 +32211,8 @@
       <c r="C60" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="320"/>
-      <c r="G60" s="319"/>
+      <c r="F60" s="324"/>
+      <c r="G60" s="323"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="214" t="s">
@@ -31754,15 +32316,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32629,15 +33191,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33504,15 +34066,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34379,15 +34941,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35254,15 +35816,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -36129,15 +36691,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37004,15 +37566,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37879,15 +38441,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38754,15 +39316,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -39629,15 +40191,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -40500,15 +41062,15 @@
       <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="323" t="s">
+      <c r="A3" s="327" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="324"/>
-      <c r="C3" s="325" t="s">
+      <c r="B3" s="328"/>
+      <c r="C3" s="329" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="325"/>
-      <c r="E3" s="326"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="330"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="267" t="s">
@@ -40522,13 +41084,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="256"/>
-      <c r="F4" s="327" t="s">
+      <c r="F4" s="331" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="327"/>
-      <c r="H4" s="327"/>
-      <c r="I4" s="327"/>
-      <c r="J4" s="327"/>
+      <c r="G4" s="331"/>
+      <c r="H4" s="331"/>
+      <c r="I4" s="331"/>
+      <c r="J4" s="331"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="267" t="s">
@@ -40542,11 +41104,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="256"/>
-      <c r="F5" s="322"/>
-      <c r="G5" s="322"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="322"/>
-      <c r="J5" s="322"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="326"/>
+      <c r="H5" s="326"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="267" t="s">
@@ -40560,11 +41122,11 @@
         <v>12</v>
       </c>
       <c r="E6" s="256"/>
-      <c r="F6" s="322"/>
-      <c r="G6" s="322"/>
-      <c r="H6" s="322"/>
-      <c r="I6" s="322"/>
-      <c r="J6" s="322"/>
+      <c r="F6" s="326"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="326"/>
+      <c r="I6" s="326"/>
+      <c r="J6" s="326"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="267" t="s">
@@ -40578,11 +41140,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="256"/>
-      <c r="F7" s="322"/>
-      <c r="G7" s="322"/>
-      <c r="H7" s="322"/>
-      <c r="I7" s="322"/>
-      <c r="J7" s="322"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="326"/>
+      <c r="H7" s="326"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="326"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="267" t="s">
@@ -40665,10 +41227,10 @@
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="59"/>
-      <c r="F15" s="322"/>
-      <c r="G15" s="322"/>
-      <c r="H15" s="322"/>
-      <c r="I15" s="322"/>
+      <c r="F15" s="326"/>
+      <c r="G15" s="326"/>
+      <c r="H15" s="326"/>
+      <c r="I15" s="326"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
@@ -40680,10 +41242,10 @@
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="322"/>
-      <c r="G16" s="322"/>
-      <c r="H16" s="322"/>
-      <c r="I16" s="322"/>
+      <c r="F16" s="326"/>
+      <c r="G16" s="326"/>
+      <c r="H16" s="326"/>
+      <c r="I16" s="326"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
@@ -40695,12 +41257,12 @@
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="59"/>
-      <c r="F17" s="327" t="s">
+      <c r="F17" s="331" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="322"/>
-      <c r="H17" s="322"/>
-      <c r="I17" s="322"/>
+      <c r="G17" s="326"/>
+      <c r="H17" s="326"/>
+      <c r="I17" s="326"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
@@ -40712,10 +41274,10 @@
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="59"/>
-      <c r="F18" s="322"/>
-      <c r="G18" s="322"/>
-      <c r="H18" s="322"/>
-      <c r="I18" s="322"/>
+      <c r="F18" s="326"/>
+      <c r="G18" s="326"/>
+      <c r="H18" s="326"/>
+      <c r="I18" s="326"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
@@ -40727,10 +41289,10 @@
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="59"/>
-      <c r="F19" s="322"/>
-      <c r="G19" s="322"/>
-      <c r="H19" s="322"/>
-      <c r="I19" s="322"/>
+      <c r="F19" s="326"/>
+      <c r="G19" s="326"/>
+      <c r="H19" s="326"/>
+      <c r="I19" s="326"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
@@ -40742,10 +41304,10 @@
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="322"/>
-      <c r="G20" s="322"/>
-      <c r="H20" s="322"/>
-      <c r="I20" s="322"/>
+      <c r="F20" s="326"/>
+      <c r="G20" s="326"/>
+      <c r="H20" s="326"/>
+      <c r="I20" s="326"/>
     </row>
     <row r="21" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
@@ -41429,15 +41991,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="332" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="296" t="s">
+      <c r="C3" s="333"/>
+      <c r="D3" s="306" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -41862,10 +42424,10 @@
       <c r="E34" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F34" s="330" t="s">
+      <c r="F34" s="334" t="s">
         <v>295</v>
       </c>
-      <c r="G34" s="332" t="s">
+      <c r="G34" s="336" t="s">
         <v>284</v>
       </c>
       <c r="H34" s="2"/>
@@ -41879,8 +42441,8 @@
       <c r="E35" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F35" s="331"/>
-      <c r="G35" s="332"/>
+      <c r="F35" s="335"/>
+      <c r="G35" s="336"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41917,7 +42479,7 @@
       <c r="E39" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="333" t="s">
+      <c r="F39" s="337" t="s">
         <v>504</v>
       </c>
       <c r="H39" s="2"/>
@@ -41931,7 +42493,7 @@
       <c r="E40" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="334"/>
+      <c r="F40" s="338"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -41943,7 +42505,7 @@
       <c r="E41" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="334"/>
+      <c r="F41" s="338"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41955,7 +42517,7 @@
       <c r="E42" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="334"/>
+      <c r="F42" s="338"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -41967,7 +42529,7 @@
       <c r="E43" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F43" s="334"/>
+      <c r="F43" s="338"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -41979,7 +42541,7 @@
       <c r="E44" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F44" s="334"/>
+      <c r="F44" s="338"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -41991,7 +42553,7 @@
       <c r="E45" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F45" s="335"/>
+      <c r="F45" s="339"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -42562,15 +43124,15 @@
     </row>
     <row r="2" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="305" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="295"/>
-      <c r="F3" s="338"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="342"/>
     </row>
     <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="223" t="s">
@@ -42672,7 +43234,7 @@
       <c r="E13" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="339" t="s">
+      <c r="F13" s="343" t="s">
         <v>303</v>
       </c>
     </row>
@@ -42683,7 +43245,7 @@
       <c r="E14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="340"/>
+      <c r="F14" s="344"/>
     </row>
     <row r="15" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="153" t="s">
@@ -42822,7 +43384,7 @@
         <v>335</v>
       </c>
       <c r="F29" s="240"/>
-      <c r="G29" s="336" t="s">
+      <c r="G29" s="340" t="s">
         <v>329</v>
       </c>
     </row>
@@ -42837,14 +43399,14 @@
         <v>336</v>
       </c>
       <c r="F30" s="241"/>
-      <c r="G30" s="337"/>
+      <c r="G30" s="341"/>
     </row>
     <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="151" t="s">
         <v>330</v>
       </c>
       <c r="F31" s="241"/>
-      <c r="G31" s="337"/>
+      <c r="G31" s="341"/>
     </row>
     <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="151" t="s">
@@ -42859,7 +43421,7 @@
       <c r="F32" s="242" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="337"/>
+      <c r="G32" s="341"/>
     </row>
     <row r="33" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="151" t="s">
@@ -42872,21 +43434,21 @@
         <v>336</v>
       </c>
       <c r="F33" s="241"/>
-      <c r="G33" s="337"/>
+      <c r="G33" s="341"/>
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="151" t="s">
         <v>331</v>
       </c>
       <c r="F34" s="236"/>
-      <c r="G34" s="337"/>
+      <c r="G34" s="341"/>
     </row>
     <row r="35" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="151" t="s">
         <v>332</v>
       </c>
       <c r="F35" s="236"/>
-      <c r="G35" s="337"/>
+      <c r="G35" s="341"/>
     </row>
     <row r="36" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="151" t="s">
@@ -42920,7 +43482,7 @@
       <c r="D40" s="149"/>
       <c r="E40" s="233"/>
       <c r="F40" s="235"/>
-      <c r="G40" s="336" t="s">
+      <c r="G40" s="340" t="s">
         <v>348</v>
       </c>
     </row>
@@ -42932,7 +43494,7 @@
         <v>144</v>
       </c>
       <c r="F41" s="236"/>
-      <c r="G41" s="337"/>
+      <c r="G41" s="341"/>
     </row>
     <row r="42" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="151" t="s">
@@ -42942,7 +43504,7 @@
         <v>144</v>
       </c>
       <c r="F42" s="236"/>
-      <c r="G42" s="337"/>
+      <c r="G42" s="341"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="151" t="s">
@@ -42952,7 +43514,7 @@
         <v>144</v>
       </c>
       <c r="F43" s="236"/>
-      <c r="G43" s="337"/>
+      <c r="G43" s="341"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="151" t="s">
@@ -42964,7 +43526,7 @@
       <c r="F44" s="237" t="s">
         <v>338</v>
       </c>
-      <c r="G44" s="337"/>
+      <c r="G44" s="341"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="151" t="s">
@@ -42974,7 +43536,7 @@
         <v>144</v>
       </c>
       <c r="F45" s="236"/>
-      <c r="G45" s="337"/>
+      <c r="G45" s="341"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="151" t="s">
@@ -42984,7 +43546,7 @@
         <v>144</v>
       </c>
       <c r="F46" s="236"/>
-      <c r="G46" s="337"/>
+      <c r="G46" s="341"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="151" t="s">
@@ -42994,7 +43556,7 @@
         <v>144</v>
       </c>
       <c r="F47" s="236"/>
-      <c r="G47" s="337"/>
+      <c r="G47" s="341"/>
     </row>
     <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="153" t="s">
@@ -43006,7 +43568,7 @@
       <c r="D48" s="154"/>
       <c r="E48" s="239"/>
       <c r="F48" s="238"/>
-      <c r="G48" s="337"/>
+      <c r="G48" s="341"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
@@ -43113,7 +43675,7 @@
       <c r="E65" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="333" t="s">
+      <c r="F65" s="337" t="s">
         <v>504</v>
       </c>
     </row>
@@ -43126,7 +43688,7 @@
       <c r="E66" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="334"/>
+      <c r="F66" s="338"/>
     </row>
     <row r="67" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B67" s="184" t="s">
@@ -43137,7 +43699,7 @@
       <c r="E67" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="334"/>
+      <c r="F67" s="338"/>
     </row>
     <row r="68" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B68" s="184" t="s">
@@ -43148,7 +43710,7 @@
       <c r="E68" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="334"/>
+      <c r="F68" s="338"/>
     </row>
     <row r="69" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B69" s="184" t="s">
@@ -43159,7 +43721,7 @@
       <c r="E69" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F69" s="334"/>
+      <c r="F69" s="338"/>
     </row>
     <row r="70" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B70" s="161" t="s">
@@ -43170,7 +43732,7 @@
       <c r="E70" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F70" s="334"/>
+      <c r="F70" s="338"/>
     </row>
     <row r="71" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="163" t="s">
@@ -43181,7 +43743,7 @@
       <c r="E71" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F71" s="335"/>
+      <c r="F71" s="339"/>
     </row>
     <row r="72" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -43245,15 +43807,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="343" t="s">
+      <c r="B3" s="347" t="s">
         <v>397</v>
       </c>
-      <c r="C3" s="344"/>
-      <c r="D3" s="345" t="s">
+      <c r="C3" s="348"/>
+      <c r="D3" s="349" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="345"/>
-      <c r="F3" s="346"/>
+      <c r="E3" s="349"/>
+      <c r="F3" s="350"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -43380,7 +43942,7 @@
       <c r="E13" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="347" t="s">
+      <c r="F13" s="351" t="s">
         <v>303</v>
       </c>
       <c r="H13" s="2"/>
@@ -43394,7 +43956,7 @@
       <c r="E14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="347"/>
+      <c r="F14" s="351"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -43506,7 +44068,7 @@
       <c r="E24" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="F24" s="342" t="s">
+      <c r="F24" s="346" t="s">
         <v>318</v>
       </c>
       <c r="H24" s="2"/>
@@ -43520,7 +44082,7 @@
       <c r="E25" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="342"/>
+      <c r="F25" s="346"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43540,10 +44102,10 @@
       <c r="E27" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="F27" s="342" t="s">
+      <c r="F27" s="346" t="s">
         <v>327</v>
       </c>
-      <c r="G27" s="341" t="s">
+      <c r="G27" s="345" t="s">
         <v>373</v>
       </c>
       <c r="H27" s="2"/>
@@ -43559,8 +44121,8 @@
       <c r="E28" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F28" s="342"/>
-      <c r="G28" s="341"/>
+      <c r="F28" s="346"/>
+      <c r="G28" s="345"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43569,8 +44131,8 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="F29" s="342"/>
-      <c r="G29" s="341"/>
+      <c r="F29" s="346"/>
+      <c r="G29" s="345"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43579,8 +44141,8 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="342"/>
-      <c r="G30" s="341"/>
+      <c r="F30" s="346"/>
+      <c r="G30" s="345"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43594,8 +44156,8 @@
       <c r="E31" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="342"/>
-      <c r="G31" s="341"/>
+      <c r="F31" s="346"/>
+      <c r="G31" s="345"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43609,7 +44171,7 @@
       <c r="E32" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="G32" s="341"/>
+      <c r="G32" s="345"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43618,7 +44180,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="G33" s="341"/>
+      <c r="G33" s="345"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43649,7 +44211,7 @@
       <c r="E36" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F36" s="342" t="s">
+      <c r="F36" s="346" t="s">
         <v>338</v>
       </c>
       <c r="H36" s="2"/>
@@ -43663,7 +44225,7 @@
       <c r="E37" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F37" s="342"/>
+      <c r="F37" s="346"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43677,7 +44239,7 @@
       <c r="E38" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F38" s="342"/>
+      <c r="F38" s="346"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43689,7 +44251,7 @@
       <c r="E39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F39" s="342"/>
+      <c r="F39" s="346"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43701,7 +44263,7 @@
       <c r="E40" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F40" s="342"/>
+      <c r="F40" s="346"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43715,7 +44277,7 @@
       <c r="E41" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F41" s="342"/>
+      <c r="F41" s="346"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -43727,7 +44289,7 @@
       <c r="E42" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F42" s="342"/>
+      <c r="F42" s="346"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -43739,7 +44301,7 @@
       <c r="E43" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F43" s="342"/>
+      <c r="F43" s="346"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43765,7 +44327,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="G46" s="341" t="s">
+      <c r="G46" s="345" t="s">
         <v>373</v>
       </c>
       <c r="H46" s="2"/>
@@ -43776,7 +44338,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="G47" s="341"/>
+      <c r="G47" s="345"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43788,7 +44350,7 @@
       <c r="E48" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G48" s="341"/>
+      <c r="G48" s="345"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43797,7 +44359,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="G49" s="341"/>
+      <c r="G49" s="345"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43806,7 +44368,7 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="G50" s="341"/>
+      <c r="G50" s="345"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43815,7 +44377,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="G51" s="341"/>
+      <c r="G51" s="345"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="101" t="s">
@@ -43823,7 +44385,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="G52" s="341"/>
+      <c r="G52" s="345"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="101" t="s">
@@ -44358,10 +44920,10 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="295"/>
+      <c r="C3" s="305"/>
       <c r="D3" s="117"/>
       <c r="E3" s="118" t="s">
         <v>92</v>
@@ -44632,7 +45194,7 @@
       <c r="E25" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F25" s="348" t="s">
+      <c r="F25" s="352" t="s">
         <v>407</v>
       </c>
       <c r="H25" s="2"/>
@@ -44648,7 +45210,7 @@
       <c r="E26" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F26" s="348"/>
+      <c r="F26" s="352"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44662,7 +45224,7 @@
       <c r="E27" s="88" t="s">
         <v>405</v>
       </c>
-      <c r="F27" s="348"/>
+      <c r="F27" s="352"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44676,7 +45238,7 @@
       <c r="E28" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F28" s="348"/>
+      <c r="F28" s="352"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44690,7 +45252,7 @@
       <c r="E29" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F29" s="348"/>
+      <c r="F29" s="352"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44699,7 +45261,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="348"/>
+      <c r="F30" s="352"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44708,7 +45270,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="F31" s="348"/>
+      <c r="F31" s="352"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44726,7 +45288,7 @@
       <c r="E33" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F33" s="348" t="s">
+      <c r="F33" s="352" t="s">
         <v>338</v>
       </c>
       <c r="H33" s="2"/>
@@ -44737,7 +45299,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="F34" s="348"/>
+      <c r="F34" s="352"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44749,7 +45311,7 @@
       <c r="E35" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F35" s="348"/>
+      <c r="F35" s="352"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44758,7 +45320,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="348"/>
+      <c r="F36" s="352"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -44776,7 +45338,7 @@
       <c r="E38" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F38" s="348" t="s">
+      <c r="F38" s="352" t="s">
         <v>412</v>
       </c>
       <c r="H38" s="2"/>
@@ -44787,7 +45349,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="348"/>
+      <c r="F39" s="352"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -44799,7 +45361,7 @@
       <c r="E40" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F40" s="348"/>
+      <c r="F40" s="352"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -44808,7 +45370,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="F41" s="348"/>
+      <c r="F41" s="352"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -44830,7 +45392,7 @@
       <c r="F44" s="109" t="s">
         <v>419</v>
       </c>
-      <c r="G44" s="341" t="s">
+      <c r="G44" s="345" t="s">
         <v>420</v>
       </c>
       <c r="H44" s="2"/>
@@ -44839,7 +45401,7 @@
       <c r="B45" s="88"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="G45" s="349"/>
+      <c r="G45" s="353"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="884" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="649">
   <si>
     <t>استان</t>
   </si>
@@ -2308,12 +2308,209 @@
       <t xml:space="preserve">    TYPE OF FUALT </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">برگ آزمايش رله اضافه جريان با زمان معكوس 
+</t>
+  </si>
+  <si>
+    <t>testsheet17_rele_ezafe_jarian_zaman_makos</t>
+  </si>
+  <si>
+    <t>zarib_zaman_tanzimi</t>
+  </si>
+  <si>
+    <t>noae_monhani_zamani</t>
+  </si>
+  <si>
+    <t>نوع منحنی زمانی</t>
+  </si>
+  <si>
+    <t>جريان تنظيمي آني</t>
+  </si>
+  <si>
+    <t>اینکه بر چسب چه مقداری است مشخص نیست.!!</t>
+  </si>
+  <si>
+    <t>is_pu_amp1</t>
+  </si>
+  <si>
+    <t>im_amp1</t>
+  </si>
+  <si>
+    <t>im_amp2</t>
+  </si>
+  <si>
+    <t>inst_is_pu1</t>
+  </si>
+  <si>
+    <t>erroro3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">برحسب  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>آمپر</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جريان اندازه گیری شده  با  آزمایش بر </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>حسب آمپر</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جريان اندازه گیری شده  با  آزمایش بر حسب </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>آمپر</t>
+    </r>
+  </si>
+  <si>
+    <t>inst_am1</t>
+  </si>
+  <si>
+    <t>is_pu_amp2</t>
+  </si>
+  <si>
+    <t>im_amp3</t>
+  </si>
+  <si>
+    <t>inst_is_pu2</t>
+  </si>
+  <si>
+    <t>inst_am2</t>
+  </si>
+  <si>
+    <t>im_amp4</t>
+  </si>
+  <si>
+    <t>is_pu_amp3</t>
+  </si>
+  <si>
+    <t>im_amp5</t>
+  </si>
+  <si>
+    <t>inst_is_pu3</t>
+  </si>
+  <si>
+    <t>inst_am3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>c مرحله</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">    TYPE OF FUALT </t>
+    </r>
+  </si>
+  <si>
+    <t>im_amp6</t>
+  </si>
+  <si>
+    <t>error7</t>
+  </si>
+  <si>
+    <t>error8</t>
+  </si>
+  <si>
+    <t>error9</t>
+  </si>
+  <si>
+    <t>tm1_400</t>
+  </si>
+  <si>
+    <t>tr1_400</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phase        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">    S      X_is</t>
+    </r>
+  </si>
+  <si>
+    <t>tr2_400</t>
+  </si>
+  <si>
+    <t>tm2_400</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phase        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">   T      X_is</t>
+    </r>
+  </si>
+  <si>
+    <t>tr3_400</t>
+  </si>
+  <si>
+    <t>tm3_400</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>INSTANT ANEOUS UNIT TEST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2658,8 +2855,21 @@
       <name val="B Nazanin"/>
       <charset val="178"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2716,6 +2926,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3052,7 +3268,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="429">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3916,23 +4132,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3971,6 +4205,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4108,6 +4360,9 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4135,32 +4390,23 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4180,23 +4426,29 @@
     <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4216,41 +4468,71 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4262,6 +4544,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -10028,15 +10315,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="354" t="s">
+      <c r="B3" s="366" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="355"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="367"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -10490,10 +10777,10 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="357" t="s">
+      <c r="F44" s="369" t="s">
         <v>349</v>
       </c>
-      <c r="G44" s="356" t="s">
+      <c r="G44" s="368" t="s">
         <v>433</v>
       </c>
       <c r="H44" s="2"/>
@@ -10504,8 +10791,8 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="357"/>
-      <c r="G45" s="356"/>
+      <c r="F45" s="369"/>
+      <c r="G45" s="368"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -11057,10 +11344,10 @@
   <dimension ref="B1:J168"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="B16:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -11098,15 +11385,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11330,7 +11617,7 @@
       <c r="E20" s="159" t="s">
         <v>437</v>
       </c>
-      <c r="F20" s="358" t="s">
+      <c r="F20" s="370" t="s">
         <v>327</v>
       </c>
       <c r="H20" s="2"/>
@@ -11344,7 +11631,7 @@
       <c r="E21" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F21" s="335"/>
+      <c r="F21" s="347"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11353,7 +11640,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="335"/>
+      <c r="F22" s="347"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11362,7 +11649,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="F23" s="335"/>
+      <c r="F23" s="347"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11374,7 +11661,7 @@
       <c r="E24" s="87" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="335"/>
+      <c r="F24" s="347"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11386,7 +11673,7 @@
       <c r="E25" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F25" s="335"/>
+      <c r="F25" s="347"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11395,7 +11682,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="335"/>
+      <c r="F26" s="347"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12072,7 +12359,7 @@
   <dimension ref="B1:J173"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3:C3"/>
@@ -12113,15 +12400,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>547</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>449</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12219,7 +12506,7 @@
         <v>451</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="308" t="s">
+      <c r="G11" s="314" t="s">
         <v>450</v>
       </c>
     </row>
@@ -12233,7 +12520,7 @@
         <v>453</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="309"/>
+      <c r="G12" s="315"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -12245,7 +12532,7 @@
         <v>454</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="309"/>
+      <c r="G13" s="315"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -12257,7 +12544,7 @@
         <v>457</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="309"/>
+      <c r="G14" s="315"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -12269,7 +12556,7 @@
         <v>458</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="309"/>
+      <c r="G15" s="315"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -12287,7 +12574,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="308" t="s">
+      <c r="G17" s="314" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2"/>
@@ -12302,7 +12589,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="309"/>
+      <c r="G18" s="315"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -12317,7 +12604,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="310"/>
+      <c r="G19" s="316"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -12330,7 +12617,7 @@
         <v>464</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="311" t="s">
+      <c r="G20" s="317" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="2"/>
@@ -12345,7 +12632,7 @@
         <v>467</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="312"/>
+      <c r="G21" s="318"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -12358,7 +12645,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="312"/>
+      <c r="G22" s="318"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -12371,7 +12658,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="312"/>
+      <c r="G23" s="318"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -12384,7 +12671,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="313"/>
+      <c r="G24" s="319"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -12399,7 +12686,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="311" t="s">
+      <c r="G25" s="317" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="2"/>
@@ -12414,7 +12701,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="312"/>
+      <c r="G26" s="318"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -12424,7 +12711,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="312"/>
+      <c r="G27" s="318"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
@@ -12434,7 +12721,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="312"/>
+      <c r="G28" s="318"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
@@ -12446,7 +12733,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="313"/>
+      <c r="G29" s="319"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
@@ -12458,7 +12745,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="311" t="s">
+      <c r="G30" s="317" t="s">
         <v>59</v>
       </c>
     </row>
@@ -12472,7 +12759,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="312"/>
+      <c r="G31" s="318"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
@@ -12484,7 +12771,7 @@
         <v>23</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="312"/>
+      <c r="G32" s="318"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
@@ -12496,7 +12783,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="312"/>
+      <c r="G33" s="318"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
@@ -12508,7 +12795,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="313"/>
+      <c r="G34" s="319"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
@@ -12520,10 +12807,10 @@
         <v>26</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="298" t="s">
+      <c r="G35" s="323" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="295" t="s">
+      <c r="H35" s="320" t="s">
         <v>28</v>
       </c>
     </row>
@@ -12537,8 +12824,8 @@
         <v>27</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="299"/>
-      <c r="H36" s="296"/>
+      <c r="G36" s="324"/>
+      <c r="H36" s="321"/>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
@@ -12550,10 +12837,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="298" t="s">
+      <c r="G37" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="296"/>
+      <c r="H37" s="321"/>
     </row>
     <row r="38" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
@@ -12565,8 +12852,8 @@
         <v>27</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="300"/>
-      <c r="H38" s="296"/>
+      <c r="G38" s="325"/>
+      <c r="H38" s="321"/>
     </row>
     <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
@@ -12578,10 +12865,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="13"/>
-      <c r="G39" s="299" t="s">
+      <c r="G39" s="324" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="296"/>
+      <c r="H39" s="321"/>
     </row>
     <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
@@ -12593,8 +12880,8 @@
         <v>27</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="299"/>
-      <c r="H40" s="297"/>
+      <c r="G40" s="324"/>
+      <c r="H40" s="322"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
@@ -12606,10 +12893,10 @@
         <v>26</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="298" t="s">
+      <c r="G41" s="323" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="296" t="s">
+      <c r="H41" s="321" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12623,8 +12910,8 @@
         <v>27</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="300"/>
-      <c r="H42" s="296"/>
+      <c r="G42" s="325"/>
+      <c r="H42" s="321"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
@@ -12636,10 +12923,10 @@
         <v>26</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="298" t="s">
+      <c r="G43" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="296"/>
+      <c r="H43" s="321"/>
     </row>
     <row r="44" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
@@ -12651,8 +12938,8 @@
         <v>27</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="300"/>
-      <c r="H44" s="296"/>
+      <c r="G44" s="325"/>
+      <c r="H44" s="321"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
@@ -12664,10 +12951,10 @@
         <v>26</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="299" t="s">
+      <c r="G45" s="324" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="296"/>
+      <c r="H45" s="321"/>
     </row>
     <row r="46" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
@@ -12679,8 +12966,8 @@
         <v>27</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="300"/>
-      <c r="H46" s="297"/>
+      <c r="G46" s="325"/>
+      <c r="H46" s="322"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
@@ -13248,6 +13535,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="G11:G15"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H40"/>
     <mergeCell ref="G37:G38"/>
@@ -13256,13 +13550,6 @@
     <mergeCell ref="H41:H46"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="G11:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13272,13 +13559,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J166"/>
+  <dimension ref="B1:J165"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -13289,7 +13576,7 @@
     <col min="4" max="4" width="18" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="47" style="17" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="17" customWidth="1"/>
     <col min="10" max="10" width="5" style="17" customWidth="1"/>
@@ -13316,15 +13603,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>546</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>468</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -13439,7 +13726,7 @@
         <v>451</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="308" t="s">
+      <c r="G12" s="314" t="s">
         <v>450</v>
       </c>
       <c r="H12" s="2"/>
@@ -13454,7 +13741,7 @@
         <v>453</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="309"/>
+      <c r="G13" s="315"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -13467,7 +13754,7 @@
         <v>454</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="309"/>
+      <c r="G14" s="315"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -13480,7 +13767,7 @@
         <v>457</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="309"/>
+      <c r="G15" s="315"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -13495,7 +13782,7 @@
         <v>458</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="310"/>
+      <c r="G16" s="316"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -13526,7 +13813,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="311" t="s">
+      <c r="G19" s="317" t="s">
         <v>474</v>
       </c>
       <c r="H19" s="2"/>
@@ -13539,7 +13826,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="312"/>
+      <c r="G20" s="318"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13550,7 +13837,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="312"/>
+      <c r="G21" s="318"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13561,7 +13848,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="312"/>
+      <c r="G22" s="318"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13574,7 +13861,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="313"/>
+      <c r="G23" s="319"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13593,7 +13880,7 @@
         <v>480</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="311" t="s">
+      <c r="G25" s="317" t="s">
         <v>475</v>
       </c>
       <c r="H25" s="121" t="s">
@@ -13608,283 +13895,283 @@
         <v>479</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="312"/>
+      <c r="G26" s="318"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="312"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="319"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="313"/>
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="G28"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="63" t="s">
+        <v>482</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="G29"/>
+      <c r="F29" s="88"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="63" t="s">
-        <v>482</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="F30" s="88"/>
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="G30" s="317" t="s">
+        <v>481</v>
+      </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="C31" s="15" t="s">
+    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="14" t="s">
+      <c r="D31" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="G31" s="311" t="s">
-        <v>481</v>
-      </c>
+      <c r="F31" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G31" s="318"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>439</v>
+        <v>367</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="318"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="319"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="G35" s="317" t="s">
+        <v>485</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G32" s="312"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="312"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="313"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="G36" s="311" t="s">
-        <v>485</v>
-      </c>
+      <c r="G36" s="318"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>442</v>
+        <v>375</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>401</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="318"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="319"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="G40" s="317" t="s">
+        <v>489</v>
+      </c>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G37" s="312"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G38" s="312"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="313"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="G41" s="311" t="s">
-        <v>489</v>
-      </c>
-      <c r="H41" s="2"/>
+      <c r="G41" s="318"/>
+      <c r="H41"/>
     </row>
     <row r="42" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="D42"/>
       <c r="E42" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="318"/>
+      <c r="H42" s="125" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G42" s="312"/>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="C43" s="17" t="s">
+      <c r="F43" s="8"/>
+      <c r="G43" s="319"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="2:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="126" t="s">
+        <v>389</v>
+      </c>
+      <c r="C45" s="127" t="s">
         <v>401</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" s="312"/>
-      <c r="H43" s="125" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="128"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="129" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="313"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="126" t="s">
-        <v>389</v>
-      </c>
-      <c r="C46" s="127" t="s">
-        <v>401</v>
-      </c>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="128"/>
+      <c r="D46" s="2"/>
+      <c r="F46" s="50"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="129" t="s">
-        <v>65</v>
+        <v>495</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>401</v>
@@ -13894,19 +14181,18 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="129" t="s">
-        <v>495</v>
+      <c r="B48" s="49" t="s">
+        <v>496</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>401</v>
       </c>
       <c r="D48" s="2"/>
       <c r="F48" s="50"/>
-      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="49" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>401</v>
@@ -13915,24 +14201,24 @@
       <c r="F49" s="50"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="49" t="s">
-        <v>497</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>401</v>
-      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="F50" s="50"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="49"/>
-      <c r="C51" s="2"/>
+      <c r="B51" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="F51" s="50"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="49" t="s">
-        <v>68</v>
+        <v>393</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>401</v>
@@ -13942,7 +14228,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="49" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>401</v>
@@ -13952,7 +14238,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="49" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>401</v>
@@ -13960,109 +14246,103 @@
       <c r="D54" s="2"/>
       <c r="F54" s="50"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="49" t="s">
-        <v>395</v>
-      </c>
-      <c r="C55" s="2" t="s">
+    <row r="55" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="130" t="s">
+        <v>396</v>
+      </c>
+      <c r="C55" s="131" t="s">
         <v>401</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="F55" s="50"/>
-    </row>
-    <row r="56" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="130" t="s">
-        <v>396</v>
-      </c>
-      <c r="C56" s="131" t="s">
-        <v>401</v>
-      </c>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="132"/>
-    </row>
-    <row r="57" spans="2:6" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="12" t="s">
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="132"/>
+    </row>
+    <row r="56" spans="2:6" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14" t="s">
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="301" t="s">
+      <c r="F57" s="307" t="s">
         <v>504</v>
       </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="308"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="302"/>
+        <v>39</v>
+      </c>
+      <c r="F59" s="308"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="302"/>
+        <v>40</v>
+      </c>
+      <c r="F60" s="308"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
-        <v>82</v>
+      <c r="B61" s="136" t="s">
+        <v>500</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="302"/>
+        <v>501</v>
+      </c>
+      <c r="F61" s="308"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="136" t="s">
-        <v>500</v>
+      <c r="B62" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F62" s="302"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F63" s="302"/>
-    </row>
-    <row r="64" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="137" t="s">
+      <c r="F62" s="308"/>
+    </row>
+    <row r="63" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="137" t="s">
         <v>502</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="135" t="s">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="135" t="s">
         <v>503</v>
       </c>
-      <c r="F64" s="303"/>
+      <c r="F63" s="309"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
@@ -14468,21 +14748,17 @@
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="F57:F63"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="G25:G27"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G35:G38"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14536,15 +14812,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="368" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="371" t="s">
         <v>505</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -14807,7 +15083,7 @@
       <c r="E24" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="359" t="s">
+      <c r="F24" s="372" t="s">
         <v>552</v>
       </c>
       <c r="G24" s="176" t="s">
@@ -14824,7 +15100,7 @@
       <c r="E25" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F25" s="360"/>
+      <c r="F25" s="373"/>
       <c r="G25" s="177" t="s">
         <v>178</v>
       </c>
@@ -14836,7 +15112,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="360"/>
+      <c r="F26" s="373"/>
       <c r="G26" s="177"/>
       <c r="H26" s="2"/>
     </row>
@@ -14846,7 +15122,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="F27" s="360"/>
+      <c r="F27" s="373"/>
       <c r="G27" s="177"/>
       <c r="H27" s="2"/>
     </row>
@@ -14859,7 +15135,7 @@
       <c r="E28" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F28" s="360"/>
+      <c r="F28" s="373"/>
       <c r="G28" s="285" t="s">
         <v>509</v>
       </c>
@@ -14871,7 +15147,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="F29" s="360"/>
+      <c r="F29" s="373"/>
       <c r="G29" s="178"/>
       <c r="H29" s="2"/>
     </row>
@@ -14881,7 +15157,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="360"/>
+      <c r="F30" s="373"/>
       <c r="G30" s="178"/>
       <c r="H30" s="2"/>
     </row>
@@ -14892,7 +15168,7 @@
       <c r="C31" s="131"/>
       <c r="D31" s="131"/>
       <c r="E31" s="190"/>
-      <c r="F31" s="361"/>
+      <c r="F31" s="374"/>
       <c r="G31" s="179"/>
       <c r="H31" s="2"/>
     </row>
@@ -14911,7 +15187,7 @@
       <c r="E33" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F33" s="359" t="s">
+      <c r="F33" s="372" t="s">
         <v>552</v>
       </c>
       <c r="G33" s="176" t="s">
@@ -14928,7 +15204,7 @@
       <c r="E34" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F34" s="360"/>
+      <c r="F34" s="373"/>
       <c r="G34" s="177" t="s">
         <v>178</v>
       </c>
@@ -14940,7 +15216,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="F35" s="360"/>
+      <c r="F35" s="373"/>
       <c r="G35" s="177"/>
       <c r="H35" s="2"/>
     </row>
@@ -14950,7 +15226,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="360"/>
+      <c r="F36" s="373"/>
       <c r="G36" s="177"/>
       <c r="H36" s="2"/>
     </row>
@@ -14963,7 +15239,7 @@
       <c r="E37" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F37" s="360"/>
+      <c r="F37" s="373"/>
       <c r="G37" s="285" t="s">
         <v>509</v>
       </c>
@@ -14975,7 +15251,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="F38" s="360"/>
+      <c r="F38" s="373"/>
       <c r="G38" s="178"/>
       <c r="H38" s="2"/>
     </row>
@@ -14985,7 +15261,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="360"/>
+      <c r="F39" s="373"/>
       <c r="G39" s="178"/>
       <c r="H39" s="2"/>
     </row>
@@ -14996,7 +15272,7 @@
       <c r="C40" s="131"/>
       <c r="D40" s="131"/>
       <c r="E40" s="190"/>
-      <c r="F40" s="361"/>
+      <c r="F40" s="374"/>
       <c r="G40" s="179"/>
       <c r="H40" s="2"/>
     </row>
@@ -15015,7 +15291,7 @@
       <c r="E42" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F42" s="359" t="s">
+      <c r="F42" s="372" t="s">
         <v>553</v>
       </c>
       <c r="G42" s="176" t="s">
@@ -15032,7 +15308,7 @@
       <c r="E43" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F43" s="360"/>
+      <c r="F43" s="373"/>
       <c r="G43" s="177" t="s">
         <v>178</v>
       </c>
@@ -15044,7 +15320,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="360"/>
+      <c r="F44" s="373"/>
       <c r="G44" s="177"/>
       <c r="H44" s="2"/>
     </row>
@@ -15054,7 +15330,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="360"/>
+      <c r="F45" s="373"/>
       <c r="G45" s="177"/>
       <c r="H45" s="2"/>
     </row>
@@ -15067,7 +15343,7 @@
       <c r="E46" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F46" s="360"/>
+      <c r="F46" s="373"/>
       <c r="G46" s="285" t="s">
         <v>509</v>
       </c>
@@ -15079,7 +15355,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="F47" s="360"/>
+      <c r="F47" s="373"/>
       <c r="G47" s="178"/>
       <c r="H47" s="2"/>
     </row>
@@ -15089,7 +15365,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="F48" s="360"/>
+      <c r="F48" s="373"/>
       <c r="G48" s="178"/>
       <c r="H48" s="2"/>
     </row>
@@ -15100,7 +15376,7 @@
       <c r="C49" s="131"/>
       <c r="D49" s="131"/>
       <c r="E49" s="190"/>
-      <c r="F49" s="361"/>
+      <c r="F49" s="374"/>
       <c r="G49" s="179"/>
     </row>
     <row r="50" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15117,10 +15393,10 @@
       <c r="E51" s="191" t="s">
         <v>526</v>
       </c>
-      <c r="F51" s="365" t="s">
+      <c r="F51" s="378" t="s">
         <v>525</v>
       </c>
-      <c r="G51" s="362" t="s">
+      <c r="G51" s="375" t="s">
         <v>338</v>
       </c>
     </row>
@@ -15133,8 +15409,8 @@
       <c r="E52" s="186" t="s">
         <v>526</v>
       </c>
-      <c r="F52" s="366"/>
-      <c r="G52" s="363"/>
+      <c r="F52" s="379"/>
+      <c r="G52" s="376"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="184" t="s">
@@ -15145,8 +15421,8 @@
       <c r="E53" s="186" t="s">
         <v>526</v>
       </c>
-      <c r="F53" s="366"/>
-      <c r="G53" s="363"/>
+      <c r="F53" s="379"/>
+      <c r="G53" s="376"/>
     </row>
     <row r="54" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="185" t="s">
@@ -15157,8 +15433,8 @@
       <c r="E54" s="190" t="s">
         <v>526</v>
       </c>
-      <c r="F54" s="367"/>
-      <c r="G54" s="364"/>
+      <c r="F54" s="380"/>
+      <c r="G54" s="377"/>
     </row>
     <row r="55" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="99"/>
@@ -15174,10 +15450,10 @@
       <c r="E56" s="191" t="s">
         <v>535</v>
       </c>
-      <c r="F56" s="365" t="s">
+      <c r="F56" s="378" t="s">
         <v>534</v>
       </c>
-      <c r="G56" s="362" t="s">
+      <c r="G56" s="375" t="s">
         <v>338</v>
       </c>
     </row>
@@ -15190,8 +15466,8 @@
       <c r="E57" s="186" t="s">
         <v>535</v>
       </c>
-      <c r="F57" s="366"/>
-      <c r="G57" s="363"/>
+      <c r="F57" s="379"/>
+      <c r="G57" s="376"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="184" t="s">
@@ -15202,8 +15478,8 @@
       <c r="E58" s="186" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="366"/>
-      <c r="G58" s="363"/>
+      <c r="F58" s="379"/>
+      <c r="G58" s="376"/>
     </row>
     <row r="59" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="185" t="s">
@@ -15214,8 +15490,8 @@
       <c r="E59" s="190" t="s">
         <v>535</v>
       </c>
-      <c r="F59" s="367"/>
-      <c r="G59" s="364"/>
+      <c r="F59" s="380"/>
+      <c r="G59" s="377"/>
     </row>
     <row r="60" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="99"/>
@@ -15341,7 +15617,7 @@
       <c r="E74" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="337" t="s">
+      <c r="F74" s="349" t="s">
         <v>504</v>
       </c>
     </row>
@@ -15354,7 +15630,7 @@
       <c r="E75" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="338"/>
+      <c r="F75" s="350"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="184" t="s">
@@ -15365,7 +15641,7 @@
       <c r="E76" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F76" s="338"/>
+      <c r="F76" s="350"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="184" t="s">
@@ -15376,7 +15652,7 @@
       <c r="E77" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="338"/>
+      <c r="F77" s="350"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="184" t="s">
@@ -15387,7 +15663,7 @@
       <c r="E78" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F78" s="338"/>
+      <c r="F78" s="350"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="161" t="s">
@@ -15398,7 +15674,7 @@
       <c r="E79" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F79" s="338"/>
+      <c r="F79" s="350"/>
     </row>
     <row r="80" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="163" t="s">
@@ -15409,7 +15685,7 @@
       <c r="E80" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F80" s="339"/>
+      <c r="F80" s="351"/>
     </row>
     <row r="81" spans="3:4" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
@@ -15777,16 +16053,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G56:G59"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="F24:F31"/>
     <mergeCell ref="F33:F40"/>
     <mergeCell ref="F74:F80"/>
     <mergeCell ref="F42:F49"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="G56:G59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15839,15 +16115,15 @@
     </row>
     <row r="2" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="366" t="s">
         <v>584</v>
       </c>
-      <c r="B3" s="355"/>
-      <c r="C3" s="369" t="s">
+      <c r="B3" s="367"/>
+      <c r="C3" s="396" t="s">
         <v>544</v>
       </c>
-      <c r="D3" s="370"/>
-      <c r="E3" s="371"/>
+      <c r="D3" s="397"/>
+      <c r="E3" s="398"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -16071,7 +16347,7 @@
       <c r="D20" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="E20" s="372" t="s">
+      <c r="E20" s="399" t="s">
         <v>318</v>
       </c>
       <c r="G20" s="2"/>
@@ -16087,7 +16363,7 @@
       <c r="D21" s="284" t="s">
         <v>506</v>
       </c>
-      <c r="E21" s="373"/>
+      <c r="E21" s="400"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16105,10 +16381,10 @@
       <c r="D23" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E23" s="359" t="s">
+      <c r="E23" s="372" t="s">
         <v>555</v>
       </c>
-      <c r="F23" s="374" t="s">
+      <c r="F23" s="393" t="s">
         <v>554</v>
       </c>
       <c r="G23" s="2"/>
@@ -16122,8 +16398,8 @@
       <c r="D24" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E24" s="360"/>
-      <c r="F24" s="375"/>
+      <c r="E24" s="373"/>
+      <c r="F24" s="394"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16133,8 +16409,8 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="186"/>
-      <c r="E25" s="360"/>
-      <c r="F25" s="375"/>
+      <c r="E25" s="373"/>
+      <c r="F25" s="394"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16144,8 +16420,8 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="186"/>
-      <c r="E26" s="360"/>
-      <c r="F26" s="375"/>
+      <c r="E26" s="373"/>
+      <c r="F26" s="394"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16157,8 +16433,8 @@
       <c r="D27" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E27" s="360"/>
-      <c r="F27" s="375"/>
+      <c r="E27" s="373"/>
+      <c r="F27" s="394"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16168,8 +16444,8 @@
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
       <c r="D28" s="190"/>
-      <c r="E28" s="361"/>
-      <c r="F28" s="376"/>
+      <c r="E28" s="374"/>
+      <c r="F28" s="395"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16187,10 +16463,10 @@
       <c r="D30" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E30" s="359" t="s">
+      <c r="E30" s="372" t="s">
         <v>559</v>
       </c>
-      <c r="F30" s="374" t="s">
+      <c r="F30" s="393" t="s">
         <v>554</v>
       </c>
       <c r="G30" s="2"/>
@@ -16204,8 +16480,8 @@
       <c r="D31" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E31" s="360"/>
-      <c r="F31" s="375"/>
+      <c r="E31" s="373"/>
+      <c r="F31" s="394"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16215,8 +16491,8 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="186"/>
-      <c r="E32" s="360"/>
-      <c r="F32" s="375"/>
+      <c r="E32" s="373"/>
+      <c r="F32" s="394"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16226,8 +16502,8 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="186"/>
-      <c r="E33" s="360"/>
-      <c r="F33" s="375"/>
+      <c r="E33" s="373"/>
+      <c r="F33" s="394"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16239,8 +16515,8 @@
       <c r="D34" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E34" s="360"/>
-      <c r="F34" s="375"/>
+      <c r="E34" s="373"/>
+      <c r="F34" s="394"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16250,8 +16526,8 @@
       <c r="B35" s="131"/>
       <c r="C35" s="131"/>
       <c r="D35" s="190"/>
-      <c r="E35" s="361"/>
-      <c r="F35" s="376"/>
+      <c r="E35" s="374"/>
+      <c r="F35" s="395"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16269,10 +16545,10 @@
       <c r="D37" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E37" s="359" t="s">
+      <c r="E37" s="372" t="s">
         <v>565</v>
       </c>
-      <c r="F37" s="374" t="s">
+      <c r="F37" s="393" t="s">
         <v>554</v>
       </c>
       <c r="G37" s="2"/>
@@ -16286,8 +16562,8 @@
       <c r="D38" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E38" s="360"/>
-      <c r="F38" s="375"/>
+      <c r="E38" s="373"/>
+      <c r="F38" s="394"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -16297,8 +16573,8 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="186"/>
-      <c r="E39" s="360"/>
-      <c r="F39" s="375"/>
+      <c r="E39" s="373"/>
+      <c r="F39" s="394"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -16308,8 +16584,8 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="186"/>
-      <c r="E40" s="360"/>
-      <c r="F40" s="375"/>
+      <c r="E40" s="373"/>
+      <c r="F40" s="394"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -16321,8 +16597,8 @@
       <c r="D41" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E41" s="360"/>
-      <c r="F41" s="375"/>
+      <c r="E41" s="373"/>
+      <c r="F41" s="394"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16332,8 +16608,8 @@
       <c r="B42" s="131"/>
       <c r="C42" s="131"/>
       <c r="D42" s="190"/>
-      <c r="E42" s="361"/>
-      <c r="F42" s="376"/>
+      <c r="E42" s="374"/>
+      <c r="F42" s="395"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16353,16 +16629,16 @@
       <c r="D44" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="377" t="s">
+      <c r="E44" s="387" t="s">
         <v>568</v>
       </c>
-      <c r="F44" s="380" t="s">
+      <c r="F44" s="390" t="s">
         <v>566</v>
       </c>
-      <c r="G44" s="383" t="s">
+      <c r="G44" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="H44" s="384"/>
+      <c r="H44" s="382"/>
     </row>
     <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="184" t="s">
@@ -16375,10 +16651,10 @@
       <c r="D45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="378"/>
-      <c r="F45" s="381"/>
-      <c r="G45" s="385"/>
-      <c r="H45" s="386"/>
+      <c r="E45" s="388"/>
+      <c r="F45" s="391"/>
+      <c r="G45" s="383"/>
+      <c r="H45" s="384"/>
     </row>
     <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="184" t="s">
@@ -16391,10 +16667,10 @@
       <c r="D46" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E46" s="378"/>
-      <c r="F46" s="381"/>
-      <c r="G46" s="385"/>
-      <c r="H46" s="386"/>
+      <c r="E46" s="388"/>
+      <c r="F46" s="391"/>
+      <c r="G46" s="383"/>
+      <c r="H46" s="384"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="185" t="s">
@@ -16407,10 +16683,10 @@
       <c r="D47" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E47" s="379"/>
-      <c r="F47" s="382"/>
-      <c r="G47" s="387"/>
-      <c r="H47" s="388"/>
+      <c r="E47" s="389"/>
+      <c r="F47" s="392"/>
+      <c r="G47" s="385"/>
+      <c r="H47" s="386"/>
     </row>
     <row r="48" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
@@ -16428,16 +16704,16 @@
       <c r="D49" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E49" s="377" t="s">
+      <c r="E49" s="387" t="s">
         <v>569</v>
       </c>
-      <c r="F49" s="380" t="s">
+      <c r="F49" s="390" t="s">
         <v>566</v>
       </c>
-      <c r="G49" s="383" t="s">
+      <c r="G49" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="H49" s="384"/>
+      <c r="H49" s="382"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="184" t="s">
@@ -16450,10 +16726,10 @@
       <c r="D50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="378"/>
-      <c r="F50" s="381"/>
-      <c r="G50" s="385"/>
-      <c r="H50" s="386"/>
+      <c r="E50" s="388"/>
+      <c r="F50" s="391"/>
+      <c r="G50" s="383"/>
+      <c r="H50" s="384"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="184" t="s">
@@ -16466,10 +16742,10 @@
       <c r="D51" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E51" s="378"/>
-      <c r="F51" s="381"/>
-      <c r="G51" s="385"/>
-      <c r="H51" s="386"/>
+      <c r="E51" s="388"/>
+      <c r="F51" s="391"/>
+      <c r="G51" s="383"/>
+      <c r="H51" s="384"/>
     </row>
     <row r="52" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="185" t="s">
@@ -16482,10 +16758,10 @@
       <c r="D52" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E52" s="379"/>
-      <c r="F52" s="382"/>
-      <c r="G52" s="387"/>
-      <c r="H52" s="388"/>
+      <c r="E52" s="389"/>
+      <c r="F52" s="392"/>
+      <c r="G52" s="385"/>
+      <c r="H52" s="386"/>
     </row>
     <row r="53" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
@@ -16502,16 +16778,16 @@
       <c r="D54" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="377" t="s">
+      <c r="E54" s="387" t="s">
         <v>578</v>
       </c>
-      <c r="F54" s="380" t="s">
+      <c r="F54" s="390" t="s">
         <v>566</v>
       </c>
-      <c r="G54" s="383" t="s">
+      <c r="G54" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="H54" s="384"/>
+      <c r="H54" s="382"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="184" t="s">
@@ -16524,10 +16800,10 @@
       <c r="D55" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E55" s="378"/>
-      <c r="F55" s="381"/>
-      <c r="G55" s="385"/>
-      <c r="H55" s="386"/>
+      <c r="E55" s="388"/>
+      <c r="F55" s="391"/>
+      <c r="G55" s="383"/>
+      <c r="H55" s="384"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="184" t="s">
@@ -16540,10 +16816,10 @@
       <c r="D56" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E56" s="378"/>
-      <c r="F56" s="381"/>
-      <c r="G56" s="385"/>
-      <c r="H56" s="386"/>
+      <c r="E56" s="388"/>
+      <c r="F56" s="391"/>
+      <c r="G56" s="383"/>
+      <c r="H56" s="384"/>
     </row>
     <row r="57" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="185" t="s">
@@ -16556,10 +16832,10 @@
       <c r="D57" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E57" s="379"/>
-      <c r="F57" s="382"/>
-      <c r="G57" s="387"/>
-      <c r="H57" s="388"/>
+      <c r="E57" s="389"/>
+      <c r="F57" s="392"/>
+      <c r="G57" s="385"/>
+      <c r="H57" s="386"/>
     </row>
     <row r="58" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
@@ -17078,6 +17354,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
     <mergeCell ref="G44:H47"/>
     <mergeCell ref="E49:E52"/>
     <mergeCell ref="F49:F52"/>
@@ -17085,17 +17372,6 @@
     <mergeCell ref="E54:E57"/>
     <mergeCell ref="F54:F57"/>
     <mergeCell ref="G54:H57"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17149,21 +17425,21 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>585</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>586</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="401" t="s">
+      <c r="B4" s="301" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="291"/>
@@ -17177,7 +17453,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="402" t="s">
+      <c r="B5" s="302" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
@@ -17191,7 +17467,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="402" t="s">
+      <c r="B6" s="302" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
@@ -17205,7 +17481,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="302" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
@@ -17219,7 +17495,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="402" t="s">
+      <c r="B8" s="302" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="4"/>
@@ -17233,7 +17509,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="402" t="s">
+      <c r="B9" s="302" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="4"/>
@@ -17247,7 +17523,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="400" t="s">
+      <c r="B10" s="300" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="231"/>
@@ -17395,7 +17671,7 @@
       <c r="E21" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="F21" s="372" t="s">
+      <c r="F21" s="399" t="s">
         <v>318</v>
       </c>
       <c r="H21" s="2"/>
@@ -17411,7 +17687,7 @@
       <c r="E22" s="284" t="s">
         <v>506</v>
       </c>
-      <c r="F22" s="373"/>
+      <c r="F22" s="400"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17429,10 +17705,10 @@
       <c r="E24" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F24" s="389" t="s">
+      <c r="F24" s="401" t="s">
         <v>555</v>
       </c>
-      <c r="G24" s="392" t="s">
+      <c r="G24" s="404" t="s">
         <v>554</v>
       </c>
       <c r="H24" s="2"/>
@@ -17446,8 +17722,8 @@
       <c r="E25" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F25" s="390"/>
-      <c r="G25" s="393"/>
+      <c r="F25" s="402"/>
+      <c r="G25" s="405"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17457,8 +17733,8 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="186"/>
-      <c r="F26" s="390"/>
-      <c r="G26" s="393"/>
+      <c r="F26" s="402"/>
+      <c r="G26" s="405"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17470,8 +17746,8 @@
       <c r="E27" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F27" s="390"/>
-      <c r="G27" s="393"/>
+      <c r="F27" s="402"/>
+      <c r="G27" s="405"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17480,8 +17756,8 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="F28" s="390"/>
-      <c r="G28" s="393"/>
+      <c r="F28" s="402"/>
+      <c r="G28" s="405"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17491,8 +17767,8 @@
       <c r="C29" s="131"/>
       <c r="D29" s="131"/>
       <c r="E29" s="190"/>
-      <c r="F29" s="391"/>
-      <c r="G29" s="394"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="406"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17510,10 +17786,10 @@
       <c r="E31" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F31" s="389" t="s">
+      <c r="F31" s="401" t="s">
         <v>559</v>
       </c>
-      <c r="G31" s="392" t="s">
+      <c r="G31" s="404" t="s">
         <v>554</v>
       </c>
       <c r="H31" s="2"/>
@@ -17527,8 +17803,8 @@
       <c r="E32" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F32" s="390"/>
-      <c r="G32" s="393"/>
+      <c r="F32" s="402"/>
+      <c r="G32" s="405"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17538,8 +17814,8 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="186"/>
-      <c r="F33" s="390"/>
-      <c r="G33" s="393"/>
+      <c r="F33" s="402"/>
+      <c r="G33" s="405"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17551,8 +17827,8 @@
       <c r="E34" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F34" s="390"/>
-      <c r="G34" s="393"/>
+      <c r="F34" s="402"/>
+      <c r="G34" s="405"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17561,8 +17837,8 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="F35" s="390"/>
-      <c r="G35" s="393"/>
+      <c r="F35" s="402"/>
+      <c r="G35" s="405"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17572,8 +17848,8 @@
       <c r="C36" s="131"/>
       <c r="D36" s="131"/>
       <c r="E36" s="190"/>
-      <c r="F36" s="391"/>
-      <c r="G36" s="394"/>
+      <c r="F36" s="403"/>
+      <c r="G36" s="406"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17591,10 +17867,10 @@
       <c r="E38" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F38" s="389" t="s">
+      <c r="F38" s="401" t="s">
         <v>565</v>
       </c>
-      <c r="G38" s="392" t="s">
+      <c r="G38" s="404" t="s">
         <v>554</v>
       </c>
       <c r="H38" s="2"/>
@@ -17608,8 +17884,8 @@
       <c r="E39" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F39" s="390"/>
-      <c r="G39" s="393"/>
+      <c r="F39" s="402"/>
+      <c r="G39" s="405"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17619,8 +17895,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="186"/>
-      <c r="F40" s="390"/>
-      <c r="G40" s="393"/>
+      <c r="F40" s="402"/>
+      <c r="G40" s="405"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17632,8 +17908,8 @@
       <c r="E41" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F41" s="390"/>
-      <c r="G41" s="393"/>
+      <c r="F41" s="402"/>
+      <c r="G41" s="405"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -17642,8 +17918,8 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="F42" s="390"/>
-      <c r="G42" s="393"/>
+      <c r="F42" s="402"/>
+      <c r="G42" s="405"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17653,8 +17929,8 @@
       <c r="C43" s="131"/>
       <c r="D43" s="131"/>
       <c r="E43" s="190"/>
-      <c r="F43" s="391"/>
-      <c r="G43" s="394"/>
+      <c r="F43" s="403"/>
+      <c r="G43" s="406"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17674,16 +17950,16 @@
       <c r="E45" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="377" t="s">
+      <c r="F45" s="387" t="s">
         <v>594</v>
       </c>
-      <c r="G45" s="380" t="s">
+      <c r="G45" s="390" t="s">
         <v>566</v>
       </c>
-      <c r="H45" s="383" t="s">
+      <c r="H45" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="I45" s="384"/>
+      <c r="I45" s="382"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="184" t="s">
@@ -17696,10 +17972,10 @@
       <c r="E46" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F46" s="378"/>
-      <c r="G46" s="381"/>
-      <c r="H46" s="385"/>
-      <c r="I46" s="386"/>
+      <c r="F46" s="388"/>
+      <c r="G46" s="391"/>
+      <c r="H46" s="383"/>
+      <c r="I46" s="384"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="184" t="s">
@@ -17712,10 +17988,10 @@
       <c r="E47" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F47" s="378"/>
-      <c r="G47" s="381"/>
-      <c r="H47" s="385"/>
-      <c r="I47" s="386"/>
+      <c r="F47" s="388"/>
+      <c r="G47" s="391"/>
+      <c r="H47" s="383"/>
+      <c r="I47" s="384"/>
     </row>
     <row r="48" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="185" t="s">
@@ -17728,10 +18004,10 @@
       <c r="E48" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F48" s="379"/>
-      <c r="G48" s="382"/>
-      <c r="H48" s="387"/>
-      <c r="I48" s="388"/>
+      <c r="F48" s="389"/>
+      <c r="G48" s="392"/>
+      <c r="H48" s="385"/>
+      <c r="I48" s="386"/>
     </row>
     <row r="49" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
@@ -17750,16 +18026,16 @@
       <c r="E50" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F50" s="377" t="s">
+      <c r="F50" s="387" t="s">
         <v>595</v>
       </c>
-      <c r="G50" s="380" t="s">
+      <c r="G50" s="390" t="s">
         <v>566</v>
       </c>
-      <c r="H50" s="383" t="s">
+      <c r="H50" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="I50" s="384"/>
+      <c r="I50" s="382"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="184" t="s">
@@ -17772,10 +18048,10 @@
       <c r="E51" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F51" s="378"/>
-      <c r="G51" s="381"/>
-      <c r="H51" s="385"/>
-      <c r="I51" s="386"/>
+      <c r="F51" s="388"/>
+      <c r="G51" s="391"/>
+      <c r="H51" s="383"/>
+      <c r="I51" s="384"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="184" t="s">
@@ -17788,10 +18064,10 @@
       <c r="E52" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F52" s="378"/>
-      <c r="G52" s="381"/>
-      <c r="H52" s="385"/>
-      <c r="I52" s="386"/>
+      <c r="F52" s="388"/>
+      <c r="G52" s="391"/>
+      <c r="H52" s="383"/>
+      <c r="I52" s="384"/>
     </row>
     <row r="53" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="185" t="s">
@@ -17804,10 +18080,10 @@
       <c r="E53" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F53" s="379"/>
-      <c r="G53" s="382"/>
-      <c r="H53" s="387"/>
-      <c r="I53" s="388"/>
+      <c r="F53" s="389"/>
+      <c r="G53" s="392"/>
+      <c r="H53" s="385"/>
+      <c r="I53" s="386"/>
     </row>
     <row r="54" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
@@ -17824,16 +18100,16 @@
       <c r="E55" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F55" s="377" t="s">
+      <c r="F55" s="387" t="s">
         <v>596</v>
       </c>
-      <c r="G55" s="380" t="s">
+      <c r="G55" s="390" t="s">
         <v>566</v>
       </c>
-      <c r="H55" s="383" t="s">
+      <c r="H55" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="I55" s="384"/>
+      <c r="I55" s="382"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="184" t="s">
@@ -17846,10 +18122,10 @@
       <c r="E56" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F56" s="378"/>
-      <c r="G56" s="381"/>
-      <c r="H56" s="385"/>
-      <c r="I56" s="386"/>
+      <c r="F56" s="388"/>
+      <c r="G56" s="391"/>
+      <c r="H56" s="383"/>
+      <c r="I56" s="384"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="184" t="s">
@@ -17862,10 +18138,10 @@
       <c r="E57" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F57" s="378"/>
-      <c r="G57" s="381"/>
-      <c r="H57" s="385"/>
-      <c r="I57" s="386"/>
+      <c r="F57" s="388"/>
+      <c r="G57" s="391"/>
+      <c r="H57" s="383"/>
+      <c r="I57" s="384"/>
     </row>
     <row r="58" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="185" t="s">
@@ -17878,10 +18154,10 @@
       <c r="E58" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="379"/>
-      <c r="G58" s="382"/>
-      <c r="H58" s="387"/>
-      <c r="I58" s="388"/>
+      <c r="F58" s="389"/>
+      <c r="G58" s="392"/>
+      <c r="H58" s="385"/>
+      <c r="I58" s="386"/>
     </row>
     <row r="59" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
@@ -18428,17 +18704,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="G45:G48"/>
     <mergeCell ref="H45:I48"/>
     <mergeCell ref="F50:F53"/>
     <mergeCell ref="G50:G53"/>
@@ -18446,6 +18711,17 @@
     <mergeCell ref="F55:F58"/>
     <mergeCell ref="G55:G58"/>
     <mergeCell ref="H55:I58"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18457,11 +18733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="B45:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18472,7 +18748,7 @@
     <col min="4" max="4" width="11.5703125" style="17" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="47.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="17" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="17" customWidth="1"/>
     <col min="10" max="10" width="5" style="17" customWidth="1"/>
@@ -18499,21 +18775,21 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>597</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="368" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="371" t="s">
         <v>598</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="396" t="s">
+      <c r="B4" s="296" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="31"/>
@@ -18521,7 +18797,7 @@
       <c r="E4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="397"/>
+      <c r="F4" s="297"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -18535,7 +18811,7 @@
       <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="395"/>
+      <c r="F5" s="295"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -18549,7 +18825,7 @@
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="395"/>
+      <c r="F6" s="295"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -18563,7 +18839,7 @@
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="395"/>
+      <c r="F7" s="295"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -18577,7 +18853,7 @@
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="395"/>
+      <c r="F8" s="295"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -18591,13 +18867,13 @@
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="395"/>
+      <c r="F9" s="295"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="398" t="s">
+      <c r="B10" s="298" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="139"/>
@@ -18605,7 +18881,7 @@
       <c r="E10" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="399"/>
+      <c r="F10" s="299"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -18642,7 +18918,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="174"/>
-      <c r="G13" s="85" t="s">
+      <c r="G13" s="412" t="s">
         <v>601</v>
       </c>
       <c r="H13" s="63" t="s">
@@ -18752,17 +19028,17 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="403" t="s">
+      <c r="B22" s="303" t="s">
         <v>551</v>
       </c>
-      <c r="C22" s="404" t="s">
+      <c r="C22" s="304" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="404"/>
-      <c r="E22" s="405" t="s">
+      <c r="D22" s="304"/>
+      <c r="E22" s="305" t="s">
         <v>358</v>
       </c>
-      <c r="F22" s="406" t="s">
+      <c r="F22" s="306" t="s">
         <v>318</v>
       </c>
       <c r="H22" s="2"/>
@@ -18782,10 +19058,10 @@
       <c r="E24" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F24" s="389" t="s">
+      <c r="F24" s="401" t="s">
         <v>604</v>
       </c>
-      <c r="G24" s="374" t="s">
+      <c r="G24" s="393" t="s">
         <v>554</v>
       </c>
       <c r="H24" s="2"/>
@@ -18799,8 +19075,8 @@
       <c r="E25" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F25" s="390"/>
-      <c r="G25" s="375"/>
+      <c r="F25" s="402"/>
+      <c r="G25" s="394"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18810,8 +19086,8 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="186"/>
-      <c r="F26" s="390"/>
-      <c r="G26" s="375"/>
+      <c r="F26" s="402"/>
+      <c r="G26" s="394"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18823,8 +19099,8 @@
       <c r="E27" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F27" s="390"/>
-      <c r="G27" s="375"/>
+      <c r="F27" s="402"/>
+      <c r="G27" s="394"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18833,8 +19109,8 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="F28" s="390"/>
-      <c r="G28" s="375"/>
+      <c r="F28" s="402"/>
+      <c r="G28" s="394"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18844,8 +19120,8 @@
       <c r="C29" s="131"/>
       <c r="D29" s="131"/>
       <c r="E29" s="190"/>
-      <c r="F29" s="391"/>
-      <c r="G29" s="376"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="395"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18863,10 +19139,10 @@
       <c r="E31" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F31" s="389" t="s">
+      <c r="F31" s="401" t="s">
         <v>606</v>
       </c>
-      <c r="G31" s="374" t="s">
+      <c r="G31" s="393" t="s">
         <v>554</v>
       </c>
       <c r="H31" s="2"/>
@@ -18880,8 +19156,8 @@
       <c r="E32" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F32" s="390"/>
-      <c r="G32" s="375"/>
+      <c r="F32" s="402"/>
+      <c r="G32" s="394"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18891,8 +19167,8 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="186"/>
-      <c r="F33" s="390"/>
-      <c r="G33" s="375"/>
+      <c r="F33" s="402"/>
+      <c r="G33" s="394"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18904,8 +19180,8 @@
       <c r="E34" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F34" s="390"/>
-      <c r="G34" s="375"/>
+      <c r="F34" s="402"/>
+      <c r="G34" s="394"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18914,8 +19190,8 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="F35" s="390"/>
-      <c r="G35" s="375"/>
+      <c r="F35" s="402"/>
+      <c r="G35" s="394"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18925,8 +19201,8 @@
       <c r="C36" s="131"/>
       <c r="D36" s="131"/>
       <c r="E36" s="190"/>
-      <c r="F36" s="391"/>
-      <c r="G36" s="376"/>
+      <c r="F36" s="403"/>
+      <c r="G36" s="395"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18944,10 +19220,10 @@
       <c r="E38" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F38" s="389" t="s">
+      <c r="F38" s="401" t="s">
         <v>608</v>
       </c>
-      <c r="G38" s="374" t="s">
+      <c r="G38" s="393" t="s">
         <v>554</v>
       </c>
       <c r="H38" s="2"/>
@@ -18961,8 +19237,8 @@
       <c r="E39" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F39" s="390"/>
-      <c r="G39" s="375"/>
+      <c r="F39" s="402"/>
+      <c r="G39" s="394"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18972,8 +19248,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="186"/>
-      <c r="F40" s="390"/>
-      <c r="G40" s="375"/>
+      <c r="F40" s="402"/>
+      <c r="G40" s="394"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -18985,8 +19261,8 @@
       <c r="E41" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F41" s="390"/>
-      <c r="G41" s="375"/>
+      <c r="F41" s="402"/>
+      <c r="G41" s="394"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -18995,8 +19271,8 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="F42" s="390"/>
-      <c r="G42" s="375"/>
+      <c r="F42" s="402"/>
+      <c r="G42" s="394"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19006,8 +19282,8 @@
       <c r="C43" s="131"/>
       <c r="D43" s="131"/>
       <c r="E43" s="190"/>
-      <c r="F43" s="391"/>
-      <c r="G43" s="376"/>
+      <c r="F43" s="403"/>
+      <c r="G43" s="395"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19027,16 +19303,16 @@
       <c r="E45" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="377" t="s">
+      <c r="F45" s="387" t="s">
         <v>594</v>
       </c>
-      <c r="G45" s="380" t="s">
+      <c r="G45" s="390" t="s">
         <v>566</v>
       </c>
-      <c r="H45" s="383" t="s">
+      <c r="H45" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="I45" s="384"/>
+      <c r="I45" s="382"/>
     </row>
     <row r="46" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="185" t="s">
@@ -19049,10 +19325,10 @@
       <c r="E46" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F46" s="379"/>
-      <c r="G46" s="382"/>
-      <c r="H46" s="387"/>
-      <c r="I46" s="388"/>
+      <c r="F46" s="389"/>
+      <c r="G46" s="392"/>
+      <c r="H46" s="385"/>
+      <c r="I46" s="386"/>
     </row>
     <row r="47" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
@@ -19071,16 +19347,16 @@
       <c r="E48" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F48" s="377" t="s">
+      <c r="F48" s="387" t="s">
         <v>594</v>
       </c>
-      <c r="G48" s="380" t="s">
+      <c r="G48" s="390" t="s">
         <v>566</v>
       </c>
-      <c r="H48" s="383" t="s">
+      <c r="H48" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="I48" s="384"/>
+      <c r="I48" s="382"/>
     </row>
     <row r="49" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="185" t="s">
@@ -19093,10 +19369,10 @@
       <c r="E49" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F49" s="379"/>
-      <c r="G49" s="382"/>
-      <c r="H49" s="387"/>
-      <c r="I49" s="388"/>
+      <c r="F49" s="389"/>
+      <c r="G49" s="392"/>
+      <c r="H49" s="385"/>
+      <c r="I49" s="386"/>
     </row>
     <row r="50" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
@@ -19113,16 +19389,16 @@
       <c r="E51" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F51" s="377" t="s">
+      <c r="F51" s="387" t="s">
         <v>594</v>
       </c>
-      <c r="G51" s="380" t="s">
+      <c r="G51" s="390" t="s">
         <v>566</v>
       </c>
-      <c r="H51" s="383" t="s">
+      <c r="H51" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="I51" s="384"/>
+      <c r="I51" s="382"/>
     </row>
     <row r="52" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="185" t="s">
@@ -19135,10 +19411,10 @@
       <c r="E52" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F52" s="379"/>
-      <c r="G52" s="382"/>
-      <c r="H52" s="387"/>
-      <c r="I52" s="388"/>
+      <c r="F52" s="389"/>
+      <c r="G52" s="392"/>
+      <c r="H52" s="385"/>
+      <c r="I52" s="386"/>
     </row>
     <row r="53" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
@@ -19697,6 +19973,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
     <mergeCell ref="H45:I46"/>
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
@@ -19704,16 +19990,6 @@
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="G51:G52"/>
     <mergeCell ref="H51:I52"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19723,39 +19999,39 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J166"/>
+  <dimension ref="B1:J171"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="17" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13" style="413" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="17" customWidth="1"/>
     <col min="10" max="10" width="5" style="17" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="111" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -19765,833 +20041,1332 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+    <row r="2" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="310" t="s">
+        <v>610</v>
+      </c>
+      <c r="C3" s="311"/>
+      <c r="D3" s="371" t="s">
+        <v>609</v>
+      </c>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:10" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="301" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="225"/>
+      <c r="D4" s="414"/>
+      <c r="E4" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="407"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="302" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="415"/>
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="408"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="302" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="415"/>
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="408"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="302" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="415"/>
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="408"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="302" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="415"/>
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="408"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="302" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="415"/>
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="408"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="300" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="231"/>
+      <c r="D10" s="416"/>
+      <c r="E10" s="231" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="409"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="186"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+    <row r="12" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="149"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="150" t="s">
+        <v>178</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="151" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="174" t="s">
+        <v>303</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+    <row r="14" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="153" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" s="154"/>
+      <c r="D14" s="418"/>
+      <c r="E14" s="155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="195"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="186"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+    <row r="16" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="149"/>
+      <c r="D16" s="417"/>
+      <c r="E16" s="157" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="196"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="151" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="174" t="s">
+        <v>306</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+    </row>
+    <row r="18" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="154"/>
+      <c r="D18" s="418"/>
+      <c r="E18" s="155" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="195" t="s">
+        <v>178</v>
+      </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="186"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+    <row r="20" spans="2:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="158" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="191"/>
+      <c r="E20" s="159" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="160" t="s">
+        <v>178</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="161" t="s">
+        <v>611</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="186"/>
+      <c r="E21" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" s="162" t="s">
+        <v>435</v>
+      </c>
+      <c r="G21" s="428" t="s">
+        <v>615</v>
+      </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="161" t="s">
+        <v>612</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="87" t="s">
+        <v>613</v>
+      </c>
+      <c r="F22" s="162"/>
+      <c r="G22" s="428"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+    <row r="23" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="163" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="131"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="410" t="s">
+        <v>614</v>
+      </c>
+      <c r="F23" s="164"/>
+      <c r="G23" s="428"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="186"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+    <row r="25" spans="2:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="158" t="s">
+        <v>616</v>
+      </c>
+      <c r="C25" s="127"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F25" s="401" t="s">
+        <v>604</v>
+      </c>
+      <c r="G25" s="425" t="s">
+        <v>554</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+    <row r="26" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="161" t="s">
+        <v>617</v>
+      </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186" t="s">
+        <v>622</v>
+      </c>
+      <c r="F26" s="402"/>
+      <c r="G26" s="426"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+    <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="161" t="s">
+        <v>510</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="402"/>
+      <c r="G27" s="426"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+    <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="161" t="s">
+        <v>605</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F28" s="402"/>
+      <c r="G28" s="426"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+    <row r="29" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="161" t="s">
+        <v>618</v>
+      </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186" t="s">
+        <v>623</v>
+      </c>
+      <c r="F29" s="402"/>
+      <c r="G29" s="426"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+    <row r="30" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="161" t="s">
+        <v>375</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="402"/>
+      <c r="G30" s="426"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+    <row r="31" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="161" t="s">
+        <v>619</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186" t="s">
+        <v>621</v>
+      </c>
+      <c r="F31" s="402"/>
+      <c r="G31" s="426"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+    <row r="32" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="161" t="s">
+        <v>624</v>
+      </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="402"/>
+      <c r="G32" s="426"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+      <c r="B33" s="161" t="s">
+        <v>620</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="402"/>
+      <c r="G33" s="426"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+    <row r="34" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="163" t="s">
+        <v>589</v>
+      </c>
+      <c r="C34" s="131"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="403"/>
+      <c r="G34" s="427"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="186"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+    <row r="36" spans="2:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="158" t="s">
+        <v>625</v>
+      </c>
+      <c r="C36" s="127"/>
+      <c r="D36" s="191"/>
+      <c r="E36" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F36" s="401" t="s">
+        <v>606</v>
+      </c>
+      <c r="G36" s="425" t="s">
+        <v>554</v>
+      </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
+    <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="161" t="s">
+        <v>626</v>
+      </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186" t="s">
+        <v>622</v>
+      </c>
+      <c r="F37" s="402"/>
+      <c r="G37" s="426"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
+    <row r="38" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="161" t="s">
+        <v>515</v>
+      </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="402"/>
+      <c r="G38" s="426"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
+    <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="161" t="s">
+        <v>593</v>
+      </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F39" s="402"/>
+      <c r="G39" s="426"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    <row r="40" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="161" t="s">
+        <v>629</v>
+      </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186" t="s">
+        <v>623</v>
+      </c>
+      <c r="F40" s="402"/>
+      <c r="G40" s="426"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+    <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="161" t="s">
+        <v>520</v>
+      </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="402"/>
+      <c r="G41" s="426"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+    <row r="42" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="161" t="s">
+        <v>627</v>
+      </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186" t="s">
+        <v>621</v>
+      </c>
+      <c r="F42" s="402"/>
+      <c r="G42" s="426"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
+      <c r="B43" s="161" t="s">
+        <v>628</v>
+      </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="402"/>
+      <c r="G43" s="426"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
+      <c r="B44" s="161" t="s">
+        <v>523</v>
+      </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="186"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="402"/>
+      <c r="G44" s="426"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+    <row r="45" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="163" t="s">
+        <v>590</v>
+      </c>
+      <c r="C45" s="131"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="403"/>
+      <c r="G45" s="427"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+    <row r="46" spans="2:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="411"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="127"/>
+      <c r="F46"/>
+      <c r="G46"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
+    <row r="47" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="88"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="186"/>
+      <c r="F47"/>
+      <c r="G47"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+    <row r="48" spans="2:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="158" t="s">
+        <v>630</v>
+      </c>
+      <c r="C48" s="127"/>
+      <c r="D48" s="191"/>
+      <c r="E48" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F48" s="401" t="s">
+        <v>634</v>
+      </c>
+      <c r="G48" s="425" t="s">
+        <v>554</v>
+      </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="161" t="s">
+        <v>631</v>
+      </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="186"/>
+      <c r="E49" s="186" t="s">
+        <v>622</v>
+      </c>
+      <c r="F49" s="402"/>
+      <c r="G49" s="426"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="161" t="s">
+        <v>636</v>
+      </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="186"/>
+      <c r="E50" s="186"/>
+      <c r="F50" s="402"/>
+      <c r="G50" s="426"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="161" t="s">
+        <v>591</v>
+      </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="186"/>
+      <c r="E51" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F51" s="402"/>
+      <c r="G51" s="426"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="161" t="s">
+        <v>635</v>
+      </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="186"/>
+      <c r="E52" s="186" t="s">
+        <v>623</v>
+      </c>
+      <c r="F52" s="402"/>
+      <c r="G52" s="426"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="161" t="s">
+        <v>637</v>
+      </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="402"/>
+      <c r="G53" s="426"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="161" t="s">
+        <v>632</v>
+      </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="186"/>
+      <c r="E54" s="186" t="s">
+        <v>621</v>
+      </c>
+      <c r="F54" s="402"/>
+      <c r="G54" s="426"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="161" t="s">
+        <v>633</v>
+      </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="186"/>
+      <c r="E55" s="186"/>
+      <c r="F55" s="402"/>
+      <c r="G55" s="426"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="161" t="s">
+        <v>638</v>
+      </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="186"/>
+      <c r="E56" s="186"/>
+      <c r="F56" s="402"/>
+      <c r="G56" s="426"/>
+    </row>
+    <row r="57" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="163" t="s">
+        <v>592</v>
+      </c>
+      <c r="C57" s="131"/>
+      <c r="D57" s="190"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="403"/>
+      <c r="G57" s="427"/>
+    </row>
+    <row r="58" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="186"/>
+    </row>
+    <row r="59" spans="2:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="183" t="s">
+        <v>571</v>
+      </c>
+      <c r="C59" s="127"/>
+      <c r="D59" s="191" t="s">
+        <v>567</v>
+      </c>
+      <c r="E59" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="387" t="s">
+        <v>594</v>
+      </c>
+      <c r="G59" s="422" t="s">
+        <v>566</v>
+      </c>
+      <c r="H59" s="381" t="s">
+        <v>338</v>
+      </c>
+      <c r="I59" s="382"/>
+    </row>
+    <row r="60" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="184" t="s">
+        <v>640</v>
+      </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="186"/>
+      <c r="F60" s="388"/>
+      <c r="G60" s="423"/>
+      <c r="H60" s="383"/>
+      <c r="I60" s="384"/>
+    </row>
+    <row r="61" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="184" t="s">
+        <v>573</v>
+      </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="186"/>
+      <c r="F61" s="388"/>
+      <c r="G61" s="423"/>
+      <c r="H61" s="383"/>
+      <c r="I61" s="384"/>
+    </row>
+    <row r="62" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="185" t="s">
+        <v>639</v>
+      </c>
+      <c r="C62" s="131"/>
+      <c r="D62" s="190" t="s">
+        <v>567</v>
+      </c>
+      <c r="E62" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F62" s="389"/>
+      <c r="G62" s="424"/>
+      <c r="H62" s="385"/>
+      <c r="I62" s="386"/>
+    </row>
+    <row r="63" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63" s="419"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="2:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="183" t="s">
+        <v>575</v>
+      </c>
+      <c r="C64" s="127"/>
+      <c r="D64" s="191" t="s">
+        <v>567</v>
+      </c>
+      <c r="E64" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="387" t="s">
+        <v>641</v>
+      </c>
+      <c r="G64" s="422" t="s">
+        <v>566</v>
+      </c>
+      <c r="H64" s="381" t="s">
+        <v>338</v>
+      </c>
+      <c r="I64" s="382"/>
+    </row>
+    <row r="65" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="184" t="s">
+        <v>642</v>
+      </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="186"/>
+      <c r="F65" s="388"/>
+      <c r="G65" s="423"/>
+      <c r="H65" s="383"/>
+      <c r="I65" s="384"/>
+    </row>
+    <row r="66" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="184" t="s">
+        <v>577</v>
+      </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="186"/>
+      <c r="F66" s="388"/>
+      <c r="G66" s="423"/>
+      <c r="H66" s="383"/>
+      <c r="I66" s="384"/>
+    </row>
+    <row r="67" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="185" t="s">
+        <v>643</v>
+      </c>
+      <c r="C67" s="131"/>
+      <c r="D67" s="190" t="s">
+        <v>567</v>
+      </c>
+      <c r="E67" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F67" s="389"/>
+      <c r="G67" s="424"/>
+      <c r="H67" s="385"/>
+      <c r="I67" s="386"/>
+    </row>
+    <row r="68" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="186"/>
+    </row>
+    <row r="69" spans="2:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="183" t="s">
+        <v>580</v>
+      </c>
+      <c r="C69" s="127"/>
+      <c r="D69" s="191" t="s">
+        <v>567</v>
+      </c>
+      <c r="E69" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="387" t="s">
+        <v>644</v>
+      </c>
+      <c r="G69" s="422" t="s">
+        <v>566</v>
+      </c>
+      <c r="H69" s="381" t="s">
+        <v>338</v>
+      </c>
+      <c r="I69" s="382"/>
+    </row>
+    <row r="70" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="184" t="s">
+        <v>645</v>
+      </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="186"/>
+      <c r="F70" s="388"/>
+      <c r="G70" s="423"/>
+      <c r="H70" s="383"/>
+      <c r="I70" s="384"/>
+    </row>
+    <row r="71" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="184" t="s">
+        <v>582</v>
+      </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="186"/>
+      <c r="F71" s="388"/>
+      <c r="G71" s="423"/>
+      <c r="H71" s="383"/>
+      <c r="I71" s="384"/>
+    </row>
+    <row r="72" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="185" t="s">
+        <v>646</v>
+      </c>
+      <c r="C72" s="131"/>
+      <c r="D72" s="190" t="s">
+        <v>567</v>
+      </c>
+      <c r="E72" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F72" s="389"/>
+      <c r="G72" s="424"/>
+      <c r="H72" s="385"/>
+      <c r="I72" s="386"/>
+    </row>
+    <row r="73" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="186"/>
+    </row>
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="183" t="s">
+        <v>580</v>
+      </c>
+      <c r="C74" s="127"/>
+      <c r="D74" s="191" t="s">
+        <v>567</v>
+      </c>
+      <c r="E74" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F74" s="420" t="s">
+        <v>647</v>
+      </c>
+      <c r="G74" s="422" t="s">
+        <v>648</v>
+      </c>
+      <c r="H74" s="381" t="s">
+        <v>338</v>
+      </c>
+      <c r="I74" s="382"/>
+    </row>
+    <row r="75" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="185" t="s">
+        <v>646</v>
+      </c>
+      <c r="C75" s="131"/>
+      <c r="D75" s="190" t="s">
+        <v>567</v>
+      </c>
+      <c r="E75" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F75" s="421"/>
+      <c r="G75" s="424"/>
+      <c r="H75" s="385"/>
+      <c r="I75" s="386"/>
+    </row>
+    <row r="76" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="186"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="186"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="186"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="186"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="186"/>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="186"/>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="186"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="186"/>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="186"/>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="186"/>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="186"/>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="186"/>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="186"/>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="D89" s="186"/>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="186"/>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="186"/>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="186"/>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="186"/>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="186"/>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="186"/>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="186"/>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="D97" s="186"/>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="186"/>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="186"/>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="186"/>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="186"/>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="186"/>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="186"/>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="186"/>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="D105" s="186"/>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="D106" s="186"/>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="D107" s="186"/>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="186"/>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="D109" s="186"/>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="186"/>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="D111" s="186"/>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="186"/>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="186"/>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="186"/>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="D115" s="186"/>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="186"/>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="186"/>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="186"/>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="186"/>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="186"/>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="186"/>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="186"/>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="D123" s="186"/>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="D124" s="186"/>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="186"/>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="D126" s="186"/>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="D127" s="186"/>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="186"/>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+      <c r="D129" s="186"/>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="D130" s="186"/>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="D131" s="186"/>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="186"/>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="D133" s="186"/>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="D134" s="186"/>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="D135" s="186"/>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="186"/>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="186"/>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="186"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="186"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="186"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="D141" s="186"/>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="D142" s="186"/>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+      <c r="D143" s="186"/>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="D144" s="186"/>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="D145" s="186"/>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="186"/>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="186"/>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="D148" s="186"/>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="D149" s="186"/>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="D150" s="186"/>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="D151" s="186"/>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="D152" s="186"/>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="D153" s="186"/>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="D154" s="186"/>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="D155" s="186"/>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="D156" s="186"/>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="D157" s="186"/>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="D158" s="186"/>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="D159" s="186"/>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+      <c r="D160" s="186"/>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
+      <c r="D161" s="186"/>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
+      <c r="D162" s="186"/>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+      <c r="D163" s="186"/>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
+      <c r="D164" s="186"/>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
+      <c r="D165" s="186"/>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+      <c r="D166" s="186"/>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C167" s="2"/>
+      <c r="D167" s="186"/>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C168" s="2"/>
+      <c r="D168" s="186"/>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C169" s="2"/>
+      <c r="D169" s="186"/>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C170" s="2"/>
+      <c r="D170" s="186"/>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C171" s="2"/>
+      <c r="D171" s="186"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="21">
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:I75"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:I67"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="H69:I72"/>
+    <mergeCell ref="F36:F45"/>
+    <mergeCell ref="G36:G45"/>
+    <mergeCell ref="F48:F57"/>
+    <mergeCell ref="G48:G57"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:I62"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="G25:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -20642,15 +21417,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21518,15 +22293,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>550</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21653,7 +22428,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="308" t="s">
+      <c r="G12" s="314" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2"/>
@@ -21668,7 +22443,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="309"/>
+      <c r="G13" s="315"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -21683,7 +22458,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="310"/>
+      <c r="G14" s="316"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -21696,7 +22471,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="311" t="s">
+      <c r="G15" s="317" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="2"/>
@@ -21711,7 +22486,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="312"/>
+      <c r="G16" s="318"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -21724,7 +22499,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="312"/>
+      <c r="G17" s="318"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -21737,7 +22512,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="312"/>
+      <c r="G18" s="318"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -21750,7 +22525,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="313"/>
+      <c r="G19" s="319"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -21769,7 +22544,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="311" t="s">
+      <c r="G20" s="317" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="2"/>
@@ -21787,7 +22562,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="312"/>
+      <c r="G21" s="318"/>
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
@@ -21800,7 +22575,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="312"/>
+      <c r="G22" s="318"/>
     </row>
     <row r="23" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
@@ -21813,7 +22588,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="312"/>
+      <c r="G23" s="318"/>
     </row>
     <row r="24" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
@@ -21827,7 +22602,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="313"/>
+      <c r="G24" s="319"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
@@ -21841,7 +22616,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="311" t="s">
+      <c r="G25" s="317" t="s">
         <v>59</v>
       </c>
     </row>
@@ -21857,7 +22632,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="312"/>
+      <c r="G26" s="318"/>
     </row>
     <row r="27" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -21871,7 +22646,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="312"/>
+      <c r="G27" s="318"/>
     </row>
     <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
@@ -21885,7 +22660,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="312"/>
+      <c r="G28" s="318"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
@@ -21899,7 +22674,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="313"/>
+      <c r="G29" s="319"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -21911,10 +22686,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="298" t="s">
+      <c r="G30" s="323" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="295" t="s">
+      <c r="H30" s="320" t="s">
         <v>28</v>
       </c>
     </row>
@@ -21928,8 +22703,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="299"/>
-      <c r="H31" s="296"/>
+      <c r="G31" s="324"/>
+      <c r="H31" s="321"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
@@ -21941,10 +22716,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="298" t="s">
+      <c r="G32" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="296"/>
+      <c r="H32" s="321"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
@@ -21956,8 +22731,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="300"/>
-      <c r="H33" s="296"/>
+      <c r="G33" s="325"/>
+      <c r="H33" s="321"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
@@ -21969,10 +22744,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="299" t="s">
+      <c r="G34" s="324" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="296"/>
+      <c r="H34" s="321"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
@@ -21984,8 +22759,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="297"/>
+      <c r="G35" s="324"/>
+      <c r="H35" s="322"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
@@ -21997,10 +22772,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="298" t="s">
+      <c r="G36" s="323" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="296" t="s">
+      <c r="H36" s="321" t="s">
         <v>29</v>
       </c>
     </row>
@@ -22014,8 +22789,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="300"/>
-      <c r="H37" s="296"/>
+      <c r="G37" s="325"/>
+      <c r="H37" s="321"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
@@ -22027,10 +22802,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="298" t="s">
+      <c r="G38" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="296"/>
+      <c r="H38" s="321"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
@@ -22042,8 +22817,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="300"/>
-      <c r="H39" s="296"/>
+      <c r="G39" s="325"/>
+      <c r="H39" s="321"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
@@ -22055,10 +22830,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="299" t="s">
+      <c r="G40" s="324" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="296"/>
+      <c r="H40" s="321"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
@@ -22070,8 +22845,8 @@
         <v>27</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="300"/>
-      <c r="H41" s="297"/>
+      <c r="G41" s="325"/>
+      <c r="H41" s="322"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
@@ -22145,7 +22920,7 @@
       <c r="E49" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="301" t="s">
+      <c r="F49" s="307" t="s">
         <v>201</v>
       </c>
     </row>
@@ -22158,7 +22933,7 @@
       <c r="E50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="302"/>
+      <c r="F50" s="308"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
@@ -22169,7 +22944,7 @@
       <c r="E51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="302"/>
+      <c r="F51" s="308"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
@@ -22180,20 +22955,20 @@
       <c r="E52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="302"/>
+      <c r="F52" s="308"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="133"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="F53" s="302"/>
+      <c r="F53" s="308"/>
     </row>
     <row r="54" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="134"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="303"/>
+      <c r="F54" s="309"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -22673,13 +23448,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
     <mergeCell ref="H30:H35"/>
     <mergeCell ref="H36:H41"/>
     <mergeCell ref="G30:G31"/>
@@ -22688,6 +23456,13 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22741,15 +23516,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23616,15 +24391,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -24539,15 +25314,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -25414,15 +26189,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -26289,15 +27064,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27164,15 +27939,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28039,15 +28814,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28914,15 +29689,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29789,15 +30564,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30627,15 +31402,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31505,14 +32280,14 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="314" t="s">
+      <c r="B3" s="326" t="s">
         <v>549</v>
       </c>
-      <c r="C3" s="315"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="317"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="329"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31704,7 +32479,7 @@
       <c r="F16" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="318" t="s">
+      <c r="G16" s="330" t="s">
         <v>161</v>
       </c>
       <c r="H16" s="2"/>
@@ -31724,7 +32499,7 @@
       <c r="F17" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="319"/>
+      <c r="G17" s="331"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -31742,7 +32517,7 @@
       <c r="F18" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="319"/>
+      <c r="G18" s="331"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -31760,7 +32535,7 @@
       <c r="F19" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="319"/>
+      <c r="G19" s="331"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -31778,7 +32553,7 @@
       <c r="F20" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="319"/>
+      <c r="G20" s="331"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -31796,7 +32571,7 @@
       <c r="F21" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="319"/>
+      <c r="G21" s="331"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31817,7 +32592,7 @@
       <c r="F23" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="320" t="s">
+      <c r="G23" s="332" t="s">
         <v>162</v>
       </c>
       <c r="H23" s="2"/>
@@ -31835,7 +32610,7 @@
       <c r="F24" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="320"/>
+      <c r="G24" s="332"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31851,7 +32626,7 @@
       <c r="F25" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="320"/>
+      <c r="G25" s="332"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31867,7 +32642,7 @@
       <c r="F26" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="320"/>
+      <c r="G26" s="332"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31883,7 +32658,7 @@
       <c r="F27" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="320"/>
+      <c r="G27" s="332"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31900,7 +32675,7 @@
       <c r="F28" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="321"/>
+      <c r="G28" s="333"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -31933,7 +32708,7 @@
         <v>158</v>
       </c>
       <c r="E32"/>
-      <c r="F32" s="325" t="s">
+      <c r="F32" s="337" t="s">
         <v>134</v>
       </c>
       <c r="G32"/>
@@ -31947,7 +32722,7 @@
         <v>158</v>
       </c>
       <c r="E33"/>
-      <c r="F33" s="325"/>
+      <c r="F33" s="337"/>
       <c r="G33"/>
       <c r="H33" s="2"/>
     </row>
@@ -31959,7 +32734,7 @@
         <v>158</v>
       </c>
       <c r="E34"/>
-      <c r="F34" s="325"/>
+      <c r="F34" s="337"/>
       <c r="G34"/>
       <c r="H34" s="2"/>
     </row>
@@ -31977,7 +32752,7 @@
         <v>144</v>
       </c>
       <c r="E36"/>
-      <c r="F36" s="325" t="s">
+      <c r="F36" s="337" t="s">
         <v>135</v>
       </c>
       <c r="G36"/>
@@ -31991,7 +32766,7 @@
         <v>144</v>
       </c>
       <c r="E37"/>
-      <c r="F37" s="325"/>
+      <c r="F37" s="337"/>
       <c r="G37"/>
       <c r="H37" s="2"/>
     </row>
@@ -32003,7 +32778,7 @@
         <v>144</v>
       </c>
       <c r="E38"/>
-      <c r="F38" s="325"/>
+      <c r="F38" s="337"/>
       <c r="G38"/>
       <c r="H38" s="2"/>
     </row>
@@ -32021,7 +32796,7 @@
         <v>144</v>
       </c>
       <c r="E40"/>
-      <c r="F40" s="325" t="s">
+      <c r="F40" s="337" t="s">
         <v>136</v>
       </c>
       <c r="G40"/>
@@ -32035,7 +32810,7 @@
         <v>144</v>
       </c>
       <c r="E41"/>
-      <c r="F41" s="325"/>
+      <c r="F41" s="337"/>
       <c r="G41"/>
       <c r="H41" s="2"/>
     </row>
@@ -32047,7 +32822,7 @@
         <v>144</v>
       </c>
       <c r="E42"/>
-      <c r="F42" s="325"/>
+      <c r="F42" s="337"/>
       <c r="G42"/>
       <c r="H42" s="2"/>
     </row>
@@ -32176,10 +32951,10 @@
       <c r="C57" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="324" t="s">
+      <c r="F57" s="336" t="s">
         <v>200</v>
       </c>
-      <c r="G57" s="322" t="s">
+      <c r="G57" s="334" t="s">
         <v>193</v>
       </c>
     </row>
@@ -32190,8 +32965,8 @@
       <c r="C58" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="324"/>
-      <c r="G58" s="323"/>
+      <c r="F58" s="336"/>
+      <c r="G58" s="335"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="214" t="s">
@@ -32201,8 +32976,8 @@
         <v>144</v>
       </c>
       <c r="D59"/>
-      <c r="F59" s="324"/>
-      <c r="G59" s="323"/>
+      <c r="F59" s="336"/>
+      <c r="G59" s="335"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="214" t="s">
@@ -32211,8 +32986,8 @@
       <c r="C60" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="324"/>
-      <c r="G60" s="323"/>
+      <c r="F60" s="336"/>
+      <c r="G60" s="335"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="214" t="s">
@@ -32316,15 +33091,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33191,15 +33966,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34066,15 +34841,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34941,15 +35716,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35816,15 +36591,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -36691,15 +37466,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37566,15 +38341,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38441,15 +39216,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -39316,15 +40091,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -40191,15 +40966,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -41062,15 +41837,15 @@
       <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="327" t="s">
+      <c r="A3" s="339" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="328"/>
-      <c r="C3" s="329" t="s">
+      <c r="B3" s="340"/>
+      <c r="C3" s="341" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="329"/>
-      <c r="E3" s="330"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="342"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="267" t="s">
@@ -41084,13 +41859,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="256"/>
-      <c r="F4" s="331" t="s">
+      <c r="F4" s="343" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="331"/>
-      <c r="H4" s="331"/>
-      <c r="I4" s="331"/>
-      <c r="J4" s="331"/>
+      <c r="G4" s="343"/>
+      <c r="H4" s="343"/>
+      <c r="I4" s="343"/>
+      <c r="J4" s="343"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="267" t="s">
@@ -41104,11 +41879,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="256"/>
-      <c r="F5" s="326"/>
-      <c r="G5" s="326"/>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
+      <c r="F5" s="338"/>
+      <c r="G5" s="338"/>
+      <c r="H5" s="338"/>
+      <c r="I5" s="338"/>
+      <c r="J5" s="338"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="267" t="s">
@@ -41122,11 +41897,11 @@
         <v>12</v>
       </c>
       <c r="E6" s="256"/>
-      <c r="F6" s="326"/>
-      <c r="G6" s="326"/>
-      <c r="H6" s="326"/>
-      <c r="I6" s="326"/>
-      <c r="J6" s="326"/>
+      <c r="F6" s="338"/>
+      <c r="G6" s="338"/>
+      <c r="H6" s="338"/>
+      <c r="I6" s="338"/>
+      <c r="J6" s="338"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="267" t="s">
@@ -41140,11 +41915,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="256"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="326"/>
-      <c r="H7" s="326"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="326"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="267" t="s">
@@ -41227,10 +42002,10 @@
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="59"/>
-      <c r="F15" s="326"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="326"/>
-      <c r="I15" s="326"/>
+      <c r="F15" s="338"/>
+      <c r="G15" s="338"/>
+      <c r="H15" s="338"/>
+      <c r="I15" s="338"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
@@ -41242,10 +42017,10 @@
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="326"/>
-      <c r="G16" s="326"/>
-      <c r="H16" s="326"/>
-      <c r="I16" s="326"/>
+      <c r="F16" s="338"/>
+      <c r="G16" s="338"/>
+      <c r="H16" s="338"/>
+      <c r="I16" s="338"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
@@ -41257,12 +42032,12 @@
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="59"/>
-      <c r="F17" s="331" t="s">
+      <c r="F17" s="343" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="326"/>
-      <c r="H17" s="326"/>
-      <c r="I17" s="326"/>
+      <c r="G17" s="338"/>
+      <c r="H17" s="338"/>
+      <c r="I17" s="338"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
@@ -41274,10 +42049,10 @@
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="59"/>
-      <c r="F18" s="326"/>
-      <c r="G18" s="326"/>
-      <c r="H18" s="326"/>
-      <c r="I18" s="326"/>
+      <c r="F18" s="338"/>
+      <c r="G18" s="338"/>
+      <c r="H18" s="338"/>
+      <c r="I18" s="338"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
@@ -41289,10 +42064,10 @@
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="59"/>
-      <c r="F19" s="326"/>
-      <c r="G19" s="326"/>
-      <c r="H19" s="326"/>
-      <c r="I19" s="326"/>
+      <c r="F19" s="338"/>
+      <c r="G19" s="338"/>
+      <c r="H19" s="338"/>
+      <c r="I19" s="338"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
@@ -41304,10 +42079,10 @@
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="326"/>
-      <c r="G20" s="326"/>
-      <c r="H20" s="326"/>
-      <c r="I20" s="326"/>
+      <c r="F20" s="338"/>
+      <c r="G20" s="338"/>
+      <c r="H20" s="338"/>
+      <c r="I20" s="338"/>
     </row>
     <row r="21" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
@@ -41991,15 +42766,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
+      <c r="B3" s="344" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="333"/>
-      <c r="D3" s="306" t="s">
+      <c r="C3" s="345"/>
+      <c r="D3" s="312" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="307"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="313"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -42424,10 +43199,10 @@
       <c r="E34" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F34" s="334" t="s">
+      <c r="F34" s="346" t="s">
         <v>295</v>
       </c>
-      <c r="G34" s="336" t="s">
+      <c r="G34" s="348" t="s">
         <v>284</v>
       </c>
       <c r="H34" s="2"/>
@@ -42441,8 +43216,8 @@
       <c r="E35" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F35" s="335"/>
-      <c r="G35" s="336"/>
+      <c r="F35" s="347"/>
+      <c r="G35" s="348"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42479,7 +43254,7 @@
       <c r="E39" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="337" t="s">
+      <c r="F39" s="349" t="s">
         <v>504</v>
       </c>
       <c r="H39" s="2"/>
@@ -42493,7 +43268,7 @@
       <c r="E40" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="338"/>
+      <c r="F40" s="350"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -42505,7 +43280,7 @@
       <c r="E41" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="338"/>
+      <c r="F41" s="350"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42517,7 +43292,7 @@
       <c r="E42" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="338"/>
+      <c r="F42" s="350"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -42529,7 +43304,7 @@
       <c r="E43" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F43" s="338"/>
+      <c r="F43" s="350"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -42541,7 +43316,7 @@
       <c r="E44" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F44" s="338"/>
+      <c r="F44" s="350"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -42553,7 +43328,7 @@
       <c r="E45" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F45" s="339"/>
+      <c r="F45" s="351"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -43124,15 +43899,15 @@
     </row>
     <row r="2" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="311" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="305"/>
-      <c r="F3" s="342"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="354"/>
     </row>
     <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="223" t="s">
@@ -43234,7 +44009,7 @@
       <c r="E13" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="343" t="s">
+      <c r="F13" s="355" t="s">
         <v>303</v>
       </c>
     </row>
@@ -43245,7 +44020,7 @@
       <c r="E14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="344"/>
+      <c r="F14" s="356"/>
     </row>
     <row r="15" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="153" t="s">
@@ -43384,7 +44159,7 @@
         <v>335</v>
       </c>
       <c r="F29" s="240"/>
-      <c r="G29" s="340" t="s">
+      <c r="G29" s="352" t="s">
         <v>329</v>
       </c>
     </row>
@@ -43399,14 +44174,14 @@
         <v>336</v>
       </c>
       <c r="F30" s="241"/>
-      <c r="G30" s="341"/>
+      <c r="G30" s="353"/>
     </row>
     <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="151" t="s">
         <v>330</v>
       </c>
       <c r="F31" s="241"/>
-      <c r="G31" s="341"/>
+      <c r="G31" s="353"/>
     </row>
     <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="151" t="s">
@@ -43421,7 +44196,7 @@
       <c r="F32" s="242" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="341"/>
+      <c r="G32" s="353"/>
     </row>
     <row r="33" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="151" t="s">
@@ -43434,21 +44209,21 @@
         <v>336</v>
       </c>
       <c r="F33" s="241"/>
-      <c r="G33" s="341"/>
+      <c r="G33" s="353"/>
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="151" t="s">
         <v>331</v>
       </c>
       <c r="F34" s="236"/>
-      <c r="G34" s="341"/>
+      <c r="G34" s="353"/>
     </row>
     <row r="35" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="151" t="s">
         <v>332</v>
       </c>
       <c r="F35" s="236"/>
-      <c r="G35" s="341"/>
+      <c r="G35" s="353"/>
     </row>
     <row r="36" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="151" t="s">
@@ -43482,7 +44257,7 @@
       <c r="D40" s="149"/>
       <c r="E40" s="233"/>
       <c r="F40" s="235"/>
-      <c r="G40" s="340" t="s">
+      <c r="G40" s="352" t="s">
         <v>348</v>
       </c>
     </row>
@@ -43494,7 +44269,7 @@
         <v>144</v>
       </c>
       <c r="F41" s="236"/>
-      <c r="G41" s="341"/>
+      <c r="G41" s="353"/>
     </row>
     <row r="42" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="151" t="s">
@@ -43504,7 +44279,7 @@
         <v>144</v>
       </c>
       <c r="F42" s="236"/>
-      <c r="G42" s="341"/>
+      <c r="G42" s="353"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="151" t="s">
@@ -43514,7 +44289,7 @@
         <v>144</v>
       </c>
       <c r="F43" s="236"/>
-      <c r="G43" s="341"/>
+      <c r="G43" s="353"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="151" t="s">
@@ -43526,7 +44301,7 @@
       <c r="F44" s="237" t="s">
         <v>338</v>
       </c>
-      <c r="G44" s="341"/>
+      <c r="G44" s="353"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="151" t="s">
@@ -43536,7 +44311,7 @@
         <v>144</v>
       </c>
       <c r="F45" s="236"/>
-      <c r="G45" s="341"/>
+      <c r="G45" s="353"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="151" t="s">
@@ -43546,7 +44321,7 @@
         <v>144</v>
       </c>
       <c r="F46" s="236"/>
-      <c r="G46" s="341"/>
+      <c r="G46" s="353"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="151" t="s">
@@ -43556,7 +44331,7 @@
         <v>144</v>
       </c>
       <c r="F47" s="236"/>
-      <c r="G47" s="341"/>
+      <c r="G47" s="353"/>
     </row>
     <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="153" t="s">
@@ -43568,7 +44343,7 @@
       <c r="D48" s="154"/>
       <c r="E48" s="239"/>
       <c r="F48" s="238"/>
-      <c r="G48" s="341"/>
+      <c r="G48" s="353"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
@@ -43675,7 +44450,7 @@
       <c r="E65" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="337" t="s">
+      <c r="F65" s="349" t="s">
         <v>504</v>
       </c>
     </row>
@@ -43688,7 +44463,7 @@
       <c r="E66" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="338"/>
+      <c r="F66" s="350"/>
     </row>
     <row r="67" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B67" s="184" t="s">
@@ -43699,7 +44474,7 @@
       <c r="E67" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="338"/>
+      <c r="F67" s="350"/>
     </row>
     <row r="68" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B68" s="184" t="s">
@@ -43710,7 +44485,7 @@
       <c r="E68" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="338"/>
+      <c r="F68" s="350"/>
     </row>
     <row r="69" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B69" s="184" t="s">
@@ -43721,7 +44496,7 @@
       <c r="E69" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F69" s="338"/>
+      <c r="F69" s="350"/>
     </row>
     <row r="70" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B70" s="161" t="s">
@@ -43732,7 +44507,7 @@
       <c r="E70" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F70" s="338"/>
+      <c r="F70" s="350"/>
     </row>
     <row r="71" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="163" t="s">
@@ -43743,7 +44518,7 @@
       <c r="E71" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F71" s="339"/>
+      <c r="F71" s="351"/>
     </row>
     <row r="72" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -43807,15 +44582,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="347" t="s">
+      <c r="B3" s="359" t="s">
         <v>397</v>
       </c>
-      <c r="C3" s="348"/>
-      <c r="D3" s="349" t="s">
+      <c r="C3" s="360"/>
+      <c r="D3" s="361" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="349"/>
-      <c r="F3" s="350"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="362"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -43942,7 +44717,7 @@
       <c r="E13" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="351" t="s">
+      <c r="F13" s="363" t="s">
         <v>303</v>
       </c>
       <c r="H13" s="2"/>
@@ -43956,7 +44731,7 @@
       <c r="E14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="351"/>
+      <c r="F14" s="363"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -44068,7 +44843,7 @@
       <c r="E24" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="F24" s="346" t="s">
+      <c r="F24" s="358" t="s">
         <v>318</v>
       </c>
       <c r="H24" s="2"/>
@@ -44082,7 +44857,7 @@
       <c r="E25" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="346"/>
+      <c r="F25" s="358"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44102,10 +44877,10 @@
       <c r="E27" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="F27" s="346" t="s">
+      <c r="F27" s="358" t="s">
         <v>327</v>
       </c>
-      <c r="G27" s="345" t="s">
+      <c r="G27" s="357" t="s">
         <v>373</v>
       </c>
       <c r="H27" s="2"/>
@@ -44121,8 +44896,8 @@
       <c r="E28" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="345"/>
+      <c r="F28" s="358"/>
+      <c r="G28" s="357"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44131,8 +44906,8 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="F29" s="346"/>
-      <c r="G29" s="345"/>
+      <c r="F29" s="358"/>
+      <c r="G29" s="357"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44141,8 +44916,8 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="346"/>
-      <c r="G30" s="345"/>
+      <c r="F30" s="358"/>
+      <c r="G30" s="357"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44156,8 +44931,8 @@
       <c r="E31" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="346"/>
-      <c r="G31" s="345"/>
+      <c r="F31" s="358"/>
+      <c r="G31" s="357"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44171,7 +44946,7 @@
       <c r="E32" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="G32" s="345"/>
+      <c r="G32" s="357"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44180,7 +44955,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="G33" s="345"/>
+      <c r="G33" s="357"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44211,7 +44986,7 @@
       <c r="E36" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F36" s="346" t="s">
+      <c r="F36" s="358" t="s">
         <v>338</v>
       </c>
       <c r="H36" s="2"/>
@@ -44225,7 +45000,7 @@
       <c r="E37" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F37" s="346"/>
+      <c r="F37" s="358"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44239,7 +45014,7 @@
       <c r="E38" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F38" s="346"/>
+      <c r="F38" s="358"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44251,7 +45026,7 @@
       <c r="E39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F39" s="346"/>
+      <c r="F39" s="358"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44263,7 +45038,7 @@
       <c r="E40" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F40" s="346"/>
+      <c r="F40" s="358"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44277,7 +45052,7 @@
       <c r="E41" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F41" s="346"/>
+      <c r="F41" s="358"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -44289,7 +45064,7 @@
       <c r="E42" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F42" s="346"/>
+      <c r="F42" s="358"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -44301,7 +45076,7 @@
       <c r="E43" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F43" s="346"/>
+      <c r="F43" s="358"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -44327,7 +45102,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="G46" s="345" t="s">
+      <c r="G46" s="357" t="s">
         <v>373</v>
       </c>
       <c r="H46" s="2"/>
@@ -44338,7 +45113,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="G47" s="345"/>
+      <c r="G47" s="357"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -44350,7 +45125,7 @@
       <c r="E48" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G48" s="345"/>
+      <c r="G48" s="357"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -44359,7 +45134,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="G49" s="345"/>
+      <c r="G49" s="357"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -44368,7 +45143,7 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="G50" s="345"/>
+      <c r="G50" s="357"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -44377,7 +45152,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="G51" s="345"/>
+      <c r="G51" s="357"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="101" t="s">
@@ -44385,7 +45160,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="G52" s="345"/>
+      <c r="G52" s="357"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="101" t="s">
@@ -44920,10 +45695,10 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="310" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="305"/>
+      <c r="C3" s="311"/>
       <c r="D3" s="117"/>
       <c r="E3" s="118" t="s">
         <v>92</v>
@@ -45194,7 +45969,7 @@
       <c r="E25" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F25" s="352" t="s">
+      <c r="F25" s="364" t="s">
         <v>407</v>
       </c>
       <c r="H25" s="2"/>
@@ -45210,7 +45985,7 @@
       <c r="E26" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F26" s="352"/>
+      <c r="F26" s="364"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -45224,7 +45999,7 @@
       <c r="E27" s="88" t="s">
         <v>405</v>
       </c>
-      <c r="F27" s="352"/>
+      <c r="F27" s="364"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45238,7 +46013,7 @@
       <c r="E28" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F28" s="352"/>
+      <c r="F28" s="364"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -45252,7 +46027,7 @@
       <c r="E29" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F29" s="352"/>
+      <c r="F29" s="364"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45261,7 +46036,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="352"/>
+      <c r="F30" s="364"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -45270,7 +46045,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="F31" s="352"/>
+      <c r="F31" s="364"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45288,7 +46063,7 @@
       <c r="E33" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F33" s="352" t="s">
+      <c r="F33" s="364" t="s">
         <v>338</v>
       </c>
       <c r="H33" s="2"/>
@@ -45299,7 +46074,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="F34" s="352"/>
+      <c r="F34" s="364"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -45311,7 +46086,7 @@
       <c r="E35" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F35" s="352"/>
+      <c r="F35" s="364"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45320,7 +46095,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="352"/>
+      <c r="F36" s="364"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -45338,7 +46113,7 @@
       <c r="E38" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F38" s="352" t="s">
+      <c r="F38" s="364" t="s">
         <v>412</v>
       </c>
       <c r="H38" s="2"/>
@@ -45349,7 +46124,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="352"/>
+      <c r="F39" s="364"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -45361,7 +46136,7 @@
       <c r="E40" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F40" s="352"/>
+      <c r="F40" s="364"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -45370,7 +46145,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="F41" s="352"/>
+      <c r="F41" s="364"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -45392,7 +46167,7 @@
       <c r="F44" s="109" t="s">
         <v>419</v>
       </c>
-      <c r="G44" s="345" t="s">
+      <c r="G44" s="357" t="s">
         <v>420</v>
       </c>
       <c r="H44" s="2"/>
@@ -45401,7 +46176,7 @@
       <c r="B45" s="88"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="G45" s="353"/>
+      <c r="G45" s="365"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="655">
   <si>
     <t>استان</t>
   </si>
@@ -2505,12 +2505,68 @@
   <si>
     <t>INSTANT ANEOUS UNIT TEST</t>
   </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>tr3_120</t>
+  </si>
+  <si>
+    <t>tm3_120</t>
+  </si>
+  <si>
+    <t>loced_relay</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">مقدار بر حسب </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> و </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>است</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2864,6 +2920,12 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
@@ -3268,7 +3330,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="429">
+  <cellXfs count="431">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4168,6 +4230,63 @@
     <xf numFmtId="49" fontId="11" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4205,24 +4324,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4360,18 +4461,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4389,6 +4478,60 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4408,48 +4551,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4468,45 +4569,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4516,10 +4578,10 @@
     <xf numFmtId="0" fontId="46" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4533,6 +4595,12 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10315,15 +10383,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="366" t="s">
+      <c r="B3" s="379" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="367"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="380"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -10777,10 +10845,10 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="369" t="s">
+      <c r="F44" s="382" t="s">
         <v>349</v>
       </c>
-      <c r="G44" s="368" t="s">
+      <c r="G44" s="381" t="s">
         <v>433</v>
       </c>
       <c r="H44" s="2"/>
@@ -10791,8 +10859,8 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="369"/>
-      <c r="G45" s="368"/>
+      <c r="F45" s="382"/>
+      <c r="G45" s="381"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -11385,15 +11453,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11617,7 +11685,7 @@
       <c r="E20" s="159" t="s">
         <v>437</v>
       </c>
-      <c r="F20" s="370" t="s">
+      <c r="F20" s="383" t="s">
         <v>327</v>
       </c>
       <c r="H20" s="2"/>
@@ -11631,7 +11699,7 @@
       <c r="E21" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F21" s="347"/>
+      <c r="F21" s="360"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11640,7 +11708,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="347"/>
+      <c r="F22" s="360"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11649,7 +11717,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="F23" s="347"/>
+      <c r="F23" s="360"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11661,7 +11729,7 @@
       <c r="E24" s="87" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="347"/>
+      <c r="F24" s="360"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11673,7 +11741,7 @@
       <c r="E25" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F25" s="347"/>
+      <c r="F25" s="360"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11682,7 +11750,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="347"/>
+      <c r="F26" s="360"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12400,15 +12468,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>547</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>449</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12506,7 +12574,7 @@
         <v>451</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="314" t="s">
+      <c r="G11" s="333" t="s">
         <v>450</v>
       </c>
     </row>
@@ -12520,7 +12588,7 @@
         <v>453</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="315"/>
+      <c r="G12" s="334"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -12532,7 +12600,7 @@
         <v>454</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="315"/>
+      <c r="G13" s="334"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -12544,7 +12612,7 @@
         <v>457</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="315"/>
+      <c r="G14" s="334"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -12556,7 +12624,7 @@
         <v>458</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="315"/>
+      <c r="G15" s="334"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -12574,7 +12642,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="314" t="s">
+      <c r="G17" s="333" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2"/>
@@ -12589,7 +12657,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="315"/>
+      <c r="G18" s="334"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -12604,7 +12672,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="316"/>
+      <c r="G19" s="335"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -12617,7 +12685,7 @@
         <v>464</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="317" t="s">
+      <c r="G20" s="336" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="2"/>
@@ -12632,7 +12700,7 @@
         <v>467</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="318"/>
+      <c r="G21" s="337"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -12645,7 +12713,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="318"/>
+      <c r="G22" s="337"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -12658,7 +12726,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="318"/>
+      <c r="G23" s="337"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -12671,7 +12739,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="319"/>
+      <c r="G24" s="338"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -12686,7 +12754,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="317" t="s">
+      <c r="G25" s="336" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="2"/>
@@ -12701,7 +12769,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="318"/>
+      <c r="G26" s="337"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -12711,7 +12779,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="318"/>
+      <c r="G27" s="337"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
@@ -12721,7 +12789,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="318"/>
+      <c r="G28" s="337"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
@@ -12733,7 +12801,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="319"/>
+      <c r="G29" s="338"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
@@ -12745,7 +12813,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="317" t="s">
+      <c r="G30" s="336" t="s">
         <v>59</v>
       </c>
     </row>
@@ -12759,7 +12827,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="318"/>
+      <c r="G31" s="337"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
@@ -12771,7 +12839,7 @@
         <v>23</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="318"/>
+      <c r="G32" s="337"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
@@ -12783,7 +12851,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="318"/>
+      <c r="G33" s="337"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
@@ -12795,7 +12863,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="319"/>
+      <c r="G34" s="338"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
@@ -13535,13 +13603,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="G11:G15"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H40"/>
     <mergeCell ref="G37:G38"/>
@@ -13550,6 +13611,13 @@
     <mergeCell ref="H41:H46"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="G11:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13603,15 +13671,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>546</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>468</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -13726,7 +13794,7 @@
         <v>451</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="314" t="s">
+      <c r="G12" s="333" t="s">
         <v>450</v>
       </c>
       <c r="H12" s="2"/>
@@ -13741,7 +13809,7 @@
         <v>453</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="315"/>
+      <c r="G13" s="334"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -13754,7 +13822,7 @@
         <v>454</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="315"/>
+      <c r="G14" s="334"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -13767,7 +13835,7 @@
         <v>457</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="315"/>
+      <c r="G15" s="334"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -13782,7 +13850,7 @@
         <v>458</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="316"/>
+      <c r="G16" s="335"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -13813,7 +13881,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="317" t="s">
+      <c r="G19" s="336" t="s">
         <v>474</v>
       </c>
       <c r="H19" s="2"/>
@@ -13826,7 +13894,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="318"/>
+      <c r="G20" s="337"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13837,7 +13905,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="318"/>
+      <c r="G21" s="337"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13848,7 +13916,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="318"/>
+      <c r="G22" s="337"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13861,7 +13929,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="319"/>
+      <c r="G23" s="338"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13880,7 +13948,7 @@
         <v>480</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="317" t="s">
+      <c r="G25" s="336" t="s">
         <v>475</v>
       </c>
       <c r="H25" s="121" t="s">
@@ -13895,7 +13963,7 @@
         <v>479</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="318"/>
+      <c r="G26" s="337"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13908,7 +13976,7 @@
         <v>178</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="319"/>
+      <c r="G27" s="338"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13940,7 +14008,7 @@
       <c r="F30" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="G30" s="317" t="s">
+      <c r="G30" s="336" t="s">
         <v>481</v>
       </c>
       <c r="H30" s="2"/>
@@ -13961,7 +14029,7 @@
       <c r="F31" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G31" s="318"/>
+      <c r="G31" s="337"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13975,7 +14043,7 @@
         <v>484</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="318"/>
+      <c r="G32" s="337"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13990,7 +14058,7 @@
         <v>483</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="319"/>
+      <c r="G33" s="338"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14013,7 +14081,7 @@
       <c r="F35" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="G35" s="317" t="s">
+      <c r="G35" s="336" t="s">
         <v>485</v>
       </c>
       <c r="H35" s="2"/>
@@ -14031,7 +14099,7 @@
       <c r="F36" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G36" s="318"/>
+      <c r="G36" s="337"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14047,7 +14115,7 @@
       <c r="F37" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G37" s="318"/>
+      <c r="G37" s="337"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14062,7 +14130,7 @@
         <v>483</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="319"/>
+      <c r="G38" s="338"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14085,7 +14153,7 @@
       <c r="F40" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="G40" s="317" t="s">
+      <c r="G40" s="336" t="s">
         <v>489</v>
       </c>
       <c r="H40" s="2"/>
@@ -14104,7 +14172,7 @@
       <c r="F41" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G41" s="318"/>
+      <c r="G41" s="337"/>
       <c r="H41"/>
     </row>
     <row r="42" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14120,7 +14188,7 @@
       <c r="F42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G42" s="318"/>
+      <c r="G42" s="337"/>
       <c r="H42" s="125" t="s">
         <v>493</v>
       </c>
@@ -14137,7 +14205,7 @@
         <v>483</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="319"/>
+      <c r="G43" s="338"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14270,7 +14338,7 @@
       <c r="E57" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="307" t="s">
+      <c r="F57" s="326" t="s">
         <v>504</v>
       </c>
     </row>
@@ -14283,7 +14351,7 @@
       <c r="E58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="308"/>
+      <c r="F58" s="327"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
@@ -14294,7 +14362,7 @@
       <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="308"/>
+      <c r="F59" s="327"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
@@ -14305,7 +14373,7 @@
       <c r="E60" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="308"/>
+      <c r="F60" s="327"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="136" t="s">
@@ -14316,7 +14384,7 @@
       <c r="E61" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F61" s="308"/>
+      <c r="F61" s="327"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -14327,7 +14395,7 @@
       <c r="E62" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F62" s="308"/>
+      <c r="F62" s="327"/>
     </row>
     <row r="63" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="137" t="s">
@@ -14338,7 +14406,7 @@
       <c r="E63" s="135" t="s">
         <v>503</v>
       </c>
-      <c r="F63" s="309"/>
+      <c r="F63" s="328"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
@@ -14812,15 +14880,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="371" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="390" t="s">
         <v>505</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15083,7 +15151,7 @@
       <c r="E24" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="372" t="s">
+      <c r="F24" s="391" t="s">
         <v>552</v>
       </c>
       <c r="G24" s="176" t="s">
@@ -15100,7 +15168,7 @@
       <c r="E25" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F25" s="373"/>
+      <c r="F25" s="392"/>
       <c r="G25" s="177" t="s">
         <v>178</v>
       </c>
@@ -15112,7 +15180,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="373"/>
+      <c r="F26" s="392"/>
       <c r="G26" s="177"/>
       <c r="H26" s="2"/>
     </row>
@@ -15122,7 +15190,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="F27" s="373"/>
+      <c r="F27" s="392"/>
       <c r="G27" s="177"/>
       <c r="H27" s="2"/>
     </row>
@@ -15135,7 +15203,7 @@
       <c r="E28" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F28" s="373"/>
+      <c r="F28" s="392"/>
       <c r="G28" s="285" t="s">
         <v>509</v>
       </c>
@@ -15147,7 +15215,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="F29" s="373"/>
+      <c r="F29" s="392"/>
       <c r="G29" s="178"/>
       <c r="H29" s="2"/>
     </row>
@@ -15157,7 +15225,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="373"/>
+      <c r="F30" s="392"/>
       <c r="G30" s="178"/>
       <c r="H30" s="2"/>
     </row>
@@ -15168,7 +15236,7 @@
       <c r="C31" s="131"/>
       <c r="D31" s="131"/>
       <c r="E31" s="190"/>
-      <c r="F31" s="374"/>
+      <c r="F31" s="393"/>
       <c r="G31" s="179"/>
       <c r="H31" s="2"/>
     </row>
@@ -15187,7 +15255,7 @@
       <c r="E33" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F33" s="372" t="s">
+      <c r="F33" s="391" t="s">
         <v>552</v>
       </c>
       <c r="G33" s="176" t="s">
@@ -15204,7 +15272,7 @@
       <c r="E34" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F34" s="373"/>
+      <c r="F34" s="392"/>
       <c r="G34" s="177" t="s">
         <v>178</v>
       </c>
@@ -15216,7 +15284,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="F35" s="373"/>
+      <c r="F35" s="392"/>
       <c r="G35" s="177"/>
       <c r="H35" s="2"/>
     </row>
@@ -15226,7 +15294,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="373"/>
+      <c r="F36" s="392"/>
       <c r="G36" s="177"/>
       <c r="H36" s="2"/>
     </row>
@@ -15239,7 +15307,7 @@
       <c r="E37" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F37" s="373"/>
+      <c r="F37" s="392"/>
       <c r="G37" s="285" t="s">
         <v>509</v>
       </c>
@@ -15251,7 +15319,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="F38" s="373"/>
+      <c r="F38" s="392"/>
       <c r="G38" s="178"/>
       <c r="H38" s="2"/>
     </row>
@@ -15261,7 +15329,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="373"/>
+      <c r="F39" s="392"/>
       <c r="G39" s="178"/>
       <c r="H39" s="2"/>
     </row>
@@ -15272,7 +15340,7 @@
       <c r="C40" s="131"/>
       <c r="D40" s="131"/>
       <c r="E40" s="190"/>
-      <c r="F40" s="374"/>
+      <c r="F40" s="393"/>
       <c r="G40" s="179"/>
       <c r="H40" s="2"/>
     </row>
@@ -15291,7 +15359,7 @@
       <c r="E42" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F42" s="372" t="s">
+      <c r="F42" s="391" t="s">
         <v>553</v>
       </c>
       <c r="G42" s="176" t="s">
@@ -15308,7 +15376,7 @@
       <c r="E43" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F43" s="373"/>
+      <c r="F43" s="392"/>
       <c r="G43" s="177" t="s">
         <v>178</v>
       </c>
@@ -15320,7 +15388,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="373"/>
+      <c r="F44" s="392"/>
       <c r="G44" s="177"/>
       <c r="H44" s="2"/>
     </row>
@@ -15330,7 +15398,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="373"/>
+      <c r="F45" s="392"/>
       <c r="G45" s="177"/>
       <c r="H45" s="2"/>
     </row>
@@ -15343,7 +15411,7 @@
       <c r="E46" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F46" s="373"/>
+      <c r="F46" s="392"/>
       <c r="G46" s="285" t="s">
         <v>509</v>
       </c>
@@ -15355,7 +15423,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="F47" s="373"/>
+      <c r="F47" s="392"/>
       <c r="G47" s="178"/>
       <c r="H47" s="2"/>
     </row>
@@ -15365,7 +15433,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="F48" s="373"/>
+      <c r="F48" s="392"/>
       <c r="G48" s="178"/>
       <c r="H48" s="2"/>
     </row>
@@ -15376,7 +15444,7 @@
       <c r="C49" s="131"/>
       <c r="D49" s="131"/>
       <c r="E49" s="190"/>
-      <c r="F49" s="374"/>
+      <c r="F49" s="393"/>
       <c r="G49" s="179"/>
     </row>
     <row r="50" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15393,10 +15461,10 @@
       <c r="E51" s="191" t="s">
         <v>526</v>
       </c>
-      <c r="F51" s="378" t="s">
+      <c r="F51" s="387" t="s">
         <v>525</v>
       </c>
-      <c r="G51" s="375" t="s">
+      <c r="G51" s="384" t="s">
         <v>338</v>
       </c>
     </row>
@@ -15409,8 +15477,8 @@
       <c r="E52" s="186" t="s">
         <v>526</v>
       </c>
-      <c r="F52" s="379"/>
-      <c r="G52" s="376"/>
+      <c r="F52" s="388"/>
+      <c r="G52" s="385"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="184" t="s">
@@ -15421,8 +15489,8 @@
       <c r="E53" s="186" t="s">
         <v>526</v>
       </c>
-      <c r="F53" s="379"/>
-      <c r="G53" s="376"/>
+      <c r="F53" s="388"/>
+      <c r="G53" s="385"/>
     </row>
     <row r="54" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="185" t="s">
@@ -15433,8 +15501,8 @@
       <c r="E54" s="190" t="s">
         <v>526</v>
       </c>
-      <c r="F54" s="380"/>
-      <c r="G54" s="377"/>
+      <c r="F54" s="389"/>
+      <c r="G54" s="386"/>
     </row>
     <row r="55" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="99"/>
@@ -15450,10 +15518,10 @@
       <c r="E56" s="191" t="s">
         <v>535</v>
       </c>
-      <c r="F56" s="378" t="s">
+      <c r="F56" s="387" t="s">
         <v>534</v>
       </c>
-      <c r="G56" s="375" t="s">
+      <c r="G56" s="384" t="s">
         <v>338</v>
       </c>
     </row>
@@ -15466,8 +15534,8 @@
       <c r="E57" s="186" t="s">
         <v>535</v>
       </c>
-      <c r="F57" s="379"/>
-      <c r="G57" s="376"/>
+      <c r="F57" s="388"/>
+      <c r="G57" s="385"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="184" t="s">
@@ -15478,8 +15546,8 @@
       <c r="E58" s="186" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="379"/>
-      <c r="G58" s="376"/>
+      <c r="F58" s="388"/>
+      <c r="G58" s="385"/>
     </row>
     <row r="59" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="185" t="s">
@@ -15490,8 +15558,8 @@
       <c r="E59" s="190" t="s">
         <v>535</v>
       </c>
-      <c r="F59" s="380"/>
-      <c r="G59" s="377"/>
+      <c r="F59" s="389"/>
+      <c r="G59" s="386"/>
     </row>
     <row r="60" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="99"/>
@@ -15617,7 +15685,7 @@
       <c r="E74" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="349" t="s">
+      <c r="F74" s="362" t="s">
         <v>504</v>
       </c>
     </row>
@@ -15630,7 +15698,7 @@
       <c r="E75" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="350"/>
+      <c r="F75" s="363"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="184" t="s">
@@ -15641,7 +15709,7 @@
       <c r="E76" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F76" s="350"/>
+      <c r="F76" s="363"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="184" t="s">
@@ -15652,7 +15720,7 @@
       <c r="E77" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="350"/>
+      <c r="F77" s="363"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="184" t="s">
@@ -15663,7 +15731,7 @@
       <c r="E78" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F78" s="350"/>
+      <c r="F78" s="363"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="161" t="s">
@@ -15674,7 +15742,7 @@
       <c r="E79" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F79" s="350"/>
+      <c r="F79" s="363"/>
     </row>
     <row r="80" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="163" t="s">
@@ -15685,7 +15753,7 @@
       <c r="E80" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F80" s="351"/>
+      <c r="F80" s="364"/>
     </row>
     <row r="81" spans="3:4" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
@@ -16053,6 +16121,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F74:F80"/>
+    <mergeCell ref="F42:F49"/>
     <mergeCell ref="G51:G54"/>
     <mergeCell ref="F51:F54"/>
     <mergeCell ref="F56:F59"/>
@@ -16061,8 +16131,6 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="F24:F31"/>
     <mergeCell ref="F33:F40"/>
-    <mergeCell ref="F74:F80"/>
-    <mergeCell ref="F42:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16115,15 +16183,15 @@
     </row>
     <row r="2" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="379" t="s">
         <v>584</v>
       </c>
-      <c r="B3" s="367"/>
-      <c r="C3" s="396" t="s">
+      <c r="B3" s="380"/>
+      <c r="C3" s="394" t="s">
         <v>544</v>
       </c>
-      <c r="D3" s="397"/>
-      <c r="E3" s="398"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="396"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -16347,7 +16415,7 @@
       <c r="D20" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="E20" s="399" t="s">
+      <c r="E20" s="397" t="s">
         <v>318</v>
       </c>
       <c r="G20" s="2"/>
@@ -16363,7 +16431,7 @@
       <c r="D21" s="284" t="s">
         <v>506</v>
       </c>
-      <c r="E21" s="400"/>
+      <c r="E21" s="398"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16381,10 +16449,10 @@
       <c r="D23" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E23" s="372" t="s">
+      <c r="E23" s="391" t="s">
         <v>555</v>
       </c>
-      <c r="F23" s="393" t="s">
+      <c r="F23" s="399" t="s">
         <v>554</v>
       </c>
       <c r="G23" s="2"/>
@@ -16398,8 +16466,8 @@
       <c r="D24" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E24" s="373"/>
-      <c r="F24" s="394"/>
+      <c r="E24" s="392"/>
+      <c r="F24" s="400"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16409,8 +16477,8 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="186"/>
-      <c r="E25" s="373"/>
-      <c r="F25" s="394"/>
+      <c r="E25" s="392"/>
+      <c r="F25" s="400"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16420,8 +16488,8 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="186"/>
-      <c r="E26" s="373"/>
-      <c r="F26" s="394"/>
+      <c r="E26" s="392"/>
+      <c r="F26" s="400"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16433,8 +16501,8 @@
       <c r="D27" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E27" s="373"/>
-      <c r="F27" s="394"/>
+      <c r="E27" s="392"/>
+      <c r="F27" s="400"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16444,8 +16512,8 @@
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
       <c r="D28" s="190"/>
-      <c r="E28" s="374"/>
-      <c r="F28" s="395"/>
+      <c r="E28" s="393"/>
+      <c r="F28" s="401"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16463,10 +16531,10 @@
       <c r="D30" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E30" s="372" t="s">
+      <c r="E30" s="391" t="s">
         <v>559</v>
       </c>
-      <c r="F30" s="393" t="s">
+      <c r="F30" s="399" t="s">
         <v>554</v>
       </c>
       <c r="G30" s="2"/>
@@ -16480,8 +16548,8 @@
       <c r="D31" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E31" s="373"/>
-      <c r="F31" s="394"/>
+      <c r="E31" s="392"/>
+      <c r="F31" s="400"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16491,8 +16559,8 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="186"/>
-      <c r="E32" s="373"/>
-      <c r="F32" s="394"/>
+      <c r="E32" s="392"/>
+      <c r="F32" s="400"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16502,8 +16570,8 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="186"/>
-      <c r="E33" s="373"/>
-      <c r="F33" s="394"/>
+      <c r="E33" s="392"/>
+      <c r="F33" s="400"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16515,8 +16583,8 @@
       <c r="D34" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E34" s="373"/>
-      <c r="F34" s="394"/>
+      <c r="E34" s="392"/>
+      <c r="F34" s="400"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16526,8 +16594,8 @@
       <c r="B35" s="131"/>
       <c r="C35" s="131"/>
       <c r="D35" s="190"/>
-      <c r="E35" s="374"/>
-      <c r="F35" s="395"/>
+      <c r="E35" s="393"/>
+      <c r="F35" s="401"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16545,10 +16613,10 @@
       <c r="D37" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E37" s="372" t="s">
+      <c r="E37" s="391" t="s">
         <v>565</v>
       </c>
-      <c r="F37" s="393" t="s">
+      <c r="F37" s="399" t="s">
         <v>554</v>
       </c>
       <c r="G37" s="2"/>
@@ -16562,8 +16630,8 @@
       <c r="D38" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E38" s="373"/>
-      <c r="F38" s="394"/>
+      <c r="E38" s="392"/>
+      <c r="F38" s="400"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -16573,8 +16641,8 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="186"/>
-      <c r="E39" s="373"/>
-      <c r="F39" s="394"/>
+      <c r="E39" s="392"/>
+      <c r="F39" s="400"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -16584,8 +16652,8 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="186"/>
-      <c r="E40" s="373"/>
-      <c r="F40" s="394"/>
+      <c r="E40" s="392"/>
+      <c r="F40" s="400"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -16597,8 +16665,8 @@
       <c r="D41" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E41" s="373"/>
-      <c r="F41" s="394"/>
+      <c r="E41" s="392"/>
+      <c r="F41" s="400"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16608,8 +16676,8 @@
       <c r="B42" s="131"/>
       <c r="C42" s="131"/>
       <c r="D42" s="190"/>
-      <c r="E42" s="374"/>
-      <c r="F42" s="395"/>
+      <c r="E42" s="393"/>
+      <c r="F42" s="401"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16629,16 +16697,16 @@
       <c r="D44" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="387" t="s">
+      <c r="E44" s="402" t="s">
         <v>568</v>
       </c>
-      <c r="F44" s="390" t="s">
+      <c r="F44" s="405" t="s">
         <v>566</v>
       </c>
-      <c r="G44" s="381" t="s">
+      <c r="G44" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="H44" s="382"/>
+      <c r="H44" s="409"/>
     </row>
     <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="184" t="s">
@@ -16651,10 +16719,10 @@
       <c r="D45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="388"/>
-      <c r="F45" s="391"/>
-      <c r="G45" s="383"/>
-      <c r="H45" s="384"/>
+      <c r="E45" s="403"/>
+      <c r="F45" s="406"/>
+      <c r="G45" s="410"/>
+      <c r="H45" s="411"/>
     </row>
     <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="184" t="s">
@@ -16667,10 +16735,10 @@
       <c r="D46" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E46" s="388"/>
-      <c r="F46" s="391"/>
-      <c r="G46" s="383"/>
-      <c r="H46" s="384"/>
+      <c r="E46" s="403"/>
+      <c r="F46" s="406"/>
+      <c r="G46" s="410"/>
+      <c r="H46" s="411"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="185" t="s">
@@ -16683,10 +16751,10 @@
       <c r="D47" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E47" s="389"/>
-      <c r="F47" s="392"/>
-      <c r="G47" s="385"/>
-      <c r="H47" s="386"/>
+      <c r="E47" s="404"/>
+      <c r="F47" s="407"/>
+      <c r="G47" s="412"/>
+      <c r="H47" s="413"/>
     </row>
     <row r="48" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
@@ -16704,16 +16772,16 @@
       <c r="D49" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E49" s="387" t="s">
+      <c r="E49" s="402" t="s">
         <v>569</v>
       </c>
-      <c r="F49" s="390" t="s">
+      <c r="F49" s="405" t="s">
         <v>566</v>
       </c>
-      <c r="G49" s="381" t="s">
+      <c r="G49" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="H49" s="382"/>
+      <c r="H49" s="409"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="184" t="s">
@@ -16726,10 +16794,10 @@
       <c r="D50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="388"/>
-      <c r="F50" s="391"/>
-      <c r="G50" s="383"/>
-      <c r="H50" s="384"/>
+      <c r="E50" s="403"/>
+      <c r="F50" s="406"/>
+      <c r="G50" s="410"/>
+      <c r="H50" s="411"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="184" t="s">
@@ -16742,10 +16810,10 @@
       <c r="D51" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E51" s="388"/>
-      <c r="F51" s="391"/>
-      <c r="G51" s="383"/>
-      <c r="H51" s="384"/>
+      <c r="E51" s="403"/>
+      <c r="F51" s="406"/>
+      <c r="G51" s="410"/>
+      <c r="H51" s="411"/>
     </row>
     <row r="52" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="185" t="s">
@@ -16758,10 +16826,10 @@
       <c r="D52" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E52" s="389"/>
-      <c r="F52" s="392"/>
-      <c r="G52" s="385"/>
-      <c r="H52" s="386"/>
+      <c r="E52" s="404"/>
+      <c r="F52" s="407"/>
+      <c r="G52" s="412"/>
+      <c r="H52" s="413"/>
     </row>
     <row r="53" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
@@ -16778,16 +16846,16 @@
       <c r="D54" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="387" t="s">
+      <c r="E54" s="402" t="s">
         <v>578</v>
       </c>
-      <c r="F54" s="390" t="s">
+      <c r="F54" s="405" t="s">
         <v>566</v>
       </c>
-      <c r="G54" s="381" t="s">
+      <c r="G54" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="H54" s="382"/>
+      <c r="H54" s="409"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="184" t="s">
@@ -16800,10 +16868,10 @@
       <c r="D55" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E55" s="388"/>
-      <c r="F55" s="391"/>
-      <c r="G55" s="383"/>
-      <c r="H55" s="384"/>
+      <c r="E55" s="403"/>
+      <c r="F55" s="406"/>
+      <c r="G55" s="410"/>
+      <c r="H55" s="411"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="184" t="s">
@@ -16816,10 +16884,10 @@
       <c r="D56" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E56" s="388"/>
-      <c r="F56" s="391"/>
-      <c r="G56" s="383"/>
-      <c r="H56" s="384"/>
+      <c r="E56" s="403"/>
+      <c r="F56" s="406"/>
+      <c r="G56" s="410"/>
+      <c r="H56" s="411"/>
     </row>
     <row r="57" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="185" t="s">
@@ -16832,10 +16900,10 @@
       <c r="D57" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E57" s="389"/>
-      <c r="F57" s="392"/>
-      <c r="G57" s="385"/>
-      <c r="H57" s="386"/>
+      <c r="E57" s="404"/>
+      <c r="F57" s="407"/>
+      <c r="G57" s="412"/>
+      <c r="H57" s="413"/>
     </row>
     <row r="58" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
@@ -17354,17 +17422,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
     <mergeCell ref="G44:H47"/>
     <mergeCell ref="E49:E52"/>
     <mergeCell ref="F49:F52"/>
@@ -17372,6 +17429,17 @@
     <mergeCell ref="E54:E57"/>
     <mergeCell ref="F54:F57"/>
     <mergeCell ref="G54:H57"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17425,15 +17493,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>585</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>586</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -17671,7 +17739,7 @@
       <c r="E21" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="F21" s="399" t="s">
+      <c r="F21" s="397" t="s">
         <v>318</v>
       </c>
       <c r="H21" s="2"/>
@@ -17687,7 +17755,7 @@
       <c r="E22" s="284" t="s">
         <v>506</v>
       </c>
-      <c r="F22" s="400"/>
+      <c r="F22" s="398"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17705,10 +17773,10 @@
       <c r="E24" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F24" s="401" t="s">
+      <c r="F24" s="414" t="s">
         <v>555</v>
       </c>
-      <c r="G24" s="404" t="s">
+      <c r="G24" s="417" t="s">
         <v>554</v>
       </c>
       <c r="H24" s="2"/>
@@ -17722,8 +17790,8 @@
       <c r="E25" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F25" s="402"/>
-      <c r="G25" s="405"/>
+      <c r="F25" s="415"/>
+      <c r="G25" s="418"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17733,8 +17801,8 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="186"/>
-      <c r="F26" s="402"/>
-      <c r="G26" s="405"/>
+      <c r="F26" s="415"/>
+      <c r="G26" s="418"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17746,8 +17814,8 @@
       <c r="E27" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F27" s="402"/>
-      <c r="G27" s="405"/>
+      <c r="F27" s="415"/>
+      <c r="G27" s="418"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17756,8 +17824,8 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="F28" s="402"/>
-      <c r="G28" s="405"/>
+      <c r="F28" s="415"/>
+      <c r="G28" s="418"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17767,8 +17835,8 @@
       <c r="C29" s="131"/>
       <c r="D29" s="131"/>
       <c r="E29" s="190"/>
-      <c r="F29" s="403"/>
-      <c r="G29" s="406"/>
+      <c r="F29" s="416"/>
+      <c r="G29" s="419"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17786,10 +17854,10 @@
       <c r="E31" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F31" s="401" t="s">
+      <c r="F31" s="414" t="s">
         <v>559</v>
       </c>
-      <c r="G31" s="404" t="s">
+      <c r="G31" s="417" t="s">
         <v>554</v>
       </c>
       <c r="H31" s="2"/>
@@ -17803,8 +17871,8 @@
       <c r="E32" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F32" s="402"/>
-      <c r="G32" s="405"/>
+      <c r="F32" s="415"/>
+      <c r="G32" s="418"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17814,8 +17882,8 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="186"/>
-      <c r="F33" s="402"/>
-      <c r="G33" s="405"/>
+      <c r="F33" s="415"/>
+      <c r="G33" s="418"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17827,8 +17895,8 @@
       <c r="E34" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F34" s="402"/>
-      <c r="G34" s="405"/>
+      <c r="F34" s="415"/>
+      <c r="G34" s="418"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17837,8 +17905,8 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="F35" s="402"/>
-      <c r="G35" s="405"/>
+      <c r="F35" s="415"/>
+      <c r="G35" s="418"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17848,8 +17916,8 @@
       <c r="C36" s="131"/>
       <c r="D36" s="131"/>
       <c r="E36" s="190"/>
-      <c r="F36" s="403"/>
-      <c r="G36" s="406"/>
+      <c r="F36" s="416"/>
+      <c r="G36" s="419"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17867,10 +17935,10 @@
       <c r="E38" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F38" s="401" t="s">
+      <c r="F38" s="414" t="s">
         <v>565</v>
       </c>
-      <c r="G38" s="404" t="s">
+      <c r="G38" s="417" t="s">
         <v>554</v>
       </c>
       <c r="H38" s="2"/>
@@ -17884,8 +17952,8 @@
       <c r="E39" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F39" s="402"/>
-      <c r="G39" s="405"/>
+      <c r="F39" s="415"/>
+      <c r="G39" s="418"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17895,8 +17963,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="186"/>
-      <c r="F40" s="402"/>
-      <c r="G40" s="405"/>
+      <c r="F40" s="415"/>
+      <c r="G40" s="418"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17908,8 +17976,8 @@
       <c r="E41" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F41" s="402"/>
-      <c r="G41" s="405"/>
+      <c r="F41" s="415"/>
+      <c r="G41" s="418"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -17918,8 +17986,8 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="F42" s="402"/>
-      <c r="G42" s="405"/>
+      <c r="F42" s="415"/>
+      <c r="G42" s="418"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17929,8 +17997,8 @@
       <c r="C43" s="131"/>
       <c r="D43" s="131"/>
       <c r="E43" s="190"/>
-      <c r="F43" s="403"/>
-      <c r="G43" s="406"/>
+      <c r="F43" s="416"/>
+      <c r="G43" s="419"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17950,16 +18018,16 @@
       <c r="E45" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="387" t="s">
+      <c r="F45" s="402" t="s">
         <v>594</v>
       </c>
-      <c r="G45" s="390" t="s">
+      <c r="G45" s="405" t="s">
         <v>566</v>
       </c>
-      <c r="H45" s="381" t="s">
+      <c r="H45" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="I45" s="382"/>
+      <c r="I45" s="409"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="184" t="s">
@@ -17972,10 +18040,10 @@
       <c r="E46" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F46" s="388"/>
-      <c r="G46" s="391"/>
-      <c r="H46" s="383"/>
-      <c r="I46" s="384"/>
+      <c r="F46" s="403"/>
+      <c r="G46" s="406"/>
+      <c r="H46" s="410"/>
+      <c r="I46" s="411"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="184" t="s">
@@ -17988,10 +18056,10 @@
       <c r="E47" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F47" s="388"/>
-      <c r="G47" s="391"/>
-      <c r="H47" s="383"/>
-      <c r="I47" s="384"/>
+      <c r="F47" s="403"/>
+      <c r="G47" s="406"/>
+      <c r="H47" s="410"/>
+      <c r="I47" s="411"/>
     </row>
     <row r="48" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="185" t="s">
@@ -18004,10 +18072,10 @@
       <c r="E48" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F48" s="389"/>
-      <c r="G48" s="392"/>
-      <c r="H48" s="385"/>
-      <c r="I48" s="386"/>
+      <c r="F48" s="404"/>
+      <c r="G48" s="407"/>
+      <c r="H48" s="412"/>
+      <c r="I48" s="413"/>
     </row>
     <row r="49" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
@@ -18026,16 +18094,16 @@
       <c r="E50" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F50" s="387" t="s">
+      <c r="F50" s="402" t="s">
         <v>595</v>
       </c>
-      <c r="G50" s="390" t="s">
+      <c r="G50" s="405" t="s">
         <v>566</v>
       </c>
-      <c r="H50" s="381" t="s">
+      <c r="H50" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="I50" s="382"/>
+      <c r="I50" s="409"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="184" t="s">
@@ -18048,10 +18116,10 @@
       <c r="E51" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F51" s="388"/>
-      <c r="G51" s="391"/>
-      <c r="H51" s="383"/>
-      <c r="I51" s="384"/>
+      <c r="F51" s="403"/>
+      <c r="G51" s="406"/>
+      <c r="H51" s="410"/>
+      <c r="I51" s="411"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="184" t="s">
@@ -18064,10 +18132,10 @@
       <c r="E52" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F52" s="388"/>
-      <c r="G52" s="391"/>
-      <c r="H52" s="383"/>
-      <c r="I52" s="384"/>
+      <c r="F52" s="403"/>
+      <c r="G52" s="406"/>
+      <c r="H52" s="410"/>
+      <c r="I52" s="411"/>
     </row>
     <row r="53" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="185" t="s">
@@ -18080,10 +18148,10 @@
       <c r="E53" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F53" s="389"/>
-      <c r="G53" s="392"/>
-      <c r="H53" s="385"/>
-      <c r="I53" s="386"/>
+      <c r="F53" s="404"/>
+      <c r="G53" s="407"/>
+      <c r="H53" s="412"/>
+      <c r="I53" s="413"/>
     </row>
     <row r="54" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
@@ -18100,16 +18168,16 @@
       <c r="E55" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F55" s="387" t="s">
+      <c r="F55" s="402" t="s">
         <v>596</v>
       </c>
-      <c r="G55" s="390" t="s">
+      <c r="G55" s="405" t="s">
         <v>566</v>
       </c>
-      <c r="H55" s="381" t="s">
+      <c r="H55" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="I55" s="382"/>
+      <c r="I55" s="409"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="184" t="s">
@@ -18122,10 +18190,10 @@
       <c r="E56" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F56" s="388"/>
-      <c r="G56" s="391"/>
-      <c r="H56" s="383"/>
-      <c r="I56" s="384"/>
+      <c r="F56" s="403"/>
+      <c r="G56" s="406"/>
+      <c r="H56" s="410"/>
+      <c r="I56" s="411"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="184" t="s">
@@ -18138,10 +18206,10 @@
       <c r="E57" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F57" s="388"/>
-      <c r="G57" s="391"/>
-      <c r="H57" s="383"/>
-      <c r="I57" s="384"/>
+      <c r="F57" s="403"/>
+      <c r="G57" s="406"/>
+      <c r="H57" s="410"/>
+      <c r="I57" s="411"/>
     </row>
     <row r="58" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="185" t="s">
@@ -18154,10 +18222,10 @@
       <c r="E58" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="389"/>
-      <c r="G58" s="392"/>
-      <c r="H58" s="385"/>
-      <c r="I58" s="386"/>
+      <c r="F58" s="404"/>
+      <c r="G58" s="407"/>
+      <c r="H58" s="412"/>
+      <c r="I58" s="413"/>
     </row>
     <row r="59" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
@@ -18704,6 +18772,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G45:G48"/>
     <mergeCell ref="H45:I48"/>
     <mergeCell ref="F50:F53"/>
     <mergeCell ref="G50:G53"/>
@@ -18711,17 +18790,6 @@
     <mergeCell ref="F55:F58"/>
     <mergeCell ref="G55:G58"/>
     <mergeCell ref="H55:I58"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18734,10 +18802,10 @@
   <dimension ref="B1:J165"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="B45:I46"/>
+      <selection pane="bottomRight" activeCell="F64" sqref="B64:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18775,15 +18843,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>597</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="371" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="390" t="s">
         <v>598</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -18918,7 +18986,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="174"/>
-      <c r="G13" s="412" t="s">
+      <c r="G13" s="312" t="s">
         <v>601</v>
       </c>
       <c r="H13" s="63" t="s">
@@ -19058,10 +19126,10 @@
       <c r="E24" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F24" s="401" t="s">
+      <c r="F24" s="414" t="s">
         <v>604</v>
       </c>
-      <c r="G24" s="393" t="s">
+      <c r="G24" s="399" t="s">
         <v>554</v>
       </c>
       <c r="H24" s="2"/>
@@ -19075,8 +19143,8 @@
       <c r="E25" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F25" s="402"/>
-      <c r="G25" s="394"/>
+      <c r="F25" s="415"/>
+      <c r="G25" s="400"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19086,8 +19154,8 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="186"/>
-      <c r="F26" s="402"/>
-      <c r="G26" s="394"/>
+      <c r="F26" s="415"/>
+      <c r="G26" s="400"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19099,8 +19167,8 @@
       <c r="E27" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F27" s="402"/>
-      <c r="G27" s="394"/>
+      <c r="F27" s="415"/>
+      <c r="G27" s="400"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19109,8 +19177,8 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="F28" s="402"/>
-      <c r="G28" s="394"/>
+      <c r="F28" s="415"/>
+      <c r="G28" s="400"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19120,8 +19188,8 @@
       <c r="C29" s="131"/>
       <c r="D29" s="131"/>
       <c r="E29" s="190"/>
-      <c r="F29" s="403"/>
-      <c r="G29" s="395"/>
+      <c r="F29" s="416"/>
+      <c r="G29" s="401"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19139,10 +19207,10 @@
       <c r="E31" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F31" s="401" t="s">
+      <c r="F31" s="414" t="s">
         <v>606</v>
       </c>
-      <c r="G31" s="393" t="s">
+      <c r="G31" s="399" t="s">
         <v>554</v>
       </c>
       <c r="H31" s="2"/>
@@ -19156,8 +19224,8 @@
       <c r="E32" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F32" s="402"/>
-      <c r="G32" s="394"/>
+      <c r="F32" s="415"/>
+      <c r="G32" s="400"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19167,8 +19235,8 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="186"/>
-      <c r="F33" s="402"/>
-      <c r="G33" s="394"/>
+      <c r="F33" s="415"/>
+      <c r="G33" s="400"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19180,8 +19248,8 @@
       <c r="E34" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F34" s="402"/>
-      <c r="G34" s="394"/>
+      <c r="F34" s="415"/>
+      <c r="G34" s="400"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19190,8 +19258,8 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="F35" s="402"/>
-      <c r="G35" s="394"/>
+      <c r="F35" s="415"/>
+      <c r="G35" s="400"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19201,8 +19269,8 @@
       <c r="C36" s="131"/>
       <c r="D36" s="131"/>
       <c r="E36" s="190"/>
-      <c r="F36" s="403"/>
-      <c r="G36" s="395"/>
+      <c r="F36" s="416"/>
+      <c r="G36" s="401"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19220,10 +19288,10 @@
       <c r="E38" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F38" s="401" t="s">
+      <c r="F38" s="414" t="s">
         <v>608</v>
       </c>
-      <c r="G38" s="393" t="s">
+      <c r="G38" s="399" t="s">
         <v>554</v>
       </c>
       <c r="H38" s="2"/>
@@ -19237,8 +19305,8 @@
       <c r="E39" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F39" s="402"/>
-      <c r="G39" s="394"/>
+      <c r="F39" s="415"/>
+      <c r="G39" s="400"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19248,8 +19316,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="186"/>
-      <c r="F40" s="402"/>
-      <c r="G40" s="394"/>
+      <c r="F40" s="415"/>
+      <c r="G40" s="400"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -19261,8 +19329,8 @@
       <c r="E41" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F41" s="402"/>
-      <c r="G41" s="394"/>
+      <c r="F41" s="415"/>
+      <c r="G41" s="400"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -19271,8 +19339,8 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="F42" s="402"/>
-      <c r="G42" s="394"/>
+      <c r="F42" s="415"/>
+      <c r="G42" s="400"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19282,8 +19350,8 @@
       <c r="C43" s="131"/>
       <c r="D43" s="131"/>
       <c r="E43" s="190"/>
-      <c r="F43" s="403"/>
-      <c r="G43" s="395"/>
+      <c r="F43" s="416"/>
+      <c r="G43" s="401"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19303,16 +19371,16 @@
       <c r="E45" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="387" t="s">
+      <c r="F45" s="402" t="s">
         <v>594</v>
       </c>
-      <c r="G45" s="390" t="s">
+      <c r="G45" s="405" t="s">
         <v>566</v>
       </c>
-      <c r="H45" s="381" t="s">
+      <c r="H45" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="I45" s="382"/>
+      <c r="I45" s="409"/>
     </row>
     <row r="46" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="185" t="s">
@@ -19325,10 +19393,10 @@
       <c r="E46" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F46" s="389"/>
-      <c r="G46" s="392"/>
-      <c r="H46" s="385"/>
-      <c r="I46" s="386"/>
+      <c r="F46" s="404"/>
+      <c r="G46" s="407"/>
+      <c r="H46" s="412"/>
+      <c r="I46" s="413"/>
     </row>
     <row r="47" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
@@ -19347,16 +19415,16 @@
       <c r="E48" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F48" s="387" t="s">
+      <c r="F48" s="402" t="s">
         <v>594</v>
       </c>
-      <c r="G48" s="390" t="s">
+      <c r="G48" s="405" t="s">
         <v>566</v>
       </c>
-      <c r="H48" s="381" t="s">
+      <c r="H48" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="I48" s="382"/>
+      <c r="I48" s="409"/>
     </row>
     <row r="49" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="185" t="s">
@@ -19369,10 +19437,10 @@
       <c r="E49" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F49" s="389"/>
-      <c r="G49" s="392"/>
-      <c r="H49" s="385"/>
-      <c r="I49" s="386"/>
+      <c r="F49" s="404"/>
+      <c r="G49" s="407"/>
+      <c r="H49" s="412"/>
+      <c r="I49" s="413"/>
     </row>
     <row r="50" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
@@ -19389,16 +19457,16 @@
       <c r="E51" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F51" s="387" t="s">
+      <c r="F51" s="402" t="s">
         <v>594</v>
       </c>
-      <c r="G51" s="390" t="s">
+      <c r="G51" s="405" t="s">
         <v>566</v>
       </c>
-      <c r="H51" s="381" t="s">
+      <c r="H51" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="I51" s="382"/>
+      <c r="I51" s="409"/>
     </row>
     <row r="52" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="185" t="s">
@@ -19411,10 +19479,10 @@
       <c r="E52" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F52" s="389"/>
-      <c r="G52" s="392"/>
-      <c r="H52" s="385"/>
-      <c r="I52" s="386"/>
+      <c r="F52" s="404"/>
+      <c r="G52" s="407"/>
+      <c r="H52" s="412"/>
+      <c r="I52" s="413"/>
     </row>
     <row r="53" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
@@ -19973,23 +20041,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:I49"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:I52"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:I46"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="F24:F29"/>
     <mergeCell ref="G24:G29"/>
     <mergeCell ref="F31:F36"/>
     <mergeCell ref="G31:G36"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:I49"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19999,13 +20067,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J171"/>
+  <dimension ref="B1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -20013,7 +20081,7 @@
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="39" style="17" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13" style="413" customWidth="1"/>
+    <col min="4" max="4" width="13" style="313" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.140625" style="2" customWidth="1"/>
@@ -20043,15 +20111,15 @@
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>610</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="371" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="390" t="s">
         <v>609</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20061,11 +20129,11 @@
         <v>5</v>
       </c>
       <c r="C4" s="225"/>
-      <c r="D4" s="414"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="407"/>
+      <c r="F4" s="307"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -20075,11 +20143,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="415"/>
+      <c r="D5" s="315"/>
       <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="408"/>
+      <c r="F5" s="308"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -20089,11 +20157,11 @@
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="415"/>
+      <c r="D6" s="315"/>
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="408"/>
+      <c r="F6" s="308"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -20103,11 +20171,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="415"/>
+      <c r="D7" s="315"/>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="408"/>
+      <c r="F7" s="308"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -20117,11 +20185,11 @@
         <v>44</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="415"/>
+      <c r="D8" s="315"/>
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="408"/>
+      <c r="F8" s="308"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -20131,11 +20199,11 @@
         <v>45</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="415"/>
+      <c r="D9" s="315"/>
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="408"/>
+      <c r="F9" s="308"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -20145,11 +20213,11 @@
         <v>125</v>
       </c>
       <c r="C10" s="231"/>
-      <c r="D10" s="416"/>
+      <c r="D10" s="316"/>
       <c r="E10" s="231" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="409"/>
+      <c r="F10" s="309"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -20167,7 +20235,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="149"/>
-      <c r="D12" s="417"/>
+      <c r="D12" s="317"/>
       <c r="E12" s="157" t="s">
         <v>18</v>
       </c>
@@ -20197,7 +20265,7 @@
         <v>602</v>
       </c>
       <c r="C14" s="154"/>
-      <c r="D14" s="418"/>
+      <c r="D14" s="318"/>
       <c r="E14" s="155" t="s">
         <v>304</v>
       </c>
@@ -20219,7 +20287,7 @@
         <v>313</v>
       </c>
       <c r="C16" s="149"/>
-      <c r="D16" s="417"/>
+      <c r="D16" s="317"/>
       <c r="E16" s="157" t="s">
         <v>307</v>
       </c>
@@ -20245,7 +20313,7 @@
         <v>133</v>
       </c>
       <c r="C18" s="154"/>
-      <c r="D18" s="418"/>
+      <c r="D18" s="318"/>
       <c r="E18" s="155" t="s">
         <v>309</v>
       </c>
@@ -20314,7 +20382,7 @@
       </c>
       <c r="C23" s="131"/>
       <c r="D23" s="190"/>
-      <c r="E23" s="410" t="s">
+      <c r="E23" s="310" t="s">
         <v>614</v>
       </c>
       <c r="F23" s="164"/>
@@ -20336,7 +20404,7 @@
       <c r="E25" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F25" s="401" t="s">
+      <c r="F25" s="414" t="s">
         <v>604</v>
       </c>
       <c r="G25" s="425" t="s">
@@ -20353,7 +20421,7 @@
       <c r="E26" s="186" t="s">
         <v>622</v>
       </c>
-      <c r="F26" s="402"/>
+      <c r="F26" s="415"/>
       <c r="G26" s="426"/>
       <c r="H26" s="2"/>
     </row>
@@ -20364,7 +20432,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="186"/>
       <c r="E27" s="186"/>
-      <c r="F27" s="402"/>
+      <c r="F27" s="415"/>
       <c r="G27" s="426"/>
       <c r="H27" s="2"/>
     </row>
@@ -20377,7 +20445,7 @@
       <c r="E28" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F28" s="402"/>
+      <c r="F28" s="415"/>
       <c r="G28" s="426"/>
       <c r="H28" s="2"/>
     </row>
@@ -20390,7 +20458,7 @@
       <c r="E29" s="186" t="s">
         <v>623</v>
       </c>
-      <c r="F29" s="402"/>
+      <c r="F29" s="415"/>
       <c r="G29" s="426"/>
       <c r="H29" s="2"/>
     </row>
@@ -20401,7 +20469,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="186"/>
       <c r="E30" s="186"/>
-      <c r="F30" s="402"/>
+      <c r="F30" s="415"/>
       <c r="G30" s="426"/>
       <c r="H30" s="2"/>
     </row>
@@ -20414,7 +20482,7 @@
       <c r="E31" s="186" t="s">
         <v>621</v>
       </c>
-      <c r="F31" s="402"/>
+      <c r="F31" s="415"/>
       <c r="G31" s="426"/>
       <c r="H31" s="2"/>
     </row>
@@ -20425,7 +20493,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="186"/>
       <c r="E32" s="186"/>
-      <c r="F32" s="402"/>
+      <c r="F32" s="415"/>
       <c r="G32" s="426"/>
       <c r="H32" s="2"/>
     </row>
@@ -20436,7 +20504,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="186"/>
       <c r="E33" s="186"/>
-      <c r="F33" s="402"/>
+      <c r="F33" s="415"/>
       <c r="G33" s="426"/>
       <c r="H33" s="2"/>
     </row>
@@ -20447,7 +20515,7 @@
       <c r="C34" s="131"/>
       <c r="D34" s="190"/>
       <c r="E34" s="131"/>
-      <c r="F34" s="403"/>
+      <c r="F34" s="416"/>
       <c r="G34" s="427"/>
       <c r="H34" s="2"/>
     </row>
@@ -20466,7 +20534,7 @@
       <c r="E36" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F36" s="401" t="s">
+      <c r="F36" s="414" t="s">
         <v>606</v>
       </c>
       <c r="G36" s="425" t="s">
@@ -20483,7 +20551,7 @@
       <c r="E37" s="186" t="s">
         <v>622</v>
       </c>
-      <c r="F37" s="402"/>
+      <c r="F37" s="415"/>
       <c r="G37" s="426"/>
       <c r="H37" s="2"/>
     </row>
@@ -20494,7 +20562,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="186"/>
       <c r="E38" s="186"/>
-      <c r="F38" s="402"/>
+      <c r="F38" s="415"/>
       <c r="G38" s="426"/>
       <c r="H38" s="2"/>
     </row>
@@ -20507,7 +20575,7 @@
       <c r="E39" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F39" s="402"/>
+      <c r="F39" s="415"/>
       <c r="G39" s="426"/>
       <c r="H39" s="2"/>
     </row>
@@ -20520,7 +20588,7 @@
       <c r="E40" s="186" t="s">
         <v>623</v>
       </c>
-      <c r="F40" s="402"/>
+      <c r="F40" s="415"/>
       <c r="G40" s="426"/>
       <c r="H40" s="2"/>
     </row>
@@ -20531,7 +20599,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="186"/>
       <c r="E41" s="186"/>
-      <c r="F41" s="402"/>
+      <c r="F41" s="415"/>
       <c r="G41" s="426"/>
       <c r="H41" s="2"/>
     </row>
@@ -20544,7 +20612,7 @@
       <c r="E42" s="186" t="s">
         <v>621</v>
       </c>
-      <c r="F42" s="402"/>
+      <c r="F42" s="415"/>
       <c r="G42" s="426"/>
       <c r="H42" s="2"/>
     </row>
@@ -20555,7 +20623,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="186"/>
       <c r="E43" s="186"/>
-      <c r="F43" s="402"/>
+      <c r="F43" s="415"/>
       <c r="G43" s="426"/>
       <c r="H43" s="2"/>
     </row>
@@ -20566,7 +20634,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="186"/>
       <c r="E44" s="186"/>
-      <c r="F44" s="402"/>
+      <c r="F44" s="415"/>
       <c r="G44" s="426"/>
       <c r="H44" s="2"/>
     </row>
@@ -20577,12 +20645,12 @@
       <c r="C45" s="131"/>
       <c r="D45" s="190"/>
       <c r="E45" s="131"/>
-      <c r="F45" s="403"/>
+      <c r="F45" s="416"/>
       <c r="G45" s="427"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="411"/>
+      <c r="B46" s="311"/>
       <c r="C46" s="127"/>
       <c r="D46" s="191"/>
       <c r="E46" s="127"/>
@@ -20607,7 +20675,7 @@
       <c r="E48" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F48" s="401" t="s">
+      <c r="F48" s="414" t="s">
         <v>634</v>
       </c>
       <c r="G48" s="425" t="s">
@@ -20624,7 +20692,7 @@
       <c r="E49" s="186" t="s">
         <v>622</v>
       </c>
-      <c r="F49" s="402"/>
+      <c r="F49" s="415"/>
       <c r="G49" s="426"/>
       <c r="H49" s="2"/>
     </row>
@@ -20635,7 +20703,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="186"/>
       <c r="E50" s="186"/>
-      <c r="F50" s="402"/>
+      <c r="F50" s="415"/>
       <c r="G50" s="426"/>
       <c r="H50" s="2"/>
     </row>
@@ -20648,7 +20716,7 @@
       <c r="E51" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F51" s="402"/>
+      <c r="F51" s="415"/>
       <c r="G51" s="426"/>
       <c r="H51" s="2"/>
     </row>
@@ -20661,7 +20729,7 @@
       <c r="E52" s="186" t="s">
         <v>623</v>
       </c>
-      <c r="F52" s="402"/>
+      <c r="F52" s="415"/>
       <c r="G52" s="426"/>
       <c r="H52" s="2"/>
     </row>
@@ -20672,7 +20740,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="186"/>
       <c r="E53" s="186"/>
-      <c r="F53" s="402"/>
+      <c r="F53" s="415"/>
       <c r="G53" s="426"/>
       <c r="H53" s="2"/>
     </row>
@@ -20685,7 +20753,7 @@
       <c r="E54" s="186" t="s">
         <v>621</v>
       </c>
-      <c r="F54" s="402"/>
+      <c r="F54" s="415"/>
       <c r="G54" s="426"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -20695,7 +20763,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="186"/>
       <c r="E55" s="186"/>
-      <c r="F55" s="402"/>
+      <c r="F55" s="415"/>
       <c r="G55" s="426"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -20705,7 +20773,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="186"/>
       <c r="E56" s="186"/>
-      <c r="F56" s="402"/>
+      <c r="F56" s="415"/>
       <c r="G56" s="426"/>
     </row>
     <row r="57" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20715,7 +20783,7 @@
       <c r="C57" s="131"/>
       <c r="D57" s="190"/>
       <c r="E57" s="131"/>
-      <c r="F57" s="403"/>
+      <c r="F57" s="416"/>
       <c r="G57" s="427"/>
     </row>
     <row r="58" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20733,16 +20801,16 @@
       <c r="E59" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="387" t="s">
+      <c r="F59" s="402" t="s">
         <v>594</v>
       </c>
       <c r="G59" s="422" t="s">
         <v>566</v>
       </c>
-      <c r="H59" s="381" t="s">
+      <c r="H59" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="I59" s="382"/>
+      <c r="I59" s="409"/>
     </row>
     <row r="60" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="184" t="s">
@@ -20750,10 +20818,10 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="186"/>
-      <c r="F60" s="388"/>
-      <c r="G60" s="423"/>
-      <c r="H60" s="383"/>
-      <c r="I60" s="384"/>
+      <c r="F60" s="403"/>
+      <c r="G60" s="424"/>
+      <c r="H60" s="410"/>
+      <c r="I60" s="411"/>
     </row>
     <row r="61" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="184" t="s">
@@ -20761,10 +20829,10 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="186"/>
-      <c r="F61" s="388"/>
-      <c r="G61" s="423"/>
-      <c r="H61" s="383"/>
-      <c r="I61" s="384"/>
+      <c r="F61" s="403"/>
+      <c r="G61" s="424"/>
+      <c r="H61" s="410"/>
+      <c r="I61" s="411"/>
     </row>
     <row r="62" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="185" t="s">
@@ -20777,15 +20845,15 @@
       <c r="E62" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F62" s="389"/>
-      <c r="G62" s="424"/>
-      <c r="H62" s="385"/>
-      <c r="I62" s="386"/>
+      <c r="F62" s="404"/>
+      <c r="G62" s="423"/>
+      <c r="H62" s="412"/>
+      <c r="I62" s="413"/>
     </row>
     <row r="63" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63"/>
       <c r="C63"/>
-      <c r="D63" s="419"/>
+      <c r="D63" s="319"/>
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63"/>
@@ -20802,16 +20870,16 @@
       <c r="E64" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F64" s="387" t="s">
+      <c r="F64" s="402" t="s">
         <v>641</v>
       </c>
       <c r="G64" s="422" t="s">
         <v>566</v>
       </c>
-      <c r="H64" s="381" t="s">
+      <c r="H64" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="I64" s="382"/>
+      <c r="I64" s="409"/>
     </row>
     <row r="65" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="184" t="s">
@@ -20819,10 +20887,10 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="186"/>
-      <c r="F65" s="388"/>
-      <c r="G65" s="423"/>
-      <c r="H65" s="383"/>
-      <c r="I65" s="384"/>
+      <c r="F65" s="403"/>
+      <c r="G65" s="424"/>
+      <c r="H65" s="410"/>
+      <c r="I65" s="411"/>
     </row>
     <row r="66" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="184" t="s">
@@ -20830,10 +20898,10 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="186"/>
-      <c r="F66" s="388"/>
-      <c r="G66" s="423"/>
-      <c r="H66" s="383"/>
-      <c r="I66" s="384"/>
+      <c r="F66" s="403"/>
+      <c r="G66" s="424"/>
+      <c r="H66" s="410"/>
+      <c r="I66" s="411"/>
     </row>
     <row r="67" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="185" t="s">
@@ -20846,10 +20914,10 @@
       <c r="E67" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F67" s="389"/>
-      <c r="G67" s="424"/>
-      <c r="H67" s="385"/>
-      <c r="I67" s="386"/>
+      <c r="F67" s="404"/>
+      <c r="G67" s="423"/>
+      <c r="H67" s="412"/>
+      <c r="I67" s="413"/>
     </row>
     <row r="68" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="2"/>
@@ -20866,16 +20934,16 @@
       <c r="E69" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F69" s="387" t="s">
+      <c r="F69" s="402" t="s">
         <v>644</v>
       </c>
       <c r="G69" s="422" t="s">
         <v>566</v>
       </c>
-      <c r="H69" s="381" t="s">
+      <c r="H69" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="I69" s="382"/>
+      <c r="I69" s="409"/>
     </row>
     <row r="70" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="184" t="s">
@@ -20883,10 +20951,10 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="186"/>
-      <c r="F70" s="388"/>
-      <c r="G70" s="423"/>
-      <c r="H70" s="383"/>
-      <c r="I70" s="384"/>
+      <c r="F70" s="403"/>
+      <c r="G70" s="424"/>
+      <c r="H70" s="410"/>
+      <c r="I70" s="411"/>
     </row>
     <row r="71" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="184" t="s">
@@ -20894,10 +20962,10 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="186"/>
-      <c r="F71" s="388"/>
-      <c r="G71" s="423"/>
-      <c r="H71" s="383"/>
-      <c r="I71" s="384"/>
+      <c r="F71" s="403"/>
+      <c r="G71" s="424"/>
+      <c r="H71" s="410"/>
+      <c r="I71" s="411"/>
     </row>
     <row r="72" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="185" t="s">
@@ -20910,10 +20978,10 @@
       <c r="E72" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F72" s="389"/>
-      <c r="G72" s="424"/>
-      <c r="H72" s="385"/>
-      <c r="I72" s="386"/>
+      <c r="F72" s="404"/>
+      <c r="G72" s="423"/>
+      <c r="H72" s="412"/>
+      <c r="I72" s="413"/>
     </row>
     <row r="73" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
@@ -20921,7 +20989,7 @@
     </row>
     <row r="74" spans="2:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B74" s="183" t="s">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="C74" s="127"/>
       <c r="D74" s="191" t="s">
@@ -20936,14 +21004,14 @@
       <c r="G74" s="422" t="s">
         <v>648</v>
       </c>
-      <c r="H74" s="381" t="s">
+      <c r="H74" s="408" t="s">
         <v>338</v>
       </c>
-      <c r="I74" s="382"/>
+      <c r="I74" s="409"/>
     </row>
     <row r="75" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="185" t="s">
-        <v>646</v>
+        <v>411</v>
       </c>
       <c r="C75" s="131"/>
       <c r="D75" s="190" t="s">
@@ -20953,155 +21021,349 @@
         <v>535</v>
       </c>
       <c r="F75" s="421"/>
-      <c r="G75" s="424"/>
-      <c r="H75" s="385"/>
-      <c r="I75" s="386"/>
-    </row>
-    <row r="76" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="423"/>
+      <c r="H75" s="412"/>
+      <c r="I75" s="413"/>
+    </row>
+    <row r="76" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="186"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
-      <c r="D77" s="186"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
-      <c r="D78" s="186"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="183" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" s="127"/>
+      <c r="D77" s="191" t="s">
+        <v>567</v>
+      </c>
+      <c r="E77" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" s="420" t="s">
+        <v>649</v>
+      </c>
+      <c r="G77" s="422" t="s">
+        <v>648</v>
+      </c>
+      <c r="H77" s="408" t="s">
+        <v>338</v>
+      </c>
+      <c r="I77" s="409"/>
+    </row>
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="185" t="s">
+        <v>415</v>
+      </c>
+      <c r="C78" s="131"/>
+      <c r="D78" s="190" t="s">
+        <v>567</v>
+      </c>
+      <c r="E78" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F78" s="421"/>
+      <c r="G78" s="423"/>
+      <c r="H78" s="412"/>
+      <c r="I78" s="413"/>
+    </row>
+    <row r="79" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
       <c r="D79" s="186"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-      <c r="D80" s="186"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
-      <c r="D81" s="186"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="183" t="s">
+        <v>651</v>
+      </c>
+      <c r="C80" s="127"/>
+      <c r="D80" s="191" t="s">
+        <v>567</v>
+      </c>
+      <c r="E80" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F80" s="420" t="s">
+        <v>650</v>
+      </c>
+      <c r="G80" s="422" t="s">
+        <v>648</v>
+      </c>
+      <c r="H80" s="408" t="s">
+        <v>338</v>
+      </c>
+      <c r="I80" s="409"/>
+    </row>
+    <row r="81" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="185" t="s">
+        <v>652</v>
+      </c>
+      <c r="C81" s="131"/>
+      <c r="D81" s="190" t="s">
+        <v>567</v>
+      </c>
+      <c r="E81" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F81" s="421"/>
+      <c r="G81" s="423"/>
+      <c r="H81" s="412"/>
+      <c r="I81" s="413"/>
+    </row>
+    <row r="82" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
       <c r="D82" s="186"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="2"/>
-      <c r="D83" s="186"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="183" t="s">
+        <v>389</v>
+      </c>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="191" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" s="191"/>
+      <c r="G83" s="128"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="184" t="s">
+        <v>65</v>
+      </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="186"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="2"/>
+      <c r="E84" s="186"/>
+      <c r="F84" s="186"/>
+      <c r="G84" s="50"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="184" t="s">
+        <v>539</v>
+      </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="186"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="2"/>
+      <c r="E85" s="286" t="s">
+        <v>583</v>
+      </c>
+      <c r="F85" s="186"/>
+      <c r="G85" s="50"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="184" t="s">
+        <v>392</v>
+      </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="186"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="2"/>
+      <c r="E86" s="286"/>
+      <c r="F86" s="186"/>
+      <c r="G86" s="50"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="184" t="s">
+        <v>653</v>
+      </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="186"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="2"/>
+      <c r="E87" s="286"/>
+      <c r="F87" s="186"/>
+      <c r="G87" s="50"/>
+    </row>
+    <row r="88" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B88" s="184" t="s">
+        <v>444</v>
+      </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="186"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="2"/>
-      <c r="D89" s="186"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="2"/>
+      <c r="E88" s="429" t="s">
+        <v>654</v>
+      </c>
+      <c r="F88" s="186"/>
+      <c r="G88" s="50"/>
+    </row>
+    <row r="89" spans="2:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="185" t="s">
+        <v>445</v>
+      </c>
+      <c r="C89" s="131"/>
+      <c r="D89" s="131"/>
+      <c r="E89" s="430" t="s">
+        <v>654</v>
+      </c>
+      <c r="F89" s="190"/>
+      <c r="G89" s="132"/>
+    </row>
+    <row r="90" spans="2:9" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="99"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="186"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
-      <c r="D91" s="186"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="2"/>
+      <c r="E90" s="429"/>
+      <c r="F90" s="186"/>
+    </row>
+    <row r="91" spans="2:9" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="200" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="127"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="191"/>
+      <c r="F91" s="191"/>
+      <c r="G91" s="128"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="199" t="s">
+        <v>393</v>
+      </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="186"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="2"/>
+      <c r="E92" s="186"/>
+      <c r="F92" s="186"/>
+      <c r="G92" s="50"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="199" t="s">
+        <v>394</v>
+      </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="186"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="2"/>
+      <c r="E93" s="186"/>
+      <c r="F93" s="186"/>
+      <c r="G93" s="50"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="199" t="s">
+        <v>395</v>
+      </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="186"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="2"/>
-      <c r="D95" s="186"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="2"/>
+      <c r="E94" s="186"/>
+      <c r="F94" s="186"/>
+      <c r="G94" s="50"/>
+    </row>
+    <row r="95" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="201" t="s">
+        <v>396</v>
+      </c>
+      <c r="C95" s="131"/>
+      <c r="D95" s="131"/>
+      <c r="E95" s="190"/>
+      <c r="F95" s="190"/>
+      <c r="G95" s="132"/>
+    </row>
+    <row r="96" spans="2:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="2"/>
       <c r="D96" s="186"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="2"/>
-      <c r="D97" s="186"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="183" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="127"/>
+      <c r="D97" s="127"/>
+      <c r="E97" s="191" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="290"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="184" t="s">
+        <v>84</v>
+      </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="186"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="2"/>
+      <c r="E98" s="186" t="s">
+        <v>42</v>
+      </c>
+      <c r="F98" s="287"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="184" t="s">
+        <v>81</v>
+      </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="186"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="2"/>
+      <c r="E99" s="186" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" s="287"/>
+    </row>
+    <row r="100" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B100" s="184" t="s">
+        <v>82</v>
+      </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="186"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="2"/>
+      <c r="E100" s="186" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="289" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="184" t="s">
+        <v>500</v>
+      </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="186"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="2"/>
+      <c r="E101" s="186" t="s">
+        <v>501</v>
+      </c>
+      <c r="F101" s="287"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="161" t="s">
+        <v>498</v>
+      </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="186"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="2"/>
-      <c r="D103" s="186"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="2"/>
+      <c r="E102" s="186" t="s">
+        <v>499</v>
+      </c>
+      <c r="F102" s="287"/>
+    </row>
+    <row r="103" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="163" t="s">
+        <v>502</v>
+      </c>
+      <c r="C103" s="131"/>
+      <c r="D103" s="131"/>
+      <c r="E103" s="190" t="s">
+        <v>503</v>
+      </c>
+      <c r="F103" s="288"/>
+    </row>
+    <row r="104" spans="2:6" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="186"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="186"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="186"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="186"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="186"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="186"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="186"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="186"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="186"/>
     </row>
@@ -21341,8 +21603,46 @@
       <c r="C171" s="2"/>
       <c r="D171" s="186"/>
     </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C172" s="2"/>
+      <c r="D172" s="186"/>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C173" s="2"/>
+      <c r="D173" s="186"/>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C174" s="2"/>
+      <c r="D174" s="186"/>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C175" s="2"/>
+      <c r="D175" s="186"/>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C176" s="2"/>
+      <c r="D176" s="186"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="27">
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:I81"/>
+    <mergeCell ref="H59:I62"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="G25:G34"/>
+    <mergeCell ref="F36:F45"/>
+    <mergeCell ref="G36:G45"/>
+    <mergeCell ref="F48:F57"/>
+    <mergeCell ref="G48:G57"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
     <mergeCell ref="F74:F75"/>
     <mergeCell ref="G74:G75"/>
     <mergeCell ref="H74:I75"/>
@@ -21352,18 +21652,6 @@
     <mergeCell ref="F69:F72"/>
     <mergeCell ref="G69:G72"/>
     <mergeCell ref="H69:I72"/>
-    <mergeCell ref="F36:F45"/>
-    <mergeCell ref="G36:G45"/>
-    <mergeCell ref="F48:F57"/>
-    <mergeCell ref="G48:G57"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:I62"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="G25:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -21417,15 +21705,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22293,15 +22581,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>550</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22428,7 +22716,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="314" t="s">
+      <c r="G12" s="333" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2"/>
@@ -22443,7 +22731,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="315"/>
+      <c r="G13" s="334"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -22458,7 +22746,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="316"/>
+      <c r="G14" s="335"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -22471,7 +22759,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="317" t="s">
+      <c r="G15" s="336" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="2"/>
@@ -22486,7 +22774,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="318"/>
+      <c r="G16" s="337"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -22499,7 +22787,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="318"/>
+      <c r="G17" s="337"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -22512,7 +22800,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="318"/>
+      <c r="G18" s="337"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -22525,7 +22813,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="319"/>
+      <c r="G19" s="338"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -22544,7 +22832,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="317" t="s">
+      <c r="G20" s="336" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="2"/>
@@ -22562,7 +22850,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="318"/>
+      <c r="G21" s="337"/>
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
@@ -22575,7 +22863,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="318"/>
+      <c r="G22" s="337"/>
     </row>
     <row r="23" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
@@ -22588,7 +22876,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="318"/>
+      <c r="G23" s="337"/>
     </row>
     <row r="24" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
@@ -22602,7 +22890,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="319"/>
+      <c r="G24" s="338"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
@@ -22616,7 +22904,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="317" t="s">
+      <c r="G25" s="336" t="s">
         <v>59</v>
       </c>
     </row>
@@ -22632,7 +22920,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="318"/>
+      <c r="G26" s="337"/>
     </row>
     <row r="27" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -22646,7 +22934,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="318"/>
+      <c r="G27" s="337"/>
     </row>
     <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
@@ -22660,7 +22948,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="318"/>
+      <c r="G28" s="337"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
@@ -22674,7 +22962,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="319"/>
+      <c r="G29" s="338"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -22920,7 +23208,7 @@
       <c r="E49" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="307" t="s">
+      <c r="F49" s="326" t="s">
         <v>201</v>
       </c>
     </row>
@@ -22933,7 +23221,7 @@
       <c r="E50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="308"/>
+      <c r="F50" s="327"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
@@ -22944,7 +23232,7 @@
       <c r="E51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="308"/>
+      <c r="F51" s="327"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
@@ -22955,20 +23243,20 @@
       <c r="E52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="308"/>
+      <c r="F52" s="327"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="133"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="F53" s="308"/>
+      <c r="F53" s="327"/>
     </row>
     <row r="54" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="134"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="309"/>
+      <c r="F54" s="328"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -23448,6 +23736,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
     <mergeCell ref="H30:H35"/>
     <mergeCell ref="H36:H41"/>
     <mergeCell ref="G30:G31"/>
@@ -23456,13 +23751,6 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23516,15 +23804,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -24391,15 +24679,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -25314,15 +25602,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -26189,15 +26477,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27064,15 +27352,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27939,15 +28227,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28814,15 +29102,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29689,15 +29977,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30564,15 +30852,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31402,15 +31690,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32280,14 +32568,14 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="339" t="s">
         <v>549</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="329"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="342"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32479,7 +32767,7 @@
       <c r="F16" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="330" t="s">
+      <c r="G16" s="343" t="s">
         <v>161</v>
       </c>
       <c r="H16" s="2"/>
@@ -32499,7 +32787,7 @@
       <c r="F17" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="331"/>
+      <c r="G17" s="344"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -32517,7 +32805,7 @@
       <c r="F18" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="331"/>
+      <c r="G18" s="344"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -32535,7 +32823,7 @@
       <c r="F19" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="331"/>
+      <c r="G19" s="344"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -32553,7 +32841,7 @@
       <c r="F20" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="331"/>
+      <c r="G20" s="344"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -32571,7 +32859,7 @@
       <c r="F21" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="331"/>
+      <c r="G21" s="344"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -32592,7 +32880,7 @@
       <c r="F23" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="332" t="s">
+      <c r="G23" s="345" t="s">
         <v>162</v>
       </c>
       <c r="H23" s="2"/>
@@ -32610,7 +32898,7 @@
       <c r="F24" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="332"/>
+      <c r="G24" s="345"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -32626,7 +32914,7 @@
       <c r="F25" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="332"/>
+      <c r="G25" s="345"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -32642,7 +32930,7 @@
       <c r="F26" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="332"/>
+      <c r="G26" s="345"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -32658,7 +32946,7 @@
       <c r="F27" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="332"/>
+      <c r="G27" s="345"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -32675,7 +32963,7 @@
       <c r="F28" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="333"/>
+      <c r="G28" s="346"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -32708,7 +32996,7 @@
         <v>158</v>
       </c>
       <c r="E32"/>
-      <c r="F32" s="337" t="s">
+      <c r="F32" s="350" t="s">
         <v>134</v>
       </c>
       <c r="G32"/>
@@ -32722,7 +33010,7 @@
         <v>158</v>
       </c>
       <c r="E33"/>
-      <c r="F33" s="337"/>
+      <c r="F33" s="350"/>
       <c r="G33"/>
       <c r="H33" s="2"/>
     </row>
@@ -32734,7 +33022,7 @@
         <v>158</v>
       </c>
       <c r="E34"/>
-      <c r="F34" s="337"/>
+      <c r="F34" s="350"/>
       <c r="G34"/>
       <c r="H34" s="2"/>
     </row>
@@ -32752,7 +33040,7 @@
         <v>144</v>
       </c>
       <c r="E36"/>
-      <c r="F36" s="337" t="s">
+      <c r="F36" s="350" t="s">
         <v>135</v>
       </c>
       <c r="G36"/>
@@ -32766,7 +33054,7 @@
         <v>144</v>
       </c>
       <c r="E37"/>
-      <c r="F37" s="337"/>
+      <c r="F37" s="350"/>
       <c r="G37"/>
       <c r="H37" s="2"/>
     </row>
@@ -32778,7 +33066,7 @@
         <v>144</v>
       </c>
       <c r="E38"/>
-      <c r="F38" s="337"/>
+      <c r="F38" s="350"/>
       <c r="G38"/>
       <c r="H38" s="2"/>
     </row>
@@ -32796,7 +33084,7 @@
         <v>144</v>
       </c>
       <c r="E40"/>
-      <c r="F40" s="337" t="s">
+      <c r="F40" s="350" t="s">
         <v>136</v>
       </c>
       <c r="G40"/>
@@ -32810,7 +33098,7 @@
         <v>144</v>
       </c>
       <c r="E41"/>
-      <c r="F41" s="337"/>
+      <c r="F41" s="350"/>
       <c r="G41"/>
       <c r="H41" s="2"/>
     </row>
@@ -32822,7 +33110,7 @@
         <v>144</v>
       </c>
       <c r="E42"/>
-      <c r="F42" s="337"/>
+      <c r="F42" s="350"/>
       <c r="G42"/>
       <c r="H42" s="2"/>
     </row>
@@ -32951,10 +33239,10 @@
       <c r="C57" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="336" t="s">
+      <c r="F57" s="349" t="s">
         <v>200</v>
       </c>
-      <c r="G57" s="334" t="s">
+      <c r="G57" s="347" t="s">
         <v>193</v>
       </c>
     </row>
@@ -32965,8 +33253,8 @@
       <c r="C58" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="336"/>
-      <c r="G58" s="335"/>
+      <c r="F58" s="349"/>
+      <c r="G58" s="348"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="214" t="s">
@@ -32976,8 +33264,8 @@
         <v>144</v>
       </c>
       <c r="D59"/>
-      <c r="F59" s="336"/>
-      <c r="G59" s="335"/>
+      <c r="F59" s="349"/>
+      <c r="G59" s="348"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="214" t="s">
@@ -32986,8 +33274,8 @@
       <c r="C60" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="336"/>
-      <c r="G60" s="335"/>
+      <c r="F60" s="349"/>
+      <c r="G60" s="348"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="214" t="s">
@@ -33091,15 +33379,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33966,15 +34254,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -34841,15 +35129,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35716,15 +36004,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -36591,15 +36879,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37466,15 +37754,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38341,15 +38629,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -39216,15 +39504,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -40091,15 +40379,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -40966,15 +41254,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -41837,15 +42125,15 @@
       <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="352" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="341" t="s">
+      <c r="B3" s="353"/>
+      <c r="C3" s="354" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="341"/>
-      <c r="E3" s="342"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="355"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="267" t="s">
@@ -41859,13 +42147,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="256"/>
-      <c r="F4" s="343" t="s">
+      <c r="F4" s="356" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="343"/>
-      <c r="H4" s="343"/>
-      <c r="I4" s="343"/>
-      <c r="J4" s="343"/>
+      <c r="G4" s="356"/>
+      <c r="H4" s="356"/>
+      <c r="I4" s="356"/>
+      <c r="J4" s="356"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="267" t="s">
@@ -41879,11 +42167,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="256"/>
-      <c r="F5" s="338"/>
-      <c r="G5" s="338"/>
-      <c r="H5" s="338"/>
-      <c r="I5" s="338"/>
-      <c r="J5" s="338"/>
+      <c r="F5" s="351"/>
+      <c r="G5" s="351"/>
+      <c r="H5" s="351"/>
+      <c r="I5" s="351"/>
+      <c r="J5" s="351"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="267" t="s">
@@ -41897,11 +42185,11 @@
         <v>12</v>
       </c>
       <c r="E6" s="256"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="338"/>
-      <c r="I6" s="338"/>
-      <c r="J6" s="338"/>
+      <c r="F6" s="351"/>
+      <c r="G6" s="351"/>
+      <c r="H6" s="351"/>
+      <c r="I6" s="351"/>
+      <c r="J6" s="351"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="267" t="s">
@@ -41915,11 +42203,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="256"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="338"/>
-      <c r="I7" s="338"/>
-      <c r="J7" s="338"/>
+      <c r="F7" s="351"/>
+      <c r="G7" s="351"/>
+      <c r="H7" s="351"/>
+      <c r="I7" s="351"/>
+      <c r="J7" s="351"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="267" t="s">
@@ -42002,10 +42290,10 @@
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="59"/>
-      <c r="F15" s="338"/>
-      <c r="G15" s="338"/>
-      <c r="H15" s="338"/>
-      <c r="I15" s="338"/>
+      <c r="F15" s="351"/>
+      <c r="G15" s="351"/>
+      <c r="H15" s="351"/>
+      <c r="I15" s="351"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
@@ -42017,10 +42305,10 @@
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="338"/>
-      <c r="G16" s="338"/>
-      <c r="H16" s="338"/>
-      <c r="I16" s="338"/>
+      <c r="F16" s="351"/>
+      <c r="G16" s="351"/>
+      <c r="H16" s="351"/>
+      <c r="I16" s="351"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
@@ -42032,12 +42320,12 @@
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="59"/>
-      <c r="F17" s="343" t="s">
+      <c r="F17" s="356" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="338"/>
-      <c r="H17" s="338"/>
-      <c r="I17" s="338"/>
+      <c r="G17" s="351"/>
+      <c r="H17" s="351"/>
+      <c r="I17" s="351"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
@@ -42049,10 +42337,10 @@
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="59"/>
-      <c r="F18" s="338"/>
-      <c r="G18" s="338"/>
-      <c r="H18" s="338"/>
-      <c r="I18" s="338"/>
+      <c r="F18" s="351"/>
+      <c r="G18" s="351"/>
+      <c r="H18" s="351"/>
+      <c r="I18" s="351"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
@@ -42064,10 +42352,10 @@
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="59"/>
-      <c r="F19" s="338"/>
-      <c r="G19" s="338"/>
-      <c r="H19" s="338"/>
-      <c r="I19" s="338"/>
+      <c r="F19" s="351"/>
+      <c r="G19" s="351"/>
+      <c r="H19" s="351"/>
+      <c r="I19" s="351"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
@@ -42079,10 +42367,10 @@
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="338"/>
-      <c r="G20" s="338"/>
-      <c r="H20" s="338"/>
-      <c r="I20" s="338"/>
+      <c r="F20" s="351"/>
+      <c r="G20" s="351"/>
+      <c r="H20" s="351"/>
+      <c r="I20" s="351"/>
     </row>
     <row r="21" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
@@ -42766,15 +43054,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="344" t="s">
+      <c r="B3" s="357" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="345"/>
-      <c r="D3" s="312" t="s">
+      <c r="C3" s="358"/>
+      <c r="D3" s="331" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -43199,10 +43487,10 @@
       <c r="E34" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F34" s="346" t="s">
+      <c r="F34" s="359" t="s">
         <v>295</v>
       </c>
-      <c r="G34" s="348" t="s">
+      <c r="G34" s="361" t="s">
         <v>284</v>
       </c>
       <c r="H34" s="2"/>
@@ -43216,8 +43504,8 @@
       <c r="E35" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F35" s="347"/>
-      <c r="G35" s="348"/>
+      <c r="F35" s="360"/>
+      <c r="G35" s="361"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43254,7 +43542,7 @@
       <c r="E39" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="349" t="s">
+      <c r="F39" s="362" t="s">
         <v>504</v>
       </c>
       <c r="H39" s="2"/>
@@ -43268,7 +43556,7 @@
       <c r="E40" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="350"/>
+      <c r="F40" s="363"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43280,7 +43568,7 @@
       <c r="E41" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="350"/>
+      <c r="F41" s="363"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43292,7 +43580,7 @@
       <c r="E42" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="350"/>
+      <c r="F42" s="363"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -43304,7 +43592,7 @@
       <c r="E43" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F43" s="350"/>
+      <c r="F43" s="363"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -43316,7 +43604,7 @@
       <c r="E44" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F44" s="350"/>
+      <c r="F44" s="363"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -43328,7 +43616,7 @@
       <c r="E45" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F45" s="351"/>
+      <c r="F45" s="364"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -43899,15 +44187,15 @@
     </row>
     <row r="2" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="330" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="311"/>
-      <c r="F3" s="354"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="367"/>
     </row>
     <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="223" t="s">
@@ -44009,7 +44297,7 @@
       <c r="E13" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="355" t="s">
+      <c r="F13" s="368" t="s">
         <v>303</v>
       </c>
     </row>
@@ -44020,7 +44308,7 @@
       <c r="E14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="356"/>
+      <c r="F14" s="369"/>
     </row>
     <row r="15" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="153" t="s">
@@ -44159,7 +44447,7 @@
         <v>335</v>
       </c>
       <c r="F29" s="240"/>
-      <c r="G29" s="352" t="s">
+      <c r="G29" s="365" t="s">
         <v>329</v>
       </c>
     </row>
@@ -44174,14 +44462,14 @@
         <v>336</v>
       </c>
       <c r="F30" s="241"/>
-      <c r="G30" s="353"/>
+      <c r="G30" s="366"/>
     </row>
     <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="151" t="s">
         <v>330</v>
       </c>
       <c r="F31" s="241"/>
-      <c r="G31" s="353"/>
+      <c r="G31" s="366"/>
     </row>
     <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="151" t="s">
@@ -44196,7 +44484,7 @@
       <c r="F32" s="242" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="353"/>
+      <c r="G32" s="366"/>
     </row>
     <row r="33" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="151" t="s">
@@ -44209,21 +44497,21 @@
         <v>336</v>
       </c>
       <c r="F33" s="241"/>
-      <c r="G33" s="353"/>
+      <c r="G33" s="366"/>
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="151" t="s">
         <v>331</v>
       </c>
       <c r="F34" s="236"/>
-      <c r="G34" s="353"/>
+      <c r="G34" s="366"/>
     </row>
     <row r="35" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="151" t="s">
         <v>332</v>
       </c>
       <c r="F35" s="236"/>
-      <c r="G35" s="353"/>
+      <c r="G35" s="366"/>
     </row>
     <row r="36" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="151" t="s">
@@ -44257,7 +44545,7 @@
       <c r="D40" s="149"/>
       <c r="E40" s="233"/>
       <c r="F40" s="235"/>
-      <c r="G40" s="352" t="s">
+      <c r="G40" s="365" t="s">
         <v>348</v>
       </c>
     </row>
@@ -44269,7 +44557,7 @@
         <v>144</v>
       </c>
       <c r="F41" s="236"/>
-      <c r="G41" s="353"/>
+      <c r="G41" s="366"/>
     </row>
     <row r="42" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="151" t="s">
@@ -44279,7 +44567,7 @@
         <v>144</v>
       </c>
       <c r="F42" s="236"/>
-      <c r="G42" s="353"/>
+      <c r="G42" s="366"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="151" t="s">
@@ -44289,7 +44577,7 @@
         <v>144</v>
       </c>
       <c r="F43" s="236"/>
-      <c r="G43" s="353"/>
+      <c r="G43" s="366"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="151" t="s">
@@ -44301,7 +44589,7 @@
       <c r="F44" s="237" t="s">
         <v>338</v>
       </c>
-      <c r="G44" s="353"/>
+      <c r="G44" s="366"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="151" t="s">
@@ -44311,7 +44599,7 @@
         <v>144</v>
       </c>
       <c r="F45" s="236"/>
-      <c r="G45" s="353"/>
+      <c r="G45" s="366"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="151" t="s">
@@ -44321,7 +44609,7 @@
         <v>144</v>
       </c>
       <c r="F46" s="236"/>
-      <c r="G46" s="353"/>
+      <c r="G46" s="366"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="151" t="s">
@@ -44331,7 +44619,7 @@
         <v>144</v>
       </c>
       <c r="F47" s="236"/>
-      <c r="G47" s="353"/>
+      <c r="G47" s="366"/>
     </row>
     <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="153" t="s">
@@ -44343,7 +44631,7 @@
       <c r="D48" s="154"/>
       <c r="E48" s="239"/>
       <c r="F48" s="238"/>
-      <c r="G48" s="353"/>
+      <c r="G48" s="366"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
@@ -44450,7 +44738,7 @@
       <c r="E65" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="349" t="s">
+      <c r="F65" s="362" t="s">
         <v>504</v>
       </c>
     </row>
@@ -44463,7 +44751,7 @@
       <c r="E66" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="350"/>
+      <c r="F66" s="363"/>
     </row>
     <row r="67" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B67" s="184" t="s">
@@ -44474,7 +44762,7 @@
       <c r="E67" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="350"/>
+      <c r="F67" s="363"/>
     </row>
     <row r="68" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B68" s="184" t="s">
@@ -44485,7 +44773,7 @@
       <c r="E68" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="350"/>
+      <c r="F68" s="363"/>
     </row>
     <row r="69" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B69" s="184" t="s">
@@ -44496,7 +44784,7 @@
       <c r="E69" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F69" s="350"/>
+      <c r="F69" s="363"/>
     </row>
     <row r="70" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B70" s="161" t="s">
@@ -44507,7 +44795,7 @@
       <c r="E70" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F70" s="350"/>
+      <c r="F70" s="363"/>
     </row>
     <row r="71" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="163" t="s">
@@ -44518,7 +44806,7 @@
       <c r="E71" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F71" s="351"/>
+      <c r="F71" s="364"/>
     </row>
     <row r="72" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -44582,15 +44870,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="359" t="s">
+      <c r="B3" s="372" t="s">
         <v>397</v>
       </c>
-      <c r="C3" s="360"/>
-      <c r="D3" s="361" t="s">
+      <c r="C3" s="373"/>
+      <c r="D3" s="374" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="361"/>
-      <c r="F3" s="362"/>
+      <c r="E3" s="374"/>
+      <c r="F3" s="375"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -44717,7 +45005,7 @@
       <c r="E13" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="363" t="s">
+      <c r="F13" s="376" t="s">
         <v>303</v>
       </c>
       <c r="H13" s="2"/>
@@ -44731,7 +45019,7 @@
       <c r="E14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="363"/>
+      <c r="F14" s="376"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -44843,7 +45131,7 @@
       <c r="E24" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="F24" s="358" t="s">
+      <c r="F24" s="371" t="s">
         <v>318</v>
       </c>
       <c r="H24" s="2"/>
@@ -44857,7 +45145,7 @@
       <c r="E25" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="358"/>
+      <c r="F25" s="371"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44877,10 +45165,10 @@
       <c r="E27" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="F27" s="358" t="s">
+      <c r="F27" s="371" t="s">
         <v>327</v>
       </c>
-      <c r="G27" s="357" t="s">
+      <c r="G27" s="370" t="s">
         <v>373</v>
       </c>
       <c r="H27" s="2"/>
@@ -44896,8 +45184,8 @@
       <c r="E28" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F28" s="358"/>
-      <c r="G28" s="357"/>
+      <c r="F28" s="371"/>
+      <c r="G28" s="370"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44906,8 +45194,8 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="F29" s="358"/>
-      <c r="G29" s="357"/>
+      <c r="F29" s="371"/>
+      <c r="G29" s="370"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44916,8 +45204,8 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="358"/>
-      <c r="G30" s="357"/>
+      <c r="F30" s="371"/>
+      <c r="G30" s="370"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44931,8 +45219,8 @@
       <c r="E31" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="358"/>
-      <c r="G31" s="357"/>
+      <c r="F31" s="371"/>
+      <c r="G31" s="370"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44946,7 +45234,7 @@
       <c r="E32" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="G32" s="357"/>
+      <c r="G32" s="370"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44955,7 +45243,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="G33" s="357"/>
+      <c r="G33" s="370"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44986,7 +45274,7 @@
       <c r="E36" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F36" s="358" t="s">
+      <c r="F36" s="371" t="s">
         <v>338</v>
       </c>
       <c r="H36" s="2"/>
@@ -45000,7 +45288,7 @@
       <c r="E37" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F37" s="358"/>
+      <c r="F37" s="371"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -45014,7 +45302,7 @@
       <c r="E38" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F38" s="358"/>
+      <c r="F38" s="371"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45026,7 +45314,7 @@
       <c r="E39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F39" s="358"/>
+      <c r="F39" s="371"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -45038,7 +45326,7 @@
       <c r="E40" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F40" s="358"/>
+      <c r="F40" s="371"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45052,7 +45340,7 @@
       <c r="E41" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F41" s="358"/>
+      <c r="F41" s="371"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -45064,7 +45352,7 @@
       <c r="E42" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F42" s="358"/>
+      <c r="F42" s="371"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -45076,7 +45364,7 @@
       <c r="E43" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F43" s="358"/>
+      <c r="F43" s="371"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -45102,7 +45390,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="G46" s="357" t="s">
+      <c r="G46" s="370" t="s">
         <v>373</v>
       </c>
       <c r="H46" s="2"/>
@@ -45113,7 +45401,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="G47" s="357"/>
+      <c r="G47" s="370"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -45125,7 +45413,7 @@
       <c r="E48" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G48" s="357"/>
+      <c r="G48" s="370"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -45134,7 +45422,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="G49" s="357"/>
+      <c r="G49" s="370"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -45143,7 +45431,7 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="G50" s="357"/>
+      <c r="G50" s="370"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -45152,7 +45440,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="G51" s="357"/>
+      <c r="G51" s="370"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="101" t="s">
@@ -45160,7 +45448,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="G52" s="357"/>
+      <c r="G52" s="370"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="101" t="s">
@@ -45695,10 +45983,10 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="329" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="311"/>
+      <c r="C3" s="330"/>
       <c r="D3" s="117"/>
       <c r="E3" s="118" t="s">
         <v>92</v>
@@ -45969,7 +46257,7 @@
       <c r="E25" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F25" s="364" t="s">
+      <c r="F25" s="377" t="s">
         <v>407</v>
       </c>
       <c r="H25" s="2"/>
@@ -45985,7 +46273,7 @@
       <c r="E26" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F26" s="364"/>
+      <c r="F26" s="377"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -45999,7 +46287,7 @@
       <c r="E27" s="88" t="s">
         <v>405</v>
       </c>
-      <c r="F27" s="364"/>
+      <c r="F27" s="377"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46013,7 +46301,7 @@
       <c r="E28" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F28" s="364"/>
+      <c r="F28" s="377"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -46027,7 +46315,7 @@
       <c r="E29" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F29" s="364"/>
+      <c r="F29" s="377"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46036,7 +46324,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="364"/>
+      <c r="F30" s="377"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -46045,7 +46333,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="F31" s="364"/>
+      <c r="F31" s="377"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46063,7 +46351,7 @@
       <c r="E33" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F33" s="364" t="s">
+      <c r="F33" s="377" t="s">
         <v>338</v>
       </c>
       <c r="H33" s="2"/>
@@ -46074,7 +46362,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="F34" s="364"/>
+      <c r="F34" s="377"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -46086,7 +46374,7 @@
       <c r="E35" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F35" s="364"/>
+      <c r="F35" s="377"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46095,7 +46383,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="364"/>
+      <c r="F36" s="377"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -46113,7 +46401,7 @@
       <c r="E38" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F38" s="364" t="s">
+      <c r="F38" s="377" t="s">
         <v>412</v>
       </c>
       <c r="H38" s="2"/>
@@ -46124,7 +46412,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="364"/>
+      <c r="F39" s="377"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -46136,7 +46424,7 @@
       <c r="E40" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F40" s="364"/>
+      <c r="F40" s="377"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -46145,7 +46433,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="F41" s="364"/>
+      <c r="F41" s="377"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -46167,7 +46455,7 @@
       <c r="F44" s="109" t="s">
         <v>419</v>
       </c>
-      <c r="G44" s="357" t="s">
+      <c r="G44" s="370" t="s">
         <v>420</v>
       </c>
       <c r="H44" s="2"/>
@@ -46176,7 +46464,7 @@
       <c r="B45" s="88"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="G45" s="365"/>
+      <c r="G45" s="378"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" tabRatio="884" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" tabRatio="884" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="679">
   <si>
     <t>استان</t>
   </si>
@@ -2632,12 +2632,52 @@
   <si>
     <t xml:space="preserve"> (مستندات پيوست شود) E/R وF/R </t>
   </si>
+  <si>
+    <t>testsheet19_rele_ezafe_jarian</t>
+  </si>
+  <si>
+    <t>تست شیت  رله اضافه جریان</t>
+  </si>
+  <si>
+    <t>زمان تنظيمي: بر حسب ثانیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ج) تنظيمات رله</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>B مرحله</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">    TYPE OF FUALT </t>
+    </r>
+  </si>
+  <si>
+    <t>تست شیت برگ آزمايش رله اضافه شار</t>
+  </si>
+  <si>
+    <t>testsheet20_azmayesh_rele_ezafe_shar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3007,6 +3047,18 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="12">
@@ -3408,7 +3460,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="445">
+  <cellXfs count="463">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4350,6 +4402,39 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4542,15 +4627,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4571,6 +4647,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4653,7 +4738,7 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4661,6 +4746,18 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4683,44 +4780,53 @@
     <xf numFmtId="0" fontId="51" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5805,10 +5911,10 @@
       <xdr:rowOff>19397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3949238</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>149284</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2078</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5817,8 +5923,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8130540" y="392777"/>
-          <a:ext cx="3758738" cy="655667"/>
+          <a:off x="7871460" y="392777"/>
+          <a:ext cx="2036618" cy="1093123"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10503,15 +10609,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="380" t="s">
+      <c r="B3" s="391" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="381"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="392"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -10965,10 +11071,10 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="383" t="s">
+      <c r="F44" s="394" t="s">
         <v>349</v>
       </c>
-      <c r="G44" s="382" t="s">
+      <c r="G44" s="393" t="s">
         <v>433</v>
       </c>
       <c r="H44" s="2"/>
@@ -10979,8 +11085,8 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="383"/>
-      <c r="G45" s="382"/>
+      <c r="F45" s="394"/>
+      <c r="G45" s="393"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -11573,15 +11679,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11805,7 +11911,7 @@
       <c r="E20" s="159" t="s">
         <v>437</v>
       </c>
-      <c r="F20" s="384" t="s">
+      <c r="F20" s="395" t="s">
         <v>327</v>
       </c>
       <c r="H20" s="2"/>
@@ -11819,7 +11925,7 @@
       <c r="E21" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F21" s="361"/>
+      <c r="F21" s="372"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11828,7 +11934,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="361"/>
+      <c r="F22" s="372"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11837,7 +11943,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="F23" s="361"/>
+      <c r="F23" s="372"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11849,7 +11955,7 @@
       <c r="E24" s="87" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="361"/>
+      <c r="F24" s="372"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11861,7 +11967,7 @@
       <c r="E25" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F25" s="361"/>
+      <c r="F25" s="372"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11870,7 +11976,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="361"/>
+      <c r="F26" s="372"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12588,15 +12694,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>547</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>449</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12694,7 +12800,7 @@
         <v>451</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="328" t="s">
+      <c r="G11" s="339" t="s">
         <v>450</v>
       </c>
     </row>
@@ -12708,7 +12814,7 @@
         <v>453</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="329"/>
+      <c r="G12" s="340"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -12720,7 +12826,7 @@
         <v>454</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="329"/>
+      <c r="G13" s="340"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -12732,7 +12838,7 @@
         <v>457</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="329"/>
+      <c r="G14" s="340"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -12744,7 +12850,7 @@
         <v>458</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="329"/>
+      <c r="G15" s="340"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -12762,7 +12868,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="328" t="s">
+      <c r="G17" s="339" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2"/>
@@ -12777,7 +12883,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="329"/>
+      <c r="G18" s="340"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -12792,7 +12898,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="330"/>
+      <c r="G19" s="341"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -12805,7 +12911,7 @@
         <v>464</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="331" t="s">
+      <c r="G20" s="342" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="2"/>
@@ -12820,7 +12926,7 @@
         <v>467</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="332"/>
+      <c r="G21" s="343"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -12833,7 +12939,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="332"/>
+      <c r="G22" s="343"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -12846,7 +12952,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="332"/>
+      <c r="G23" s="343"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -12859,7 +12965,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="333"/>
+      <c r="G24" s="344"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -12874,7 +12980,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="331" t="s">
+      <c r="G25" s="342" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="2"/>
@@ -12889,7 +12995,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="332"/>
+      <c r="G26" s="343"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -12899,7 +13005,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="332"/>
+      <c r="G27" s="343"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
@@ -12909,7 +13015,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="332"/>
+      <c r="G28" s="343"/>
     </row>
     <row r="29" spans="2:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
@@ -12921,7 +13027,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="333"/>
+      <c r="G29" s="344"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
@@ -12933,7 +13039,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="331" t="s">
+      <c r="G30" s="342" t="s">
         <v>59</v>
       </c>
     </row>
@@ -12947,7 +13053,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="332"/>
+      <c r="G31" s="343"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
@@ -12959,7 +13065,7 @@
         <v>23</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="332"/>
+      <c r="G32" s="343"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
@@ -12971,7 +13077,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="332"/>
+      <c r="G33" s="343"/>
     </row>
     <row r="34" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
@@ -12983,7 +13089,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="333"/>
+      <c r="G34" s="344"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
@@ -12995,10 +13101,10 @@
         <v>26</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="337" t="s">
+      <c r="G35" s="348" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="334" t="s">
+      <c r="H35" s="345" t="s">
         <v>28</v>
       </c>
     </row>
@@ -13012,8 +13118,8 @@
         <v>27</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="338"/>
-      <c r="H36" s="335"/>
+      <c r="G36" s="349"/>
+      <c r="H36" s="346"/>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
@@ -13025,10 +13131,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="337" t="s">
+      <c r="G37" s="348" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="335"/>
+      <c r="H37" s="346"/>
     </row>
     <row r="38" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
@@ -13040,8 +13146,8 @@
         <v>27</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="339"/>
-      <c r="H38" s="335"/>
+      <c r="G38" s="350"/>
+      <c r="H38" s="346"/>
     </row>
     <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
@@ -13053,10 +13159,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="13"/>
-      <c r="G39" s="338" t="s">
+      <c r="G39" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="335"/>
+      <c r="H39" s="346"/>
     </row>
     <row r="40" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
@@ -13068,8 +13174,8 @@
         <v>27</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="338"/>
-      <c r="H40" s="336"/>
+      <c r="G40" s="349"/>
+      <c r="H40" s="347"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
@@ -13081,10 +13187,10 @@
         <v>26</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="337" t="s">
+      <c r="G41" s="348" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="335" t="s">
+      <c r="H41" s="346" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13098,8 +13204,8 @@
         <v>27</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="339"/>
-      <c r="H42" s="335"/>
+      <c r="G42" s="350"/>
+      <c r="H42" s="346"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
@@ -13111,10 +13217,10 @@
         <v>26</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="337" t="s">
+      <c r="G43" s="348" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="335"/>
+      <c r="H43" s="346"/>
     </row>
     <row r="44" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
@@ -13126,8 +13232,8 @@
         <v>27</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="339"/>
-      <c r="H44" s="335"/>
+      <c r="G44" s="350"/>
+      <c r="H44" s="346"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
@@ -13139,10 +13245,10 @@
         <v>26</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="338" t="s">
+      <c r="G45" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="335"/>
+      <c r="H45" s="346"/>
     </row>
     <row r="46" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
@@ -13154,8 +13260,8 @@
         <v>27</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="339"/>
-      <c r="H46" s="336"/>
+      <c r="G46" s="350"/>
+      <c r="H46" s="347"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
@@ -13791,15 +13897,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>546</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>468</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -13914,7 +14020,7 @@
         <v>451</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="328" t="s">
+      <c r="G12" s="339" t="s">
         <v>450</v>
       </c>
       <c r="H12" s="2"/>
@@ -13929,7 +14035,7 @@
         <v>453</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="329"/>
+      <c r="G13" s="340"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -13942,7 +14048,7 @@
         <v>454</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="329"/>
+      <c r="G14" s="340"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -13955,7 +14061,7 @@
         <v>457</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="329"/>
+      <c r="G15" s="340"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -13970,7 +14076,7 @@
         <v>458</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="330"/>
+      <c r="G16" s="341"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -14001,7 +14107,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="331" t="s">
+      <c r="G19" s="342" t="s">
         <v>474</v>
       </c>
       <c r="H19" s="2"/>
@@ -14014,7 +14120,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="332"/>
+      <c r="G20" s="343"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14025,7 +14131,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="332"/>
+      <c r="G21" s="343"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14036,7 +14142,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="332"/>
+      <c r="G22" s="343"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14049,7 +14155,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="333"/>
+      <c r="G23" s="344"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14068,7 +14174,7 @@
         <v>480</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="331" t="s">
+      <c r="G25" s="342" t="s">
         <v>475</v>
       </c>
       <c r="H25" s="121" t="s">
@@ -14083,7 +14189,7 @@
         <v>479</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="332"/>
+      <c r="G26" s="343"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14096,7 +14202,7 @@
         <v>178</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="333"/>
+      <c r="G27" s="344"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14128,7 +14234,7 @@
       <c r="F30" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="G30" s="331" t="s">
+      <c r="G30" s="342" t="s">
         <v>481</v>
       </c>
       <c r="H30" s="2"/>
@@ -14149,7 +14255,7 @@
       <c r="F31" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G31" s="332"/>
+      <c r="G31" s="343"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14163,7 +14269,7 @@
         <v>484</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="332"/>
+      <c r="G32" s="343"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14178,7 +14284,7 @@
         <v>483</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="333"/>
+      <c r="G33" s="344"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14201,7 +14307,7 @@
       <c r="F35" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="G35" s="331" t="s">
+      <c r="G35" s="342" t="s">
         <v>485</v>
       </c>
       <c r="H35" s="2"/>
@@ -14219,7 +14325,7 @@
       <c r="F36" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G36" s="332"/>
+      <c r="G36" s="343"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14235,7 +14341,7 @@
       <c r="F37" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G37" s="332"/>
+      <c r="G37" s="343"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14250,7 +14356,7 @@
         <v>483</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="333"/>
+      <c r="G38" s="344"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
@@ -14273,7 +14379,7 @@
       <c r="F40" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="G40" s="331" t="s">
+      <c r="G40" s="342" t="s">
         <v>489</v>
       </c>
       <c r="H40" s="2"/>
@@ -14292,7 +14398,7 @@
       <c r="F41" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G41" s="332"/>
+      <c r="G41" s="343"/>
       <c r="H41"/>
     </row>
     <row r="42" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14308,7 +14414,7 @@
       <c r="F42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G42" s="332"/>
+      <c r="G42" s="343"/>
       <c r="H42" s="125" t="s">
         <v>493</v>
       </c>
@@ -14325,7 +14431,7 @@
         <v>483</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="333"/>
+      <c r="G43" s="344"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
@@ -14458,7 +14564,7 @@
       <c r="E57" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="321" t="s">
+      <c r="F57" s="332" t="s">
         <v>504</v>
       </c>
     </row>
@@ -14471,7 +14577,7 @@
       <c r="E58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="322"/>
+      <c r="F58" s="333"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
@@ -14482,7 +14588,7 @@
       <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="322"/>
+      <c r="F59" s="333"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
@@ -14493,7 +14599,7 @@
       <c r="E60" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="322"/>
+      <c r="F60" s="333"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="136" t="s">
@@ -14504,7 +14610,7 @@
       <c r="E61" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F61" s="322"/>
+      <c r="F61" s="333"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -14515,7 +14621,7 @@
       <c r="E62" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F62" s="322"/>
+      <c r="F62" s="333"/>
     </row>
     <row r="63" spans="2:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="137" t="s">
@@ -14526,7 +14632,7 @@
       <c r="E63" s="135" t="s">
         <v>503</v>
       </c>
-      <c r="F63" s="323"/>
+      <c r="F63" s="334"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
@@ -15000,15 +15106,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="394" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="402" t="s">
         <v>505</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15271,7 +15377,7 @@
       <c r="E24" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="385" t="s">
+      <c r="F24" s="403" t="s">
         <v>552</v>
       </c>
       <c r="G24" s="176" t="s">
@@ -15288,7 +15394,7 @@
       <c r="E25" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F25" s="386"/>
+      <c r="F25" s="404"/>
       <c r="G25" s="177" t="s">
         <v>178</v>
       </c>
@@ -15300,7 +15406,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="386"/>
+      <c r="F26" s="404"/>
       <c r="G26" s="177"/>
       <c r="H26" s="2"/>
     </row>
@@ -15310,7 +15416,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="F27" s="386"/>
+      <c r="F27" s="404"/>
       <c r="G27" s="177"/>
       <c r="H27" s="2"/>
     </row>
@@ -15323,7 +15429,7 @@
       <c r="E28" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F28" s="386"/>
+      <c r="F28" s="404"/>
       <c r="G28" s="285" t="s">
         <v>509</v>
       </c>
@@ -15335,7 +15441,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="F29" s="386"/>
+      <c r="F29" s="404"/>
       <c r="G29" s="178"/>
       <c r="H29" s="2"/>
     </row>
@@ -15345,7 +15451,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="386"/>
+      <c r="F30" s="404"/>
       <c r="G30" s="178"/>
       <c r="H30" s="2"/>
     </row>
@@ -15356,7 +15462,7 @@
       <c r="C31" s="131"/>
       <c r="D31" s="131"/>
       <c r="E31" s="190"/>
-      <c r="F31" s="387"/>
+      <c r="F31" s="405"/>
       <c r="G31" s="179"/>
       <c r="H31" s="2"/>
     </row>
@@ -15375,7 +15481,7 @@
       <c r="E33" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F33" s="385" t="s">
+      <c r="F33" s="403" t="s">
         <v>552</v>
       </c>
       <c r="G33" s="176" t="s">
@@ -15392,7 +15498,7 @@
       <c r="E34" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F34" s="386"/>
+      <c r="F34" s="404"/>
       <c r="G34" s="177" t="s">
         <v>178</v>
       </c>
@@ -15404,7 +15510,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="F35" s="386"/>
+      <c r="F35" s="404"/>
       <c r="G35" s="177"/>
       <c r="H35" s="2"/>
     </row>
@@ -15414,7 +15520,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="386"/>
+      <c r="F36" s="404"/>
       <c r="G36" s="177"/>
       <c r="H36" s="2"/>
     </row>
@@ -15427,7 +15533,7 @@
       <c r="E37" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F37" s="386"/>
+      <c r="F37" s="404"/>
       <c r="G37" s="285" t="s">
         <v>509</v>
       </c>
@@ -15439,7 +15545,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="F38" s="386"/>
+      <c r="F38" s="404"/>
       <c r="G38" s="178"/>
       <c r="H38" s="2"/>
     </row>
@@ -15449,7 +15555,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="386"/>
+      <c r="F39" s="404"/>
       <c r="G39" s="178"/>
       <c r="H39" s="2"/>
     </row>
@@ -15460,7 +15566,7 @@
       <c r="C40" s="131"/>
       <c r="D40" s="131"/>
       <c r="E40" s="190"/>
-      <c r="F40" s="387"/>
+      <c r="F40" s="405"/>
       <c r="G40" s="179"/>
       <c r="H40" s="2"/>
     </row>
@@ -15479,7 +15585,7 @@
       <c r="E42" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="F42" s="385" t="s">
+      <c r="F42" s="403" t="s">
         <v>553</v>
       </c>
       <c r="G42" s="176" t="s">
@@ -15496,7 +15602,7 @@
       <c r="E43" s="186" t="s">
         <v>511</v>
       </c>
-      <c r="F43" s="386"/>
+      <c r="F43" s="404"/>
       <c r="G43" s="177" t="s">
         <v>178</v>
       </c>
@@ -15508,7 +15614,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="386"/>
+      <c r="F44" s="404"/>
       <c r="G44" s="177"/>
       <c r="H44" s="2"/>
     </row>
@@ -15518,7 +15624,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="386"/>
+      <c r="F45" s="404"/>
       <c r="G45" s="177"/>
       <c r="H45" s="2"/>
     </row>
@@ -15531,7 +15637,7 @@
       <c r="E46" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="F46" s="386"/>
+      <c r="F46" s="404"/>
       <c r="G46" s="285" t="s">
         <v>509</v>
       </c>
@@ -15543,7 +15649,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="F47" s="386"/>
+      <c r="F47" s="404"/>
       <c r="G47" s="178"/>
       <c r="H47" s="2"/>
     </row>
@@ -15553,7 +15659,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="F48" s="386"/>
+      <c r="F48" s="404"/>
       <c r="G48" s="178"/>
       <c r="H48" s="2"/>
     </row>
@@ -15564,7 +15670,7 @@
       <c r="C49" s="131"/>
       <c r="D49" s="131"/>
       <c r="E49" s="190"/>
-      <c r="F49" s="387"/>
+      <c r="F49" s="405"/>
       <c r="G49" s="179"/>
     </row>
     <row r="50" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15581,10 +15687,10 @@
       <c r="E51" s="191" t="s">
         <v>526</v>
       </c>
-      <c r="F51" s="391" t="s">
+      <c r="F51" s="399" t="s">
         <v>525</v>
       </c>
-      <c r="G51" s="388" t="s">
+      <c r="G51" s="396" t="s">
         <v>338</v>
       </c>
     </row>
@@ -15597,8 +15703,8 @@
       <c r="E52" s="186" t="s">
         <v>526</v>
       </c>
-      <c r="F52" s="392"/>
-      <c r="G52" s="389"/>
+      <c r="F52" s="400"/>
+      <c r="G52" s="397"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="184" t="s">
@@ -15609,8 +15715,8 @@
       <c r="E53" s="186" t="s">
         <v>526</v>
       </c>
-      <c r="F53" s="392"/>
-      <c r="G53" s="389"/>
+      <c r="F53" s="400"/>
+      <c r="G53" s="397"/>
     </row>
     <row r="54" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="185" t="s">
@@ -15621,8 +15727,8 @@
       <c r="E54" s="190" t="s">
         <v>526</v>
       </c>
-      <c r="F54" s="393"/>
-      <c r="G54" s="390"/>
+      <c r="F54" s="401"/>
+      <c r="G54" s="398"/>
     </row>
     <row r="55" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="99"/>
@@ -15638,10 +15744,10 @@
       <c r="E56" s="191" t="s">
         <v>535</v>
       </c>
-      <c r="F56" s="391" t="s">
+      <c r="F56" s="399" t="s">
         <v>534</v>
       </c>
-      <c r="G56" s="388" t="s">
+      <c r="G56" s="396" t="s">
         <v>338</v>
       </c>
     </row>
@@ -15654,8 +15760,8 @@
       <c r="E57" s="186" t="s">
         <v>535</v>
       </c>
-      <c r="F57" s="392"/>
-      <c r="G57" s="389"/>
+      <c r="F57" s="400"/>
+      <c r="G57" s="397"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="184" t="s">
@@ -15666,8 +15772,8 @@
       <c r="E58" s="186" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="392"/>
-      <c r="G58" s="389"/>
+      <c r="F58" s="400"/>
+      <c r="G58" s="397"/>
     </row>
     <row r="59" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="185" t="s">
@@ -15678,8 +15784,8 @@
       <c r="E59" s="190" t="s">
         <v>535</v>
       </c>
-      <c r="F59" s="393"/>
-      <c r="G59" s="390"/>
+      <c r="F59" s="401"/>
+      <c r="G59" s="398"/>
     </row>
     <row r="60" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="99"/>
@@ -15805,7 +15911,7 @@
       <c r="E74" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="363" t="s">
+      <c r="F74" s="374" t="s">
         <v>504</v>
       </c>
     </row>
@@ -15818,7 +15924,7 @@
       <c r="E75" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="364"/>
+      <c r="F75" s="375"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="184" t="s">
@@ -15829,7 +15935,7 @@
       <c r="E76" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F76" s="364"/>
+      <c r="F76" s="375"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="184" t="s">
@@ -15840,7 +15946,7 @@
       <c r="E77" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="364"/>
+      <c r="F77" s="375"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="184" t="s">
@@ -15851,7 +15957,7 @@
       <c r="E78" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F78" s="364"/>
+      <c r="F78" s="375"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="161" t="s">
@@ -15862,7 +15968,7 @@
       <c r="E79" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F79" s="364"/>
+      <c r="F79" s="375"/>
     </row>
     <row r="80" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="163" t="s">
@@ -15873,7 +15979,7 @@
       <c r="E80" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F80" s="365"/>
+      <c r="F80" s="376"/>
     </row>
     <row r="81" spans="3:4" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
@@ -16241,16 +16347,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="F24:F31"/>
-    <mergeCell ref="F33:F40"/>
     <mergeCell ref="F74:F80"/>
     <mergeCell ref="F42:F49"/>
     <mergeCell ref="G51:G54"/>
     <mergeCell ref="F51:F54"/>
     <mergeCell ref="F56:F59"/>
     <mergeCell ref="G56:G59"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F24:F31"/>
+    <mergeCell ref="F33:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16303,15 +16409,15 @@
     </row>
     <row r="2" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="391" t="s">
         <v>584</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="410" t="s">
+      <c r="B3" s="392"/>
+      <c r="C3" s="421" t="s">
         <v>544</v>
       </c>
-      <c r="D3" s="411"/>
-      <c r="E3" s="412"/>
+      <c r="D3" s="422"/>
+      <c r="E3" s="423"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -16535,7 +16641,7 @@
       <c r="D20" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="E20" s="413" t="s">
+      <c r="E20" s="424" t="s">
         <v>318</v>
       </c>
       <c r="G20" s="2"/>
@@ -16551,7 +16657,7 @@
       <c r="D21" s="284" t="s">
         <v>506</v>
       </c>
-      <c r="E21" s="414"/>
+      <c r="E21" s="425"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16569,10 +16675,10 @@
       <c r="D23" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E23" s="385" t="s">
+      <c r="E23" s="403" t="s">
         <v>555</v>
       </c>
-      <c r="F23" s="407" t="s">
+      <c r="F23" s="418" t="s">
         <v>554</v>
       </c>
       <c r="G23" s="2"/>
@@ -16586,8 +16692,8 @@
       <c r="D24" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E24" s="386"/>
-      <c r="F24" s="408"/>
+      <c r="E24" s="404"/>
+      <c r="F24" s="419"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16597,8 +16703,8 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="186"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="408"/>
+      <c r="E25" s="404"/>
+      <c r="F25" s="419"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16608,8 +16714,8 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="186"/>
-      <c r="E26" s="386"/>
-      <c r="F26" s="408"/>
+      <c r="E26" s="404"/>
+      <c r="F26" s="419"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16621,8 +16727,8 @@
       <c r="D27" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E27" s="386"/>
-      <c r="F27" s="408"/>
+      <c r="E27" s="404"/>
+      <c r="F27" s="419"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16632,8 +16738,8 @@
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
       <c r="D28" s="190"/>
-      <c r="E28" s="387"/>
-      <c r="F28" s="409"/>
+      <c r="E28" s="405"/>
+      <c r="F28" s="420"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16651,10 +16757,10 @@
       <c r="D30" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E30" s="385" t="s">
+      <c r="E30" s="403" t="s">
         <v>559</v>
       </c>
-      <c r="F30" s="407" t="s">
+      <c r="F30" s="418" t="s">
         <v>554</v>
       </c>
       <c r="G30" s="2"/>
@@ -16668,8 +16774,8 @@
       <c r="D31" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E31" s="386"/>
-      <c r="F31" s="408"/>
+      <c r="E31" s="404"/>
+      <c r="F31" s="419"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16679,8 +16785,8 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="186"/>
-      <c r="E32" s="386"/>
-      <c r="F32" s="408"/>
+      <c r="E32" s="404"/>
+      <c r="F32" s="419"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16690,8 +16796,8 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="186"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="408"/>
+      <c r="E33" s="404"/>
+      <c r="F33" s="419"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16703,8 +16809,8 @@
       <c r="D34" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E34" s="386"/>
-      <c r="F34" s="408"/>
+      <c r="E34" s="404"/>
+      <c r="F34" s="419"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16714,8 +16820,8 @@
       <c r="B35" s="131"/>
       <c r="C35" s="131"/>
       <c r="D35" s="190"/>
-      <c r="E35" s="387"/>
-      <c r="F35" s="409"/>
+      <c r="E35" s="405"/>
+      <c r="F35" s="420"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16733,10 +16839,10 @@
       <c r="D37" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="E37" s="385" t="s">
+      <c r="E37" s="403" t="s">
         <v>565</v>
       </c>
-      <c r="F37" s="407" t="s">
+      <c r="F37" s="418" t="s">
         <v>554</v>
       </c>
       <c r="G37" s="2"/>
@@ -16750,8 +16856,8 @@
       <c r="D38" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="E38" s="386"/>
-      <c r="F38" s="408"/>
+      <c r="E38" s="404"/>
+      <c r="F38" s="419"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -16761,8 +16867,8 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="186"/>
-      <c r="E39" s="386"/>
-      <c r="F39" s="408"/>
+      <c r="E39" s="404"/>
+      <c r="F39" s="419"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -16772,8 +16878,8 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="186"/>
-      <c r="E40" s="386"/>
-      <c r="F40" s="408"/>
+      <c r="E40" s="404"/>
+      <c r="F40" s="419"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -16785,8 +16891,8 @@
       <c r="D41" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="E41" s="386"/>
-      <c r="F41" s="408"/>
+      <c r="E41" s="404"/>
+      <c r="F41" s="419"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
@@ -16796,8 +16902,8 @@
       <c r="B42" s="131"/>
       <c r="C42" s="131"/>
       <c r="D42" s="190"/>
-      <c r="E42" s="387"/>
-      <c r="F42" s="409"/>
+      <c r="E42" s="405"/>
+      <c r="F42" s="420"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16817,16 +16923,16 @@
       <c r="D44" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="401" t="s">
+      <c r="E44" s="412" t="s">
         <v>568</v>
       </c>
-      <c r="F44" s="404" t="s">
+      <c r="F44" s="415" t="s">
         <v>566</v>
       </c>
-      <c r="G44" s="395" t="s">
+      <c r="G44" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="H44" s="396"/>
+      <c r="H44" s="407"/>
     </row>
     <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="184" t="s">
@@ -16839,10 +16945,10 @@
       <c r="D45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="402"/>
-      <c r="F45" s="405"/>
-      <c r="G45" s="397"/>
-      <c r="H45" s="398"/>
+      <c r="E45" s="413"/>
+      <c r="F45" s="416"/>
+      <c r="G45" s="408"/>
+      <c r="H45" s="409"/>
     </row>
     <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="184" t="s">
@@ -16855,10 +16961,10 @@
       <c r="D46" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E46" s="402"/>
-      <c r="F46" s="405"/>
-      <c r="G46" s="397"/>
-      <c r="H46" s="398"/>
+      <c r="E46" s="413"/>
+      <c r="F46" s="416"/>
+      <c r="G46" s="408"/>
+      <c r="H46" s="409"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="185" t="s">
@@ -16871,10 +16977,10 @@
       <c r="D47" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E47" s="403"/>
-      <c r="F47" s="406"/>
-      <c r="G47" s="399"/>
-      <c r="H47" s="400"/>
+      <c r="E47" s="414"/>
+      <c r="F47" s="417"/>
+      <c r="G47" s="410"/>
+      <c r="H47" s="411"/>
     </row>
     <row r="48" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
@@ -16892,16 +16998,16 @@
       <c r="D49" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E49" s="401" t="s">
+      <c r="E49" s="412" t="s">
         <v>569</v>
       </c>
-      <c r="F49" s="404" t="s">
+      <c r="F49" s="415" t="s">
         <v>566</v>
       </c>
-      <c r="G49" s="395" t="s">
+      <c r="G49" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="H49" s="396"/>
+      <c r="H49" s="407"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="184" t="s">
@@ -16914,10 +17020,10 @@
       <c r="D50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="402"/>
-      <c r="F50" s="405"/>
-      <c r="G50" s="397"/>
-      <c r="H50" s="398"/>
+      <c r="E50" s="413"/>
+      <c r="F50" s="416"/>
+      <c r="G50" s="408"/>
+      <c r="H50" s="409"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="184" t="s">
@@ -16930,10 +17036,10 @@
       <c r="D51" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E51" s="402"/>
-      <c r="F51" s="405"/>
-      <c r="G51" s="397"/>
-      <c r="H51" s="398"/>
+      <c r="E51" s="413"/>
+      <c r="F51" s="416"/>
+      <c r="G51" s="408"/>
+      <c r="H51" s="409"/>
     </row>
     <row r="52" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="185" t="s">
@@ -16946,10 +17052,10 @@
       <c r="D52" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E52" s="403"/>
-      <c r="F52" s="406"/>
-      <c r="G52" s="399"/>
-      <c r="H52" s="400"/>
+      <c r="E52" s="414"/>
+      <c r="F52" s="417"/>
+      <c r="G52" s="410"/>
+      <c r="H52" s="411"/>
     </row>
     <row r="53" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
@@ -16966,16 +17072,16 @@
       <c r="D54" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="401" t="s">
+      <c r="E54" s="412" t="s">
         <v>578</v>
       </c>
-      <c r="F54" s="404" t="s">
+      <c r="F54" s="415" t="s">
         <v>566</v>
       </c>
-      <c r="G54" s="395" t="s">
+      <c r="G54" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="H54" s="396"/>
+      <c r="H54" s="407"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="184" t="s">
@@ -16988,10 +17094,10 @@
       <c r="D55" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E55" s="402"/>
-      <c r="F55" s="405"/>
-      <c r="G55" s="397"/>
-      <c r="H55" s="398"/>
+      <c r="E55" s="413"/>
+      <c r="F55" s="416"/>
+      <c r="G55" s="408"/>
+      <c r="H55" s="409"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="184" t="s">
@@ -17004,10 +17110,10 @@
       <c r="D56" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E56" s="402"/>
-      <c r="F56" s="405"/>
-      <c r="G56" s="397"/>
-      <c r="H56" s="398"/>
+      <c r="E56" s="413"/>
+      <c r="F56" s="416"/>
+      <c r="G56" s="408"/>
+      <c r="H56" s="409"/>
     </row>
     <row r="57" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="185" t="s">
@@ -17020,10 +17126,10 @@
       <c r="D57" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="E57" s="403"/>
-      <c r="F57" s="406"/>
-      <c r="G57" s="399"/>
-      <c r="H57" s="400"/>
+      <c r="E57" s="414"/>
+      <c r="F57" s="417"/>
+      <c r="G57" s="410"/>
+      <c r="H57" s="411"/>
     </row>
     <row r="58" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
@@ -17613,15 +17719,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>585</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>586</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -17859,7 +17965,7 @@
       <c r="E21" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="F21" s="413" t="s">
+      <c r="F21" s="424" t="s">
         <v>318</v>
       </c>
       <c r="H21" s="2"/>
@@ -17875,7 +17981,7 @@
       <c r="E22" s="284" t="s">
         <v>506</v>
       </c>
-      <c r="F22" s="414"/>
+      <c r="F22" s="425"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17893,10 +17999,10 @@
       <c r="E24" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F24" s="415" t="s">
+      <c r="F24" s="426" t="s">
         <v>555</v>
       </c>
-      <c r="G24" s="418" t="s">
+      <c r="G24" s="429" t="s">
         <v>554</v>
       </c>
       <c r="H24" s="2"/>
@@ -17910,8 +18016,8 @@
       <c r="E25" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F25" s="416"/>
-      <c r="G25" s="419"/>
+      <c r="F25" s="427"/>
+      <c r="G25" s="430"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17921,8 +18027,8 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="186"/>
-      <c r="F26" s="416"/>
-      <c r="G26" s="419"/>
+      <c r="F26" s="427"/>
+      <c r="G26" s="430"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17934,8 +18040,8 @@
       <c r="E27" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F27" s="416"/>
-      <c r="G27" s="419"/>
+      <c r="F27" s="427"/>
+      <c r="G27" s="430"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17944,8 +18050,8 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="F28" s="416"/>
-      <c r="G28" s="419"/>
+      <c r="F28" s="427"/>
+      <c r="G28" s="430"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17955,8 +18061,8 @@
       <c r="C29" s="131"/>
       <c r="D29" s="131"/>
       <c r="E29" s="190"/>
-      <c r="F29" s="417"/>
-      <c r="G29" s="420"/>
+      <c r="F29" s="428"/>
+      <c r="G29" s="431"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17974,10 +18080,10 @@
       <c r="E31" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F31" s="415" t="s">
+      <c r="F31" s="426" t="s">
         <v>559</v>
       </c>
-      <c r="G31" s="418" t="s">
+      <c r="G31" s="429" t="s">
         <v>554</v>
       </c>
       <c r="H31" s="2"/>
@@ -17991,8 +18097,8 @@
       <c r="E32" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F32" s="416"/>
-      <c r="G32" s="419"/>
+      <c r="F32" s="427"/>
+      <c r="G32" s="430"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18002,8 +18108,8 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="186"/>
-      <c r="F33" s="416"/>
-      <c r="G33" s="419"/>
+      <c r="F33" s="427"/>
+      <c r="G33" s="430"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18015,8 +18121,8 @@
       <c r="E34" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F34" s="416"/>
-      <c r="G34" s="419"/>
+      <c r="F34" s="427"/>
+      <c r="G34" s="430"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18025,8 +18131,8 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="F35" s="416"/>
-      <c r="G35" s="419"/>
+      <c r="F35" s="427"/>
+      <c r="G35" s="430"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18036,8 +18142,8 @@
       <c r="C36" s="131"/>
       <c r="D36" s="131"/>
       <c r="E36" s="190"/>
-      <c r="F36" s="417"/>
-      <c r="G36" s="420"/>
+      <c r="F36" s="428"/>
+      <c r="G36" s="431"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18055,10 +18161,10 @@
       <c r="E38" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F38" s="415" t="s">
+      <c r="F38" s="426" t="s">
         <v>565</v>
       </c>
-      <c r="G38" s="418" t="s">
+      <c r="G38" s="429" t="s">
         <v>554</v>
       </c>
       <c r="H38" s="2"/>
@@ -18072,8 +18178,8 @@
       <c r="E39" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F39" s="416"/>
-      <c r="G39" s="419"/>
+      <c r="F39" s="427"/>
+      <c r="G39" s="430"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18083,8 +18189,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="186"/>
-      <c r="F40" s="416"/>
-      <c r="G40" s="419"/>
+      <c r="F40" s="427"/>
+      <c r="G40" s="430"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18096,8 +18202,8 @@
       <c r="E41" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F41" s="416"/>
-      <c r="G41" s="419"/>
+      <c r="F41" s="427"/>
+      <c r="G41" s="430"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -18106,8 +18212,8 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="F42" s="416"/>
-      <c r="G42" s="419"/>
+      <c r="F42" s="427"/>
+      <c r="G42" s="430"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
@@ -18117,8 +18223,8 @@
       <c r="C43" s="131"/>
       <c r="D43" s="131"/>
       <c r="E43" s="190"/>
-      <c r="F43" s="417"/>
-      <c r="G43" s="420"/>
+      <c r="F43" s="428"/>
+      <c r="G43" s="431"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18138,16 +18244,16 @@
       <c r="E45" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="401" t="s">
+      <c r="F45" s="412" t="s">
         <v>594</v>
       </c>
-      <c r="G45" s="404" t="s">
+      <c r="G45" s="415" t="s">
         <v>566</v>
       </c>
-      <c r="H45" s="395" t="s">
+      <c r="H45" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I45" s="396"/>
+      <c r="I45" s="407"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="184" t="s">
@@ -18160,10 +18266,10 @@
       <c r="E46" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F46" s="402"/>
-      <c r="G46" s="405"/>
-      <c r="H46" s="397"/>
-      <c r="I46" s="398"/>
+      <c r="F46" s="413"/>
+      <c r="G46" s="416"/>
+      <c r="H46" s="408"/>
+      <c r="I46" s="409"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="184" t="s">
@@ -18176,10 +18282,10 @@
       <c r="E47" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F47" s="402"/>
-      <c r="G47" s="405"/>
-      <c r="H47" s="397"/>
-      <c r="I47" s="398"/>
+      <c r="F47" s="413"/>
+      <c r="G47" s="416"/>
+      <c r="H47" s="408"/>
+      <c r="I47" s="409"/>
     </row>
     <row r="48" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="185" t="s">
@@ -18192,10 +18298,10 @@
       <c r="E48" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F48" s="403"/>
-      <c r="G48" s="406"/>
-      <c r="H48" s="399"/>
-      <c r="I48" s="400"/>
+      <c r="F48" s="414"/>
+      <c r="G48" s="417"/>
+      <c r="H48" s="410"/>
+      <c r="I48" s="411"/>
     </row>
     <row r="49" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
@@ -18214,16 +18320,16 @@
       <c r="E50" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F50" s="401" t="s">
+      <c r="F50" s="412" t="s">
         <v>595</v>
       </c>
-      <c r="G50" s="404" t="s">
+      <c r="G50" s="415" t="s">
         <v>566</v>
       </c>
-      <c r="H50" s="395" t="s">
+      <c r="H50" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I50" s="396"/>
+      <c r="I50" s="407"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="184" t="s">
@@ -18236,10 +18342,10 @@
       <c r="E51" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F51" s="402"/>
-      <c r="G51" s="405"/>
-      <c r="H51" s="397"/>
-      <c r="I51" s="398"/>
+      <c r="F51" s="413"/>
+      <c r="G51" s="416"/>
+      <c r="H51" s="408"/>
+      <c r="I51" s="409"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="184" t="s">
@@ -18252,10 +18358,10 @@
       <c r="E52" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F52" s="402"/>
-      <c r="G52" s="405"/>
-      <c r="H52" s="397"/>
-      <c r="I52" s="398"/>
+      <c r="F52" s="413"/>
+      <c r="G52" s="416"/>
+      <c r="H52" s="408"/>
+      <c r="I52" s="409"/>
     </row>
     <row r="53" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="185" t="s">
@@ -18268,10 +18374,10 @@
       <c r="E53" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F53" s="403"/>
-      <c r="G53" s="406"/>
-      <c r="H53" s="399"/>
-      <c r="I53" s="400"/>
+      <c r="F53" s="414"/>
+      <c r="G53" s="417"/>
+      <c r="H53" s="410"/>
+      <c r="I53" s="411"/>
     </row>
     <row r="54" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
@@ -18288,16 +18394,16 @@
       <c r="E55" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F55" s="401" t="s">
+      <c r="F55" s="412" t="s">
         <v>596</v>
       </c>
-      <c r="G55" s="404" t="s">
+      <c r="G55" s="415" t="s">
         <v>566</v>
       </c>
-      <c r="H55" s="395" t="s">
+      <c r="H55" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I55" s="396"/>
+      <c r="I55" s="407"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="184" t="s">
@@ -18310,10 +18416,10 @@
       <c r="E56" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F56" s="402"/>
-      <c r="G56" s="405"/>
-      <c r="H56" s="397"/>
-      <c r="I56" s="398"/>
+      <c r="F56" s="413"/>
+      <c r="G56" s="416"/>
+      <c r="H56" s="408"/>
+      <c r="I56" s="409"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="184" t="s">
@@ -18326,10 +18432,10 @@
       <c r="E57" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F57" s="402"/>
-      <c r="G57" s="405"/>
-      <c r="H57" s="397"/>
-      <c r="I57" s="398"/>
+      <c r="F57" s="413"/>
+      <c r="G57" s="416"/>
+      <c r="H57" s="408"/>
+      <c r="I57" s="409"/>
     </row>
     <row r="58" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="185" t="s">
@@ -18342,10 +18448,10 @@
       <c r="E58" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="403"/>
-      <c r="G58" s="406"/>
-      <c r="H58" s="399"/>
-      <c r="I58" s="400"/>
+      <c r="F58" s="414"/>
+      <c r="G58" s="417"/>
+      <c r="H58" s="410"/>
+      <c r="I58" s="411"/>
     </row>
     <row r="59" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
@@ -18963,15 +19069,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>597</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="394" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="402" t="s">
         <v>598</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -19246,10 +19352,10 @@
       <c r="E24" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F24" s="415" t="s">
+      <c r="F24" s="426" t="s">
         <v>604</v>
       </c>
-      <c r="G24" s="407" t="s">
+      <c r="G24" s="418" t="s">
         <v>554</v>
       </c>
       <c r="H24" s="2"/>
@@ -19263,8 +19369,8 @@
       <c r="E25" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F25" s="416"/>
-      <c r="G25" s="408"/>
+      <c r="F25" s="427"/>
+      <c r="G25" s="419"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19274,8 +19380,8 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="186"/>
-      <c r="F26" s="416"/>
-      <c r="G26" s="408"/>
+      <c r="F26" s="427"/>
+      <c r="G26" s="419"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19287,8 +19393,8 @@
       <c r="E27" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F27" s="416"/>
-      <c r="G27" s="408"/>
+      <c r="F27" s="427"/>
+      <c r="G27" s="419"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19297,8 +19403,8 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="F28" s="416"/>
-      <c r="G28" s="408"/>
+      <c r="F28" s="427"/>
+      <c r="G28" s="419"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19308,8 +19414,8 @@
       <c r="C29" s="131"/>
       <c r="D29" s="131"/>
       <c r="E29" s="190"/>
-      <c r="F29" s="417"/>
-      <c r="G29" s="409"/>
+      <c r="F29" s="428"/>
+      <c r="G29" s="420"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19327,10 +19433,10 @@
       <c r="E31" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F31" s="415" t="s">
+      <c r="F31" s="426" t="s">
         <v>606</v>
       </c>
-      <c r="G31" s="407" t="s">
+      <c r="G31" s="418" t="s">
         <v>554</v>
       </c>
       <c r="H31" s="2"/>
@@ -19344,8 +19450,8 @@
       <c r="E32" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F32" s="416"/>
-      <c r="G32" s="408"/>
+      <c r="F32" s="427"/>
+      <c r="G32" s="419"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19355,8 +19461,8 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="186"/>
-      <c r="F33" s="416"/>
-      <c r="G33" s="408"/>
+      <c r="F33" s="427"/>
+      <c r="G33" s="419"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19368,8 +19474,8 @@
       <c r="E34" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F34" s="416"/>
-      <c r="G34" s="408"/>
+      <c r="F34" s="427"/>
+      <c r="G34" s="419"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19378,8 +19484,8 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="F35" s="416"/>
-      <c r="G35" s="408"/>
+      <c r="F35" s="427"/>
+      <c r="G35" s="419"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19389,8 +19495,8 @@
       <c r="C36" s="131"/>
       <c r="D36" s="131"/>
       <c r="E36" s="190"/>
-      <c r="F36" s="417"/>
-      <c r="G36" s="409"/>
+      <c r="F36" s="428"/>
+      <c r="G36" s="420"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19408,10 +19514,10 @@
       <c r="E38" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F38" s="415" t="s">
+      <c r="F38" s="426" t="s">
         <v>608</v>
       </c>
-      <c r="G38" s="407" t="s">
+      <c r="G38" s="418" t="s">
         <v>554</v>
       </c>
       <c r="H38" s="2"/>
@@ -19425,8 +19531,8 @@
       <c r="E39" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="F39" s="416"/>
-      <c r="G39" s="408"/>
+      <c r="F39" s="427"/>
+      <c r="G39" s="419"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19436,8 +19542,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="186"/>
-      <c r="F40" s="416"/>
-      <c r="G40" s="408"/>
+      <c r="F40" s="427"/>
+      <c r="G40" s="419"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -19449,8 +19555,8 @@
       <c r="E41" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F41" s="416"/>
-      <c r="G41" s="408"/>
+      <c r="F41" s="427"/>
+      <c r="G41" s="419"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -19459,8 +19565,8 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="F42" s="416"/>
-      <c r="G42" s="408"/>
+      <c r="F42" s="427"/>
+      <c r="G42" s="419"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
@@ -19470,8 +19576,8 @@
       <c r="C43" s="131"/>
       <c r="D43" s="131"/>
       <c r="E43" s="190"/>
-      <c r="F43" s="417"/>
-      <c r="G43" s="409"/>
+      <c r="F43" s="428"/>
+      <c r="G43" s="420"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19491,16 +19597,16 @@
       <c r="E45" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="401" t="s">
+      <c r="F45" s="412" t="s">
         <v>594</v>
       </c>
-      <c r="G45" s="404" t="s">
+      <c r="G45" s="415" t="s">
         <v>566</v>
       </c>
-      <c r="H45" s="395" t="s">
+      <c r="H45" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I45" s="396"/>
+      <c r="I45" s="407"/>
     </row>
     <row r="46" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="185" t="s">
@@ -19513,10 +19619,10 @@
       <c r="E46" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F46" s="403"/>
-      <c r="G46" s="406"/>
-      <c r="H46" s="399"/>
-      <c r="I46" s="400"/>
+      <c r="F46" s="414"/>
+      <c r="G46" s="417"/>
+      <c r="H46" s="410"/>
+      <c r="I46" s="411"/>
     </row>
     <row r="47" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
@@ -19535,16 +19641,16 @@
       <c r="E48" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F48" s="401" t="s">
+      <c r="F48" s="412" t="s">
         <v>594</v>
       </c>
-      <c r="G48" s="404" t="s">
+      <c r="G48" s="415" t="s">
         <v>566</v>
       </c>
-      <c r="H48" s="395" t="s">
+      <c r="H48" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I48" s="396"/>
+      <c r="I48" s="407"/>
     </row>
     <row r="49" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="185" t="s">
@@ -19557,10 +19663,10 @@
       <c r="E49" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F49" s="403"/>
-      <c r="G49" s="406"/>
-      <c r="H49" s="399"/>
-      <c r="I49" s="400"/>
+      <c r="F49" s="414"/>
+      <c r="G49" s="417"/>
+      <c r="H49" s="410"/>
+      <c r="I49" s="411"/>
     </row>
     <row r="50" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
@@ -19577,16 +19683,16 @@
       <c r="E51" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F51" s="401" t="s">
+      <c r="F51" s="412" t="s">
         <v>594</v>
       </c>
-      <c r="G51" s="404" t="s">
+      <c r="G51" s="415" t="s">
         <v>566</v>
       </c>
-      <c r="H51" s="395" t="s">
+      <c r="H51" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I51" s="396"/>
+      <c r="I51" s="407"/>
     </row>
     <row r="52" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="185" t="s">
@@ -19599,10 +19705,10 @@
       <c r="E52" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F52" s="403"/>
-      <c r="G52" s="406"/>
-      <c r="H52" s="399"/>
-      <c r="I52" s="400"/>
+      <c r="F52" s="414"/>
+      <c r="G52" s="417"/>
+      <c r="H52" s="410"/>
+      <c r="I52" s="411"/>
     </row>
     <row r="53" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
@@ -20231,15 +20337,15 @@
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>610</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="394" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="402" t="s">
         <v>609</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -20478,7 +20584,7 @@
       <c r="F21" s="162" t="s">
         <v>435</v>
       </c>
-      <c r="G21" s="425" t="s">
+      <c r="G21" s="440" t="s">
         <v>615</v>
       </c>
       <c r="H21" s="2"/>
@@ -20493,7 +20599,7 @@
         <v>613</v>
       </c>
       <c r="F22" s="162"/>
-      <c r="G22" s="425"/>
+      <c r="G22" s="440"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20506,7 +20612,7 @@
         <v>614</v>
       </c>
       <c r="F23" s="164"/>
-      <c r="G23" s="425"/>
+      <c r="G23" s="440"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20524,10 +20630,10 @@
       <c r="E25" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F25" s="415" t="s">
+      <c r="F25" s="426" t="s">
         <v>604</v>
       </c>
-      <c r="G25" s="426" t="s">
+      <c r="G25" s="441" t="s">
         <v>554</v>
       </c>
       <c r="H25" s="2"/>
@@ -20541,8 +20647,8 @@
       <c r="E26" s="186" t="s">
         <v>622</v>
       </c>
-      <c r="F26" s="416"/>
-      <c r="G26" s="427"/>
+      <c r="F26" s="427"/>
+      <c r="G26" s="442"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20552,8 +20658,8 @@
       <c r="C27" s="2"/>
       <c r="D27" s="186"/>
       <c r="E27" s="186"/>
-      <c r="F27" s="416"/>
-      <c r="G27" s="427"/>
+      <c r="F27" s="427"/>
+      <c r="G27" s="442"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20565,8 +20671,8 @@
       <c r="E28" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F28" s="416"/>
-      <c r="G28" s="427"/>
+      <c r="F28" s="427"/>
+      <c r="G28" s="442"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20578,8 +20684,8 @@
       <c r="E29" s="186" t="s">
         <v>623</v>
       </c>
-      <c r="F29" s="416"/>
-      <c r="G29" s="427"/>
+      <c r="F29" s="427"/>
+      <c r="G29" s="442"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20589,8 +20695,8 @@
       <c r="C30" s="2"/>
       <c r="D30" s="186"/>
       <c r="E30" s="186"/>
-      <c r="F30" s="416"/>
-      <c r="G30" s="427"/>
+      <c r="F30" s="427"/>
+      <c r="G30" s="442"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20602,8 +20708,8 @@
       <c r="E31" s="186" t="s">
         <v>621</v>
       </c>
-      <c r="F31" s="416"/>
-      <c r="G31" s="427"/>
+      <c r="F31" s="427"/>
+      <c r="G31" s="442"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20613,8 +20719,8 @@
       <c r="C32" s="2"/>
       <c r="D32" s="186"/>
       <c r="E32" s="186"/>
-      <c r="F32" s="416"/>
-      <c r="G32" s="427"/>
+      <c r="F32" s="427"/>
+      <c r="G32" s="442"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20624,8 +20730,8 @@
       <c r="C33" s="2"/>
       <c r="D33" s="186"/>
       <c r="E33" s="186"/>
-      <c r="F33" s="416"/>
-      <c r="G33" s="427"/>
+      <c r="F33" s="427"/>
+      <c r="G33" s="442"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20635,8 +20741,8 @@
       <c r="C34" s="131"/>
       <c r="D34" s="190"/>
       <c r="E34" s="131"/>
-      <c r="F34" s="417"/>
-      <c r="G34" s="428"/>
+      <c r="F34" s="428"/>
+      <c r="G34" s="443"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20654,10 +20760,10 @@
       <c r="E36" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F36" s="415" t="s">
+      <c r="F36" s="426" t="s">
         <v>606</v>
       </c>
-      <c r="G36" s="426" t="s">
+      <c r="G36" s="441" t="s">
         <v>554</v>
       </c>
       <c r="H36" s="2"/>
@@ -20671,8 +20777,8 @@
       <c r="E37" s="186" t="s">
         <v>622</v>
       </c>
-      <c r="F37" s="416"/>
-      <c r="G37" s="427"/>
+      <c r="F37" s="427"/>
+      <c r="G37" s="442"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20682,8 +20788,8 @@
       <c r="C38" s="2"/>
       <c r="D38" s="186"/>
       <c r="E38" s="186"/>
-      <c r="F38" s="416"/>
-      <c r="G38" s="427"/>
+      <c r="F38" s="427"/>
+      <c r="G38" s="442"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20695,8 +20801,8 @@
       <c r="E39" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F39" s="416"/>
-      <c r="G39" s="427"/>
+      <c r="F39" s="427"/>
+      <c r="G39" s="442"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20708,8 +20814,8 @@
       <c r="E40" s="186" t="s">
         <v>623</v>
       </c>
-      <c r="F40" s="416"/>
-      <c r="G40" s="427"/>
+      <c r="F40" s="427"/>
+      <c r="G40" s="442"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20719,8 +20825,8 @@
       <c r="C41" s="2"/>
       <c r="D41" s="186"/>
       <c r="E41" s="186"/>
-      <c r="F41" s="416"/>
-      <c r="G41" s="427"/>
+      <c r="F41" s="427"/>
+      <c r="G41" s="442"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20732,8 +20838,8 @@
       <c r="E42" s="186" t="s">
         <v>621</v>
       </c>
-      <c r="F42" s="416"/>
-      <c r="G42" s="427"/>
+      <c r="F42" s="427"/>
+      <c r="G42" s="442"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -20743,8 +20849,8 @@
       <c r="C43" s="2"/>
       <c r="D43" s="186"/>
       <c r="E43" s="186"/>
-      <c r="F43" s="416"/>
-      <c r="G43" s="427"/>
+      <c r="F43" s="427"/>
+      <c r="G43" s="442"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -20754,8 +20860,8 @@
       <c r="C44" s="2"/>
       <c r="D44" s="186"/>
       <c r="E44" s="186"/>
-      <c r="F44" s="416"/>
-      <c r="G44" s="427"/>
+      <c r="F44" s="427"/>
+      <c r="G44" s="442"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
@@ -20765,8 +20871,8 @@
       <c r="C45" s="131"/>
       <c r="D45" s="190"/>
       <c r="E45" s="131"/>
-      <c r="F45" s="417"/>
-      <c r="G45" s="428"/>
+      <c r="F45" s="428"/>
+      <c r="G45" s="443"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.25">
@@ -20795,10 +20901,10 @@
       <c r="E48" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F48" s="415" t="s">
+      <c r="F48" s="426" t="s">
         <v>634</v>
       </c>
-      <c r="G48" s="426" t="s">
+      <c r="G48" s="441" t="s">
         <v>554</v>
       </c>
       <c r="H48" s="2"/>
@@ -20812,8 +20918,8 @@
       <c r="E49" s="186" t="s">
         <v>622</v>
       </c>
-      <c r="F49" s="416"/>
-      <c r="G49" s="427"/>
+      <c r="F49" s="427"/>
+      <c r="G49" s="442"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -20823,8 +20929,8 @@
       <c r="C50" s="2"/>
       <c r="D50" s="186"/>
       <c r="E50" s="186"/>
-      <c r="F50" s="416"/>
-      <c r="G50" s="427"/>
+      <c r="F50" s="427"/>
+      <c r="G50" s="442"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -20836,8 +20942,8 @@
       <c r="E51" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F51" s="416"/>
-      <c r="G51" s="427"/>
+      <c r="F51" s="427"/>
+      <c r="G51" s="442"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -20849,8 +20955,8 @@
       <c r="E52" s="186" t="s">
         <v>623</v>
       </c>
-      <c r="F52" s="416"/>
-      <c r="G52" s="427"/>
+      <c r="F52" s="427"/>
+      <c r="G52" s="442"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -20860,8 +20966,8 @@
       <c r="C53" s="2"/>
       <c r="D53" s="186"/>
       <c r="E53" s="186"/>
-      <c r="F53" s="416"/>
-      <c r="G53" s="427"/>
+      <c r="F53" s="427"/>
+      <c r="G53" s="442"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -20873,8 +20979,8 @@
       <c r="E54" s="186" t="s">
         <v>621</v>
       </c>
-      <c r="F54" s="416"/>
-      <c r="G54" s="427"/>
+      <c r="F54" s="427"/>
+      <c r="G54" s="442"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="161" t="s">
@@ -20883,8 +20989,8 @@
       <c r="C55" s="2"/>
       <c r="D55" s="186"/>
       <c r="E55" s="186"/>
-      <c r="F55" s="416"/>
-      <c r="G55" s="427"/>
+      <c r="F55" s="427"/>
+      <c r="G55" s="442"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="161" t="s">
@@ -20893,8 +20999,8 @@
       <c r="C56" s="2"/>
       <c r="D56" s="186"/>
       <c r="E56" s="186"/>
-      <c r="F56" s="416"/>
-      <c r="G56" s="427"/>
+      <c r="F56" s="427"/>
+      <c r="G56" s="442"/>
     </row>
     <row r="57" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="163" t="s">
@@ -20903,8 +21009,8 @@
       <c r="C57" s="131"/>
       <c r="D57" s="190"/>
       <c r="E57" s="131"/>
-      <c r="F57" s="417"/>
-      <c r="G57" s="428"/>
+      <c r="F57" s="428"/>
+      <c r="G57" s="443"/>
     </row>
     <row r="58" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
@@ -20921,16 +21027,16 @@
       <c r="E59" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="401" t="s">
+      <c r="F59" s="412" t="s">
         <v>594</v>
       </c>
-      <c r="G59" s="423" t="s">
+      <c r="G59" s="434" t="s">
         <v>566</v>
       </c>
-      <c r="H59" s="395" t="s">
+      <c r="H59" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I59" s="396"/>
+      <c r="I59" s="407"/>
     </row>
     <row r="60" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="184" t="s">
@@ -20938,10 +21044,10 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="186"/>
-      <c r="F60" s="402"/>
-      <c r="G60" s="429"/>
-      <c r="H60" s="397"/>
-      <c r="I60" s="398"/>
+      <c r="F60" s="413"/>
+      <c r="G60" s="444"/>
+      <c r="H60" s="408"/>
+      <c r="I60" s="409"/>
     </row>
     <row r="61" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="184" t="s">
@@ -20949,10 +21055,10 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="186"/>
-      <c r="F61" s="402"/>
-      <c r="G61" s="429"/>
-      <c r="H61" s="397"/>
-      <c r="I61" s="398"/>
+      <c r="F61" s="413"/>
+      <c r="G61" s="444"/>
+      <c r="H61" s="408"/>
+      <c r="I61" s="409"/>
     </row>
     <row r="62" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="185" t="s">
@@ -20965,10 +21071,10 @@
       <c r="E62" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F62" s="403"/>
-      <c r="G62" s="424"/>
-      <c r="H62" s="399"/>
-      <c r="I62" s="400"/>
+      <c r="F62" s="414"/>
+      <c r="G62" s="435"/>
+      <c r="H62" s="410"/>
+      <c r="I62" s="411"/>
     </row>
     <row r="63" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63"/>
@@ -20990,16 +21096,16 @@
       <c r="E64" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F64" s="401" t="s">
+      <c r="F64" s="412" t="s">
         <v>641</v>
       </c>
-      <c r="G64" s="423" t="s">
+      <c r="G64" s="434" t="s">
         <v>566</v>
       </c>
-      <c r="H64" s="395" t="s">
+      <c r="H64" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I64" s="396"/>
+      <c r="I64" s="407"/>
     </row>
     <row r="65" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="184" t="s">
@@ -21007,10 +21113,10 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="186"/>
-      <c r="F65" s="402"/>
-      <c r="G65" s="429"/>
-      <c r="H65" s="397"/>
-      <c r="I65" s="398"/>
+      <c r="F65" s="413"/>
+      <c r="G65" s="444"/>
+      <c r="H65" s="408"/>
+      <c r="I65" s="409"/>
     </row>
     <row r="66" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="184" t="s">
@@ -21018,10 +21124,10 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="186"/>
-      <c r="F66" s="402"/>
-      <c r="G66" s="429"/>
-      <c r="H66" s="397"/>
-      <c r="I66" s="398"/>
+      <c r="F66" s="413"/>
+      <c r="G66" s="444"/>
+      <c r="H66" s="408"/>
+      <c r="I66" s="409"/>
     </row>
     <row r="67" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="185" t="s">
@@ -21034,10 +21140,10 @@
       <c r="E67" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F67" s="403"/>
-      <c r="G67" s="424"/>
-      <c r="H67" s="399"/>
-      <c r="I67" s="400"/>
+      <c r="F67" s="414"/>
+      <c r="G67" s="435"/>
+      <c r="H67" s="410"/>
+      <c r="I67" s="411"/>
     </row>
     <row r="68" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="2"/>
@@ -21054,16 +21160,16 @@
       <c r="E69" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F69" s="401" t="s">
+      <c r="F69" s="412" t="s">
         <v>644</v>
       </c>
-      <c r="G69" s="423" t="s">
+      <c r="G69" s="434" t="s">
         <v>566</v>
       </c>
-      <c r="H69" s="395" t="s">
+      <c r="H69" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I69" s="396"/>
+      <c r="I69" s="407"/>
     </row>
     <row r="70" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="184" t="s">
@@ -21071,10 +21177,10 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="186"/>
-      <c r="F70" s="402"/>
-      <c r="G70" s="429"/>
-      <c r="H70" s="397"/>
-      <c r="I70" s="398"/>
+      <c r="F70" s="413"/>
+      <c r="G70" s="444"/>
+      <c r="H70" s="408"/>
+      <c r="I70" s="409"/>
     </row>
     <row r="71" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="184" t="s">
@@ -21082,10 +21188,10 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="186"/>
-      <c r="F71" s="402"/>
-      <c r="G71" s="429"/>
-      <c r="H71" s="397"/>
-      <c r="I71" s="398"/>
+      <c r="F71" s="413"/>
+      <c r="G71" s="444"/>
+      <c r="H71" s="408"/>
+      <c r="I71" s="409"/>
     </row>
     <row r="72" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="185" t="s">
@@ -21098,10 +21204,10 @@
       <c r="E72" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F72" s="403"/>
-      <c r="G72" s="424"/>
-      <c r="H72" s="399"/>
-      <c r="I72" s="400"/>
+      <c r="F72" s="414"/>
+      <c r="G72" s="435"/>
+      <c r="H72" s="410"/>
+      <c r="I72" s="411"/>
     </row>
     <row r="73" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
@@ -21118,16 +21224,16 @@
       <c r="E74" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F74" s="421" t="s">
+      <c r="F74" s="432" t="s">
         <v>647</v>
       </c>
-      <c r="G74" s="423" t="s">
+      <c r="G74" s="434" t="s">
         <v>648</v>
       </c>
-      <c r="H74" s="395" t="s">
+      <c r="H74" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I74" s="396"/>
+      <c r="I74" s="407"/>
     </row>
     <row r="75" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="185" t="s">
@@ -21140,10 +21246,10 @@
       <c r="E75" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F75" s="422"/>
-      <c r="G75" s="424"/>
-      <c r="H75" s="399"/>
-      <c r="I75" s="400"/>
+      <c r="F75" s="439"/>
+      <c r="G75" s="435"/>
+      <c r="H75" s="410"/>
+      <c r="I75" s="411"/>
     </row>
     <row r="76" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
@@ -21160,16 +21266,16 @@
       <c r="E77" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F77" s="421" t="s">
+      <c r="F77" s="432" t="s">
         <v>649</v>
       </c>
-      <c r="G77" s="423" t="s">
+      <c r="G77" s="434" t="s">
         <v>648</v>
       </c>
-      <c r="H77" s="395" t="s">
+      <c r="H77" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I77" s="441"/>
+      <c r="I77" s="436"/>
     </row>
     <row r="78" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="185" t="s">
@@ -21182,10 +21288,10 @@
       <c r="E78" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F78" s="444"/>
-      <c r="G78" s="424"/>
-      <c r="H78" s="442"/>
-      <c r="I78" s="443"/>
+      <c r="F78" s="433"/>
+      <c r="G78" s="435"/>
+      <c r="H78" s="437"/>
+      <c r="I78" s="438"/>
     </row>
     <row r="79" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
@@ -21202,16 +21308,16 @@
       <c r="E80" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F80" s="421" t="s">
+      <c r="F80" s="432" t="s">
         <v>650</v>
       </c>
-      <c r="G80" s="423" t="s">
+      <c r="G80" s="434" t="s">
         <v>648</v>
       </c>
-      <c r="H80" s="395" t="s">
+      <c r="H80" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I80" s="396"/>
+      <c r="I80" s="407"/>
     </row>
     <row r="81" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="185" t="s">
@@ -21224,10 +21330,10 @@
       <c r="E81" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F81" s="422"/>
-      <c r="G81" s="424"/>
-      <c r="H81" s="399"/>
-      <c r="I81" s="400"/>
+      <c r="F81" s="439"/>
+      <c r="G81" s="435"/>
+      <c r="H81" s="410"/>
+      <c r="I81" s="411"/>
     </row>
     <row r="82" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
@@ -21783,11 +21889,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomRight" activeCell="F93" sqref="B93:F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
@@ -21825,15 +21931,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="380" t="s">
+      <c r="B3" s="391" t="s">
         <v>655</v>
       </c>
-      <c r="C3" s="381"/>
-      <c r="D3" s="394" t="s">
+      <c r="C3" s="392"/>
+      <c r="D3" s="402" t="s">
         <v>656</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -22033,7 +22139,7 @@
       <c r="E18" s="94" t="s">
         <v>309</v>
       </c>
-      <c r="F18" s="430" t="s">
+      <c r="F18" s="445" t="s">
         <v>306</v>
       </c>
       <c r="H18" s="2"/>
@@ -22048,7 +22154,7 @@
       <c r="E19" s="94" t="s">
         <v>658</v>
       </c>
-      <c r="F19" s="430"/>
+      <c r="F19" s="445"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -22118,7 +22224,7 @@
       <c r="F24" s="162" t="s">
         <v>435</v>
       </c>
-      <c r="G24" s="431" t="s">
+      <c r="G24" s="446" t="s">
         <v>615</v>
       </c>
       <c r="H24" s="2"/>
@@ -22133,7 +22239,7 @@
         <v>613</v>
       </c>
       <c r="F25" s="162"/>
-      <c r="G25" s="431"/>
+      <c r="G25" s="446"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22146,7 +22252,7 @@
         <v>614</v>
       </c>
       <c r="F26" s="164"/>
-      <c r="G26" s="431"/>
+      <c r="G26" s="446"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22164,10 +22270,10 @@
       <c r="E28" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F28" s="415" t="s">
+      <c r="F28" s="426" t="s">
         <v>604</v>
       </c>
-      <c r="G28" s="426" t="s">
+      <c r="G28" s="441" t="s">
         <v>554</v>
       </c>
       <c r="H28" s="2"/>
@@ -22181,8 +22287,8 @@
       <c r="E29" s="186" t="s">
         <v>622</v>
       </c>
-      <c r="F29" s="416"/>
-      <c r="G29" s="427"/>
+      <c r="F29" s="427"/>
+      <c r="G29" s="442"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22192,8 +22298,8 @@
       <c r="C30" s="2"/>
       <c r="D30" s="186"/>
       <c r="E30" s="186"/>
-      <c r="F30" s="416"/>
-      <c r="G30" s="427"/>
+      <c r="F30" s="427"/>
+      <c r="G30" s="442"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -22205,8 +22311,8 @@
       <c r="E31" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F31" s="416"/>
-      <c r="G31" s="427"/>
+      <c r="F31" s="427"/>
+      <c r="G31" s="442"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22218,8 +22324,8 @@
       <c r="E32" s="186" t="s">
         <v>623</v>
       </c>
-      <c r="F32" s="416"/>
-      <c r="G32" s="427"/>
+      <c r="F32" s="427"/>
+      <c r="G32" s="442"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -22229,8 +22335,8 @@
       <c r="C33" s="2"/>
       <c r="D33" s="186"/>
       <c r="E33" s="186"/>
-      <c r="F33" s="416"/>
-      <c r="G33" s="427"/>
+      <c r="F33" s="427"/>
+      <c r="G33" s="442"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22242,8 +22348,8 @@
       <c r="E34" s="186" t="s">
         <v>621</v>
       </c>
-      <c r="F34" s="416"/>
-      <c r="G34" s="427"/>
+      <c r="F34" s="427"/>
+      <c r="G34" s="442"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -22253,8 +22359,8 @@
       <c r="C35" s="2"/>
       <c r="D35" s="186"/>
       <c r="E35" s="186"/>
-      <c r="F35" s="416"/>
-      <c r="G35" s="427"/>
+      <c r="F35" s="427"/>
+      <c r="G35" s="442"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22264,8 +22370,8 @@
       <c r="C36" s="2"/>
       <c r="D36" s="186"/>
       <c r="E36" s="186"/>
-      <c r="F36" s="416"/>
-      <c r="G36" s="427"/>
+      <c r="F36" s="427"/>
+      <c r="G36" s="442"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22275,8 +22381,8 @@
       <c r="C37" s="131"/>
       <c r="D37" s="190"/>
       <c r="E37" s="131"/>
-      <c r="F37" s="417"/>
-      <c r="G37" s="428"/>
+      <c r="F37" s="428"/>
+      <c r="G37" s="443"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22294,10 +22400,10 @@
       <c r="E39" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F39" s="415" t="s">
+      <c r="F39" s="426" t="s">
         <v>604</v>
       </c>
-      <c r="G39" s="426" t="s">
+      <c r="G39" s="441" t="s">
         <v>554</v>
       </c>
       <c r="H39" s="2"/>
@@ -22311,8 +22417,8 @@
       <c r="E40" s="186" t="s">
         <v>622</v>
       </c>
-      <c r="F40" s="416"/>
-      <c r="G40" s="427"/>
+      <c r="F40" s="427"/>
+      <c r="G40" s="442"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -22322,8 +22428,8 @@
       <c r="C41" s="2"/>
       <c r="D41" s="186"/>
       <c r="E41" s="186"/>
-      <c r="F41" s="416"/>
-      <c r="G41" s="427"/>
+      <c r="F41" s="427"/>
+      <c r="G41" s="442"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22335,8 +22441,8 @@
       <c r="E42" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F42" s="416"/>
-      <c r="G42" s="427"/>
+      <c r="F42" s="427"/>
+      <c r="G42" s="442"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -22348,8 +22454,8 @@
       <c r="E43" s="186" t="s">
         <v>623</v>
       </c>
-      <c r="F43" s="416"/>
-      <c r="G43" s="427"/>
+      <c r="F43" s="427"/>
+      <c r="G43" s="442"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -22359,8 +22465,8 @@
       <c r="C44" s="2"/>
       <c r="D44" s="186"/>
       <c r="E44" s="186"/>
-      <c r="F44" s="416"/>
-      <c r="G44" s="427"/>
+      <c r="F44" s="427"/>
+      <c r="G44" s="442"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -22372,8 +22478,8 @@
       <c r="E45" s="186" t="s">
         <v>621</v>
       </c>
-      <c r="F45" s="416"/>
-      <c r="G45" s="427"/>
+      <c r="F45" s="427"/>
+      <c r="G45" s="442"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -22383,8 +22489,8 @@
       <c r="C46" s="2"/>
       <c r="D46" s="186"/>
       <c r="E46" s="186"/>
-      <c r="F46" s="416"/>
-      <c r="G46" s="427"/>
+      <c r="F46" s="427"/>
+      <c r="G46" s="442"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -22394,8 +22500,8 @@
       <c r="C47" s="2"/>
       <c r="D47" s="186"/>
       <c r="E47" s="186"/>
-      <c r="F47" s="416"/>
-      <c r="G47" s="427"/>
+      <c r="F47" s="427"/>
+      <c r="G47" s="442"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22405,8 +22511,8 @@
       <c r="C48" s="131"/>
       <c r="D48" s="190"/>
       <c r="E48" s="131"/>
-      <c r="F48" s="417"/>
-      <c r="G48" s="428"/>
+      <c r="F48" s="428"/>
+      <c r="G48" s="443"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22424,10 +22530,10 @@
       <c r="E50" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="F50" s="415" t="s">
+      <c r="F50" s="426" t="s">
         <v>664</v>
       </c>
-      <c r="G50" s="426" t="s">
+      <c r="G50" s="441" t="s">
         <v>554</v>
       </c>
       <c r="H50" s="2"/>
@@ -22441,8 +22547,8 @@
       <c r="E51" s="186" t="s">
         <v>622</v>
       </c>
-      <c r="F51" s="416"/>
-      <c r="G51" s="427"/>
+      <c r="F51" s="427"/>
+      <c r="G51" s="442"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -22452,8 +22558,8 @@
       <c r="C52" s="2"/>
       <c r="D52" s="186"/>
       <c r="E52" s="186"/>
-      <c r="F52" s="416"/>
-      <c r="G52" s="427"/>
+      <c r="F52" s="427"/>
+      <c r="G52" s="442"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="161" t="s">
@@ -22464,8 +22570,8 @@
       <c r="E53" s="186" t="s">
         <v>558</v>
       </c>
-      <c r="F53" s="416"/>
-      <c r="G53" s="427"/>
+      <c r="F53" s="427"/>
+      <c r="G53" s="442"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="161" t="s">
@@ -22476,8 +22582,8 @@
       <c r="E54" s="186" t="s">
         <v>623</v>
       </c>
-      <c r="F54" s="416"/>
-      <c r="G54" s="427"/>
+      <c r="F54" s="427"/>
+      <c r="G54" s="442"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="161" t="s">
@@ -22486,8 +22592,8 @@
       <c r="C55" s="2"/>
       <c r="D55" s="186"/>
       <c r="E55" s="186"/>
-      <c r="F55" s="416"/>
-      <c r="G55" s="427"/>
+      <c r="F55" s="427"/>
+      <c r="G55" s="442"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="161" t="s">
@@ -22498,8 +22604,8 @@
       <c r="E56" s="186" t="s">
         <v>621</v>
       </c>
-      <c r="F56" s="416"/>
-      <c r="G56" s="427"/>
+      <c r="F56" s="427"/>
+      <c r="G56" s="442"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="161" t="s">
@@ -22508,8 +22614,8 @@
       <c r="C57" s="2"/>
       <c r="D57" s="186"/>
       <c r="E57" s="186"/>
-      <c r="F57" s="416"/>
-      <c r="G57" s="427"/>
+      <c r="F57" s="427"/>
+      <c r="G57" s="442"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="161" t="s">
@@ -22518,8 +22624,8 @@
       <c r="C58" s="2"/>
       <c r="D58" s="186"/>
       <c r="E58" s="186"/>
-      <c r="F58" s="416"/>
-      <c r="G58" s="427"/>
+      <c r="F58" s="427"/>
+      <c r="G58" s="442"/>
     </row>
     <row r="59" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="163" t="s">
@@ -22528,8 +22634,8 @@
       <c r="C59" s="131"/>
       <c r="D59" s="190"/>
       <c r="E59" s="131"/>
-      <c r="F59" s="417"/>
-      <c r="G59" s="428"/>
+      <c r="F59" s="428"/>
+      <c r="G59" s="443"/>
     </row>
     <row r="60" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
@@ -22546,32 +22652,32 @@
       <c r="E61" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="432" t="s">
+      <c r="F61" s="322" t="s">
         <v>665</v>
       </c>
-      <c r="G61" s="433" t="s">
+      <c r="G61" s="323" t="s">
         <v>566</v>
       </c>
-      <c r="H61" s="434" t="s">
+      <c r="H61" s="324" t="s">
         <v>338</v>
       </c>
-      <c r="I61" s="435"/>
+      <c r="I61" s="325"/>
     </row>
     <row r="62" spans="2:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="185" t="s">
         <v>668</v>
       </c>
       <c r="C62" s="131"/>
-      <c r="D62" s="436" t="s">
+      <c r="D62" s="326" t="s">
         <v>567</v>
       </c>
       <c r="E62" s="131"/>
-      <c r="F62" s="437" t="s">
+      <c r="F62" s="327" t="s">
         <v>666</v>
       </c>
-      <c r="G62" s="438"/>
-      <c r="H62" s="439"/>
-      <c r="I62" s="440"/>
+      <c r="G62" s="328"/>
+      <c r="H62" s="329"/>
+      <c r="I62" s="330"/>
     </row>
     <row r="63" spans="2:9" ht="17.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63"/>
@@ -22595,16 +22701,16 @@
       <c r="E64" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F64" s="432" t="s">
+      <c r="F64" s="322" t="s">
         <v>665</v>
       </c>
-      <c r="G64" s="433" t="s">
+      <c r="G64" s="323" t="s">
         <v>566</v>
       </c>
-      <c r="H64" s="434" t="s">
+      <c r="H64" s="324" t="s">
         <v>338</v>
       </c>
-      <c r="I64" s="435"/>
+      <c r="I64" s="325"/>
     </row>
     <row r="65" spans="2:9" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="185" t="s">
@@ -22615,12 +22721,12 @@
         <v>567</v>
       </c>
       <c r="E65" s="131"/>
-      <c r="F65" s="437" t="s">
+      <c r="F65" s="327" t="s">
         <v>669</v>
       </c>
-      <c r="G65" s="438"/>
-      <c r="H65" s="439"/>
-      <c r="I65" s="440"/>
+      <c r="G65" s="328"/>
+      <c r="H65" s="329"/>
+      <c r="I65" s="330"/>
     </row>
     <row r="66" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="2"/>
@@ -22637,16 +22743,16 @@
       <c r="E67" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F67" s="432" t="s">
+      <c r="F67" s="322" t="s">
         <v>665</v>
       </c>
-      <c r="G67" s="433" t="s">
+      <c r="G67" s="323" t="s">
         <v>566</v>
       </c>
-      <c r="H67" s="434" t="s">
+      <c r="H67" s="324" t="s">
         <v>338</v>
       </c>
-      <c r="I67" s="435"/>
+      <c r="I67" s="325"/>
     </row>
     <row r="68" spans="2:9" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="185" t="s">
@@ -22657,12 +22763,12 @@
         <v>567</v>
       </c>
       <c r="E68" s="131"/>
-      <c r="F68" s="437" t="s">
+      <c r="F68" s="327" t="s">
         <v>670</v>
       </c>
-      <c r="G68" s="438"/>
-      <c r="H68" s="439"/>
-      <c r="I68" s="440"/>
+      <c r="G68" s="328"/>
+      <c r="H68" s="329"/>
+      <c r="I68" s="330"/>
     </row>
     <row r="69" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="2"/>
@@ -22679,16 +22785,16 @@
       <c r="E70" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F70" s="421" t="s">
+      <c r="F70" s="432" t="s">
         <v>647</v>
       </c>
-      <c r="G70" s="423" t="s">
+      <c r="G70" s="434" t="s">
         <v>648</v>
       </c>
-      <c r="H70" s="395" t="s">
+      <c r="H70" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I70" s="396"/>
+      <c r="I70" s="407"/>
     </row>
     <row r="71" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="185" t="s">
@@ -22701,10 +22807,10 @@
       <c r="E71" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F71" s="422"/>
-      <c r="G71" s="424"/>
-      <c r="H71" s="399"/>
-      <c r="I71" s="400"/>
+      <c r="F71" s="439"/>
+      <c r="G71" s="435"/>
+      <c r="H71" s="410"/>
+      <c r="I71" s="411"/>
     </row>
     <row r="72" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
@@ -22721,16 +22827,16 @@
       <c r="E73" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F73" s="421" t="s">
+      <c r="F73" s="432" t="s">
         <v>649</v>
       </c>
-      <c r="G73" s="423" t="s">
+      <c r="G73" s="434" t="s">
         <v>648</v>
       </c>
-      <c r="H73" s="395" t="s">
+      <c r="H73" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I73" s="441"/>
+      <c r="I73" s="436"/>
     </row>
     <row r="74" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="185" t="s">
@@ -22743,10 +22849,10 @@
       <c r="E74" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F74" s="444"/>
-      <c r="G74" s="424"/>
-      <c r="H74" s="442"/>
-      <c r="I74" s="443"/>
+      <c r="F74" s="433"/>
+      <c r="G74" s="435"/>
+      <c r="H74" s="437"/>
+      <c r="I74" s="438"/>
     </row>
     <row r="75" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
@@ -22763,16 +22869,16 @@
       <c r="E76" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F76" s="421" t="s">
+      <c r="F76" s="432" t="s">
         <v>650</v>
       </c>
-      <c r="G76" s="423" t="s">
+      <c r="G76" s="434" t="s">
         <v>648</v>
       </c>
-      <c r="H76" s="395" t="s">
+      <c r="H76" s="406" t="s">
         <v>338</v>
       </c>
-      <c r="I76" s="396"/>
+      <c r="I76" s="407"/>
     </row>
     <row r="77" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="185" t="s">
@@ -22785,10 +22891,10 @@
       <c r="E77" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="F77" s="422"/>
-      <c r="G77" s="424"/>
-      <c r="H77" s="399"/>
-      <c r="I77" s="400"/>
+      <c r="F77" s="439"/>
+      <c r="G77" s="435"/>
+      <c r="H77" s="410"/>
+      <c r="I77" s="411"/>
     </row>
     <row r="78" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
@@ -23360,15 +23466,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>550</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -23495,7 +23601,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="328" t="s">
+      <c r="G12" s="339" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2"/>
@@ -23510,7 +23616,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="329"/>
+      <c r="G13" s="340"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -23525,7 +23631,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="330"/>
+      <c r="G14" s="341"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -23538,7 +23644,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="331" t="s">
+      <c r="G15" s="342" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="2"/>
@@ -23553,7 +23659,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="332"/>
+      <c r="G16" s="343"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -23566,7 +23672,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="332"/>
+      <c r="G17" s="343"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -23579,7 +23685,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="332"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -23592,7 +23698,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="333"/>
+      <c r="G19" s="344"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -23611,7 +23717,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="331" t="s">
+      <c r="G20" s="342" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="2"/>
@@ -23629,7 +23735,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="332"/>
+      <c r="G21" s="343"/>
     </row>
     <row r="22" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
@@ -23642,7 +23748,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="332"/>
+      <c r="G22" s="343"/>
     </row>
     <row r="23" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
@@ -23655,7 +23761,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="332"/>
+      <c r="G23" s="343"/>
     </row>
     <row r="24" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
@@ -23669,7 +23775,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="333"/>
+      <c r="G24" s="344"/>
     </row>
     <row r="25" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
@@ -23683,7 +23789,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="331" t="s">
+      <c r="G25" s="342" t="s">
         <v>59</v>
       </c>
     </row>
@@ -23699,7 +23805,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="332"/>
+      <c r="G26" s="343"/>
     </row>
     <row r="27" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -23713,7 +23819,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="332"/>
+      <c r="G27" s="343"/>
     </row>
     <row r="28" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
@@ -23727,7 +23833,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="332"/>
+      <c r="G28" s="343"/>
     </row>
     <row r="29" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
@@ -23741,7 +23847,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="333"/>
+      <c r="G29" s="344"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -23753,10 +23859,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="337" t="s">
+      <c r="G30" s="348" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="334" t="s">
+      <c r="H30" s="345" t="s">
         <v>28</v>
       </c>
     </row>
@@ -23770,8 +23876,8 @@
         <v>27</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="338"/>
-      <c r="H31" s="335"/>
+      <c r="G31" s="349"/>
+      <c r="H31" s="346"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
@@ -23783,10 +23889,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="337" t="s">
+      <c r="G32" s="348" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="335"/>
+      <c r="H32" s="346"/>
     </row>
     <row r="33" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
@@ -23798,8 +23904,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="339"/>
-      <c r="H33" s="335"/>
+      <c r="G33" s="350"/>
+      <c r="H33" s="346"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
@@ -23811,10 +23917,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="338" t="s">
+      <c r="G34" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="335"/>
+      <c r="H34" s="346"/>
     </row>
     <row r="35" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
@@ -23826,8 +23932,8 @@
         <v>27</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="338"/>
-      <c r="H35" s="336"/>
+      <c r="G35" s="349"/>
+      <c r="H35" s="347"/>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
@@ -23839,10 +23945,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="337" t="s">
+      <c r="G36" s="348" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="335" t="s">
+      <c r="H36" s="346" t="s">
         <v>29</v>
       </c>
     </row>
@@ -23856,8 +23962,8 @@
         <v>27</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="339"/>
-      <c r="H37" s="335"/>
+      <c r="G37" s="350"/>
+      <c r="H37" s="346"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
@@ -23869,10 +23975,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="337" t="s">
+      <c r="G38" s="348" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="335"/>
+      <c r="H38" s="346"/>
     </row>
     <row r="39" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
@@ -23884,8 +23990,8 @@
         <v>27</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="339"/>
-      <c r="H39" s="335"/>
+      <c r="G39" s="350"/>
+      <c r="H39" s="346"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
@@ -23897,10 +24003,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="338" t="s">
+      <c r="G40" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="335"/>
+      <c r="H40" s="346"/>
     </row>
     <row r="41" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
@@ -23912,8 +24018,8 @@
         <v>27</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="339"/>
-      <c r="H41" s="336"/>
+      <c r="G41" s="350"/>
+      <c r="H41" s="347"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
@@ -23987,7 +24093,7 @@
       <c r="E49" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="321" t="s">
+      <c r="F49" s="332" t="s">
         <v>201</v>
       </c>
     </row>
@@ -24000,7 +24106,7 @@
       <c r="E50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="322"/>
+      <c r="F50" s="333"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
@@ -24011,7 +24117,7 @@
       <c r="E51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="322"/>
+      <c r="F51" s="333"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
@@ -24022,20 +24128,20 @@
       <c r="E52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="322"/>
+      <c r="F52" s="333"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="133"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="F53" s="322"/>
+      <c r="F53" s="333"/>
     </row>
     <row r="54" spans="2:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="134"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="323"/>
+      <c r="F54" s="334"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -24539,13 +24645,1275 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J166"/>
+  <dimension ref="B1:J158"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="B12:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.09765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="6.09765625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="5" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.09765625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="391" t="s">
+        <v>672</v>
+      </c>
+      <c r="C3" s="392"/>
+      <c r="D3" s="337" t="s">
+        <v>673</v>
+      </c>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:10" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="225"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="225" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="307"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="302" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="308"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="302" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="314"/>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="308"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="302" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="314"/>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="308"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="302" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="308"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="302" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="314"/>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="308"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="300" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="231"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="231" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="309"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="149"/>
+      <c r="D12" s="316"/>
+      <c r="E12" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="150" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="151" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="312"/>
+      <c r="E13" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="321" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="153" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" s="154"/>
+      <c r="D14" s="317"/>
+      <c r="E14" s="155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="195"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="149"/>
+      <c r="D16" s="316"/>
+      <c r="E16" s="157" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="196"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="151" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" s="312"/>
+      <c r="E17" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="321" t="s">
+        <v>306</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="154"/>
+      <c r="D18" s="317"/>
+      <c r="E18" s="155" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="195" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="158" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="191"/>
+      <c r="E20" s="188" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="424" t="s">
+        <v>675</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="163" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="131"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="284" t="s">
+        <v>674</v>
+      </c>
+      <c r="F21" s="425"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="158" t="s">
+        <v>616</v>
+      </c>
+      <c r="C23" s="127"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F23" s="426" t="s">
+        <v>604</v>
+      </c>
+      <c r="G23" s="441" t="s">
+        <v>554</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="161" t="s">
+        <v>617</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186" t="s">
+        <v>622</v>
+      </c>
+      <c r="F24" s="427"/>
+      <c r="G24" s="442"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="161" t="s">
+        <v>510</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="427"/>
+      <c r="G25" s="442"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="161" t="s">
+        <v>589</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="427"/>
+      <c r="G26" s="442"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="161" t="s">
+        <v>605</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F27" s="427"/>
+      <c r="G27" s="442"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="161" t="s">
+        <v>618</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186" t="s">
+        <v>623</v>
+      </c>
+      <c r="F28" s="427"/>
+      <c r="G28" s="442"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="161" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="427"/>
+      <c r="G29" s="442"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="163" t="s">
+        <v>376</v>
+      </c>
+      <c r="C30" s="131"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190" t="s">
+        <v>621</v>
+      </c>
+      <c r="F30" s="428"/>
+      <c r="G30" s="443"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="158" t="s">
+        <v>625</v>
+      </c>
+      <c r="C32" s="127"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F32" s="426" t="s">
+        <v>676</v>
+      </c>
+      <c r="G32" s="441" t="s">
+        <v>554</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="161" t="s">
+        <v>626</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186" t="s">
+        <v>622</v>
+      </c>
+      <c r="F33" s="427"/>
+      <c r="G33" s="442"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="161" t="s">
+        <v>514</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="427"/>
+      <c r="G34" s="442"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="161" t="s">
+        <v>590</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="427"/>
+      <c r="G35" s="442"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="161" t="s">
+        <v>593</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F36" s="427"/>
+      <c r="G36" s="442"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="161" t="s">
+        <v>629</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186" t="s">
+        <v>623</v>
+      </c>
+      <c r="F37" s="427"/>
+      <c r="G37" s="442"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="161" t="s">
+        <v>515</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="427"/>
+      <c r="G38" s="442"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="163" t="s">
+        <v>516</v>
+      </c>
+      <c r="C39" s="131"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190" t="s">
+        <v>621</v>
+      </c>
+      <c r="F39" s="428"/>
+      <c r="G39" s="443"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" ht="17.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="158" t="s">
+        <v>630</v>
+      </c>
+      <c r="C41" s="127"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="191" t="s">
+        <v>557</v>
+      </c>
+      <c r="F41" s="426" t="s">
+        <v>634</v>
+      </c>
+      <c r="G41" s="441" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="161" t="s">
+        <v>631</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186" t="s">
+        <v>622</v>
+      </c>
+      <c r="F42" s="427"/>
+      <c r="G42" s="442"/>
+    </row>
+    <row r="43" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="161" t="s">
+        <v>520</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="427"/>
+      <c r="G43" s="442"/>
+    </row>
+    <row r="44" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="161" t="s">
+        <v>592</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="186"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="427"/>
+      <c r="G44" s="442"/>
+    </row>
+    <row r="45" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="161" t="s">
+        <v>591</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="186" t="s">
+        <v>558</v>
+      </c>
+      <c r="F45" s="427"/>
+      <c r="G45" s="442"/>
+    </row>
+    <row r="46" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="161" t="s">
+        <v>635</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="186" t="s">
+        <v>623</v>
+      </c>
+      <c r="F46" s="427"/>
+      <c r="G46" s="442"/>
+    </row>
+    <row r="47" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="161" t="s">
+        <v>523</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="427"/>
+      <c r="G47" s="442"/>
+    </row>
+    <row r="48" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="163" t="s">
+        <v>524</v>
+      </c>
+      <c r="C48" s="131"/>
+      <c r="D48" s="190"/>
+      <c r="E48" s="190" t="s">
+        <v>621</v>
+      </c>
+      <c r="F48" s="428"/>
+      <c r="G48" s="443"/>
+    </row>
+    <row r="49" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" ht="19.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="183" t="s">
+        <v>428</v>
+      </c>
+      <c r="C50" s="127"/>
+      <c r="D50" s="447" t="s">
+        <v>567</v>
+      </c>
+      <c r="E50" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="322" t="s">
+        <v>665</v>
+      </c>
+      <c r="G50" s="323" t="s">
+        <v>566</v>
+      </c>
+      <c r="H50" s="324" t="s">
+        <v>338</v>
+      </c>
+      <c r="I50" s="325"/>
+    </row>
+    <row r="51" spans="2:9" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="185" t="s">
+        <v>376</v>
+      </c>
+      <c r="C51" s="131"/>
+      <c r="D51" s="190" t="s">
+        <v>567</v>
+      </c>
+      <c r="E51" s="131"/>
+      <c r="F51" s="327" t="s">
+        <v>666</v>
+      </c>
+      <c r="G51" s="328"/>
+      <c r="H51" s="329"/>
+      <c r="I51" s="330"/>
+    </row>
+    <row r="52" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" ht="19.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="183" t="s">
+        <v>429</v>
+      </c>
+      <c r="C53" s="127"/>
+      <c r="D53" s="447" t="s">
+        <v>567</v>
+      </c>
+      <c r="E53" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" s="322" t="s">
+        <v>665</v>
+      </c>
+      <c r="G53" s="323" t="s">
+        <v>566</v>
+      </c>
+      <c r="H53" s="324" t="s">
+        <v>338</v>
+      </c>
+      <c r="I53" s="325"/>
+    </row>
+    <row r="54" spans="2:9" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="185" t="s">
+        <v>516</v>
+      </c>
+      <c r="C54" s="131"/>
+      <c r="D54" s="190" t="s">
+        <v>567</v>
+      </c>
+      <c r="E54" s="131"/>
+      <c r="F54" s="327" t="s">
+        <v>666</v>
+      </c>
+      <c r="G54" s="328"/>
+      <c r="H54" s="329"/>
+      <c r="I54" s="330"/>
+    </row>
+    <row r="55" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="183" t="s">
+        <v>389</v>
+      </c>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="191" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" s="191"/>
+      <c r="G56" s="128"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="184" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="186"/>
+      <c r="F57" s="186"/>
+      <c r="G57" s="50"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="184" t="s">
+        <v>539</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="63" t="s">
+        <v>671</v>
+      </c>
+      <c r="F58" s="186"/>
+      <c r="G58" s="50"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="184" t="s">
+        <v>392</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="286"/>
+      <c r="F59" s="186"/>
+      <c r="G59" s="50"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="184" t="s">
+        <v>653</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="286"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="50"/>
+    </row>
+    <row r="61" spans="2:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="B61" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="319" t="s">
+        <v>654</v>
+      </c>
+      <c r="F61" s="186"/>
+      <c r="G61" s="50"/>
+    </row>
+    <row r="62" spans="2:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="185" t="s">
+        <v>445</v>
+      </c>
+      <c r="C62" s="131"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="320" t="s">
+        <v>654</v>
+      </c>
+      <c r="F62" s="190"/>
+      <c r="G62" s="132"/>
+    </row>
+    <row r="63" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="200" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="127"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="191"/>
+      <c r="F64" s="191"/>
+      <c r="G64" s="128"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="199" t="s">
+        <v>393</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="186"/>
+      <c r="F65" s="186"/>
+      <c r="G65" s="50"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="199" t="s">
+        <v>394</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="186"/>
+      <c r="F66" s="186"/>
+      <c r="G66" s="50"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="199" t="s">
+        <v>395</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="186"/>
+      <c r="F67" s="186"/>
+      <c r="G67" s="50"/>
+    </row>
+    <row r="68" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="201" t="s">
+        <v>396</v>
+      </c>
+      <c r="C68" s="131"/>
+      <c r="D68" s="131"/>
+      <c r="E68" s="190"/>
+      <c r="F68" s="190"/>
+      <c r="G68" s="132"/>
+    </row>
+    <row r="69" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="2:7" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="200" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="448"/>
+      <c r="D70" s="448"/>
+      <c r="E70" s="449" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="450"/>
+    </row>
+    <row r="71" spans="2:7" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B71" s="199" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="451"/>
+      <c r="D71" s="451"/>
+      <c r="E71" s="452" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="453"/>
+    </row>
+    <row r="72" spans="2:7" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B72" s="199" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="451"/>
+      <c r="D72" s="451"/>
+      <c r="E72" s="452" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="453"/>
+    </row>
+    <row r="73" spans="2:7" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B73" s="199" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="451"/>
+      <c r="D73" s="451"/>
+      <c r="E73" s="452" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="453" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B74" s="199" t="s">
+        <v>500</v>
+      </c>
+      <c r="C74" s="451"/>
+      <c r="D74" s="451"/>
+      <c r="E74" s="452" t="s">
+        <v>501</v>
+      </c>
+      <c r="F74" s="453"/>
+    </row>
+    <row r="75" spans="2:7" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B75" s="199" t="s">
+        <v>498</v>
+      </c>
+      <c r="C75" s="451"/>
+      <c r="D75" s="451"/>
+      <c r="E75" s="452" t="s">
+        <v>499</v>
+      </c>
+      <c r="F75" s="453"/>
+    </row>
+    <row r="76" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="201" t="s">
+        <v>502</v>
+      </c>
+      <c r="C76" s="454"/>
+      <c r="D76" s="454"/>
+      <c r="E76" s="455" t="s">
+        <v>503</v>
+      </c>
+      <c r="F76" s="456"/>
+    </row>
+    <row r="77" spans="2:7" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F32:F39"/>
+    <mergeCell ref="G32:G39"/>
+    <mergeCell ref="F41:F48"/>
+    <mergeCell ref="G41:G48"/>
+    <mergeCell ref="G23:G30"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
@@ -24582,110 +25950,119 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+    <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="391" t="s">
+        <v>678</v>
+      </c>
+      <c r="C3" s="392"/>
+      <c r="D3" s="337" t="s">
+        <v>677</v>
+      </c>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:10" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="457" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="225"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="460" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="307"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="458" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="314"/>
+      <c r="E5" s="461" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="308"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="458" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="314"/>
+      <c r="E6" s="461" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="308"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="458" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="314"/>
+      <c r="E7" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="308"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="458" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="314"/>
+      <c r="E8" s="461" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="308"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="458" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="314"/>
+      <c r="E9" s="461" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="308"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="459" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="231"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="462" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="309"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -24693,7 +26070,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -24701,39 +26078,61 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="149"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="150" t="s">
+        <v>178</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+    <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="151"/>
+      <c r="D14" s="312"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="331"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="151" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="312"/>
+      <c r="E15" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="331" t="s">
+        <v>303</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+    <row r="16" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="153" t="s">
+        <v>602</v>
+      </c>
+      <c r="C16" s="154"/>
+      <c r="D16" s="317"/>
+      <c r="E16" s="155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="195"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -24749,926 +26148,53 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J166"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F14:F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" style="17" customWidth="1"/>
-    <col min="9" max="9" width="6.09765625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="5" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.09765625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -25759,14 +26285,14 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -25822,161 +26348,167 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
@@ -26323,6 +26855,14 @@
     <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -26381,15 +26921,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -27256,15 +27796,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -28131,15 +28671,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29006,15 +29546,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29881,15 +30421,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -30756,15 +31296,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31631,15 +32171,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32469,15 +33009,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33347,14 +33887,14 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="340" t="s">
+      <c r="B3" s="351" t="s">
         <v>549</v>
       </c>
-      <c r="C3" s="341"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="343"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="354"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -33546,7 +34086,7 @@
       <c r="F16" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="344" t="s">
+      <c r="G16" s="355" t="s">
         <v>161</v>
       </c>
       <c r="H16" s="2"/>
@@ -33566,7 +34106,7 @@
       <c r="F17" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="345"/>
+      <c r="G17" s="356"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -33584,7 +34124,7 @@
       <c r="F18" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="345"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -33602,7 +34142,7 @@
       <c r="F19" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="345"/>
+      <c r="G19" s="356"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -33620,7 +34160,7 @@
       <c r="F20" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="345"/>
+      <c r="G20" s="356"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -33638,7 +34178,7 @@
       <c r="F21" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="345"/>
+      <c r="G21" s="356"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -33659,7 +34199,7 @@
       <c r="F23" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="346" t="s">
+      <c r="G23" s="357" t="s">
         <v>162</v>
       </c>
       <c r="H23" s="2"/>
@@ -33677,7 +34217,7 @@
       <c r="F24" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="346"/>
+      <c r="G24" s="357"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -33693,7 +34233,7 @@
       <c r="F25" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="346"/>
+      <c r="G25" s="357"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -33709,7 +34249,7 @@
       <c r="F26" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="346"/>
+      <c r="G26" s="357"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -33725,7 +34265,7 @@
       <c r="F27" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="346"/>
+      <c r="G27" s="357"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -33742,7 +34282,7 @@
       <c r="F28" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="347"/>
+      <c r="G28" s="358"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -33775,7 +34315,7 @@
         <v>158</v>
       </c>
       <c r="E32"/>
-      <c r="F32" s="351" t="s">
+      <c r="F32" s="362" t="s">
         <v>134</v>
       </c>
       <c r="G32"/>
@@ -33789,7 +34329,7 @@
         <v>158</v>
       </c>
       <c r="E33"/>
-      <c r="F33" s="351"/>
+      <c r="F33" s="362"/>
       <c r="G33"/>
       <c r="H33" s="2"/>
     </row>
@@ -33801,7 +34341,7 @@
         <v>158</v>
       </c>
       <c r="E34"/>
-      <c r="F34" s="351"/>
+      <c r="F34" s="362"/>
       <c r="G34"/>
       <c r="H34" s="2"/>
     </row>
@@ -33819,7 +34359,7 @@
         <v>144</v>
       </c>
       <c r="E36"/>
-      <c r="F36" s="351" t="s">
+      <c r="F36" s="362" t="s">
         <v>135</v>
       </c>
       <c r="G36"/>
@@ -33833,7 +34373,7 @@
         <v>144</v>
       </c>
       <c r="E37"/>
-      <c r="F37" s="351"/>
+      <c r="F37" s="362"/>
       <c r="G37"/>
       <c r="H37" s="2"/>
     </row>
@@ -33845,7 +34385,7 @@
         <v>144</v>
       </c>
       <c r="E38"/>
-      <c r="F38" s="351"/>
+      <c r="F38" s="362"/>
       <c r="G38"/>
       <c r="H38" s="2"/>
     </row>
@@ -33863,7 +34403,7 @@
         <v>144</v>
       </c>
       <c r="E40"/>
-      <c r="F40" s="351" t="s">
+      <c r="F40" s="362" t="s">
         <v>136</v>
       </c>
       <c r="G40"/>
@@ -33877,7 +34417,7 @@
         <v>144</v>
       </c>
       <c r="E41"/>
-      <c r="F41" s="351"/>
+      <c r="F41" s="362"/>
       <c r="G41"/>
       <c r="H41" s="2"/>
     </row>
@@ -33889,7 +34429,7 @@
         <v>144</v>
       </c>
       <c r="E42"/>
-      <c r="F42" s="351"/>
+      <c r="F42" s="362"/>
       <c r="G42"/>
       <c r="H42" s="2"/>
     </row>
@@ -34018,10 +34558,10 @@
       <c r="C57" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="350" t="s">
+      <c r="F57" s="361" t="s">
         <v>200</v>
       </c>
-      <c r="G57" s="348" t="s">
+      <c r="G57" s="359" t="s">
         <v>193</v>
       </c>
     </row>
@@ -34032,8 +34572,8 @@
       <c r="C58" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="350"/>
-      <c r="G58" s="349"/>
+      <c r="F58" s="361"/>
+      <c r="G58" s="360"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="214" t="s">
@@ -34043,8 +34583,8 @@
         <v>144</v>
       </c>
       <c r="D59"/>
-      <c r="F59" s="350"/>
-      <c r="G59" s="349"/>
+      <c r="F59" s="361"/>
+      <c r="G59" s="360"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="214" t="s">
@@ -34053,8 +34593,8 @@
       <c r="C60" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="350"/>
-      <c r="G60" s="349"/>
+      <c r="F60" s="361"/>
+      <c r="G60" s="360"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="214" t="s">
@@ -34158,15 +34698,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35033,15 +35573,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -35908,15 +36448,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -36783,15 +37323,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -37658,15 +38198,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -38533,15 +39073,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -39408,15 +39948,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -40283,15 +40823,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -41158,15 +41698,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -42033,15 +42573,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -42904,15 +43444,15 @@
       <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="353" t="s">
+      <c r="A3" s="364" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="355" t="s">
+      <c r="B3" s="365"/>
+      <c r="C3" s="366" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="355"/>
-      <c r="E3" s="356"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="367"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="267" t="s">
@@ -42926,13 +43466,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="256"/>
-      <c r="F4" s="357" t="s">
+      <c r="F4" s="368" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="357"/>
-      <c r="H4" s="357"/>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
+      <c r="G4" s="368"/>
+      <c r="H4" s="368"/>
+      <c r="I4" s="368"/>
+      <c r="J4" s="368"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="267" t="s">
@@ -42946,11 +43486,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="256"/>
-      <c r="F5" s="352"/>
-      <c r="G5" s="352"/>
-      <c r="H5" s="352"/>
-      <c r="I5" s="352"/>
-      <c r="J5" s="352"/>
+      <c r="F5" s="363"/>
+      <c r="G5" s="363"/>
+      <c r="H5" s="363"/>
+      <c r="I5" s="363"/>
+      <c r="J5" s="363"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="267" t="s">
@@ -42964,11 +43504,11 @@
         <v>12</v>
       </c>
       <c r="E6" s="256"/>
-      <c r="F6" s="352"/>
-      <c r="G6" s="352"/>
-      <c r="H6" s="352"/>
-      <c r="I6" s="352"/>
-      <c r="J6" s="352"/>
+      <c r="F6" s="363"/>
+      <c r="G6" s="363"/>
+      <c r="H6" s="363"/>
+      <c r="I6" s="363"/>
+      <c r="J6" s="363"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="267" t="s">
@@ -42982,11 +43522,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="256"/>
-      <c r="F7" s="352"/>
-      <c r="G7" s="352"/>
-      <c r="H7" s="352"/>
-      <c r="I7" s="352"/>
-      <c r="J7" s="352"/>
+      <c r="F7" s="363"/>
+      <c r="G7" s="363"/>
+      <c r="H7" s="363"/>
+      <c r="I7" s="363"/>
+      <c r="J7" s="363"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="267" t="s">
@@ -43069,10 +43609,10 @@
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="59"/>
-      <c r="F15" s="352"/>
-      <c r="G15" s="352"/>
-      <c r="H15" s="352"/>
-      <c r="I15" s="352"/>
+      <c r="F15" s="363"/>
+      <c r="G15" s="363"/>
+      <c r="H15" s="363"/>
+      <c r="I15" s="363"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
@@ -43084,10 +43624,10 @@
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="352"/>
-      <c r="G16" s="352"/>
-      <c r="H16" s="352"/>
-      <c r="I16" s="352"/>
+      <c r="F16" s="363"/>
+      <c r="G16" s="363"/>
+      <c r="H16" s="363"/>
+      <c r="I16" s="363"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
@@ -43099,12 +43639,12 @@
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="59"/>
-      <c r="F17" s="357" t="s">
+      <c r="F17" s="368" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="352"/>
-      <c r="H17" s="352"/>
-      <c r="I17" s="352"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="363"/>
+      <c r="I17" s="363"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
@@ -43116,10 +43656,10 @@
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="59"/>
-      <c r="F18" s="352"/>
-      <c r="G18" s="352"/>
-      <c r="H18" s="352"/>
-      <c r="I18" s="352"/>
+      <c r="F18" s="363"/>
+      <c r="G18" s="363"/>
+      <c r="H18" s="363"/>
+      <c r="I18" s="363"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
@@ -43131,10 +43671,10 @@
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="59"/>
-      <c r="F19" s="352"/>
-      <c r="G19" s="352"/>
-      <c r="H19" s="352"/>
-      <c r="I19" s="352"/>
+      <c r="F19" s="363"/>
+      <c r="G19" s="363"/>
+      <c r="H19" s="363"/>
+      <c r="I19" s="363"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
@@ -43146,10 +43686,10 @@
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="352"/>
-      <c r="G20" s="352"/>
-      <c r="H20" s="352"/>
-      <c r="I20" s="352"/>
+      <c r="F20" s="363"/>
+      <c r="G20" s="363"/>
+      <c r="H20" s="363"/>
+      <c r="I20" s="363"/>
     </row>
     <row r="21" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
@@ -43833,15 +44373,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="358" t="s">
+      <c r="B3" s="369" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="359"/>
-      <c r="D3" s="326" t="s">
+      <c r="C3" s="370"/>
+      <c r="D3" s="337" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="327"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -44266,10 +44806,10 @@
       <c r="E34" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F34" s="360" t="s">
+      <c r="F34" s="371" t="s">
         <v>295</v>
       </c>
-      <c r="G34" s="362" t="s">
+      <c r="G34" s="373" t="s">
         <v>284</v>
       </c>
       <c r="H34" s="2"/>
@@ -44283,8 +44823,8 @@
       <c r="E35" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F35" s="361"/>
-      <c r="G35" s="362"/>
+      <c r="F35" s="372"/>
+      <c r="G35" s="373"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44321,7 +44861,7 @@
       <c r="E39" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="363" t="s">
+      <c r="F39" s="374" t="s">
         <v>504</v>
       </c>
       <c r="H39" s="2"/>
@@ -44335,7 +44875,7 @@
       <c r="E40" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="364"/>
+      <c r="F40" s="375"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44347,7 +44887,7 @@
       <c r="E41" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="364"/>
+      <c r="F41" s="375"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44359,7 +44899,7 @@
       <c r="E42" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="364"/>
+      <c r="F42" s="375"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -44371,7 +44911,7 @@
       <c r="E43" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F43" s="364"/>
+      <c r="F43" s="375"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -44383,7 +44923,7 @@
       <c r="E44" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F44" s="364"/>
+      <c r="F44" s="375"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
@@ -44395,7 +44935,7 @@
       <c r="E45" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F45" s="365"/>
+      <c r="F45" s="376"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.25">
@@ -44966,15 +45506,15 @@
     </row>
     <row r="2" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="336" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="325"/>
-      <c r="F3" s="368"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="379"/>
     </row>
     <row r="4" spans="2:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="223" t="s">
@@ -45076,7 +45616,7 @@
       <c r="E13" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="369" t="s">
+      <c r="F13" s="380" t="s">
         <v>303</v>
       </c>
     </row>
@@ -45087,7 +45627,7 @@
       <c r="E14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="370"/>
+      <c r="F14" s="381"/>
     </row>
     <row r="15" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="153" t="s">
@@ -45226,7 +45766,7 @@
         <v>335</v>
       </c>
       <c r="F29" s="240"/>
-      <c r="G29" s="366" t="s">
+      <c r="G29" s="377" t="s">
         <v>329</v>
       </c>
     </row>
@@ -45241,14 +45781,14 @@
         <v>336</v>
       </c>
       <c r="F30" s="241"/>
-      <c r="G30" s="367"/>
+      <c r="G30" s="378"/>
     </row>
     <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="151" t="s">
         <v>330</v>
       </c>
       <c r="F31" s="241"/>
-      <c r="G31" s="367"/>
+      <c r="G31" s="378"/>
     </row>
     <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="151" t="s">
@@ -45263,7 +45803,7 @@
       <c r="F32" s="242" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="367"/>
+      <c r="G32" s="378"/>
     </row>
     <row r="33" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="151" t="s">
@@ -45276,21 +45816,21 @@
         <v>336</v>
       </c>
       <c r="F33" s="241"/>
-      <c r="G33" s="367"/>
+      <c r="G33" s="378"/>
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="151" t="s">
         <v>331</v>
       </c>
       <c r="F34" s="236"/>
-      <c r="G34" s="367"/>
+      <c r="G34" s="378"/>
     </row>
     <row r="35" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="151" t="s">
         <v>332</v>
       </c>
       <c r="F35" s="236"/>
-      <c r="G35" s="367"/>
+      <c r="G35" s="378"/>
     </row>
     <row r="36" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="151" t="s">
@@ -45324,7 +45864,7 @@
       <c r="D40" s="149"/>
       <c r="E40" s="233"/>
       <c r="F40" s="235"/>
-      <c r="G40" s="366" t="s">
+      <c r="G40" s="377" t="s">
         <v>348</v>
       </c>
     </row>
@@ -45336,7 +45876,7 @@
         <v>144</v>
       </c>
       <c r="F41" s="236"/>
-      <c r="G41" s="367"/>
+      <c r="G41" s="378"/>
     </row>
     <row r="42" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="151" t="s">
@@ -45346,7 +45886,7 @@
         <v>144</v>
       </c>
       <c r="F42" s="236"/>
-      <c r="G42" s="367"/>
+      <c r="G42" s="378"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="151" t="s">
@@ -45356,7 +45896,7 @@
         <v>144</v>
       </c>
       <c r="F43" s="236"/>
-      <c r="G43" s="367"/>
+      <c r="G43" s="378"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="151" t="s">
@@ -45368,7 +45908,7 @@
       <c r="F44" s="237" t="s">
         <v>338</v>
       </c>
-      <c r="G44" s="367"/>
+      <c r="G44" s="378"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="151" t="s">
@@ -45378,7 +45918,7 @@
         <v>144</v>
       </c>
       <c r="F45" s="236"/>
-      <c r="G45" s="367"/>
+      <c r="G45" s="378"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="151" t="s">
@@ -45388,7 +45928,7 @@
         <v>144</v>
       </c>
       <c r="F46" s="236"/>
-      <c r="G46" s="367"/>
+      <c r="G46" s="378"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="151" t="s">
@@ -45398,7 +45938,7 @@
         <v>144</v>
       </c>
       <c r="F47" s="236"/>
-      <c r="G47" s="367"/>
+      <c r="G47" s="378"/>
     </row>
     <row r="48" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="153" t="s">
@@ -45410,7 +45950,7 @@
       <c r="D48" s="154"/>
       <c r="E48" s="239"/>
       <c r="F48" s="238"/>
-      <c r="G48" s="367"/>
+      <c r="G48" s="378"/>
     </row>
     <row r="49" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -45517,7 +46057,7 @@
       <c r="E65" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="363" t="s">
+      <c r="F65" s="374" t="s">
         <v>504</v>
       </c>
     </row>
@@ -45530,7 +46070,7 @@
       <c r="E66" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="364"/>
+      <c r="F66" s="375"/>
     </row>
     <row r="67" spans="2:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B67" s="184" t="s">
@@ -45541,7 +46081,7 @@
       <c r="E67" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="364"/>
+      <c r="F67" s="375"/>
     </row>
     <row r="68" spans="2:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B68" s="184" t="s">
@@ -45552,7 +46092,7 @@
       <c r="E68" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="364"/>
+      <c r="F68" s="375"/>
     </row>
     <row r="69" spans="2:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B69" s="184" t="s">
@@ -45563,7 +46103,7 @@
       <c r="E69" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="F69" s="364"/>
+      <c r="F69" s="375"/>
     </row>
     <row r="70" spans="2:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B70" s="161" t="s">
@@ -45574,7 +46114,7 @@
       <c r="E70" s="186" t="s">
         <v>499</v>
       </c>
-      <c r="F70" s="364"/>
+      <c r="F70" s="375"/>
     </row>
     <row r="71" spans="2:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="163" t="s">
@@ -45585,7 +46125,7 @@
       <c r="E71" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="F71" s="365"/>
+      <c r="F71" s="376"/>
     </row>
     <row r="72" spans="2:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -45649,15 +46189,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="373" t="s">
+      <c r="B3" s="384" t="s">
         <v>397</v>
       </c>
-      <c r="C3" s="374"/>
-      <c r="D3" s="375" t="s">
+      <c r="C3" s="385"/>
+      <c r="D3" s="386" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="375"/>
-      <c r="F3" s="376"/>
+      <c r="E3" s="386"/>
+      <c r="F3" s="387"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -45784,7 +46324,7 @@
       <c r="E13" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="377" t="s">
+      <c r="F13" s="388" t="s">
         <v>303</v>
       </c>
       <c r="H13" s="2"/>
@@ -45798,7 +46338,7 @@
       <c r="E14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="377"/>
+      <c r="F14" s="388"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -45910,7 +46450,7 @@
       <c r="E24" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="F24" s="372" t="s">
+      <c r="F24" s="383" t="s">
         <v>318</v>
       </c>
       <c r="H24" s="2"/>
@@ -45924,7 +46464,7 @@
       <c r="E25" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="372"/>
+      <c r="F25" s="383"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -45944,10 +46484,10 @@
       <c r="E27" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="F27" s="372" t="s">
+      <c r="F27" s="383" t="s">
         <v>327</v>
       </c>
-      <c r="G27" s="371" t="s">
+      <c r="G27" s="382" t="s">
         <v>373</v>
       </c>
       <c r="H27" s="2"/>
@@ -45963,8 +46503,8 @@
       <c r="E28" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="371"/>
+      <c r="F28" s="383"/>
+      <c r="G28" s="382"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45973,8 +46513,8 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="F29" s="372"/>
-      <c r="G29" s="371"/>
+      <c r="F29" s="383"/>
+      <c r="G29" s="382"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -45983,8 +46523,8 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="372"/>
-      <c r="G30" s="371"/>
+      <c r="F30" s="383"/>
+      <c r="G30" s="382"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45998,8 +46538,8 @@
       <c r="E31" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="372"/>
-      <c r="G31" s="371"/>
+      <c r="F31" s="383"/>
+      <c r="G31" s="382"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -46013,7 +46553,7 @@
       <c r="E32" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="G32" s="371"/>
+      <c r="G32" s="382"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46022,7 +46562,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="G33" s="371"/>
+      <c r="G33" s="382"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -46053,7 +46593,7 @@
       <c r="E36" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F36" s="372" t="s">
+      <c r="F36" s="383" t="s">
         <v>338</v>
       </c>
       <c r="H36" s="2"/>
@@ -46067,7 +46607,7 @@
       <c r="E37" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F37" s="372"/>
+      <c r="F37" s="383"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -46081,7 +46621,7 @@
       <c r="E38" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F38" s="372"/>
+      <c r="F38" s="383"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46093,7 +46633,7 @@
       <c r="E39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F39" s="372"/>
+      <c r="F39" s="383"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -46105,7 +46645,7 @@
       <c r="E40" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F40" s="372"/>
+      <c r="F40" s="383"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46119,7 +46659,7 @@
       <c r="E41" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F41" s="372"/>
+      <c r="F41" s="383"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -46131,7 +46671,7 @@
       <c r="E42" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F42" s="372"/>
+      <c r="F42" s="383"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -46143,7 +46683,7 @@
       <c r="E43" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F43" s="372"/>
+      <c r="F43" s="383"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -46169,7 +46709,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="G46" s="371" t="s">
+      <c r="G46" s="382" t="s">
         <v>373</v>
       </c>
       <c r="H46" s="2"/>
@@ -46180,7 +46720,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="G47" s="371"/>
+      <c r="G47" s="382"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -46192,7 +46732,7 @@
       <c r="E48" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G48" s="371"/>
+      <c r="G48" s="382"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -46201,7 +46741,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="G49" s="371"/>
+      <c r="G49" s="382"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -46210,7 +46750,7 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="G50" s="371"/>
+      <c r="G50" s="382"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -46219,7 +46759,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="G51" s="371"/>
+      <c r="G51" s="382"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="101" t="s">
@@ -46227,7 +46767,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="G52" s="371"/>
+      <c r="G52" s="382"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="101" t="s">
@@ -46762,10 +47302,10 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="335" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="325"/>
+      <c r="C3" s="336"/>
       <c r="D3" s="117"/>
       <c r="E3" s="118" t="s">
         <v>92</v>
@@ -47036,7 +47576,7 @@
       <c r="E25" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F25" s="378" t="s">
+      <c r="F25" s="389" t="s">
         <v>407</v>
       </c>
       <c r="H25" s="2"/>
@@ -47052,7 +47592,7 @@
       <c r="E26" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F26" s="378"/>
+      <c r="F26" s="389"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -47066,7 +47606,7 @@
       <c r="E27" s="88" t="s">
         <v>405</v>
       </c>
-      <c r="F27" s="378"/>
+      <c r="F27" s="389"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47080,7 +47620,7 @@
       <c r="E28" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="F28" s="378"/>
+      <c r="F28" s="389"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -47094,7 +47634,7 @@
       <c r="E29" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F29" s="378"/>
+      <c r="F29" s="389"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47103,7 +47643,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="378"/>
+      <c r="F30" s="389"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -47112,7 +47652,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="F31" s="378"/>
+      <c r="F31" s="389"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47130,7 +47670,7 @@
       <c r="E33" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F33" s="378" t="s">
+      <c r="F33" s="389" t="s">
         <v>338</v>
       </c>
       <c r="H33" s="2"/>
@@ -47141,7 +47681,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="F34" s="378"/>
+      <c r="F34" s="389"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -47153,7 +47693,7 @@
       <c r="E35" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F35" s="378"/>
+      <c r="F35" s="389"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47162,7 +47702,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="378"/>
+      <c r="F36" s="389"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -47180,7 +47720,7 @@
       <c r="E38" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F38" s="378" t="s">
+      <c r="F38" s="389" t="s">
         <v>412</v>
       </c>
       <c r="H38" s="2"/>
@@ -47191,7 +47731,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="378"/>
+      <c r="F39" s="389"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -47203,7 +47743,7 @@
       <c r="E40" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F40" s="378"/>
+      <c r="F40" s="389"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -47212,7 +47752,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="F41" s="378"/>
+      <c r="F41" s="389"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -47234,7 +47774,7 @@
       <c r="F44" s="109" t="s">
         <v>419</v>
       </c>
-      <c r="G44" s="371" t="s">
+      <c r="G44" s="382" t="s">
         <v>420</v>
       </c>
       <c r="H44" s="2"/>
@@ -47243,7 +47783,7 @@
       <c r="B45" s="88"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="G45" s="379"/>
+      <c r="G45" s="390"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">

--- a/filhaye mord neyaz/Test Sheets.xlsx
+++ b/filhaye mord neyaz/Test Sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" tabRatio="884" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" tabRatio="884" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="731">
   <si>
     <t>استان</t>
   </si>
@@ -2671,6 +2671,274 @@
   </si>
   <si>
     <t>testsheet20_azmayesh_rele_ezafe_shar</t>
+  </si>
+  <si>
+    <t>post_name</t>
+  </si>
+  <si>
+    <t>nesbat_tabdil_voltazh</t>
+  </si>
+  <si>
+    <t>volt_bar_hertz</t>
+  </si>
+  <si>
+    <t>ولت بر هرتز تنظيمي مرحله بر حسب ثانیه</t>
+  </si>
+  <si>
+    <t>ولت بر هرتز تنظمي مرحله 2 بر حسب ثانیه</t>
+  </si>
+  <si>
+    <t>volt_bar_hertz2</t>
+  </si>
+  <si>
+    <t>زمان تنظیمی</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>A-N  مرحله</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">    TYPE OF FUALT </t>
+    </r>
+  </si>
+  <si>
+    <t>vs_pu1</t>
+  </si>
+  <si>
+    <t>vm1</t>
+  </si>
+  <si>
+    <t>vr1</t>
+  </si>
+  <si>
+    <t>vm2</t>
+  </si>
+  <si>
+    <t>vs_pu2</t>
+  </si>
+  <si>
+    <t>vr2</t>
+  </si>
+  <si>
+    <t>vm3</t>
+  </si>
+  <si>
+    <t>vm4</t>
+  </si>
+  <si>
+    <t>vs_pu3</t>
+  </si>
+  <si>
+    <t>vr3</t>
+  </si>
+  <si>
+    <t>vm5</t>
+  </si>
+  <si>
+    <t>realy_target4</t>
+  </si>
+  <si>
+    <t>vr4</t>
+  </si>
+  <si>
+    <t>vm6</t>
+  </si>
+  <si>
+    <t>molahezat4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>B-N  مرحله</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">    TYPE OF FUALT </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>C-N  مرحله</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">    TYPE OF FUALT </t>
+    </r>
+  </si>
+  <si>
+    <t>vr6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ولتاژ  تنظيمي براي شروع عملكرد بر </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>حسب آمپر</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ولتاژ تنظيمي براي شروع عملكرد بر </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>حسب آمپر</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جريان ريست شدن رله  (RESET)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>(ولت)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ولتاژ اندازهگيري شده با آزمايش</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> (ولت)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ولتاژ اندازهگيري شده با آزمايش </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>(ولت)</t>
+    </r>
+  </si>
+  <si>
+    <t>STAGE TIME TEST</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>t1_120</t>
+  </si>
+  <si>
+    <t>t3_121</t>
+  </si>
+  <si>
+    <t>tm2_121</t>
+  </si>
+  <si>
+    <t>t3_molahezat</t>
+  </si>
+  <si>
+    <t>vs2_pu</t>
+  </si>
+  <si>
+    <t>vm7</t>
+  </si>
+  <si>
+    <t>vm8</t>
+  </si>
+  <si>
+    <t>vs2_pu1</t>
+  </si>
+  <si>
+    <t>vm9</t>
+  </si>
+  <si>
+    <t>vm10</t>
+  </si>
+  <si>
+    <t>error10</t>
+  </si>
+  <si>
+    <t>vr5</t>
+  </si>
+  <si>
+    <t>vs2_pu2</t>
+  </si>
+  <si>
+    <t>vm11</t>
+  </si>
+  <si>
+    <t>error11</t>
+  </si>
+  <si>
+    <t>realy_target5</t>
+  </si>
+  <si>
+    <t>vm12</t>
+  </si>
+  <si>
+    <t>molahezat5</t>
+  </si>
+  <si>
+    <t>error12</t>
   </si>
 </sst>
 </file>
@@ -3460,7 +3728,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="463">
+  <cellXfs count="475">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4435,6 +4703,75 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4472,24 +4809,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4627,6 +4946,15 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4648,32 +4976,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4693,29 +5018,23 @@
     <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4738,7 +5057,7 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4747,17 +5066,8 @@
     <xf numFmtId="0" fontId="46" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4771,7 +5081,16 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4780,53 +5099,38 @@
     <xf numFmtId="0" fontId="51" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10609,15 +10913,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="391" t="s">
+      <c r="B3" s="408" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="392"/>
-      <c r="D3" s="337" t="s">
+      <c r="C3" s="409"/>
+      <c r="D3" s="360" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="337"/>
-      <c r="F3" s="338"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="361"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11071,10 +11375,10 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="F44" s="394" t="s">
+      <c r="F44" s="411" t="s">
         <v>349</v>
       </c>
-      <c r="G44" s="393" t="s">
+      <c r="G44" s="410" t="s">
         <v>433</v>
       </c>
       <c r="H44" s="2"/>
@@ -11085,8 +11389,8 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="394"/>
-      <c r="G45" s="393"/>
+      <c r="F45" s="411"/>
+      <c r="G45" s="410"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -11679,15 +11983,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="335" t="s">
+      <c r="B3" s="358" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="337" t="s">
+      <c r="C3" s="359"/>
+      <c r="D3" s="360" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="337"/>
-      <c r="F3" s="338"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="361"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -11911,7 +12215,7 @@
       <c r="E20" s="159" t="s">
         <v>437</v>
       </c>
-      <c r="F20" s="395" t="s">
+      <c r="F20" s="412" t="s">
         <v>327</v>
       </c>
       <c r="H20" s="2"/>
@@ -11925,7 +12229,7 @@
       <c r="E21" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F21" s="372"/>
+      <c r="F21" s="389"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11934,7 +12238,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="372"/>
+      <c r="F22" s="389"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11943,7 +12247,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="F23" s="372"/>
+      <c r="F23" s="389"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11955,7 +12259,7 @@
       <c r="E24" s="87" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="372"/>
+      <c r="F24" s="389"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11967,7 +12271,7 @@
       <c r="E25" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="F25" s="372"/>
+      <c r="F25" s="389"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11976,7 +12280,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="372"/>
+      <c r="F26" s="389"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12694,15 +12998,15 @@
     </row>
     <row r="2" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="335" t="s">
+      <c r="B3" s="358" t="s">
         <v>547</v>
       </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="337" t="s">
+      <c r="C3" s="359"/>
+      <c r="D3" s="360" t="s">
         <v>449</v>
       </c>
-      <c r="E3" s="337"/>
-      <c r="F3" s="338"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="361"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -12800,7 +13104,7 @@
         <v>451</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="339" t="s">
+      <c r="G11" s="362" t="s">
         <v>450</v>
       </c>
     </row>
@@ -12814,7 +13118,7 @@
         <v>453</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="340"/>
+      <c r="G12" s="363"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -12826,7 +13130,7 @@
         <v>454</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="340"/>
+      <c r="G13" s="363"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -12838,7 +13142,7 @@
         <v>457</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="340"/>
+      <c r="G14" s="363"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -12850,7 +13154,7 @@
         <v>458</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="340"/>
+      <c r="G15" s="363"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -12868,7 +13172,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="339" t="s">
+      <c r="G17" s="362" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2"/>
@@ -12883,7 +